--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BB2786-19B0-4BDE-AE58-C5DDFC27AF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BF9376-8DB8-41E5-BF7B-C3821A4520EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Week:</t>
   </si>
@@ -195,6 +194,12 @@
   </si>
   <si>
     <t>Built out first two slides and brainstormed ideas for following slides</t>
+  </si>
+  <si>
+    <t>Pushing everything to Git</t>
+  </si>
+  <si>
+    <t>Fixed lost ERD</t>
   </si>
 </sst>
 </file>
@@ -1514,10 +1519,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1575</c:v>
+                  <c:v>1635</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7125</c:v>
+                  <c:v>7065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10515,8 +10520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154930E-2F36-41CB-8896-D63BC278B832}">
   <dimension ref="C1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10790,16 +10795,32 @@
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="25"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="33">
+        <v>45945</v>
+      </c>
+      <c r="D20" s="23">
+        <v>30</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="24"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="C21" s="32">
+        <v>45945</v>
+      </c>
+      <c r="D21" s="22">
+        <v>30</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="25"/>
@@ -16702,7 +16723,7 @@
   </sheetPr>
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -16730,11 +16751,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>1575</v>
+        <v>1635</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>7125</v>
+        <v>7065</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BF9376-8DB8-41E5-BF7B-C3821A4520EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CD57B0-38E5-4894-A0F2-5C1FA5246F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Week:</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Fixed lost ERD</t>
+  </si>
+  <si>
+    <t>Edited Git README</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1522,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1635</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7065</c:v>
+                  <c:v>7050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10521,7 +10524,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10823,10 +10826,18 @@
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="25"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="C22" s="33">
+        <v>45945</v>
+      </c>
+      <c r="D22" s="23">
+        <v>15</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="24"/>
@@ -16751,11 +16762,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>1635</v>
+        <v>1650</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>7065</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CD57B0-38E5-4894-A0F2-5C1FA5246F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F5816-3E0B-479B-B5EC-37DB70D6C86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>Week:</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Edited Git README</t>
+  </si>
+  <si>
+    <t>Milestone #1 report</t>
+  </si>
+  <si>
+    <t>Fixed naming conventions of files, added warning to README due to the likelihood of the the repo going public</t>
   </si>
 </sst>
 </file>
@@ -1522,10 +1528,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1650</c:v>
+                  <c:v>1740</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7050</c:v>
+                  <c:v>6960</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10524,7 +10530,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10840,16 +10846,32 @@
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="24"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="C23" s="32">
+        <v>45946</v>
+      </c>
+      <c r="D23" s="22">
+        <v>75</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="25"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="C24" s="33">
+        <v>45946</v>
+      </c>
+      <c r="D24" s="23">
+        <v>15</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="24"/>
@@ -16762,11 +16784,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>1650</v>
+        <v>1740</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>7050</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F5816-3E0B-479B-B5EC-37DB70D6C86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8B697D-740B-442D-B989-9FC05653C6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Week:</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Fixed naming conventions of files, added warning to README due to the likelihood of the the repo going public</t>
+  </si>
+  <si>
+    <t>Standup log and MISC documentation</t>
   </si>
 </sst>
 </file>
@@ -1528,10 +1531,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1740</c:v>
+                  <c:v>1770</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6960</c:v>
+                  <c:v>6930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10125,7 +10128,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10530,7 +10533,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10874,10 +10877,18 @@
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="24"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="C25" s="32">
+        <v>45946</v>
+      </c>
+      <c r="D25" s="22">
+        <v>30</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="25"/>
@@ -16784,11 +16795,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>1740</v>
+        <v>1770</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>6960</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8B697D-740B-442D-B989-9FC05653C6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6793D9BE-F502-45ED-8817-B4486A86A18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>Week:</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Standup log and MISC documentation</t>
+  </si>
+  <si>
+    <t>Finsihing up starter storboards</t>
   </si>
 </sst>
 </file>
@@ -1531,10 +1534,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1770</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6930</c:v>
+                  <c:v>6780</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10533,7 +10536,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10772,7 +10775,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>47</v>
@@ -10881,7 +10884,7 @@
         <v>45946</v>
       </c>
       <c r="D25" s="22">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>29</v>
@@ -10891,16 +10894,32 @@
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="25"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="C26" s="33">
+        <v>45946</v>
+      </c>
+      <c r="D26" s="23">
+        <v>75</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="24"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="C27" s="32">
+        <v>45946</v>
+      </c>
+      <c r="D27" s="22">
+        <v>45</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="25"/>
@@ -16795,11 +16814,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>1770</v>
+        <v>1920</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>6930</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6793D9BE-F502-45ED-8817-B4486A86A18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E37401-327A-4922-94E1-7E61F1A005D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -10536,7 +10536,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E37401-327A-4922-94E1-7E61F1A005D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B69E9A9-1ED6-4B16-9ECB-209F2F955D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>Week:</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Finsihing up starter storboards</t>
+  </si>
+  <si>
+    <t>Finalized presentation and Milestone 1 report</t>
   </si>
 </sst>
 </file>
@@ -1534,10 +1537,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1920</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6780</c:v>
+                  <c:v>6720</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10536,7 +10539,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E29:E30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10922,10 +10925,18 @@
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="25"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
+      <c r="C28" s="33">
+        <v>45946</v>
+      </c>
+      <c r="D28" s="23">
+        <v>60</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="24"/>
@@ -16814,11 +16825,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>1920</v>
+        <v>1980</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>6780</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B69E9A9-1ED6-4B16-9ECB-209F2F955D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CFBCAC-71AC-418D-91ED-70050505B797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="43035" yWindow="3570" windowWidth="14745" windowHeight="7470" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>Week:</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>Finalized presentation and Milestone 1 report</t>
+  </si>
+  <si>
+    <t>Dev Env. Stood up</t>
+  </si>
+  <si>
+    <t>Database outline created and implemented</t>
   </si>
 </sst>
 </file>
@@ -1537,10 +1543,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>2175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6720</c:v>
+                  <c:v>6525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10539,7 +10545,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F1" activeCellId="1" sqref="F33 F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10939,16 +10945,32 @@
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="24"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="C29" s="32">
+        <v>45950</v>
+      </c>
+      <c r="D29" s="22">
+        <v>90</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="25"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="C30" s="33">
+        <v>45950</v>
+      </c>
+      <c r="D30" s="23">
+        <v>105</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="24"/>
@@ -16825,11 +16847,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>1980</v>
+        <v>2175</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>6720</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CFBCAC-71AC-418D-91ED-70050505B797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B1410-57EB-436D-BA28-6FD64D53774C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43035" yWindow="3570" windowWidth="14745" windowHeight="7470" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>Week:</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Database outline created and implemented</t>
+  </si>
+  <si>
+    <t>Added CUI types</t>
   </si>
 </sst>
 </file>
@@ -1543,10 +1546,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2175</c:v>
+                  <c:v>2265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6525</c:v>
+                  <c:v>6435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10545,7 +10548,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="F33 F1:F1048576"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10973,10 +10976,18 @@
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="24"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="C31" s="32">
+        <v>45950</v>
+      </c>
+      <c r="D31" s="22">
+        <v>90</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="25"/>
@@ -16847,11 +16858,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>2175</v>
+        <v>2265</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>6525</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B1410-57EB-436D-BA28-6FD64D53774C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A924D98E-C581-43B0-91B9-B05936496A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>Week:</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Added CUI types</t>
+  </si>
+  <si>
+    <t>File decisions made</t>
   </si>
 </sst>
 </file>
@@ -1546,10 +1549,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2265</c:v>
+                  <c:v>2325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6435</c:v>
+                  <c:v>6375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10146,20 +10149,20 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -10194,7 +10197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -10243,7 +10246,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
@@ -10266,7 +10269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -10281,7 +10284,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="36"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="45" t="s">
         <v>4</v>
@@ -10296,7 +10299,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>13</v>
       </c>
@@ -10313,7 +10316,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="36"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
@@ -10328,7 +10331,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="36"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
@@ -10343,7 +10346,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="36"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
@@ -10358,7 +10361,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="36"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>14</v>
       </c>
@@ -10375,7 +10378,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="36"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
@@ -10390,7 +10393,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="36"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
@@ -10405,7 +10408,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="36"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
@@ -10420,7 +10423,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
@@ -10435,7 +10438,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
@@ -10450,7 +10453,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>15</v>
       </c>
@@ -10467,7 +10470,7 @@
       <c r="J16" s="42"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>36</v>
       </c>
@@ -10475,7 +10478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
@@ -10483,7 +10486,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>4</v>
       </c>
@@ -10491,12 +10494,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>5</v>
       </c>
@@ -10504,7 +10507,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>6</v>
       </c>
@@ -10512,7 +10515,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>38</v>
       </c>
@@ -10548,18 +10551,18 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="114.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="114.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="26" t="s">
         <v>22</v>
       </c>
@@ -10573,7 +10576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="28">
         <v>45927</v>
       </c>
@@ -10587,7 +10590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="32">
         <v>45927</v>
       </c>
@@ -10601,7 +10604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="33">
         <v>45928</v>
       </c>
@@ -10615,7 +10618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="32">
         <v>45928</v>
       </c>
@@ -10629,7 +10632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="33">
         <v>45929</v>
       </c>
@@ -10643,7 +10646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="32">
         <v>45934</v>
       </c>
@@ -10657,7 +10660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="33">
         <v>45934</v>
       </c>
@@ -10671,7 +10674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="32">
         <v>45934</v>
       </c>
@@ -10685,7 +10688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="33">
         <v>45935</v>
       </c>
@@ -10699,7 +10702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="32">
         <v>45936</v>
       </c>
@@ -10713,7 +10716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="33">
         <v>45940</v>
       </c>
@@ -10725,7 +10728,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="32">
         <v>45941</v>
       </c>
@@ -10737,7 +10740,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="33">
         <v>45942</v>
       </c>
@@ -10751,7 +10754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="32">
         <v>45944</v>
       </c>
@@ -10765,7 +10768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" s="33">
         <v>45944</v>
       </c>
@@ -10779,7 +10782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="32">
         <v>45944</v>
       </c>
@@ -10793,7 +10796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="33">
         <v>45944</v>
       </c>
@@ -10807,7 +10810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="32">
         <v>45944</v>
       </c>
@@ -10821,7 +10824,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="33">
         <v>45945</v>
       </c>
@@ -10835,7 +10838,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="32">
         <v>45945</v>
       </c>
@@ -10849,7 +10852,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="33">
         <v>45945</v>
       </c>
@@ -10863,7 +10866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="32">
         <v>45946</v>
       </c>
@@ -10877,7 +10880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="33">
         <v>45946</v>
       </c>
@@ -10891,7 +10894,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="32">
         <v>45946</v>
       </c>
@@ -10905,7 +10908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="33">
         <v>45946</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="32">
         <v>45946</v>
       </c>
@@ -10933,7 +10936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="33">
         <v>45946</v>
       </c>
@@ -10947,7 +10950,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="32">
         <v>45950</v>
       </c>
@@ -10961,7 +10964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="33">
         <v>45950</v>
       </c>
@@ -10975,7 +10978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="32">
         <v>45950</v>
       </c>
@@ -10989,5815 +10992,5823 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="25"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="33">
+        <v>45951</v>
+      </c>
+      <c r="D32" s="23">
+        <v>60</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="24"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="25"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="24"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="25"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="24"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="25"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="24"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="25"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="24"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="25"/>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="24"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="25"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" s="24"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="25"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="24"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" s="25"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="24"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="25"/>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="24"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="25"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="24"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="25"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="24"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="25"/>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" s="24"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="25"/>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="24"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="25"/>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="24"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="25"/>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="24"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="25"/>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="24"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="25"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="24"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="25"/>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="24"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="25"/>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="24"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="25"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="24"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="25"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="24"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" s="25"/>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="24"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" s="25"/>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" s="24"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" s="25"/>
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" s="24"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" s="25"/>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" s="24"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" s="25"/>
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C85" s="24"/>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C86" s="25"/>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87" s="24"/>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" s="25"/>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C89" s="24"/>
       <c r="D89" s="22"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C90" s="25"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C91" s="24"/>
       <c r="D91" s="22"/>
       <c r="E91" s="22"/>
       <c r="F91" s="22"/>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92" s="25"/>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C93" s="24"/>
       <c r="D93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C94" s="25"/>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C95" s="24"/>
       <c r="D95" s="22"/>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C96" s="25"/>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" s="24"/>
       <c r="D97" s="22"/>
       <c r="E97" s="22"/>
       <c r="F97" s="22"/>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" s="25"/>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C99" s="24"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22"/>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C100" s="25"/>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C101" s="24"/>
       <c r="D101" s="22"/>
       <c r="E101" s="22"/>
       <c r="F101" s="22"/>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C102" s="25"/>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
       <c r="F102" s="23"/>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C103" s="24"/>
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104" s="25"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23"/>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C105" s="24"/>
       <c r="D105" s="22"/>
       <c r="E105" s="22"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C106" s="25"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C107" s="24"/>
       <c r="D107" s="22"/>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C108" s="25"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C109" s="24"/>
       <c r="D109" s="22"/>
       <c r="E109" s="22"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C110" s="25"/>
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
       <c r="F110" s="23"/>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C111" s="24"/>
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C112" s="25"/>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" s="24"/>
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
       <c r="F113" s="22"/>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114" s="25"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C115" s="24"/>
       <c r="D115" s="22"/>
       <c r="E115" s="22"/>
       <c r="F115" s="22"/>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C116" s="25"/>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C117" s="24"/>
       <c r="D117" s="22"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22"/>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C118" s="25"/>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C119" s="24"/>
       <c r="D119" s="22"/>
       <c r="E119" s="22"/>
       <c r="F119" s="22"/>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C120" s="25"/>
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C121" s="24"/>
       <c r="D121" s="22"/>
       <c r="E121" s="22"/>
       <c r="F121" s="22"/>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C122" s="25"/>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C123" s="24"/>
       <c r="D123" s="22"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22"/>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C124" s="25"/>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C125" s="24"/>
       <c r="D125" s="22"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22"/>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C126" s="25"/>
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C127" s="24"/>
       <c r="D127" s="22"/>
       <c r="E127" s="22"/>
       <c r="F127" s="22"/>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C128" s="25"/>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
       <c r="F128" s="23"/>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C129" s="24"/>
       <c r="D129" s="22"/>
       <c r="E129" s="22"/>
       <c r="F129" s="22"/>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C130" s="25"/>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C131" s="24"/>
       <c r="D131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C132" s="25"/>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C133" s="24"/>
       <c r="D133" s="22"/>
       <c r="E133" s="22"/>
       <c r="F133" s="22"/>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C134" s="25"/>
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C135" s="24"/>
       <c r="D135" s="22"/>
       <c r="E135" s="22"/>
       <c r="F135" s="22"/>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C136" s="25"/>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23"/>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C137" s="24"/>
       <c r="D137" s="22"/>
       <c r="E137" s="22"/>
       <c r="F137" s="22"/>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C138" s="25"/>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
       <c r="F138" s="23"/>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C139" s="24"/>
       <c r="D139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C140" s="25"/>
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C141" s="24"/>
       <c r="D141" s="22"/>
       <c r="E141" s="22"/>
       <c r="F141" s="22"/>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C142" s="25"/>
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
       <c r="F142" s="23"/>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C143" s="24"/>
       <c r="D143" s="22"/>
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C144" s="25"/>
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C145" s="24"/>
       <c r="D145" s="22"/>
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C146" s="25"/>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
       <c r="F146" s="23"/>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C147" s="24"/>
       <c r="D147" s="22"/>
       <c r="E147" s="22"/>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C148" s="25"/>
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
       <c r="F148" s="23"/>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C149" s="24"/>
       <c r="D149" s="22"/>
       <c r="E149" s="22"/>
       <c r="F149" s="22"/>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C150" s="25"/>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
       <c r="F150" s="23"/>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C151" s="24"/>
       <c r="D151" s="22"/>
       <c r="E151" s="22"/>
       <c r="F151" s="22"/>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C152" s="25"/>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C153" s="24"/>
       <c r="D153" s="22"/>
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C154" s="25"/>
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
       <c r="F154" s="23"/>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C155" s="24"/>
       <c r="D155" s="22"/>
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C156" s="25"/>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
       <c r="F156" s="23"/>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C157" s="24"/>
       <c r="D157" s="22"/>
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C158" s="25"/>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
       <c r="F158" s="23"/>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C159" s="24"/>
       <c r="D159" s="22"/>
       <c r="E159" s="22"/>
       <c r="F159" s="22"/>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C160" s="25"/>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
       <c r="F160" s="23"/>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C161" s="24"/>
       <c r="D161" s="22"/>
       <c r="E161" s="22"/>
       <c r="F161" s="22"/>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C162" s="25"/>
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
       <c r="F162" s="23"/>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C163" s="24"/>
       <c r="D163" s="22"/>
       <c r="E163" s="22"/>
       <c r="F163" s="22"/>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C164" s="25"/>
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
       <c r="F164" s="23"/>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C165" s="24"/>
       <c r="D165" s="22"/>
       <c r="E165" s="22"/>
       <c r="F165" s="22"/>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C166" s="25"/>
       <c r="D166" s="23"/>
       <c r="E166" s="23"/>
       <c r="F166" s="23"/>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C167" s="24"/>
       <c r="D167" s="22"/>
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C168" s="25"/>
       <c r="D168" s="23"/>
       <c r="E168" s="23"/>
       <c r="F168" s="23"/>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C169" s="24"/>
       <c r="D169" s="22"/>
       <c r="E169" s="22"/>
       <c r="F169" s="22"/>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C170" s="25"/>
       <c r="D170" s="23"/>
       <c r="E170" s="23"/>
       <c r="F170" s="23"/>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C171" s="24"/>
       <c r="D171" s="22"/>
       <c r="E171" s="22"/>
       <c r="F171" s="22"/>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C172" s="25"/>
       <c r="D172" s="23"/>
       <c r="E172" s="23"/>
       <c r="F172" s="23"/>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C173" s="24"/>
       <c r="D173" s="22"/>
       <c r="E173" s="22"/>
       <c r="F173" s="22"/>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C174" s="25"/>
       <c r="D174" s="23"/>
       <c r="E174" s="23"/>
       <c r="F174" s="23"/>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C175" s="24"/>
       <c r="D175" s="22"/>
       <c r="E175" s="22"/>
       <c r="F175" s="22"/>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C176" s="25"/>
       <c r="D176" s="23"/>
       <c r="E176" s="23"/>
       <c r="F176" s="23"/>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C177" s="24"/>
       <c r="D177" s="22"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C178" s="25"/>
       <c r="D178" s="23"/>
       <c r="E178" s="23"/>
       <c r="F178" s="23"/>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C179" s="24"/>
       <c r="D179" s="22"/>
       <c r="E179" s="22"/>
       <c r="F179" s="22"/>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C180" s="25"/>
       <c r="D180" s="23"/>
       <c r="E180" s="23"/>
       <c r="F180" s="23"/>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C181" s="24"/>
       <c r="D181" s="22"/>
       <c r="E181" s="22"/>
       <c r="F181" s="22"/>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C182" s="25"/>
       <c r="D182" s="23"/>
       <c r="E182" s="23"/>
       <c r="F182" s="23"/>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C183" s="24"/>
       <c r="D183" s="22"/>
       <c r="E183" s="22"/>
       <c r="F183" s="22"/>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C184" s="25"/>
       <c r="D184" s="23"/>
       <c r="E184" s="23"/>
       <c r="F184" s="23"/>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C185" s="24"/>
       <c r="D185" s="22"/>
       <c r="E185" s="22"/>
       <c r="F185" s="22"/>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C186" s="25"/>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
       <c r="F186" s="23"/>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C187" s="24"/>
       <c r="D187" s="22"/>
       <c r="E187" s="22"/>
       <c r="F187" s="22"/>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C188" s="25"/>
       <c r="D188" s="23"/>
       <c r="E188" s="23"/>
       <c r="F188" s="23"/>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C189" s="24"/>
       <c r="D189" s="22"/>
       <c r="E189" s="22"/>
       <c r="F189" s="22"/>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C190" s="25"/>
       <c r="D190" s="23"/>
       <c r="E190" s="23"/>
       <c r="F190" s="23"/>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C191" s="24"/>
       <c r="D191" s="22"/>
       <c r="E191" s="22"/>
       <c r="F191" s="22"/>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C192" s="25"/>
       <c r="D192" s="23"/>
       <c r="E192" s="23"/>
       <c r="F192" s="23"/>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C193" s="24"/>
       <c r="D193" s="22"/>
       <c r="E193" s="22"/>
       <c r="F193" s="22"/>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C194" s="25"/>
       <c r="D194" s="23"/>
       <c r="E194" s="23"/>
       <c r="F194" s="23"/>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C195" s="24"/>
       <c r="D195" s="22"/>
       <c r="E195" s="22"/>
       <c r="F195" s="22"/>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C196" s="25"/>
       <c r="D196" s="23"/>
       <c r="E196" s="23"/>
       <c r="F196" s="23"/>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C197" s="24"/>
       <c r="D197" s="22"/>
       <c r="E197" s="22"/>
       <c r="F197" s="22"/>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C198" s="25"/>
       <c r="D198" s="23"/>
       <c r="E198" s="23"/>
       <c r="F198" s="23"/>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C199" s="24"/>
       <c r="D199" s="22"/>
       <c r="E199" s="22"/>
       <c r="F199" s="22"/>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C200" s="25"/>
       <c r="D200" s="23"/>
       <c r="E200" s="23"/>
       <c r="F200" s="23"/>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C201" s="24"/>
       <c r="D201" s="22"/>
       <c r="E201" s="22"/>
       <c r="F201" s="22"/>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C202" s="25"/>
       <c r="D202" s="23"/>
       <c r="E202" s="23"/>
       <c r="F202" s="23"/>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C203" s="24"/>
       <c r="D203" s="22"/>
       <c r="E203" s="22"/>
       <c r="F203" s="22"/>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C204" s="25"/>
       <c r="D204" s="23"/>
       <c r="E204" s="23"/>
       <c r="F204" s="23"/>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C205" s="24"/>
       <c r="D205" s="22"/>
       <c r="E205" s="22"/>
       <c r="F205" s="22"/>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C206" s="25"/>
       <c r="D206" s="23"/>
       <c r="E206" s="23"/>
       <c r="F206" s="23"/>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C207" s="24"/>
       <c r="D207" s="22"/>
       <c r="E207" s="22"/>
       <c r="F207" s="22"/>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C208" s="25"/>
       <c r="D208" s="23"/>
       <c r="E208" s="23"/>
       <c r="F208" s="23"/>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C209" s="24"/>
       <c r="D209" s="22"/>
       <c r="E209" s="22"/>
       <c r="F209" s="22"/>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C210" s="25"/>
       <c r="D210" s="23"/>
       <c r="E210" s="23"/>
       <c r="F210" s="23"/>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C211" s="24"/>
       <c r="D211" s="22"/>
       <c r="E211" s="22"/>
       <c r="F211" s="22"/>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C212" s="25"/>
       <c r="D212" s="23"/>
       <c r="E212" s="23"/>
       <c r="F212" s="23"/>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C213" s="24"/>
       <c r="D213" s="22"/>
       <c r="E213" s="22"/>
       <c r="F213" s="22"/>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C214" s="25"/>
       <c r="D214" s="23"/>
       <c r="E214" s="23"/>
       <c r="F214" s="23"/>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C215" s="24"/>
       <c r="D215" s="22"/>
       <c r="E215" s="22"/>
       <c r="F215" s="22"/>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C216" s="25"/>
       <c r="D216" s="23"/>
       <c r="E216" s="23"/>
       <c r="F216" s="23"/>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C217" s="24"/>
       <c r="D217" s="22"/>
       <c r="E217" s="22"/>
       <c r="F217" s="22"/>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C218" s="25"/>
       <c r="D218" s="23"/>
       <c r="E218" s="23"/>
       <c r="F218" s="23"/>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C219" s="24"/>
       <c r="D219" s="22"/>
       <c r="E219" s="22"/>
       <c r="F219" s="22"/>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C220" s="25"/>
       <c r="D220" s="23"/>
       <c r="E220" s="23"/>
       <c r="F220" s="23"/>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C221" s="24"/>
       <c r="D221" s="22"/>
       <c r="E221" s="22"/>
       <c r="F221" s="22"/>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C222" s="25"/>
       <c r="D222" s="23"/>
       <c r="E222" s="23"/>
       <c r="F222" s="23"/>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C223" s="24"/>
       <c r="D223" s="22"/>
       <c r="E223" s="22"/>
       <c r="F223" s="22"/>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C224" s="25"/>
       <c r="D224" s="23"/>
       <c r="E224" s="23"/>
       <c r="F224" s="23"/>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C225" s="24"/>
       <c r="D225" s="22"/>
       <c r="E225" s="22"/>
       <c r="F225" s="22"/>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C226" s="25"/>
       <c r="D226" s="23"/>
       <c r="E226" s="23"/>
       <c r="F226" s="23"/>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C227" s="24"/>
       <c r="D227" s="22"/>
       <c r="E227" s="22"/>
       <c r="F227" s="22"/>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C228" s="25"/>
       <c r="D228" s="23"/>
       <c r="E228" s="23"/>
       <c r="F228" s="23"/>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C229" s="24"/>
       <c r="D229" s="22"/>
       <c r="E229" s="22"/>
       <c r="F229" s="22"/>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C230" s="25"/>
       <c r="D230" s="23"/>
       <c r="E230" s="23"/>
       <c r="F230" s="23"/>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C231" s="24"/>
       <c r="D231" s="22"/>
       <c r="E231" s="22"/>
       <c r="F231" s="22"/>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C232" s="25"/>
       <c r="D232" s="23"/>
       <c r="E232" s="23"/>
       <c r="F232" s="23"/>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C233" s="24"/>
       <c r="D233" s="22"/>
       <c r="E233" s="22"/>
       <c r="F233" s="22"/>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C234" s="25"/>
       <c r="D234" s="23"/>
       <c r="E234" s="23"/>
       <c r="F234" s="23"/>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C235" s="24"/>
       <c r="D235" s="22"/>
       <c r="E235" s="22"/>
       <c r="F235" s="22"/>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C236" s="25"/>
       <c r="D236" s="23"/>
       <c r="E236" s="23"/>
       <c r="F236" s="23"/>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C237" s="24"/>
       <c r="D237" s="22"/>
       <c r="E237" s="22"/>
       <c r="F237" s="22"/>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C238" s="25"/>
       <c r="D238" s="23"/>
       <c r="E238" s="23"/>
       <c r="F238" s="23"/>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C239" s="24"/>
       <c r="D239" s="22"/>
       <c r="E239" s="22"/>
       <c r="F239" s="22"/>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C240" s="25"/>
       <c r="D240" s="23"/>
       <c r="E240" s="23"/>
       <c r="F240" s="23"/>
     </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C241" s="24"/>
       <c r="D241" s="22"/>
       <c r="E241" s="22"/>
       <c r="F241" s="22"/>
     </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C242" s="25"/>
       <c r="D242" s="23"/>
       <c r="E242" s="23"/>
       <c r="F242" s="23"/>
     </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C243" s="24"/>
       <c r="D243" s="22"/>
       <c r="E243" s="22"/>
       <c r="F243" s="22"/>
     </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C244" s="25"/>
       <c r="D244" s="23"/>
       <c r="E244" s="23"/>
       <c r="F244" s="23"/>
     </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C245" s="24"/>
       <c r="D245" s="22"/>
       <c r="E245" s="22"/>
       <c r="F245" s="22"/>
     </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C246" s="25"/>
       <c r="D246" s="23"/>
       <c r="E246" s="23"/>
       <c r="F246" s="23"/>
     </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C247" s="24"/>
       <c r="D247" s="22"/>
       <c r="E247" s="22"/>
       <c r="F247" s="22"/>
     </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C248" s="25"/>
       <c r="D248" s="23"/>
       <c r="E248" s="23"/>
       <c r="F248" s="23"/>
     </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C249" s="24"/>
       <c r="D249" s="22"/>
       <c r="E249" s="22"/>
       <c r="F249" s="22"/>
     </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C250" s="25"/>
       <c r="D250" s="23"/>
       <c r="E250" s="23"/>
       <c r="F250" s="23"/>
     </row>
-    <row r="251" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C251" s="24"/>
       <c r="D251" s="22"/>
       <c r="E251" s="22"/>
       <c r="F251" s="22"/>
     </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C252" s="25"/>
       <c r="D252" s="23"/>
       <c r="E252" s="23"/>
       <c r="F252" s="23"/>
     </row>
-    <row r="253" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C253" s="24"/>
       <c r="D253" s="22"/>
       <c r="E253" s="22"/>
       <c r="F253" s="22"/>
     </row>
-    <row r="254" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C254" s="25"/>
       <c r="D254" s="23"/>
       <c r="E254" s="23"/>
       <c r="F254" s="23"/>
     </row>
-    <row r="255" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C255" s="24"/>
       <c r="D255" s="22"/>
       <c r="E255" s="22"/>
       <c r="F255" s="22"/>
     </row>
-    <row r="256" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C256" s="25"/>
       <c r="D256" s="23"/>
       <c r="E256" s="23"/>
       <c r="F256" s="23"/>
     </row>
-    <row r="257" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C257" s="24"/>
       <c r="D257" s="22"/>
       <c r="E257" s="22"/>
       <c r="F257" s="22"/>
     </row>
-    <row r="258" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C258" s="25"/>
       <c r="D258" s="23"/>
       <c r="E258" s="23"/>
       <c r="F258" s="23"/>
     </row>
-    <row r="259" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C259" s="24"/>
       <c r="D259" s="22"/>
       <c r="E259" s="22"/>
       <c r="F259" s="22"/>
     </row>
-    <row r="260" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C260" s="25"/>
       <c r="D260" s="23"/>
       <c r="E260" s="23"/>
       <c r="F260" s="23"/>
     </row>
-    <row r="261" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C261" s="24"/>
       <c r="D261" s="22"/>
       <c r="E261" s="22"/>
       <c r="F261" s="22"/>
     </row>
-    <row r="262" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C262" s="25"/>
       <c r="D262" s="23"/>
       <c r="E262" s="23"/>
       <c r="F262" s="23"/>
     </row>
-    <row r="263" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C263" s="24"/>
       <c r="D263" s="22"/>
       <c r="E263" s="22"/>
       <c r="F263" s="22"/>
     </row>
-    <row r="264" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C264" s="25"/>
       <c r="D264" s="23"/>
       <c r="E264" s="23"/>
       <c r="F264" s="23"/>
     </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C265" s="24"/>
       <c r="D265" s="22"/>
       <c r="E265" s="22"/>
       <c r="F265" s="22"/>
     </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C266" s="25"/>
       <c r="D266" s="23"/>
       <c r="E266" s="23"/>
       <c r="F266" s="23"/>
     </row>
-    <row r="267" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C267" s="24"/>
       <c r="D267" s="22"/>
       <c r="E267" s="22"/>
       <c r="F267" s="22"/>
     </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C268" s="25"/>
       <c r="D268" s="23"/>
       <c r="E268" s="23"/>
       <c r="F268" s="23"/>
     </row>
-    <row r="269" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C269" s="24"/>
       <c r="D269" s="22"/>
       <c r="E269" s="22"/>
       <c r="F269" s="22"/>
     </row>
-    <row r="270" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C270" s="25"/>
       <c r="D270" s="23"/>
       <c r="E270" s="23"/>
       <c r="F270" s="23"/>
     </row>
-    <row r="271" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C271" s="24"/>
       <c r="D271" s="22"/>
       <c r="E271" s="22"/>
       <c r="F271" s="22"/>
     </row>
-    <row r="272" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C272" s="25"/>
       <c r="D272" s="23"/>
       <c r="E272" s="23"/>
       <c r="F272" s="23"/>
     </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C273" s="24"/>
       <c r="D273" s="22"/>
       <c r="E273" s="22"/>
       <c r="F273" s="22"/>
     </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C274" s="25"/>
       <c r="D274" s="23"/>
       <c r="E274" s="23"/>
       <c r="F274" s="23"/>
     </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C275" s="24"/>
       <c r="D275" s="22"/>
       <c r="E275" s="22"/>
       <c r="F275" s="22"/>
     </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C276" s="25"/>
       <c r="D276" s="23"/>
       <c r="E276" s="23"/>
       <c r="F276" s="23"/>
     </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C277" s="24"/>
       <c r="D277" s="22"/>
       <c r="E277" s="22"/>
       <c r="F277" s="22"/>
     </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C278" s="25"/>
       <c r="D278" s="23"/>
       <c r="E278" s="23"/>
       <c r="F278" s="23"/>
     </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C279" s="24"/>
       <c r="D279" s="22"/>
       <c r="E279" s="22"/>
       <c r="F279" s="22"/>
     </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C280" s="25"/>
       <c r="D280" s="23"/>
       <c r="E280" s="23"/>
       <c r="F280" s="23"/>
     </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C281" s="24"/>
       <c r="D281" s="22"/>
       <c r="E281" s="22"/>
       <c r="F281" s="22"/>
     </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C282" s="25"/>
       <c r="D282" s="23"/>
       <c r="E282" s="23"/>
       <c r="F282" s="23"/>
     </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C283" s="24"/>
       <c r="D283" s="22"/>
       <c r="E283" s="22"/>
       <c r="F283" s="22"/>
     </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C284" s="25"/>
       <c r="D284" s="23"/>
       <c r="E284" s="23"/>
       <c r="F284" s="23"/>
     </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C285" s="24"/>
       <c r="D285" s="22"/>
       <c r="E285" s="22"/>
       <c r="F285" s="22"/>
     </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C286" s="25"/>
       <c r="D286" s="23"/>
       <c r="E286" s="23"/>
       <c r="F286" s="23"/>
     </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C287" s="24"/>
       <c r="D287" s="22"/>
       <c r="E287" s="22"/>
       <c r="F287" s="22"/>
     </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C288" s="25"/>
       <c r="D288" s="23"/>
       <c r="E288" s="23"/>
       <c r="F288" s="23"/>
     </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C289" s="24"/>
       <c r="D289" s="22"/>
       <c r="E289" s="22"/>
       <c r="F289" s="22"/>
     </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C290" s="25"/>
       <c r="D290" s="23"/>
       <c r="E290" s="23"/>
       <c r="F290" s="23"/>
     </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C291" s="24"/>
       <c r="D291" s="22"/>
       <c r="E291" s="22"/>
       <c r="F291" s="22"/>
     </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C292" s="25"/>
       <c r="D292" s="23"/>
       <c r="E292" s="23"/>
       <c r="F292" s="23"/>
     </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C293" s="24"/>
       <c r="D293" s="22"/>
       <c r="E293" s="22"/>
       <c r="F293" s="22"/>
     </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C294" s="25"/>
       <c r="D294" s="23"/>
       <c r="E294" s="23"/>
       <c r="F294" s="23"/>
     </row>
-    <row r="295" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C295" s="24"/>
       <c r="D295" s="22"/>
       <c r="E295" s="22"/>
       <c r="F295" s="22"/>
     </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C296" s="25"/>
       <c r="D296" s="23"/>
       <c r="E296" s="23"/>
       <c r="F296" s="23"/>
     </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C297" s="24"/>
       <c r="D297" s="22"/>
       <c r="E297" s="22"/>
       <c r="F297" s="22"/>
     </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C298" s="25"/>
       <c r="D298" s="23"/>
       <c r="E298" s="23"/>
       <c r="F298" s="23"/>
     </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C299" s="24"/>
       <c r="D299" s="22"/>
       <c r="E299" s="22"/>
       <c r="F299" s="22"/>
     </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C300" s="25"/>
       <c r="D300" s="23"/>
       <c r="E300" s="23"/>
       <c r="F300" s="23"/>
     </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C301" s="24"/>
       <c r="D301" s="22"/>
       <c r="E301" s="22"/>
       <c r="F301" s="22"/>
     </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C302" s="25"/>
       <c r="D302" s="23"/>
       <c r="E302" s="23"/>
       <c r="F302" s="23"/>
     </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C303" s="24"/>
       <c r="D303" s="22"/>
       <c r="E303" s="22"/>
       <c r="F303" s="22"/>
     </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C304" s="25"/>
       <c r="D304" s="23"/>
       <c r="E304" s="23"/>
       <c r="F304" s="23"/>
     </row>
-    <row r="305" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C305" s="24"/>
       <c r="D305" s="22"/>
       <c r="E305" s="22"/>
       <c r="F305" s="22"/>
     </row>
-    <row r="306" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C306" s="25"/>
       <c r="D306" s="23"/>
       <c r="E306" s="23"/>
       <c r="F306" s="23"/>
     </row>
-    <row r="307" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C307" s="24"/>
       <c r="D307" s="22"/>
       <c r="E307" s="22"/>
       <c r="F307" s="22"/>
     </row>
-    <row r="308" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C308" s="25"/>
       <c r="D308" s="23"/>
       <c r="E308" s="23"/>
       <c r="F308" s="23"/>
     </row>
-    <row r="309" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C309" s="24"/>
       <c r="D309" s="22"/>
       <c r="E309" s="22"/>
       <c r="F309" s="22"/>
     </row>
-    <row r="310" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C310" s="25"/>
       <c r="D310" s="23"/>
       <c r="E310" s="23"/>
       <c r="F310" s="23"/>
     </row>
-    <row r="311" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C311" s="24"/>
       <c r="D311" s="22"/>
       <c r="E311" s="22"/>
       <c r="F311" s="22"/>
     </row>
-    <row r="312" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C312" s="25"/>
       <c r="D312" s="23"/>
       <c r="E312" s="23"/>
       <c r="F312" s="23"/>
     </row>
-    <row r="313" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C313" s="24"/>
       <c r="D313" s="22"/>
       <c r="E313" s="22"/>
       <c r="F313" s="22"/>
     </row>
-    <row r="314" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C314" s="25"/>
       <c r="D314" s="23"/>
       <c r="E314" s="23"/>
       <c r="F314" s="23"/>
     </row>
-    <row r="315" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C315" s="24"/>
       <c r="D315" s="22"/>
       <c r="E315" s="22"/>
       <c r="F315" s="22"/>
     </row>
-    <row r="316" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C316" s="25"/>
       <c r="D316" s="23"/>
       <c r="E316" s="23"/>
       <c r="F316" s="23"/>
     </row>
-    <row r="317" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C317" s="24"/>
       <c r="D317" s="22"/>
       <c r="E317" s="22"/>
       <c r="F317" s="22"/>
     </row>
-    <row r="318" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C318" s="25"/>
       <c r="D318" s="23"/>
       <c r="E318" s="23"/>
       <c r="F318" s="23"/>
     </row>
-    <row r="319" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C319" s="24"/>
       <c r="D319" s="22"/>
       <c r="E319" s="22"/>
       <c r="F319" s="22"/>
     </row>
-    <row r="320" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C320" s="25"/>
       <c r="D320" s="23"/>
       <c r="E320" s="23"/>
       <c r="F320" s="23"/>
     </row>
-    <row r="321" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C321" s="24"/>
       <c r="D321" s="22"/>
       <c r="E321" s="22"/>
       <c r="F321" s="22"/>
     </row>
-    <row r="322" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C322" s="25"/>
       <c r="D322" s="23"/>
       <c r="E322" s="23"/>
       <c r="F322" s="23"/>
     </row>
-    <row r="323" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C323" s="24"/>
       <c r="D323" s="22"/>
       <c r="E323" s="22"/>
       <c r="F323" s="22"/>
     </row>
-    <row r="324" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C324" s="25"/>
       <c r="D324" s="23"/>
       <c r="E324" s="23"/>
       <c r="F324" s="23"/>
     </row>
-    <row r="325" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C325" s="24"/>
       <c r="D325" s="22"/>
       <c r="E325" s="22"/>
       <c r="F325" s="22"/>
     </row>
-    <row r="326" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C326" s="25"/>
       <c r="D326" s="23"/>
       <c r="E326" s="23"/>
       <c r="F326" s="23"/>
     </row>
-    <row r="327" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C327" s="24"/>
       <c r="D327" s="22"/>
       <c r="E327" s="22"/>
       <c r="F327" s="22"/>
     </row>
-    <row r="328" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C328" s="25"/>
       <c r="D328" s="23"/>
       <c r="E328" s="23"/>
       <c r="F328" s="23"/>
     </row>
-    <row r="329" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C329" s="24"/>
       <c r="D329" s="22"/>
       <c r="E329" s="22"/>
       <c r="F329" s="22"/>
     </row>
-    <row r="330" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C330" s="25"/>
       <c r="D330" s="23"/>
       <c r="E330" s="23"/>
       <c r="F330" s="23"/>
     </row>
-    <row r="331" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C331" s="24"/>
       <c r="D331" s="22"/>
       <c r="E331" s="22"/>
       <c r="F331" s="22"/>
     </row>
-    <row r="332" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C332" s="25"/>
       <c r="D332" s="23"/>
       <c r="E332" s="23"/>
       <c r="F332" s="23"/>
     </row>
-    <row r="333" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C333" s="24"/>
       <c r="D333" s="22"/>
       <c r="E333" s="22"/>
       <c r="F333" s="22"/>
     </row>
-    <row r="334" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C334" s="25"/>
       <c r="D334" s="23"/>
       <c r="E334" s="23"/>
       <c r="F334" s="23"/>
     </row>
-    <row r="335" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C335" s="24"/>
       <c r="D335" s="22"/>
       <c r="E335" s="22"/>
       <c r="F335" s="22"/>
     </row>
-    <row r="336" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C336" s="25"/>
       <c r="D336" s="23"/>
       <c r="E336" s="23"/>
       <c r="F336" s="23"/>
     </row>
-    <row r="337" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C337" s="24"/>
       <c r="D337" s="22"/>
       <c r="E337" s="22"/>
       <c r="F337" s="22"/>
     </row>
-    <row r="338" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C338" s="25"/>
       <c r="D338" s="23"/>
       <c r="E338" s="23"/>
       <c r="F338" s="23"/>
     </row>
-    <row r="339" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C339" s="24"/>
       <c r="D339" s="22"/>
       <c r="E339" s="22"/>
       <c r="F339" s="22"/>
     </row>
-    <row r="340" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C340" s="25"/>
       <c r="D340" s="23"/>
       <c r="E340" s="23"/>
       <c r="F340" s="23"/>
     </row>
-    <row r="341" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C341" s="24"/>
       <c r="D341" s="22"/>
       <c r="E341" s="22"/>
       <c r="F341" s="22"/>
     </row>
-    <row r="342" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C342" s="25"/>
       <c r="D342" s="23"/>
       <c r="E342" s="23"/>
       <c r="F342" s="23"/>
     </row>
-    <row r="343" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C343" s="24"/>
       <c r="D343" s="22"/>
       <c r="E343" s="22"/>
       <c r="F343" s="22"/>
     </row>
-    <row r="344" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C344" s="25"/>
       <c r="D344" s="23"/>
       <c r="E344" s="23"/>
       <c r="F344" s="23"/>
     </row>
-    <row r="345" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C345" s="24"/>
       <c r="D345" s="22"/>
       <c r="E345" s="22"/>
       <c r="F345" s="22"/>
     </row>
-    <row r="346" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C346" s="25"/>
       <c r="D346" s="23"/>
       <c r="E346" s="23"/>
       <c r="F346" s="23"/>
     </row>
-    <row r="347" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C347" s="24"/>
       <c r="D347" s="22"/>
       <c r="E347" s="22"/>
       <c r="F347" s="22"/>
     </row>
-    <row r="348" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C348" s="25"/>
       <c r="D348" s="23"/>
       <c r="E348" s="23"/>
       <c r="F348" s="23"/>
     </row>
-    <row r="349" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C349" s="24"/>
       <c r="D349" s="22"/>
       <c r="E349" s="22"/>
       <c r="F349" s="22"/>
     </row>
-    <row r="350" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C350" s="25"/>
       <c r="D350" s="23"/>
       <c r="E350" s="23"/>
       <c r="F350" s="23"/>
     </row>
-    <row r="351" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C351" s="24"/>
       <c r="D351" s="22"/>
       <c r="E351" s="22"/>
       <c r="F351" s="22"/>
     </row>
-    <row r="352" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C352" s="25"/>
       <c r="D352" s="23"/>
       <c r="E352" s="23"/>
       <c r="F352" s="23"/>
     </row>
-    <row r="353" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C353" s="24"/>
       <c r="D353" s="22"/>
       <c r="E353" s="22"/>
       <c r="F353" s="22"/>
     </row>
-    <row r="354" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C354" s="25"/>
       <c r="D354" s="23"/>
       <c r="E354" s="23"/>
       <c r="F354" s="23"/>
     </row>
-    <row r="355" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C355" s="24"/>
       <c r="D355" s="22"/>
       <c r="E355" s="22"/>
       <c r="F355" s="22"/>
     </row>
-    <row r="356" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C356" s="25"/>
       <c r="D356" s="23"/>
       <c r="E356" s="23"/>
       <c r="F356" s="23"/>
     </row>
-    <row r="357" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C357" s="24"/>
       <c r="D357" s="22"/>
       <c r="E357" s="22"/>
       <c r="F357" s="22"/>
     </row>
-    <row r="358" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C358" s="25"/>
       <c r="D358" s="23"/>
       <c r="E358" s="23"/>
       <c r="F358" s="23"/>
     </row>
-    <row r="359" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C359" s="24"/>
       <c r="D359" s="22"/>
       <c r="E359" s="22"/>
       <c r="F359" s="22"/>
     </row>
-    <row r="360" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C360" s="25"/>
       <c r="D360" s="23"/>
       <c r="E360" s="23"/>
       <c r="F360" s="23"/>
     </row>
-    <row r="361" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C361" s="24"/>
       <c r="D361" s="22"/>
       <c r="E361" s="22"/>
       <c r="F361" s="22"/>
     </row>
-    <row r="362" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C362" s="25"/>
       <c r="D362" s="23"/>
       <c r="E362" s="23"/>
       <c r="F362" s="23"/>
     </row>
-    <row r="363" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C363" s="24"/>
       <c r="D363" s="22"/>
       <c r="E363" s="22"/>
       <c r="F363" s="22"/>
     </row>
-    <row r="364" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C364" s="25"/>
       <c r="D364" s="23"/>
       <c r="E364" s="23"/>
       <c r="F364" s="23"/>
     </row>
-    <row r="365" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C365" s="24"/>
       <c r="D365" s="22"/>
       <c r="E365" s="22"/>
       <c r="F365" s="22"/>
     </row>
-    <row r="366" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C366" s="25"/>
       <c r="D366" s="23"/>
       <c r="E366" s="23"/>
       <c r="F366" s="23"/>
     </row>
-    <row r="367" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C367" s="24"/>
       <c r="D367" s="22"/>
       <c r="E367" s="22"/>
       <c r="F367" s="22"/>
     </row>
-    <row r="368" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C368" s="25"/>
       <c r="D368" s="23"/>
       <c r="E368" s="23"/>
       <c r="F368" s="23"/>
     </row>
-    <row r="369" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C369" s="24"/>
       <c r="D369" s="22"/>
       <c r="E369" s="22"/>
       <c r="F369" s="22"/>
     </row>
-    <row r="370" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C370" s="25"/>
       <c r="D370" s="23"/>
       <c r="E370" s="23"/>
       <c r="F370" s="23"/>
     </row>
-    <row r="371" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C371" s="24"/>
       <c r="D371" s="22"/>
       <c r="E371" s="22"/>
       <c r="F371" s="22"/>
     </row>
-    <row r="372" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C372" s="25"/>
       <c r="D372" s="23"/>
       <c r="E372" s="23"/>
       <c r="F372" s="23"/>
     </row>
-    <row r="373" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C373" s="24"/>
       <c r="D373" s="22"/>
       <c r="E373" s="22"/>
       <c r="F373" s="22"/>
     </row>
-    <row r="374" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C374" s="25"/>
       <c r="D374" s="23"/>
       <c r="E374" s="23"/>
       <c r="F374" s="23"/>
     </row>
-    <row r="375" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C375" s="24"/>
       <c r="D375" s="22"/>
       <c r="E375" s="22"/>
       <c r="F375" s="22"/>
     </row>
-    <row r="376" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C376" s="25"/>
       <c r="D376" s="23"/>
       <c r="E376" s="23"/>
       <c r="F376" s="23"/>
     </row>
-    <row r="377" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C377" s="24"/>
       <c r="D377" s="22"/>
       <c r="E377" s="22"/>
       <c r="F377" s="22"/>
     </row>
-    <row r="378" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C378" s="25"/>
       <c r="D378" s="23"/>
       <c r="E378" s="23"/>
       <c r="F378" s="23"/>
     </row>
-    <row r="379" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C379" s="24"/>
       <c r="D379" s="22"/>
       <c r="E379" s="22"/>
       <c r="F379" s="22"/>
     </row>
-    <row r="380" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C380" s="25"/>
       <c r="D380" s="23"/>
       <c r="E380" s="23"/>
       <c r="F380" s="23"/>
     </row>
-    <row r="381" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C381" s="24"/>
       <c r="D381" s="22"/>
       <c r="E381" s="22"/>
       <c r="F381" s="22"/>
     </row>
-    <row r="382" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C382" s="25"/>
       <c r="D382" s="23"/>
       <c r="E382" s="23"/>
       <c r="F382" s="23"/>
     </row>
-    <row r="383" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C383" s="24"/>
       <c r="D383" s="22"/>
       <c r="E383" s="22"/>
       <c r="F383" s="22"/>
     </row>
-    <row r="384" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C384" s="25"/>
       <c r="D384" s="23"/>
       <c r="E384" s="23"/>
       <c r="F384" s="23"/>
     </row>
-    <row r="385" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C385" s="24"/>
       <c r="D385" s="22"/>
       <c r="E385" s="22"/>
       <c r="F385" s="22"/>
     </row>
-    <row r="386" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C386" s="25"/>
       <c r="D386" s="23"/>
       <c r="E386" s="23"/>
       <c r="F386" s="23"/>
     </row>
-    <row r="387" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C387" s="24"/>
       <c r="D387" s="22"/>
       <c r="E387" s="22"/>
       <c r="F387" s="22"/>
     </row>
-    <row r="388" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C388" s="25"/>
       <c r="D388" s="23"/>
       <c r="E388" s="23"/>
       <c r="F388" s="23"/>
     </row>
-    <row r="389" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C389" s="24"/>
       <c r="D389" s="22"/>
       <c r="E389" s="22"/>
       <c r="F389" s="22"/>
     </row>
-    <row r="390" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C390" s="25"/>
       <c r="D390" s="23"/>
       <c r="E390" s="23"/>
       <c r="F390" s="23"/>
     </row>
-    <row r="391" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C391" s="24"/>
       <c r="D391" s="22"/>
       <c r="E391" s="22"/>
       <c r="F391" s="22"/>
     </row>
-    <row r="392" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C392" s="25"/>
       <c r="D392" s="23"/>
       <c r="E392" s="23"/>
       <c r="F392" s="23"/>
     </row>
-    <row r="393" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C393" s="24"/>
       <c r="D393" s="22"/>
       <c r="E393" s="22"/>
       <c r="F393" s="22"/>
     </row>
-    <row r="394" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C394" s="25"/>
       <c r="D394" s="23"/>
       <c r="E394" s="23"/>
       <c r="F394" s="23"/>
     </row>
-    <row r="395" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C395" s="24"/>
       <c r="D395" s="22"/>
       <c r="E395" s="22"/>
       <c r="F395" s="22"/>
     </row>
-    <row r="396" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C396" s="25"/>
       <c r="D396" s="23"/>
       <c r="E396" s="23"/>
       <c r="F396" s="23"/>
     </row>
-    <row r="397" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C397" s="24"/>
       <c r="D397" s="22"/>
       <c r="E397" s="22"/>
       <c r="F397" s="22"/>
     </row>
-    <row r="398" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C398" s="25"/>
       <c r="D398" s="23"/>
       <c r="E398" s="23"/>
       <c r="F398" s="23"/>
     </row>
-    <row r="399" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C399" s="24"/>
       <c r="D399" s="22"/>
       <c r="E399" s="22"/>
       <c r="F399" s="22"/>
     </row>
-    <row r="400" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C400" s="25"/>
       <c r="D400" s="23"/>
       <c r="E400" s="23"/>
       <c r="F400" s="23"/>
     </row>
-    <row r="401" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C401" s="24"/>
       <c r="D401" s="22"/>
       <c r="E401" s="22"/>
       <c r="F401" s="22"/>
     </row>
-    <row r="402" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C402" s="25"/>
       <c r="D402" s="23"/>
       <c r="E402" s="23"/>
       <c r="F402" s="23"/>
     </row>
-    <row r="403" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C403" s="24"/>
       <c r="D403" s="22"/>
       <c r="E403" s="22"/>
       <c r="F403" s="22"/>
     </row>
-    <row r="404" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C404" s="25"/>
       <c r="D404" s="23"/>
       <c r="E404" s="23"/>
       <c r="F404" s="23"/>
     </row>
-    <row r="405" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C405" s="24"/>
       <c r="D405" s="22"/>
       <c r="E405" s="22"/>
       <c r="F405" s="22"/>
     </row>
-    <row r="406" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C406" s="25"/>
       <c r="D406" s="23"/>
       <c r="E406" s="23"/>
       <c r="F406" s="23"/>
     </row>
-    <row r="407" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C407" s="24"/>
       <c r="D407" s="22"/>
       <c r="E407" s="22"/>
       <c r="F407" s="22"/>
     </row>
-    <row r="408" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C408" s="25"/>
       <c r="D408" s="23"/>
       <c r="E408" s="23"/>
       <c r="F408" s="23"/>
     </row>
-    <row r="409" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C409" s="24"/>
       <c r="D409" s="22"/>
       <c r="E409" s="22"/>
       <c r="F409" s="22"/>
     </row>
-    <row r="410" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C410" s="25"/>
       <c r="D410" s="23"/>
       <c r="E410" s="23"/>
       <c r="F410" s="23"/>
     </row>
-    <row r="411" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C411" s="24"/>
       <c r="D411" s="22"/>
       <c r="E411" s="22"/>
       <c r="F411" s="22"/>
     </row>
-    <row r="412" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C412" s="25"/>
       <c r="D412" s="23"/>
       <c r="E412" s="23"/>
       <c r="F412" s="23"/>
     </row>
-    <row r="413" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C413" s="24"/>
       <c r="D413" s="22"/>
       <c r="E413" s="22"/>
       <c r="F413" s="22"/>
     </row>
-    <row r="414" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C414" s="25"/>
       <c r="D414" s="23"/>
       <c r="E414" s="23"/>
       <c r="F414" s="23"/>
     </row>
-    <row r="415" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C415" s="24"/>
       <c r="D415" s="22"/>
       <c r="E415" s="22"/>
       <c r="F415" s="22"/>
     </row>
-    <row r="416" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C416" s="25"/>
       <c r="D416" s="23"/>
       <c r="E416" s="23"/>
       <c r="F416" s="23"/>
     </row>
-    <row r="417" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C417" s="24"/>
       <c r="D417" s="22"/>
       <c r="E417" s="22"/>
       <c r="F417" s="22"/>
     </row>
-    <row r="418" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C418" s="25"/>
       <c r="D418" s="23"/>
       <c r="E418" s="23"/>
       <c r="F418" s="23"/>
     </row>
-    <row r="419" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C419" s="24"/>
       <c r="D419" s="22"/>
       <c r="E419" s="22"/>
       <c r="F419" s="22"/>
     </row>
-    <row r="420" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C420" s="25"/>
       <c r="D420" s="23"/>
       <c r="E420" s="23"/>
       <c r="F420" s="23"/>
     </row>
-    <row r="421" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C421" s="24"/>
       <c r="D421" s="22"/>
       <c r="E421" s="22"/>
       <c r="F421" s="22"/>
     </row>
-    <row r="422" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C422" s="25"/>
       <c r="D422" s="23"/>
       <c r="E422" s="23"/>
       <c r="F422" s="23"/>
     </row>
-    <row r="423" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C423" s="24"/>
       <c r="D423" s="22"/>
       <c r="E423" s="22"/>
       <c r="F423" s="22"/>
     </row>
-    <row r="424" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C424" s="25"/>
       <c r="D424" s="23"/>
       <c r="E424" s="23"/>
       <c r="F424" s="23"/>
     </row>
-    <row r="425" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C425" s="24"/>
       <c r="D425" s="22"/>
       <c r="E425" s="22"/>
       <c r="F425" s="22"/>
     </row>
-    <row r="426" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C426" s="25"/>
       <c r="D426" s="23"/>
       <c r="E426" s="23"/>
       <c r="F426" s="23"/>
     </row>
-    <row r="427" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C427" s="24"/>
       <c r="D427" s="22"/>
       <c r="E427" s="22"/>
       <c r="F427" s="22"/>
     </row>
-    <row r="428" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C428" s="25"/>
       <c r="D428" s="23"/>
       <c r="E428" s="23"/>
       <c r="F428" s="23"/>
     </row>
-    <row r="429" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C429" s="24"/>
       <c r="D429" s="22"/>
       <c r="E429" s="22"/>
       <c r="F429" s="22"/>
     </row>
-    <row r="430" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C430" s="25"/>
       <c r="D430" s="23"/>
       <c r="E430" s="23"/>
       <c r="F430" s="23"/>
     </row>
-    <row r="431" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C431" s="24"/>
       <c r="D431" s="22"/>
       <c r="E431" s="22"/>
       <c r="F431" s="22"/>
     </row>
-    <row r="432" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C432" s="25"/>
       <c r="D432" s="23"/>
       <c r="E432" s="23"/>
       <c r="F432" s="23"/>
     </row>
-    <row r="433" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C433" s="24"/>
       <c r="D433" s="22"/>
       <c r="E433" s="22"/>
       <c r="F433" s="22"/>
     </row>
-    <row r="434" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C434" s="25"/>
       <c r="D434" s="23"/>
       <c r="E434" s="23"/>
       <c r="F434" s="23"/>
     </row>
-    <row r="435" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C435" s="24"/>
       <c r="D435" s="22"/>
       <c r="E435" s="22"/>
       <c r="F435" s="22"/>
     </row>
-    <row r="436" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C436" s="25"/>
       <c r="D436" s="23"/>
       <c r="E436" s="23"/>
       <c r="F436" s="23"/>
     </row>
-    <row r="437" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C437" s="24"/>
       <c r="D437" s="22"/>
       <c r="E437" s="22"/>
       <c r="F437" s="22"/>
     </row>
-    <row r="438" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C438" s="25"/>
       <c r="D438" s="23"/>
       <c r="E438" s="23"/>
       <c r="F438" s="23"/>
     </row>
-    <row r="439" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C439" s="24"/>
       <c r="D439" s="22"/>
       <c r="E439" s="22"/>
       <c r="F439" s="22"/>
     </row>
-    <row r="440" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C440" s="25"/>
       <c r="D440" s="23"/>
       <c r="E440" s="23"/>
       <c r="F440" s="23"/>
     </row>
-    <row r="441" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C441" s="24"/>
       <c r="D441" s="22"/>
       <c r="E441" s="22"/>
       <c r="F441" s="22"/>
     </row>
-    <row r="442" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C442" s="25"/>
       <c r="D442" s="23"/>
       <c r="E442" s="23"/>
       <c r="F442" s="23"/>
     </row>
-    <row r="443" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C443" s="24"/>
       <c r="D443" s="22"/>
       <c r="E443" s="22"/>
       <c r="F443" s="22"/>
     </row>
-    <row r="444" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C444" s="25"/>
       <c r="D444" s="23"/>
       <c r="E444" s="23"/>
       <c r="F444" s="23"/>
     </row>
-    <row r="445" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C445" s="24"/>
       <c r="D445" s="22"/>
       <c r="E445" s="22"/>
       <c r="F445" s="22"/>
     </row>
-    <row r="446" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C446" s="25"/>
       <c r="D446" s="23"/>
       <c r="E446" s="23"/>
       <c r="F446" s="23"/>
     </row>
-    <row r="447" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C447" s="24"/>
       <c r="D447" s="22"/>
       <c r="E447" s="22"/>
       <c r="F447" s="22"/>
     </row>
-    <row r="448" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C448" s="25"/>
       <c r="D448" s="23"/>
       <c r="E448" s="23"/>
       <c r="F448" s="23"/>
     </row>
-    <row r="449" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C449" s="24"/>
       <c r="D449" s="22"/>
       <c r="E449" s="22"/>
       <c r="F449" s="22"/>
     </row>
-    <row r="450" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C450" s="25"/>
       <c r="D450" s="23"/>
       <c r="E450" s="23"/>
       <c r="F450" s="23"/>
     </row>
-    <row r="451" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C451" s="24"/>
       <c r="D451" s="22"/>
       <c r="E451" s="22"/>
       <c r="F451" s="22"/>
     </row>
-    <row r="452" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C452" s="25"/>
       <c r="D452" s="23"/>
       <c r="E452" s="23"/>
       <c r="F452" s="23"/>
     </row>
-    <row r="453" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C453" s="24"/>
       <c r="D453" s="22"/>
       <c r="E453" s="22"/>
       <c r="F453" s="22"/>
     </row>
-    <row r="454" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C454" s="25"/>
       <c r="D454" s="23"/>
       <c r="E454" s="23"/>
       <c r="F454" s="23"/>
     </row>
-    <row r="455" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C455" s="24"/>
       <c r="D455" s="22"/>
       <c r="E455" s="22"/>
       <c r="F455" s="22"/>
     </row>
-    <row r="456" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C456" s="25"/>
       <c r="D456" s="23"/>
       <c r="E456" s="23"/>
       <c r="F456" s="23"/>
     </row>
-    <row r="457" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C457" s="24"/>
       <c r="D457" s="22"/>
       <c r="E457" s="22"/>
       <c r="F457" s="22"/>
     </row>
-    <row r="458" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C458" s="25"/>
       <c r="D458" s="23"/>
       <c r="E458" s="23"/>
       <c r="F458" s="23"/>
     </row>
-    <row r="459" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C459" s="24"/>
       <c r="D459" s="22"/>
       <c r="E459" s="22"/>
       <c r="F459" s="22"/>
     </row>
-    <row r="460" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C460" s="25"/>
       <c r="D460" s="23"/>
       <c r="E460" s="23"/>
       <c r="F460" s="23"/>
     </row>
-    <row r="461" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C461" s="24"/>
       <c r="D461" s="22"/>
       <c r="E461" s="22"/>
       <c r="F461" s="22"/>
     </row>
-    <row r="462" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C462" s="25"/>
       <c r="D462" s="23"/>
       <c r="E462" s="23"/>
       <c r="F462" s="23"/>
     </row>
-    <row r="463" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C463" s="24"/>
       <c r="D463" s="22"/>
       <c r="E463" s="22"/>
       <c r="F463" s="22"/>
     </row>
-    <row r="464" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C464" s="25"/>
       <c r="D464" s="23"/>
       <c r="E464" s="23"/>
       <c r="F464" s="23"/>
     </row>
-    <row r="465" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C465" s="24"/>
       <c r="D465" s="22"/>
       <c r="E465" s="22"/>
       <c r="F465" s="22"/>
     </row>
-    <row r="466" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C466" s="25"/>
       <c r="D466" s="23"/>
       <c r="E466" s="23"/>
       <c r="F466" s="23"/>
     </row>
-    <row r="467" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C467" s="24"/>
       <c r="D467" s="22"/>
       <c r="E467" s="22"/>
       <c r="F467" s="22"/>
     </row>
-    <row r="468" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C468" s="25"/>
       <c r="D468" s="23"/>
       <c r="E468" s="23"/>
       <c r="F468" s="23"/>
     </row>
-    <row r="469" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C469" s="24"/>
       <c r="D469" s="22"/>
       <c r="E469" s="22"/>
       <c r="F469" s="22"/>
     </row>
-    <row r="470" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C470" s="25"/>
       <c r="D470" s="23"/>
       <c r="E470" s="23"/>
       <c r="F470" s="23"/>
     </row>
-    <row r="471" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C471" s="24"/>
       <c r="D471" s="22"/>
       <c r="E471" s="22"/>
       <c r="F471" s="22"/>
     </row>
-    <row r="472" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C472" s="25"/>
       <c r="D472" s="23"/>
       <c r="E472" s="23"/>
       <c r="F472" s="23"/>
     </row>
-    <row r="473" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C473" s="24"/>
       <c r="D473" s="22"/>
       <c r="E473" s="22"/>
       <c r="F473" s="22"/>
     </row>
-    <row r="474" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C474" s="25"/>
       <c r="D474" s="23"/>
       <c r="E474" s="23"/>
       <c r="F474" s="23"/>
     </row>
-    <row r="475" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C475" s="24"/>
       <c r="D475" s="22"/>
       <c r="E475" s="22"/>
       <c r="F475" s="22"/>
     </row>
-    <row r="476" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C476" s="25"/>
       <c r="D476" s="23"/>
       <c r="E476" s="23"/>
       <c r="F476" s="23"/>
     </row>
-    <row r="477" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C477" s="24"/>
       <c r="D477" s="22"/>
       <c r="E477" s="22"/>
       <c r="F477" s="22"/>
     </row>
-    <row r="478" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C478" s="25"/>
       <c r="D478" s="23"/>
       <c r="E478" s="23"/>
       <c r="F478" s="23"/>
     </row>
-    <row r="479" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C479" s="24"/>
       <c r="D479" s="22"/>
       <c r="E479" s="22"/>
       <c r="F479" s="22"/>
     </row>
-    <row r="480" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C480" s="25"/>
       <c r="D480" s="23"/>
       <c r="E480" s="23"/>
       <c r="F480" s="23"/>
     </row>
-    <row r="481" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C481" s="24"/>
       <c r="D481" s="22"/>
       <c r="E481" s="22"/>
       <c r="F481" s="22"/>
     </row>
-    <row r="482" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C482" s="25"/>
       <c r="D482" s="23"/>
       <c r="E482" s="23"/>
       <c r="F482" s="23"/>
     </row>
-    <row r="483" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C483" s="24"/>
       <c r="D483" s="22"/>
       <c r="E483" s="22"/>
       <c r="F483" s="22"/>
     </row>
-    <row r="484" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C484" s="25"/>
       <c r="D484" s="23"/>
       <c r="E484" s="23"/>
       <c r="F484" s="23"/>
     </row>
-    <row r="485" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C485" s="24"/>
       <c r="D485" s="22"/>
       <c r="E485" s="22"/>
       <c r="F485" s="22"/>
     </row>
-    <row r="486" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C486" s="25"/>
       <c r="D486" s="23"/>
       <c r="E486" s="23"/>
       <c r="F486" s="23"/>
     </row>
-    <row r="487" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C487" s="24"/>
       <c r="D487" s="22"/>
       <c r="E487" s="22"/>
       <c r="F487" s="22"/>
     </row>
-    <row r="488" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C488" s="25"/>
       <c r="D488" s="23"/>
       <c r="E488" s="23"/>
       <c r="F488" s="23"/>
     </row>
-    <row r="489" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C489" s="24"/>
       <c r="D489" s="22"/>
       <c r="E489" s="22"/>
       <c r="F489" s="22"/>
     </row>
-    <row r="490" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C490" s="25"/>
       <c r="D490" s="23"/>
       <c r="E490" s="23"/>
       <c r="F490" s="23"/>
     </row>
-    <row r="491" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C491" s="24"/>
       <c r="D491" s="22"/>
       <c r="E491" s="22"/>
       <c r="F491" s="22"/>
     </row>
-    <row r="492" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C492" s="25"/>
       <c r="D492" s="23"/>
       <c r="E492" s="23"/>
       <c r="F492" s="23"/>
     </row>
-    <row r="493" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C493" s="24"/>
       <c r="D493" s="22"/>
       <c r="E493" s="22"/>
       <c r="F493" s="22"/>
     </row>
-    <row r="494" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C494" s="25"/>
       <c r="D494" s="23"/>
       <c r="E494" s="23"/>
       <c r="F494" s="23"/>
     </row>
-    <row r="495" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C495" s="24"/>
       <c r="D495" s="22"/>
       <c r="E495" s="22"/>
       <c r="F495" s="22"/>
     </row>
-    <row r="496" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C496" s="25"/>
       <c r="D496" s="23"/>
       <c r="E496" s="23"/>
       <c r="F496" s="23"/>
     </row>
-    <row r="497" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C497" s="24"/>
       <c r="D497" s="22"/>
       <c r="E497" s="22"/>
       <c r="F497" s="22"/>
     </row>
-    <row r="498" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C498" s="25"/>
       <c r="D498" s="23"/>
       <c r="E498" s="23"/>
       <c r="F498" s="23"/>
     </row>
-    <row r="499" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C499" s="24"/>
       <c r="D499" s="22"/>
       <c r="E499" s="22"/>
       <c r="F499" s="22"/>
     </row>
-    <row r="500" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C500" s="25"/>
       <c r="D500" s="23"/>
       <c r="E500" s="23"/>
       <c r="F500" s="23"/>
     </row>
-    <row r="501" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C501" s="24"/>
       <c r="D501" s="22"/>
       <c r="E501" s="22"/>
       <c r="F501" s="22"/>
     </row>
-    <row r="502" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C502" s="25"/>
       <c r="D502" s="23"/>
       <c r="E502" s="23"/>
       <c r="F502" s="23"/>
     </row>
-    <row r="503" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C503" s="24"/>
       <c r="D503" s="22"/>
       <c r="E503" s="22"/>
       <c r="F503" s="22"/>
     </row>
-    <row r="504" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C504" s="25"/>
       <c r="D504" s="23"/>
       <c r="E504" s="23"/>
       <c r="F504" s="23"/>
     </row>
-    <row r="505" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C505" s="24"/>
       <c r="D505" s="22"/>
       <c r="E505" s="22"/>
       <c r="F505" s="22"/>
     </row>
-    <row r="506" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C506" s="25"/>
       <c r="D506" s="23"/>
       <c r="E506" s="23"/>
       <c r="F506" s="23"/>
     </row>
-    <row r="507" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C507" s="24"/>
       <c r="D507" s="22"/>
       <c r="E507" s="22"/>
       <c r="F507" s="22"/>
     </row>
-    <row r="508" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C508" s="25"/>
       <c r="D508" s="23"/>
       <c r="E508" s="23"/>
       <c r="F508" s="23"/>
     </row>
-    <row r="509" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C509" s="24"/>
       <c r="D509" s="22"/>
       <c r="E509" s="22"/>
       <c r="F509" s="22"/>
     </row>
-    <row r="510" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C510" s="25"/>
       <c r="D510" s="23"/>
       <c r="E510" s="23"/>
       <c r="F510" s="23"/>
     </row>
-    <row r="511" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C511" s="24"/>
       <c r="D511" s="22"/>
       <c r="E511" s="22"/>
       <c r="F511" s="22"/>
     </row>
-    <row r="512" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C512" s="25"/>
       <c r="D512" s="23"/>
       <c r="E512" s="23"/>
       <c r="F512" s="23"/>
     </row>
-    <row r="513" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C513" s="24"/>
       <c r="D513" s="22"/>
       <c r="E513" s="22"/>
       <c r="F513" s="22"/>
     </row>
-    <row r="514" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C514" s="25"/>
       <c r="D514" s="23"/>
       <c r="E514" s="23"/>
       <c r="F514" s="23"/>
     </row>
-    <row r="515" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C515" s="24"/>
       <c r="D515" s="22"/>
       <c r="E515" s="22"/>
       <c r="F515" s="22"/>
     </row>
-    <row r="516" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C516" s="25"/>
       <c r="D516" s="23"/>
       <c r="E516" s="23"/>
       <c r="F516" s="23"/>
     </row>
-    <row r="517" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C517" s="24"/>
       <c r="D517" s="22"/>
       <c r="E517" s="22"/>
       <c r="F517" s="22"/>
     </row>
-    <row r="518" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C518" s="25"/>
       <c r="D518" s="23"/>
       <c r="E518" s="23"/>
       <c r="F518" s="23"/>
     </row>
-    <row r="519" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C519" s="24"/>
       <c r="D519" s="22"/>
       <c r="E519" s="22"/>
       <c r="F519" s="22"/>
     </row>
-    <row r="520" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C520" s="25"/>
       <c r="D520" s="23"/>
       <c r="E520" s="23"/>
       <c r="F520" s="23"/>
     </row>
-    <row r="521" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C521" s="24"/>
       <c r="D521" s="22"/>
       <c r="E521" s="22"/>
       <c r="F521" s="22"/>
     </row>
-    <row r="522" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C522" s="25"/>
       <c r="D522" s="23"/>
       <c r="E522" s="23"/>
       <c r="F522" s="23"/>
     </row>
-    <row r="523" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C523" s="24"/>
       <c r="D523" s="22"/>
       <c r="E523" s="22"/>
       <c r="F523" s="22"/>
     </row>
-    <row r="524" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C524" s="25"/>
       <c r="D524" s="23"/>
       <c r="E524" s="23"/>
       <c r="F524" s="23"/>
     </row>
-    <row r="525" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C525" s="24"/>
       <c r="D525" s="22"/>
       <c r="E525" s="22"/>
       <c r="F525" s="22"/>
     </row>
-    <row r="526" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C526" s="25"/>
       <c r="D526" s="23"/>
       <c r="E526" s="23"/>
       <c r="F526" s="23"/>
     </row>
-    <row r="527" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C527" s="24"/>
       <c r="D527" s="22"/>
       <c r="E527" s="22"/>
       <c r="F527" s="22"/>
     </row>
-    <row r="528" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C528" s="25"/>
       <c r="D528" s="23"/>
       <c r="E528" s="23"/>
       <c r="F528" s="23"/>
     </row>
-    <row r="529" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C529" s="24"/>
       <c r="D529" s="22"/>
       <c r="E529" s="22"/>
       <c r="F529" s="22"/>
     </row>
-    <row r="530" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C530" s="25"/>
       <c r="D530" s="23"/>
       <c r="E530" s="23"/>
       <c r="F530" s="23"/>
     </row>
-    <row r="531" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C531" s="24"/>
       <c r="D531" s="22"/>
       <c r="E531" s="22"/>
       <c r="F531" s="22"/>
     </row>
-    <row r="532" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C532" s="25"/>
       <c r="D532" s="23"/>
       <c r="E532" s="23"/>
       <c r="F532" s="23"/>
     </row>
-    <row r="533" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C533" s="24"/>
       <c r="D533" s="22"/>
       <c r="E533" s="22"/>
       <c r="F533" s="22"/>
     </row>
-    <row r="534" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C534" s="25"/>
       <c r="D534" s="23"/>
       <c r="E534" s="23"/>
       <c r="F534" s="23"/>
     </row>
-    <row r="535" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C535" s="24"/>
       <c r="D535" s="22"/>
       <c r="E535" s="22"/>
       <c r="F535" s="22"/>
     </row>
-    <row r="536" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C536" s="25"/>
       <c r="D536" s="23"/>
       <c r="E536" s="23"/>
       <c r="F536" s="23"/>
     </row>
-    <row r="537" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C537" s="24"/>
       <c r="D537" s="22"/>
       <c r="E537" s="22"/>
       <c r="F537" s="22"/>
     </row>
-    <row r="538" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C538" s="25"/>
       <c r="D538" s="23"/>
       <c r="E538" s="23"/>
       <c r="F538" s="23"/>
     </row>
-    <row r="539" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C539" s="24"/>
       <c r="D539" s="22"/>
       <c r="E539" s="22"/>
       <c r="F539" s="22"/>
     </row>
-    <row r="540" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C540" s="25"/>
       <c r="D540" s="23"/>
       <c r="E540" s="23"/>
       <c r="F540" s="23"/>
     </row>
-    <row r="541" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C541" s="24"/>
       <c r="D541" s="22"/>
       <c r="E541" s="22"/>
       <c r="F541" s="22"/>
     </row>
-    <row r="542" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C542" s="25"/>
       <c r="D542" s="23"/>
       <c r="E542" s="23"/>
       <c r="F542" s="23"/>
     </row>
-    <row r="543" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C543" s="24"/>
       <c r="D543" s="22"/>
       <c r="E543" s="22"/>
       <c r="F543" s="22"/>
     </row>
-    <row r="544" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C544" s="25"/>
       <c r="D544" s="23"/>
       <c r="E544" s="23"/>
       <c r="F544" s="23"/>
     </row>
-    <row r="545" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C545" s="24"/>
       <c r="D545" s="22"/>
       <c r="E545" s="22"/>
       <c r="F545" s="22"/>
     </row>
-    <row r="546" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C546" s="25"/>
       <c r="D546" s="23"/>
       <c r="E546" s="23"/>
       <c r="F546" s="23"/>
     </row>
-    <row r="547" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C547" s="24"/>
       <c r="D547" s="22"/>
       <c r="E547" s="22"/>
       <c r="F547" s="22"/>
     </row>
-    <row r="548" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C548" s="25"/>
       <c r="D548" s="23"/>
       <c r="E548" s="23"/>
       <c r="F548" s="23"/>
     </row>
-    <row r="549" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C549" s="24"/>
       <c r="D549" s="22"/>
       <c r="E549" s="22"/>
       <c r="F549" s="22"/>
     </row>
-    <row r="550" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C550" s="25"/>
       <c r="D550" s="23"/>
       <c r="E550" s="23"/>
       <c r="F550" s="23"/>
     </row>
-    <row r="551" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C551" s="24"/>
       <c r="D551" s="22"/>
       <c r="E551" s="22"/>
       <c r="F551" s="22"/>
     </row>
-    <row r="552" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C552" s="25"/>
       <c r="D552" s="23"/>
       <c r="E552" s="23"/>
       <c r="F552" s="23"/>
     </row>
-    <row r="553" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C553" s="24"/>
       <c r="D553" s="22"/>
       <c r="E553" s="22"/>
       <c r="F553" s="22"/>
     </row>
-    <row r="554" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C554" s="25"/>
       <c r="D554" s="23"/>
       <c r="E554" s="23"/>
       <c r="F554" s="23"/>
     </row>
-    <row r="555" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C555" s="24"/>
       <c r="D555" s="22"/>
       <c r="E555" s="22"/>
       <c r="F555" s="22"/>
     </row>
-    <row r="556" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C556" s="25"/>
       <c r="D556" s="23"/>
       <c r="E556" s="23"/>
       <c r="F556" s="23"/>
     </row>
-    <row r="557" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C557" s="24"/>
       <c r="D557" s="22"/>
       <c r="E557" s="22"/>
       <c r="F557" s="22"/>
     </row>
-    <row r="558" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C558" s="25"/>
       <c r="D558" s="23"/>
       <c r="E558" s="23"/>
       <c r="F558" s="23"/>
     </row>
-    <row r="559" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C559" s="24"/>
       <c r="D559" s="22"/>
       <c r="E559" s="22"/>
       <c r="F559" s="22"/>
     </row>
-    <row r="560" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C560" s="25"/>
       <c r="D560" s="23"/>
       <c r="E560" s="23"/>
       <c r="F560" s="23"/>
     </row>
-    <row r="561" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C561" s="24"/>
       <c r="D561" s="22"/>
       <c r="E561" s="22"/>
       <c r="F561" s="22"/>
     </row>
-    <row r="562" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C562" s="25"/>
       <c r="D562" s="23"/>
       <c r="E562" s="23"/>
       <c r="F562" s="23"/>
     </row>
-    <row r="563" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C563" s="24"/>
       <c r="D563" s="22"/>
       <c r="E563" s="22"/>
       <c r="F563" s="22"/>
     </row>
-    <row r="564" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C564" s="25"/>
       <c r="D564" s="23"/>
       <c r="E564" s="23"/>
       <c r="F564" s="23"/>
     </row>
-    <row r="565" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C565" s="24"/>
       <c r="D565" s="22"/>
       <c r="E565" s="22"/>
       <c r="F565" s="22"/>
     </row>
-    <row r="566" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C566" s="25"/>
       <c r="D566" s="23"/>
       <c r="E566" s="23"/>
       <c r="F566" s="23"/>
     </row>
-    <row r="567" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C567" s="24"/>
       <c r="D567" s="22"/>
       <c r="E567" s="22"/>
       <c r="F567" s="22"/>
     </row>
-    <row r="568" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C568" s="25"/>
       <c r="D568" s="23"/>
       <c r="E568" s="23"/>
       <c r="F568" s="23"/>
     </row>
-    <row r="569" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C569" s="24"/>
       <c r="D569" s="22"/>
       <c r="E569" s="22"/>
       <c r="F569" s="22"/>
     </row>
-    <row r="570" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C570" s="25"/>
       <c r="D570" s="23"/>
       <c r="E570" s="23"/>
       <c r="F570" s="23"/>
     </row>
-    <row r="571" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C571" s="24"/>
       <c r="D571" s="22"/>
       <c r="E571" s="22"/>
       <c r="F571" s="22"/>
     </row>
-    <row r="572" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C572" s="25"/>
       <c r="D572" s="23"/>
       <c r="E572" s="23"/>
       <c r="F572" s="23"/>
     </row>
-    <row r="573" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C573" s="24"/>
       <c r="D573" s="22"/>
       <c r="E573" s="22"/>
       <c r="F573" s="22"/>
     </row>
-    <row r="574" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C574" s="25"/>
       <c r="D574" s="23"/>
       <c r="E574" s="23"/>
       <c r="F574" s="23"/>
     </row>
-    <row r="575" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C575" s="24"/>
       <c r="D575" s="22"/>
       <c r="E575" s="22"/>
       <c r="F575" s="22"/>
     </row>
-    <row r="576" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C576" s="25"/>
       <c r="D576" s="23"/>
       <c r="E576" s="23"/>
       <c r="F576" s="23"/>
     </row>
-    <row r="577" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C577" s="24"/>
       <c r="D577" s="22"/>
       <c r="E577" s="22"/>
       <c r="F577" s="22"/>
     </row>
-    <row r="578" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C578" s="25"/>
       <c r="D578" s="23"/>
       <c r="E578" s="23"/>
       <c r="F578" s="23"/>
     </row>
-    <row r="579" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C579" s="24"/>
       <c r="D579" s="22"/>
       <c r="E579" s="22"/>
       <c r="F579" s="22"/>
     </row>
-    <row r="580" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C580" s="25"/>
       <c r="D580" s="23"/>
       <c r="E580" s="23"/>
       <c r="F580" s="23"/>
     </row>
-    <row r="581" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C581" s="24"/>
       <c r="D581" s="22"/>
       <c r="E581" s="22"/>
       <c r="F581" s="22"/>
     </row>
-    <row r="582" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C582" s="25"/>
       <c r="D582" s="23"/>
       <c r="E582" s="23"/>
       <c r="F582" s="23"/>
     </row>
-    <row r="583" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C583" s="24"/>
       <c r="D583" s="22"/>
       <c r="E583" s="22"/>
       <c r="F583" s="22"/>
     </row>
-    <row r="584" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C584" s="25"/>
       <c r="D584" s="23"/>
       <c r="E584" s="23"/>
       <c r="F584" s="23"/>
     </row>
-    <row r="585" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C585" s="24"/>
       <c r="D585" s="22"/>
       <c r="E585" s="22"/>
       <c r="F585" s="22"/>
     </row>
-    <row r="586" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C586" s="25"/>
       <c r="D586" s="23"/>
       <c r="E586" s="23"/>
       <c r="F586" s="23"/>
     </row>
-    <row r="587" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C587" s="24"/>
       <c r="D587" s="22"/>
       <c r="E587" s="22"/>
       <c r="F587" s="22"/>
     </row>
-    <row r="588" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C588" s="25"/>
       <c r="D588" s="23"/>
       <c r="E588" s="23"/>
       <c r="F588" s="23"/>
     </row>
-    <row r="589" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C589" s="24"/>
       <c r="D589" s="22"/>
       <c r="E589" s="22"/>
       <c r="F589" s="22"/>
     </row>
-    <row r="590" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C590" s="25"/>
       <c r="D590" s="23"/>
       <c r="E590" s="23"/>
       <c r="F590" s="23"/>
     </row>
-    <row r="591" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C591" s="24"/>
       <c r="D591" s="22"/>
       <c r="E591" s="22"/>
       <c r="F591" s="22"/>
     </row>
-    <row r="592" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C592" s="25"/>
       <c r="D592" s="23"/>
       <c r="E592" s="23"/>
       <c r="F592" s="23"/>
     </row>
-    <row r="593" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C593" s="24"/>
       <c r="D593" s="22"/>
       <c r="E593" s="22"/>
       <c r="F593" s="22"/>
     </row>
-    <row r="594" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C594" s="25"/>
       <c r="D594" s="23"/>
       <c r="E594" s="23"/>
       <c r="F594" s="23"/>
     </row>
-    <row r="595" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C595" s="24"/>
       <c r="D595" s="22"/>
       <c r="E595" s="22"/>
       <c r="F595" s="22"/>
     </row>
-    <row r="596" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C596" s="25"/>
       <c r="D596" s="23"/>
       <c r="E596" s="23"/>
       <c r="F596" s="23"/>
     </row>
-    <row r="597" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C597" s="24"/>
       <c r="D597" s="22"/>
       <c r="E597" s="22"/>
       <c r="F597" s="22"/>
     </row>
-    <row r="598" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C598" s="25"/>
       <c r="D598" s="23"/>
       <c r="E598" s="23"/>
       <c r="F598" s="23"/>
     </row>
-    <row r="599" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C599" s="24"/>
       <c r="D599" s="22"/>
       <c r="E599" s="22"/>
       <c r="F599" s="22"/>
     </row>
-    <row r="600" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C600" s="25"/>
       <c r="D600" s="23"/>
       <c r="E600" s="23"/>
       <c r="F600" s="23"/>
     </row>
-    <row r="601" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C601" s="24"/>
       <c r="D601" s="22"/>
       <c r="E601" s="22"/>
       <c r="F601" s="22"/>
     </row>
-    <row r="602" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C602" s="25"/>
       <c r="D602" s="23"/>
       <c r="E602" s="23"/>
       <c r="F602" s="23"/>
     </row>
-    <row r="603" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C603" s="24"/>
       <c r="D603" s="22"/>
       <c r="E603" s="22"/>
       <c r="F603" s="22"/>
     </row>
-    <row r="604" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C604" s="25"/>
       <c r="D604" s="23"/>
       <c r="E604" s="23"/>
       <c r="F604" s="23"/>
     </row>
-    <row r="605" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C605" s="24"/>
       <c r="D605" s="22"/>
       <c r="E605" s="22"/>
       <c r="F605" s="22"/>
     </row>
-    <row r="606" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C606" s="25"/>
       <c r="D606" s="23"/>
       <c r="E606" s="23"/>
       <c r="F606" s="23"/>
     </row>
-    <row r="607" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C607" s="24"/>
       <c r="D607" s="22"/>
       <c r="E607" s="22"/>
       <c r="F607" s="22"/>
     </row>
-    <row r="608" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C608" s="25"/>
       <c r="D608" s="23"/>
       <c r="E608" s="23"/>
       <c r="F608" s="23"/>
     </row>
-    <row r="609" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C609" s="24"/>
       <c r="D609" s="22"/>
       <c r="E609" s="22"/>
       <c r="F609" s="22"/>
     </row>
-    <row r="610" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C610" s="25"/>
       <c r="D610" s="23"/>
       <c r="E610" s="23"/>
       <c r="F610" s="23"/>
     </row>
-    <row r="611" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C611" s="24"/>
       <c r="D611" s="22"/>
       <c r="E611" s="22"/>
       <c r="F611" s="22"/>
     </row>
-    <row r="612" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C612" s="25"/>
       <c r="D612" s="23"/>
       <c r="E612" s="23"/>
       <c r="F612" s="23"/>
     </row>
-    <row r="613" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C613" s="24"/>
       <c r="D613" s="22"/>
       <c r="E613" s="22"/>
       <c r="F613" s="22"/>
     </row>
-    <row r="614" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C614" s="25"/>
       <c r="D614" s="23"/>
       <c r="E614" s="23"/>
       <c r="F614" s="23"/>
     </row>
-    <row r="615" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C615" s="24"/>
       <c r="D615" s="22"/>
       <c r="E615" s="22"/>
       <c r="F615" s="22"/>
     </row>
-    <row r="616" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C616" s="25"/>
       <c r="D616" s="23"/>
       <c r="E616" s="23"/>
       <c r="F616" s="23"/>
     </row>
-    <row r="617" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C617" s="24"/>
       <c r="D617" s="22"/>
       <c r="E617" s="22"/>
       <c r="F617" s="22"/>
     </row>
-    <row r="618" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C618" s="25"/>
       <c r="D618" s="23"/>
       <c r="E618" s="23"/>
       <c r="F618" s="23"/>
     </row>
-    <row r="619" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C619" s="24"/>
       <c r="D619" s="22"/>
       <c r="E619" s="22"/>
       <c r="F619" s="22"/>
     </row>
-    <row r="620" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C620" s="25"/>
       <c r="D620" s="23"/>
       <c r="E620" s="23"/>
       <c r="F620" s="23"/>
     </row>
-    <row r="621" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C621" s="24"/>
       <c r="D621" s="22"/>
       <c r="E621" s="22"/>
       <c r="F621" s="22"/>
     </row>
-    <row r="622" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C622" s="25"/>
       <c r="D622" s="23"/>
       <c r="E622" s="23"/>
       <c r="F622" s="23"/>
     </row>
-    <row r="623" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C623" s="24"/>
       <c r="D623" s="22"/>
       <c r="E623" s="22"/>
       <c r="F623" s="22"/>
     </row>
-    <row r="624" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C624" s="25"/>
       <c r="D624" s="23"/>
       <c r="E624" s="23"/>
       <c r="F624" s="23"/>
     </row>
-    <row r="625" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C625" s="24"/>
       <c r="D625" s="22"/>
       <c r="E625" s="22"/>
       <c r="F625" s="22"/>
     </row>
-    <row r="626" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C626" s="25"/>
       <c r="D626" s="23"/>
       <c r="E626" s="23"/>
       <c r="F626" s="23"/>
     </row>
-    <row r="627" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C627" s="24"/>
       <c r="D627" s="22"/>
       <c r="E627" s="22"/>
       <c r="F627" s="22"/>
     </row>
-    <row r="628" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C628" s="25"/>
       <c r="D628" s="23"/>
       <c r="E628" s="23"/>
       <c r="F628" s="23"/>
     </row>
-    <row r="629" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C629" s="24"/>
       <c r="D629" s="22"/>
       <c r="E629" s="22"/>
       <c r="F629" s="22"/>
     </row>
-    <row r="630" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C630" s="25"/>
       <c r="D630" s="23"/>
       <c r="E630" s="23"/>
       <c r="F630" s="23"/>
     </row>
-    <row r="631" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C631" s="24"/>
       <c r="D631" s="22"/>
       <c r="E631" s="22"/>
       <c r="F631" s="22"/>
     </row>
-    <row r="632" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C632" s="25"/>
       <c r="D632" s="23"/>
       <c r="E632" s="23"/>
       <c r="F632" s="23"/>
     </row>
-    <row r="633" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C633" s="24"/>
       <c r="D633" s="22"/>
       <c r="E633" s="22"/>
       <c r="F633" s="22"/>
     </row>
-    <row r="634" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C634" s="25"/>
       <c r="D634" s="23"/>
       <c r="E634" s="23"/>
       <c r="F634" s="23"/>
     </row>
-    <row r="635" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C635" s="24"/>
       <c r="D635" s="22"/>
       <c r="E635" s="22"/>
       <c r="F635" s="22"/>
     </row>
-    <row r="636" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C636" s="25"/>
       <c r="D636" s="23"/>
       <c r="E636" s="23"/>
       <c r="F636" s="23"/>
     </row>
-    <row r="637" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C637" s="24"/>
       <c r="D637" s="22"/>
       <c r="E637" s="22"/>
       <c r="F637" s="22"/>
     </row>
-    <row r="638" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C638" s="25"/>
       <c r="D638" s="23"/>
       <c r="E638" s="23"/>
       <c r="F638" s="23"/>
     </row>
-    <row r="639" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C639" s="24"/>
       <c r="D639" s="22"/>
       <c r="E639" s="22"/>
       <c r="F639" s="22"/>
     </row>
-    <row r="640" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C640" s="25"/>
       <c r="D640" s="23"/>
       <c r="E640" s="23"/>
       <c r="F640" s="23"/>
     </row>
-    <row r="641" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C641" s="24"/>
       <c r="D641" s="22"/>
       <c r="E641" s="22"/>
       <c r="F641" s="22"/>
     </row>
-    <row r="642" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C642" s="25"/>
       <c r="D642" s="23"/>
       <c r="E642" s="23"/>
       <c r="F642" s="23"/>
     </row>
-    <row r="643" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C643" s="24"/>
       <c r="D643" s="22"/>
       <c r="E643" s="22"/>
       <c r="F643" s="22"/>
     </row>
-    <row r="644" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C644" s="25"/>
       <c r="D644" s="23"/>
       <c r="E644" s="23"/>
       <c r="F644" s="23"/>
     </row>
-    <row r="645" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C645" s="24"/>
       <c r="D645" s="22"/>
       <c r="E645" s="22"/>
       <c r="F645" s="22"/>
     </row>
-    <row r="646" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C646" s="25"/>
       <c r="D646" s="23"/>
       <c r="E646" s="23"/>
       <c r="F646" s="23"/>
     </row>
-    <row r="647" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C647" s="24"/>
       <c r="D647" s="22"/>
       <c r="E647" s="22"/>
       <c r="F647" s="22"/>
     </row>
-    <row r="648" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C648" s="25"/>
       <c r="D648" s="23"/>
       <c r="E648" s="23"/>
       <c r="F648" s="23"/>
     </row>
-    <row r="649" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C649" s="24"/>
       <c r="D649" s="22"/>
       <c r="E649" s="22"/>
       <c r="F649" s="22"/>
     </row>
-    <row r="650" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C650" s="25"/>
       <c r="D650" s="23"/>
       <c r="E650" s="23"/>
       <c r="F650" s="23"/>
     </row>
-    <row r="651" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C651" s="24"/>
       <c r="D651" s="22"/>
       <c r="E651" s="22"/>
       <c r="F651" s="22"/>
     </row>
-    <row r="652" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C652" s="25"/>
       <c r="D652" s="23"/>
       <c r="E652" s="23"/>
       <c r="F652" s="23"/>
     </row>
-    <row r="653" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C653" s="24"/>
       <c r="D653" s="22"/>
       <c r="E653" s="22"/>
       <c r="F653" s="22"/>
     </row>
-    <row r="654" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C654" s="25"/>
       <c r="D654" s="23"/>
       <c r="E654" s="23"/>
       <c r="F654" s="23"/>
     </row>
-    <row r="655" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C655" s="24"/>
       <c r="D655" s="22"/>
       <c r="E655" s="22"/>
       <c r="F655" s="22"/>
     </row>
-    <row r="656" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C656" s="25"/>
       <c r="D656" s="23"/>
       <c r="E656" s="23"/>
       <c r="F656" s="23"/>
     </row>
-    <row r="657" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C657" s="24"/>
       <c r="D657" s="22"/>
       <c r="E657" s="22"/>
       <c r="F657" s="22"/>
     </row>
-    <row r="658" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C658" s="25"/>
       <c r="D658" s="23"/>
       <c r="E658" s="23"/>
       <c r="F658" s="23"/>
     </row>
-    <row r="659" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C659" s="24"/>
       <c r="D659" s="22"/>
       <c r="E659" s="22"/>
       <c r="F659" s="22"/>
     </row>
-    <row r="660" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C660" s="25"/>
       <c r="D660" s="23"/>
       <c r="E660" s="23"/>
       <c r="F660" s="23"/>
     </row>
-    <row r="661" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C661" s="24"/>
       <c r="D661" s="22"/>
       <c r="E661" s="22"/>
       <c r="F661" s="22"/>
     </row>
-    <row r="662" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C662" s="25"/>
       <c r="D662" s="23"/>
       <c r="E662" s="23"/>
       <c r="F662" s="23"/>
     </row>
-    <row r="663" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C663" s="24"/>
       <c r="D663" s="22"/>
       <c r="E663" s="22"/>
       <c r="F663" s="22"/>
     </row>
-    <row r="664" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C664" s="25"/>
       <c r="D664" s="23"/>
       <c r="E664" s="23"/>
       <c r="F664" s="23"/>
     </row>
-    <row r="665" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C665" s="24"/>
       <c r="D665" s="22"/>
       <c r="E665" s="22"/>
       <c r="F665" s="22"/>
     </row>
-    <row r="666" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C666" s="25"/>
       <c r="D666" s="23"/>
       <c r="E666" s="23"/>
       <c r="F666" s="23"/>
     </row>
-    <row r="667" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C667" s="24"/>
       <c r="D667" s="22"/>
       <c r="E667" s="22"/>
       <c r="F667" s="22"/>
     </row>
-    <row r="668" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C668" s="25"/>
       <c r="D668" s="23"/>
       <c r="E668" s="23"/>
       <c r="F668" s="23"/>
     </row>
-    <row r="669" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C669" s="24"/>
       <c r="D669" s="22"/>
       <c r="E669" s="22"/>
       <c r="F669" s="22"/>
     </row>
-    <row r="670" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C670" s="25"/>
       <c r="D670" s="23"/>
       <c r="E670" s="23"/>
       <c r="F670" s="23"/>
     </row>
-    <row r="671" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C671" s="24"/>
       <c r="D671" s="22"/>
       <c r="E671" s="22"/>
       <c r="F671" s="22"/>
     </row>
-    <row r="672" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C672" s="25"/>
       <c r="D672" s="23"/>
       <c r="E672" s="23"/>
       <c r="F672" s="23"/>
     </row>
-    <row r="673" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C673" s="24"/>
       <c r="D673" s="22"/>
       <c r="E673" s="22"/>
       <c r="F673" s="22"/>
     </row>
-    <row r="674" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C674" s="25"/>
       <c r="D674" s="23"/>
       <c r="E674" s="23"/>
       <c r="F674" s="23"/>
     </row>
-    <row r="675" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C675" s="24"/>
       <c r="D675" s="22"/>
       <c r="E675" s="22"/>
       <c r="F675" s="22"/>
     </row>
-    <row r="676" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C676" s="25"/>
       <c r="D676" s="23"/>
       <c r="E676" s="23"/>
       <c r="F676" s="23"/>
     </row>
-    <row r="677" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C677" s="24"/>
       <c r="D677" s="22"/>
       <c r="E677" s="22"/>
       <c r="F677" s="22"/>
     </row>
-    <row r="678" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C678" s="25"/>
       <c r="D678" s="23"/>
       <c r="E678" s="23"/>
       <c r="F678" s="23"/>
     </row>
-    <row r="679" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C679" s="24"/>
       <c r="D679" s="22"/>
       <c r="E679" s="22"/>
       <c r="F679" s="22"/>
     </row>
-    <row r="680" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C680" s="25"/>
       <c r="D680" s="23"/>
       <c r="E680" s="23"/>
       <c r="F680" s="23"/>
     </row>
-    <row r="681" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C681" s="24"/>
       <c r="D681" s="22"/>
       <c r="E681" s="22"/>
       <c r="F681" s="22"/>
     </row>
-    <row r="682" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C682" s="25"/>
       <c r="D682" s="23"/>
       <c r="E682" s="23"/>
       <c r="F682" s="23"/>
     </row>
-    <row r="683" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C683" s="24"/>
       <c r="D683" s="22"/>
       <c r="E683" s="22"/>
       <c r="F683" s="22"/>
     </row>
-    <row r="684" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C684" s="25"/>
       <c r="D684" s="23"/>
       <c r="E684" s="23"/>
       <c r="F684" s="23"/>
     </row>
-    <row r="685" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C685" s="24"/>
       <c r="D685" s="22"/>
       <c r="E685" s="22"/>
       <c r="F685" s="22"/>
     </row>
-    <row r="686" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C686" s="25"/>
       <c r="D686" s="23"/>
       <c r="E686" s="23"/>
       <c r="F686" s="23"/>
     </row>
-    <row r="687" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C687" s="24"/>
       <c r="D687" s="22"/>
       <c r="E687" s="22"/>
       <c r="F687" s="22"/>
     </row>
-    <row r="688" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C688" s="25"/>
       <c r="D688" s="23"/>
       <c r="E688" s="23"/>
       <c r="F688" s="23"/>
     </row>
-    <row r="689" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C689" s="24"/>
       <c r="D689" s="22"/>
       <c r="E689" s="22"/>
       <c r="F689" s="22"/>
     </row>
-    <row r="690" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C690" s="25"/>
       <c r="D690" s="23"/>
       <c r="E690" s="23"/>
       <c r="F690" s="23"/>
     </row>
-    <row r="691" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C691" s="24"/>
       <c r="D691" s="22"/>
       <c r="E691" s="22"/>
       <c r="F691" s="22"/>
     </row>
-    <row r="692" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C692" s="25"/>
       <c r="D692" s="23"/>
       <c r="E692" s="23"/>
       <c r="F692" s="23"/>
     </row>
-    <row r="693" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C693" s="24"/>
       <c r="D693" s="22"/>
       <c r="E693" s="22"/>
       <c r="F693" s="22"/>
     </row>
-    <row r="694" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C694" s="25"/>
       <c r="D694" s="23"/>
       <c r="E694" s="23"/>
       <c r="F694" s="23"/>
     </row>
-    <row r="695" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C695" s="24"/>
       <c r="D695" s="22"/>
       <c r="E695" s="22"/>
       <c r="F695" s="22"/>
     </row>
-    <row r="696" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C696" s="25"/>
       <c r="D696" s="23"/>
       <c r="E696" s="23"/>
       <c r="F696" s="23"/>
     </row>
-    <row r="697" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C697" s="24"/>
       <c r="D697" s="22"/>
       <c r="E697" s="22"/>
       <c r="F697" s="22"/>
     </row>
-    <row r="698" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C698" s="25"/>
       <c r="D698" s="23"/>
       <c r="E698" s="23"/>
       <c r="F698" s="23"/>
     </row>
-    <row r="699" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C699" s="24"/>
       <c r="D699" s="22"/>
       <c r="E699" s="22"/>
       <c r="F699" s="22"/>
     </row>
-    <row r="700" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C700" s="25"/>
       <c r="D700" s="23"/>
       <c r="E700" s="23"/>
       <c r="F700" s="23"/>
     </row>
-    <row r="701" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C701" s="24"/>
       <c r="D701" s="22"/>
       <c r="E701" s="22"/>
       <c r="F701" s="22"/>
     </row>
-    <row r="702" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C702" s="25"/>
       <c r="D702" s="23"/>
       <c r="E702" s="23"/>
       <c r="F702" s="23"/>
     </row>
-    <row r="703" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C703" s="24"/>
       <c r="D703" s="22"/>
       <c r="E703" s="22"/>
       <c r="F703" s="22"/>
     </row>
-    <row r="704" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C704" s="25"/>
       <c r="D704" s="23"/>
       <c r="E704" s="23"/>
       <c r="F704" s="23"/>
     </row>
-    <row r="705" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C705" s="24"/>
       <c r="D705" s="22"/>
       <c r="E705" s="22"/>
       <c r="F705" s="22"/>
     </row>
-    <row r="706" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C706" s="25"/>
       <c r="D706" s="23"/>
       <c r="E706" s="23"/>
       <c r="F706" s="23"/>
     </row>
-    <row r="707" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C707" s="24"/>
       <c r="D707" s="22"/>
       <c r="E707" s="22"/>
       <c r="F707" s="22"/>
     </row>
-    <row r="708" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C708" s="25"/>
       <c r="D708" s="23"/>
       <c r="E708" s="23"/>
       <c r="F708" s="23"/>
     </row>
-    <row r="709" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C709" s="24"/>
       <c r="D709" s="22"/>
       <c r="E709" s="22"/>
       <c r="F709" s="22"/>
     </row>
-    <row r="710" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C710" s="25"/>
       <c r="D710" s="23"/>
       <c r="E710" s="23"/>
       <c r="F710" s="23"/>
     </row>
-    <row r="711" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C711" s="24"/>
       <c r="D711" s="22"/>
       <c r="E711" s="22"/>
       <c r="F711" s="22"/>
     </row>
-    <row r="712" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C712" s="25"/>
       <c r="D712" s="23"/>
       <c r="E712" s="23"/>
       <c r="F712" s="23"/>
     </row>
-    <row r="713" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C713" s="24"/>
       <c r="D713" s="22"/>
       <c r="E713" s="22"/>
       <c r="F713" s="22"/>
     </row>
-    <row r="714" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C714" s="25"/>
       <c r="D714" s="23"/>
       <c r="E714" s="23"/>
       <c r="F714" s="23"/>
     </row>
-    <row r="715" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C715" s="24"/>
       <c r="D715" s="22"/>
       <c r="E715" s="22"/>
       <c r="F715" s="22"/>
     </row>
-    <row r="716" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C716" s="25"/>
       <c r="D716" s="23"/>
       <c r="E716" s="23"/>
       <c r="F716" s="23"/>
     </row>
-    <row r="717" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C717" s="24"/>
       <c r="D717" s="22"/>
       <c r="E717" s="22"/>
       <c r="F717" s="22"/>
     </row>
-    <row r="718" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C718" s="25"/>
       <c r="D718" s="23"/>
       <c r="E718" s="23"/>
       <c r="F718" s="23"/>
     </row>
-    <row r="719" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C719" s="24"/>
       <c r="D719" s="22"/>
       <c r="E719" s="22"/>
       <c r="F719" s="22"/>
     </row>
-    <row r="720" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C720" s="25"/>
       <c r="D720" s="23"/>
       <c r="E720" s="23"/>
       <c r="F720" s="23"/>
     </row>
-    <row r="721" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C721" s="24"/>
       <c r="D721" s="22"/>
       <c r="E721" s="22"/>
       <c r="F721" s="22"/>
     </row>
-    <row r="722" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C722" s="25"/>
       <c r="D722" s="23"/>
       <c r="E722" s="23"/>
       <c r="F722" s="23"/>
     </row>
-    <row r="723" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C723" s="24"/>
       <c r="D723" s="22"/>
       <c r="E723" s="22"/>
       <c r="F723" s="22"/>
     </row>
-    <row r="724" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C724" s="25"/>
       <c r="D724" s="23"/>
       <c r="E724" s="23"/>
       <c r="F724" s="23"/>
     </row>
-    <row r="725" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C725" s="24"/>
       <c r="D725" s="22"/>
       <c r="E725" s="22"/>
       <c r="F725" s="22"/>
     </row>
-    <row r="726" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C726" s="25"/>
       <c r="D726" s="23"/>
       <c r="E726" s="23"/>
       <c r="F726" s="23"/>
     </row>
-    <row r="727" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C727" s="24"/>
       <c r="D727" s="22"/>
       <c r="E727" s="22"/>
       <c r="F727" s="22"/>
     </row>
-    <row r="728" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C728" s="25"/>
       <c r="D728" s="23"/>
       <c r="E728" s="23"/>
       <c r="F728" s="23"/>
     </row>
-    <row r="729" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C729" s="24"/>
       <c r="D729" s="22"/>
       <c r="E729" s="22"/>
       <c r="F729" s="22"/>
     </row>
-    <row r="730" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C730" s="25"/>
       <c r="D730" s="23"/>
       <c r="E730" s="23"/>
       <c r="F730" s="23"/>
     </row>
-    <row r="731" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C731" s="24"/>
       <c r="D731" s="22"/>
       <c r="E731" s="22"/>
       <c r="F731" s="22"/>
     </row>
-    <row r="732" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C732" s="25"/>
       <c r="D732" s="23"/>
       <c r="E732" s="23"/>
       <c r="F732" s="23"/>
     </row>
-    <row r="733" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C733" s="24"/>
       <c r="D733" s="22"/>
       <c r="E733" s="22"/>
       <c r="F733" s="22"/>
     </row>
-    <row r="734" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C734" s="25"/>
       <c r="D734" s="23"/>
       <c r="E734" s="23"/>
       <c r="F734" s="23"/>
     </row>
-    <row r="735" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C735" s="24"/>
       <c r="D735" s="22"/>
       <c r="E735" s="22"/>
       <c r="F735" s="22"/>
     </row>
-    <row r="736" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C736" s="25"/>
       <c r="D736" s="23"/>
       <c r="E736" s="23"/>
       <c r="F736" s="23"/>
     </row>
-    <row r="737" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C737" s="24"/>
       <c r="D737" s="22"/>
       <c r="E737" s="22"/>
       <c r="F737" s="22"/>
     </row>
-    <row r="738" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C738" s="25"/>
       <c r="D738" s="23"/>
       <c r="E738" s="23"/>
       <c r="F738" s="23"/>
     </row>
-    <row r="739" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C739" s="24"/>
       <c r="D739" s="22"/>
       <c r="E739" s="22"/>
       <c r="F739" s="22"/>
     </row>
-    <row r="740" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C740" s="25"/>
       <c r="D740" s="23"/>
       <c r="E740" s="23"/>
       <c r="F740" s="23"/>
     </row>
-    <row r="741" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C741" s="24"/>
       <c r="D741" s="22"/>
       <c r="E741" s="22"/>
       <c r="F741" s="22"/>
     </row>
-    <row r="742" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C742" s="25"/>
       <c r="D742" s="23"/>
       <c r="E742" s="23"/>
       <c r="F742" s="23"/>
     </row>
-    <row r="743" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C743" s="24"/>
       <c r="D743" s="22"/>
       <c r="E743" s="22"/>
       <c r="F743" s="22"/>
     </row>
-    <row r="744" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C744" s="25"/>
       <c r="D744" s="23"/>
       <c r="E744" s="23"/>
       <c r="F744" s="23"/>
     </row>
-    <row r="745" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C745" s="24"/>
       <c r="D745" s="22"/>
       <c r="E745" s="22"/>
       <c r="F745" s="22"/>
     </row>
-    <row r="746" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C746" s="25"/>
       <c r="D746" s="23"/>
       <c r="E746" s="23"/>
       <c r="F746" s="23"/>
     </row>
-    <row r="747" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C747" s="24"/>
       <c r="D747" s="22"/>
       <c r="E747" s="22"/>
       <c r="F747" s="22"/>
     </row>
-    <row r="748" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C748" s="25"/>
       <c r="D748" s="23"/>
       <c r="E748" s="23"/>
       <c r="F748" s="23"/>
     </row>
-    <row r="749" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C749" s="24"/>
       <c r="D749" s="22"/>
       <c r="E749" s="22"/>
       <c r="F749" s="22"/>
     </row>
-    <row r="750" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C750" s="25"/>
       <c r="D750" s="23"/>
       <c r="E750" s="23"/>
       <c r="F750" s="23"/>
     </row>
-    <row r="751" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C751" s="24"/>
       <c r="D751" s="22"/>
       <c r="E751" s="22"/>
       <c r="F751" s="22"/>
     </row>
-    <row r="752" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C752" s="25"/>
       <c r="D752" s="23"/>
       <c r="E752" s="23"/>
       <c r="F752" s="23"/>
     </row>
-    <row r="753" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C753" s="24"/>
       <c r="D753" s="22"/>
       <c r="E753" s="22"/>
       <c r="F753" s="22"/>
     </row>
-    <row r="754" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C754" s="25"/>
       <c r="D754" s="23"/>
       <c r="E754" s="23"/>
       <c r="F754" s="23"/>
     </row>
-    <row r="755" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C755" s="24"/>
       <c r="D755" s="22"/>
       <c r="E755" s="22"/>
       <c r="F755" s="22"/>
     </row>
-    <row r="756" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C756" s="25"/>
       <c r="D756" s="23"/>
       <c r="E756" s="23"/>
       <c r="F756" s="23"/>
     </row>
-    <row r="757" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C757" s="24"/>
       <c r="D757" s="22"/>
       <c r="E757" s="22"/>
       <c r="F757" s="22"/>
     </row>
-    <row r="758" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C758" s="25"/>
       <c r="D758" s="23"/>
       <c r="E758" s="23"/>
       <c r="F758" s="23"/>
     </row>
-    <row r="759" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C759" s="24"/>
       <c r="D759" s="22"/>
       <c r="E759" s="22"/>
       <c r="F759" s="22"/>
     </row>
-    <row r="760" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C760" s="25"/>
       <c r="D760" s="23"/>
       <c r="E760" s="23"/>
       <c r="F760" s="23"/>
     </row>
-    <row r="761" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C761" s="24"/>
       <c r="D761" s="22"/>
       <c r="E761" s="22"/>
       <c r="F761" s="22"/>
     </row>
-    <row r="762" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C762" s="25"/>
       <c r="D762" s="23"/>
       <c r="E762" s="23"/>
       <c r="F762" s="23"/>
     </row>
-    <row r="763" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C763" s="24"/>
       <c r="D763" s="22"/>
       <c r="E763" s="22"/>
       <c r="F763" s="22"/>
     </row>
-    <row r="764" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C764" s="25"/>
       <c r="D764" s="23"/>
       <c r="E764" s="23"/>
       <c r="F764" s="23"/>
     </row>
-    <row r="765" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C765" s="24"/>
       <c r="D765" s="22"/>
       <c r="E765" s="22"/>
       <c r="F765" s="22"/>
     </row>
-    <row r="766" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C766" s="25"/>
       <c r="D766" s="23"/>
       <c r="E766" s="23"/>
       <c r="F766" s="23"/>
     </row>
-    <row r="767" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="767" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C767" s="24"/>
       <c r="D767" s="22"/>
       <c r="E767" s="22"/>
       <c r="F767" s="22"/>
     </row>
-    <row r="768" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="768" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C768" s="25"/>
       <c r="D768" s="23"/>
       <c r="E768" s="23"/>
       <c r="F768" s="23"/>
     </row>
-    <row r="769" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C769" s="24"/>
       <c r="D769" s="22"/>
       <c r="E769" s="22"/>
       <c r="F769" s="22"/>
     </row>
-    <row r="770" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C770" s="25"/>
       <c r="D770" s="23"/>
       <c r="E770" s="23"/>
       <c r="F770" s="23"/>
     </row>
-    <row r="771" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C771" s="24"/>
       <c r="D771" s="22"/>
       <c r="E771" s="22"/>
       <c r="F771" s="22"/>
     </row>
-    <row r="772" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C772" s="25"/>
       <c r="D772" s="23"/>
       <c r="E772" s="23"/>
       <c r="F772" s="23"/>
     </row>
-    <row r="773" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C773" s="24"/>
       <c r="D773" s="22"/>
       <c r="E773" s="22"/>
       <c r="F773" s="22"/>
     </row>
-    <row r="774" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="774" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C774" s="25"/>
       <c r="D774" s="23"/>
       <c r="E774" s="23"/>
       <c r="F774" s="23"/>
     </row>
-    <row r="775" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="775" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C775" s="24"/>
       <c r="D775" s="22"/>
       <c r="E775" s="22"/>
       <c r="F775" s="22"/>
     </row>
-    <row r="776" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="776" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C776" s="25"/>
       <c r="D776" s="23"/>
       <c r="E776" s="23"/>
       <c r="F776" s="23"/>
     </row>
-    <row r="777" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="777" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C777" s="24"/>
       <c r="D777" s="22"/>
       <c r="E777" s="22"/>
       <c r="F777" s="22"/>
     </row>
-    <row r="778" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="778" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C778" s="25"/>
       <c r="D778" s="23"/>
       <c r="E778" s="23"/>
       <c r="F778" s="23"/>
     </row>
-    <row r="779" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C779" s="24"/>
       <c r="D779" s="22"/>
       <c r="E779" s="22"/>
       <c r="F779" s="22"/>
     </row>
-    <row r="780" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="780" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C780" s="25"/>
       <c r="D780" s="23"/>
       <c r="E780" s="23"/>
       <c r="F780" s="23"/>
     </row>
-    <row r="781" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="781" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C781" s="24"/>
       <c r="D781" s="22"/>
       <c r="E781" s="22"/>
       <c r="F781" s="22"/>
     </row>
-    <row r="782" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="782" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C782" s="25"/>
       <c r="D782" s="23"/>
       <c r="E782" s="23"/>
       <c r="F782" s="23"/>
     </row>
-    <row r="783" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="783" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C783" s="24"/>
       <c r="D783" s="22"/>
       <c r="E783" s="22"/>
       <c r="F783" s="22"/>
     </row>
-    <row r="784" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="784" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C784" s="25"/>
       <c r="D784" s="23"/>
       <c r="E784" s="23"/>
       <c r="F784" s="23"/>
     </row>
-    <row r="785" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="785" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C785" s="24"/>
       <c r="D785" s="22"/>
       <c r="E785" s="22"/>
       <c r="F785" s="22"/>
     </row>
-    <row r="786" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="786" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C786" s="25"/>
       <c r="D786" s="23"/>
       <c r="E786" s="23"/>
       <c r="F786" s="23"/>
     </row>
-    <row r="787" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C787" s="24"/>
       <c r="D787" s="22"/>
       <c r="E787" s="22"/>
       <c r="F787" s="22"/>
     </row>
-    <row r="788" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="788" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C788" s="25"/>
       <c r="D788" s="23"/>
       <c r="E788" s="23"/>
       <c r="F788" s="23"/>
     </row>
-    <row r="789" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="789" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C789" s="24"/>
       <c r="D789" s="22"/>
       <c r="E789" s="22"/>
       <c r="F789" s="22"/>
     </row>
-    <row r="790" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C790" s="25"/>
       <c r="D790" s="23"/>
       <c r="E790" s="23"/>
       <c r="F790" s="23"/>
     </row>
-    <row r="791" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C791" s="24"/>
       <c r="D791" s="22"/>
       <c r="E791" s="22"/>
       <c r="F791" s="22"/>
     </row>
-    <row r="792" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C792" s="25"/>
       <c r="D792" s="23"/>
       <c r="E792" s="23"/>
       <c r="F792" s="23"/>
     </row>
-    <row r="793" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="793" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C793" s="24"/>
       <c r="D793" s="22"/>
       <c r="E793" s="22"/>
       <c r="F793" s="22"/>
     </row>
-    <row r="794" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="794" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C794" s="25"/>
       <c r="D794" s="23"/>
       <c r="E794" s="23"/>
       <c r="F794" s="23"/>
     </row>
-    <row r="795" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="795" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C795" s="24"/>
       <c r="D795" s="22"/>
       <c r="E795" s="22"/>
       <c r="F795" s="22"/>
     </row>
-    <row r="796" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="796" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C796" s="25"/>
       <c r="D796" s="23"/>
       <c r="E796" s="23"/>
       <c r="F796" s="23"/>
     </row>
-    <row r="797" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C797" s="24"/>
       <c r="D797" s="22"/>
       <c r="E797" s="22"/>
       <c r="F797" s="22"/>
     </row>
-    <row r="798" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="798" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C798" s="25"/>
       <c r="D798" s="23"/>
       <c r="E798" s="23"/>
       <c r="F798" s="23"/>
     </row>
-    <row r="799" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C799" s="24"/>
       <c r="D799" s="22"/>
       <c r="E799" s="22"/>
       <c r="F799" s="22"/>
     </row>
-    <row r="800" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C800" s="25"/>
       <c r="D800" s="23"/>
       <c r="E800" s="23"/>
       <c r="F800" s="23"/>
     </row>
-    <row r="801" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C801" s="24"/>
       <c r="D801" s="22"/>
       <c r="E801" s="22"/>
       <c r="F801" s="22"/>
     </row>
-    <row r="802" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C802" s="25"/>
       <c r="D802" s="23"/>
       <c r="E802" s="23"/>
       <c r="F802" s="23"/>
     </row>
-    <row r="803" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="803" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C803" s="24"/>
       <c r="D803" s="22"/>
       <c r="E803" s="22"/>
       <c r="F803" s="22"/>
     </row>
-    <row r="804" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="804" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C804" s="25"/>
       <c r="D804" s="23"/>
       <c r="E804" s="23"/>
       <c r="F804" s="23"/>
     </row>
-    <row r="805" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="805" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C805" s="24"/>
       <c r="D805" s="22"/>
       <c r="E805" s="22"/>
       <c r="F805" s="22"/>
     </row>
-    <row r="806" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="806" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C806" s="25"/>
       <c r="D806" s="23"/>
       <c r="E806" s="23"/>
       <c r="F806" s="23"/>
     </row>
-    <row r="807" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="807" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C807" s="24"/>
       <c r="D807" s="22"/>
       <c r="E807" s="22"/>
       <c r="F807" s="22"/>
     </row>
-    <row r="808" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="808" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C808" s="25"/>
       <c r="D808" s="23"/>
       <c r="E808" s="23"/>
       <c r="F808" s="23"/>
     </row>
-    <row r="809" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="809" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C809" s="24"/>
       <c r="D809" s="22"/>
       <c r="E809" s="22"/>
       <c r="F809" s="22"/>
     </row>
-    <row r="810" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="810" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C810" s="25"/>
       <c r="D810" s="23"/>
       <c r="E810" s="23"/>
       <c r="F810" s="23"/>
     </row>
-    <row r="811" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="811" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C811" s="24"/>
       <c r="D811" s="22"/>
       <c r="E811" s="22"/>
       <c r="F811" s="22"/>
     </row>
-    <row r="812" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="812" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C812" s="25"/>
       <c r="D812" s="23"/>
       <c r="E812" s="23"/>
       <c r="F812" s="23"/>
     </row>
-    <row r="813" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="813" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C813" s="24"/>
       <c r="D813" s="22"/>
       <c r="E813" s="22"/>
       <c r="F813" s="22"/>
     </row>
-    <row r="814" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="814" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C814" s="25"/>
       <c r="D814" s="23"/>
       <c r="E814" s="23"/>
       <c r="F814" s="23"/>
     </row>
-    <row r="815" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="815" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C815" s="24"/>
       <c r="D815" s="22"/>
       <c r="E815" s="22"/>
       <c r="F815" s="22"/>
     </row>
-    <row r="816" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="816" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C816" s="25"/>
       <c r="D816" s="23"/>
       <c r="E816" s="23"/>
       <c r="F816" s="23"/>
     </row>
-    <row r="817" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="817" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C817" s="24"/>
       <c r="D817" s="22"/>
       <c r="E817" s="22"/>
       <c r="F817" s="22"/>
     </row>
-    <row r="818" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="818" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C818" s="25"/>
       <c r="D818" s="23"/>
       <c r="E818" s="23"/>
       <c r="F818" s="23"/>
     </row>
-    <row r="819" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="819" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C819" s="24"/>
       <c r="D819" s="22"/>
       <c r="E819" s="22"/>
       <c r="F819" s="22"/>
     </row>
-    <row r="820" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="820" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C820" s="25"/>
       <c r="D820" s="23"/>
       <c r="E820" s="23"/>
       <c r="F820" s="23"/>
     </row>
-    <row r="821" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="821" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C821" s="24"/>
       <c r="D821" s="22"/>
       <c r="E821" s="22"/>
       <c r="F821" s="22"/>
     </row>
-    <row r="822" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="822" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C822" s="25"/>
       <c r="D822" s="23"/>
       <c r="E822" s="23"/>
       <c r="F822" s="23"/>
     </row>
-    <row r="823" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="823" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C823" s="24"/>
       <c r="D823" s="22"/>
       <c r="E823" s="22"/>
       <c r="F823" s="22"/>
     </row>
-    <row r="824" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="824" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C824" s="25"/>
       <c r="D824" s="23"/>
       <c r="E824" s="23"/>
       <c r="F824" s="23"/>
     </row>
-    <row r="825" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="825" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C825" s="24"/>
       <c r="D825" s="22"/>
       <c r="E825" s="22"/>
       <c r="F825" s="22"/>
     </row>
-    <row r="826" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="826" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C826" s="25"/>
       <c r="D826" s="23"/>
       <c r="E826" s="23"/>
       <c r="F826" s="23"/>
     </row>
-    <row r="827" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="827" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C827" s="24"/>
       <c r="D827" s="22"/>
       <c r="E827" s="22"/>
       <c r="F827" s="22"/>
     </row>
-    <row r="828" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="828" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C828" s="25"/>
       <c r="D828" s="23"/>
       <c r="E828" s="23"/>
       <c r="F828" s="23"/>
     </row>
-    <row r="829" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="829" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C829" s="24"/>
       <c r="D829" s="22"/>
       <c r="E829" s="22"/>
       <c r="F829" s="22"/>
     </row>
-    <row r="830" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="830" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C830" s="25"/>
       <c r="D830" s="23"/>
       <c r="E830" s="23"/>
       <c r="F830" s="23"/>
     </row>
-    <row r="831" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="831" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C831" s="24"/>
       <c r="D831" s="22"/>
       <c r="E831" s="22"/>
       <c r="F831" s="22"/>
     </row>
-    <row r="832" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="832" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C832" s="25"/>
       <c r="D832" s="23"/>
       <c r="E832" s="23"/>
       <c r="F832" s="23"/>
     </row>
-    <row r="833" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="833" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C833" s="24"/>
       <c r="D833" s="22"/>
       <c r="E833" s="22"/>
       <c r="F833" s="22"/>
     </row>
-    <row r="834" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="834" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C834" s="25"/>
       <c r="D834" s="23"/>
       <c r="E834" s="23"/>
       <c r="F834" s="23"/>
     </row>
-    <row r="835" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="835" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C835" s="24"/>
       <c r="D835" s="22"/>
       <c r="E835" s="22"/>
       <c r="F835" s="22"/>
     </row>
-    <row r="836" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="836" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C836" s="25"/>
       <c r="D836" s="23"/>
       <c r="E836" s="23"/>
       <c r="F836" s="23"/>
     </row>
-    <row r="837" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="837" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C837" s="24"/>
       <c r="D837" s="22"/>
       <c r="E837" s="22"/>
       <c r="F837" s="22"/>
     </row>
-    <row r="838" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="838" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C838" s="25"/>
       <c r="D838" s="23"/>
       <c r="E838" s="23"/>
       <c r="F838" s="23"/>
     </row>
-    <row r="839" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="839" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C839" s="24"/>
       <c r="D839" s="22"/>
       <c r="E839" s="22"/>
       <c r="F839" s="22"/>
     </row>
-    <row r="840" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="840" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C840" s="25"/>
       <c r="D840" s="23"/>
       <c r="E840" s="23"/>
       <c r="F840" s="23"/>
     </row>
-    <row r="841" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="841" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C841" s="24"/>
       <c r="D841" s="22"/>
       <c r="E841" s="22"/>
       <c r="F841" s="22"/>
     </row>
-    <row r="842" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="842" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C842" s="25"/>
       <c r="D842" s="23"/>
       <c r="E842" s="23"/>
       <c r="F842" s="23"/>
     </row>
-    <row r="843" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="843" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C843" s="24"/>
       <c r="D843" s="22"/>
       <c r="E843" s="22"/>
       <c r="F843" s="22"/>
     </row>
-    <row r="844" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="844" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C844" s="25"/>
       <c r="D844" s="23"/>
       <c r="E844" s="23"/>
       <c r="F844" s="23"/>
     </row>
-    <row r="845" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="845" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C845" s="24"/>
       <c r="D845" s="22"/>
       <c r="E845" s="22"/>
       <c r="F845" s="22"/>
     </row>
-    <row r="846" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="846" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C846" s="25"/>
       <c r="D846" s="23"/>
       <c r="E846" s="23"/>
       <c r="F846" s="23"/>
     </row>
-    <row r="847" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="847" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C847" s="24"/>
       <c r="D847" s="22"/>
       <c r="E847" s="22"/>
       <c r="F847" s="22"/>
     </row>
-    <row r="848" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="848" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C848" s="25"/>
       <c r="D848" s="23"/>
       <c r="E848" s="23"/>
       <c r="F848" s="23"/>
     </row>
-    <row r="849" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="849" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C849" s="24"/>
       <c r="D849" s="22"/>
       <c r="E849" s="22"/>
       <c r="F849" s="22"/>
     </row>
-    <row r="850" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="850" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C850" s="25"/>
       <c r="D850" s="23"/>
       <c r="E850" s="23"/>
       <c r="F850" s="23"/>
     </row>
-    <row r="851" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="851" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C851" s="24"/>
       <c r="D851" s="22"/>
       <c r="E851" s="22"/>
       <c r="F851" s="22"/>
     </row>
-    <row r="852" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="852" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C852" s="25"/>
       <c r="D852" s="23"/>
       <c r="E852" s="23"/>
       <c r="F852" s="23"/>
     </row>
-    <row r="853" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="853" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C853" s="24"/>
       <c r="D853" s="22"/>
       <c r="E853" s="22"/>
       <c r="F853" s="22"/>
     </row>
-    <row r="854" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="854" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C854" s="25"/>
       <c r="D854" s="23"/>
       <c r="E854" s="23"/>
       <c r="F854" s="23"/>
     </row>
-    <row r="855" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="855" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C855" s="24"/>
       <c r="D855" s="22"/>
       <c r="E855" s="22"/>
       <c r="F855" s="22"/>
     </row>
-    <row r="856" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="856" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C856" s="25"/>
       <c r="D856" s="23"/>
       <c r="E856" s="23"/>
       <c r="F856" s="23"/>
     </row>
-    <row r="857" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="857" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C857" s="24"/>
       <c r="D857" s="22"/>
       <c r="E857" s="22"/>
       <c r="F857" s="22"/>
     </row>
-    <row r="858" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="858" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C858" s="25"/>
       <c r="D858" s="23"/>
       <c r="E858" s="23"/>
       <c r="F858" s="23"/>
     </row>
-    <row r="859" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="859" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C859" s="24"/>
       <c r="D859" s="22"/>
       <c r="E859" s="22"/>
       <c r="F859" s="22"/>
     </row>
-    <row r="860" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="860" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C860" s="25"/>
       <c r="D860" s="23"/>
       <c r="E860" s="23"/>
       <c r="F860" s="23"/>
     </row>
-    <row r="861" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="861" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C861" s="24"/>
       <c r="D861" s="22"/>
       <c r="E861" s="22"/>
       <c r="F861" s="22"/>
     </row>
-    <row r="862" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="862" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C862" s="25"/>
       <c r="D862" s="23"/>
       <c r="E862" s="23"/>
       <c r="F862" s="23"/>
     </row>
-    <row r="863" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="863" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C863" s="24"/>
       <c r="D863" s="22"/>
       <c r="E863" s="22"/>
       <c r="F863" s="22"/>
     </row>
-    <row r="864" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="864" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C864" s="25"/>
       <c r="D864" s="23"/>
       <c r="E864" s="23"/>
       <c r="F864" s="23"/>
     </row>
-    <row r="865" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="865" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C865" s="24"/>
       <c r="D865" s="22"/>
       <c r="E865" s="22"/>
       <c r="F865" s="22"/>
     </row>
-    <row r="866" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="866" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C866" s="25"/>
       <c r="D866" s="23"/>
       <c r="E866" s="23"/>
       <c r="F866" s="23"/>
     </row>
-    <row r="867" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="867" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C867" s="24"/>
       <c r="D867" s="22"/>
       <c r="E867" s="22"/>
       <c r="F867" s="22"/>
     </row>
-    <row r="868" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="868" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C868" s="25"/>
       <c r="D868" s="23"/>
       <c r="E868" s="23"/>
       <c r="F868" s="23"/>
     </row>
-    <row r="869" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="869" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C869" s="24"/>
       <c r="D869" s="22"/>
       <c r="E869" s="22"/>
       <c r="F869" s="22"/>
     </row>
-    <row r="870" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="870" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C870" s="25"/>
       <c r="D870" s="23"/>
       <c r="E870" s="23"/>
       <c r="F870" s="23"/>
     </row>
-    <row r="871" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="871" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C871" s="24"/>
       <c r="D871" s="22"/>
       <c r="E871" s="22"/>
       <c r="F871" s="22"/>
     </row>
-    <row r="872" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="872" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C872" s="25"/>
       <c r="D872" s="23"/>
       <c r="E872" s="23"/>
       <c r="F872" s="23"/>
     </row>
-    <row r="873" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="873" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C873" s="24"/>
       <c r="D873" s="22"/>
       <c r="E873" s="22"/>
       <c r="F873" s="22"/>
     </row>
-    <row r="874" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="874" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C874" s="25"/>
       <c r="D874" s="23"/>
       <c r="E874" s="23"/>
       <c r="F874" s="23"/>
     </row>
-    <row r="875" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="875" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C875" s="24"/>
       <c r="D875" s="22"/>
       <c r="E875" s="22"/>
       <c r="F875" s="22"/>
     </row>
-    <row r="876" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="876" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C876" s="25"/>
       <c r="D876" s="23"/>
       <c r="E876" s="23"/>
       <c r="F876" s="23"/>
     </row>
-    <row r="877" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="877" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C877" s="24"/>
       <c r="D877" s="22"/>
       <c r="E877" s="22"/>
       <c r="F877" s="22"/>
     </row>
-    <row r="878" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="878" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C878" s="25"/>
       <c r="D878" s="23"/>
       <c r="E878" s="23"/>
       <c r="F878" s="23"/>
     </row>
-    <row r="879" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="879" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C879" s="24"/>
       <c r="D879" s="22"/>
       <c r="E879" s="22"/>
       <c r="F879" s="22"/>
     </row>
-    <row r="880" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="880" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C880" s="25"/>
       <c r="D880" s="23"/>
       <c r="E880" s="23"/>
       <c r="F880" s="23"/>
     </row>
-    <row r="881" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="881" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C881" s="24"/>
       <c r="D881" s="22"/>
       <c r="E881" s="22"/>
       <c r="F881" s="22"/>
     </row>
-    <row r="882" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="882" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C882" s="25"/>
       <c r="D882" s="23"/>
       <c r="E882" s="23"/>
       <c r="F882" s="23"/>
     </row>
-    <row r="883" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="883" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C883" s="24"/>
       <c r="D883" s="22"/>
       <c r="E883" s="22"/>
       <c r="F883" s="22"/>
     </row>
-    <row r="884" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="884" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C884" s="25"/>
       <c r="D884" s="23"/>
       <c r="E884" s="23"/>
       <c r="F884" s="23"/>
     </row>
-    <row r="885" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="885" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C885" s="24"/>
       <c r="D885" s="22"/>
       <c r="E885" s="22"/>
       <c r="F885" s="22"/>
     </row>
-    <row r="886" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="886" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C886" s="25"/>
       <c r="D886" s="23"/>
       <c r="E886" s="23"/>
       <c r="F886" s="23"/>
     </row>
-    <row r="887" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="887" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C887" s="24"/>
       <c r="D887" s="22"/>
       <c r="E887" s="22"/>
       <c r="F887" s="22"/>
     </row>
-    <row r="888" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="888" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C888" s="25"/>
       <c r="D888" s="23"/>
       <c r="E888" s="23"/>
       <c r="F888" s="23"/>
     </row>
-    <row r="889" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="889" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C889" s="24"/>
       <c r="D889" s="22"/>
       <c r="E889" s="22"/>
       <c r="F889" s="22"/>
     </row>
-    <row r="890" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="890" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C890" s="25"/>
       <c r="D890" s="23"/>
       <c r="E890" s="23"/>
       <c r="F890" s="23"/>
     </row>
-    <row r="891" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="891" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C891" s="24"/>
       <c r="D891" s="22"/>
       <c r="E891" s="22"/>
       <c r="F891" s="22"/>
     </row>
-    <row r="892" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="892" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C892" s="25"/>
       <c r="D892" s="23"/>
       <c r="E892" s="23"/>
       <c r="F892" s="23"/>
     </row>
-    <row r="893" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="893" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C893" s="24"/>
       <c r="D893" s="22"/>
       <c r="E893" s="22"/>
       <c r="F893" s="22"/>
     </row>
-    <row r="894" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="894" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C894" s="25"/>
       <c r="D894" s="23"/>
       <c r="E894" s="23"/>
       <c r="F894" s="23"/>
     </row>
-    <row r="895" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="895" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C895" s="24"/>
       <c r="D895" s="22"/>
       <c r="E895" s="22"/>
       <c r="F895" s="22"/>
     </row>
-    <row r="896" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="896" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C896" s="25"/>
       <c r="D896" s="23"/>
       <c r="E896" s="23"/>
       <c r="F896" s="23"/>
     </row>
-    <row r="897" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="897" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C897" s="24"/>
       <c r="D897" s="22"/>
       <c r="E897" s="22"/>
       <c r="F897" s="22"/>
     </row>
-    <row r="898" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="898" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C898" s="25"/>
       <c r="D898" s="23"/>
       <c r="E898" s="23"/>
       <c r="F898" s="23"/>
     </row>
-    <row r="899" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="899" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C899" s="24"/>
       <c r="D899" s="22"/>
       <c r="E899" s="22"/>
       <c r="F899" s="22"/>
     </row>
-    <row r="900" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="900" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C900" s="25"/>
       <c r="D900" s="23"/>
       <c r="E900" s="23"/>
       <c r="F900" s="23"/>
     </row>
-    <row r="901" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="901" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C901" s="24"/>
       <c r="D901" s="22"/>
       <c r="E901" s="22"/>
       <c r="F901" s="22"/>
     </row>
-    <row r="902" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="902" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C902" s="25"/>
       <c r="D902" s="23"/>
       <c r="E902" s="23"/>
       <c r="F902" s="23"/>
     </row>
-    <row r="903" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="903" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C903" s="24"/>
       <c r="D903" s="22"/>
       <c r="E903" s="22"/>
       <c r="F903" s="22"/>
     </row>
-    <row r="904" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="904" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C904" s="25"/>
       <c r="D904" s="23"/>
       <c r="E904" s="23"/>
       <c r="F904" s="23"/>
     </row>
-    <row r="905" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="905" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C905" s="24"/>
       <c r="D905" s="22"/>
       <c r="E905" s="22"/>
       <c r="F905" s="22"/>
     </row>
-    <row r="906" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="906" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C906" s="25"/>
       <c r="D906" s="23"/>
       <c r="E906" s="23"/>
       <c r="F906" s="23"/>
     </row>
-    <row r="907" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="907" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C907" s="24"/>
       <c r="D907" s="22"/>
       <c r="E907" s="22"/>
       <c r="F907" s="22"/>
     </row>
-    <row r="908" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="908" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C908" s="25"/>
       <c r="D908" s="23"/>
       <c r="E908" s="23"/>
       <c r="F908" s="23"/>
     </row>
-    <row r="909" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="909" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C909" s="24"/>
       <c r="D909" s="22"/>
       <c r="E909" s="22"/>
       <c r="F909" s="22"/>
     </row>
-    <row r="910" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="910" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C910" s="25"/>
       <c r="D910" s="23"/>
       <c r="E910" s="23"/>
       <c r="F910" s="23"/>
     </row>
-    <row r="911" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="911" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C911" s="24"/>
       <c r="D911" s="22"/>
       <c r="E911" s="22"/>
       <c r="F911" s="22"/>
     </row>
-    <row r="912" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="912" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C912" s="25"/>
       <c r="D912" s="23"/>
       <c r="E912" s="23"/>
       <c r="F912" s="23"/>
     </row>
-    <row r="913" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="913" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C913" s="24"/>
       <c r="D913" s="22"/>
       <c r="E913" s="22"/>
       <c r="F913" s="22"/>
     </row>
-    <row r="914" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="914" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C914" s="25"/>
       <c r="D914" s="23"/>
       <c r="E914" s="23"/>
       <c r="F914" s="23"/>
     </row>
-    <row r="915" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="915" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C915" s="24"/>
       <c r="D915" s="22"/>
       <c r="E915" s="22"/>
       <c r="F915" s="22"/>
     </row>
-    <row r="916" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="916" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C916" s="25"/>
       <c r="D916" s="23"/>
       <c r="E916" s="23"/>
       <c r="F916" s="23"/>
     </row>
-    <row r="917" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="917" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C917" s="24"/>
       <c r="D917" s="22"/>
       <c r="E917" s="22"/>
       <c r="F917" s="22"/>
     </row>
-    <row r="918" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="918" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C918" s="25"/>
       <c r="D918" s="23"/>
       <c r="E918" s="23"/>
       <c r="F918" s="23"/>
     </row>
-    <row r="919" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="919" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C919" s="24"/>
       <c r="D919" s="22"/>
       <c r="E919" s="22"/>
       <c r="F919" s="22"/>
     </row>
-    <row r="920" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="920" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C920" s="25"/>
       <c r="D920" s="23"/>
       <c r="E920" s="23"/>
       <c r="F920" s="23"/>
     </row>
-    <row r="921" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="921" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C921" s="24"/>
       <c r="D921" s="22"/>
       <c r="E921" s="22"/>
       <c r="F921" s="22"/>
     </row>
-    <row r="922" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="922" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C922" s="25"/>
       <c r="D922" s="23"/>
       <c r="E922" s="23"/>
       <c r="F922" s="23"/>
     </row>
-    <row r="923" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="923" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C923" s="24"/>
       <c r="D923" s="22"/>
       <c r="E923" s="22"/>
       <c r="F923" s="22"/>
     </row>
-    <row r="924" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="924" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C924" s="25"/>
       <c r="D924" s="23"/>
       <c r="E924" s="23"/>
       <c r="F924" s="23"/>
     </row>
-    <row r="925" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="925" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C925" s="24"/>
       <c r="D925" s="22"/>
       <c r="E925" s="22"/>
       <c r="F925" s="22"/>
     </row>
-    <row r="926" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="926" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C926" s="25"/>
       <c r="D926" s="23"/>
       <c r="E926" s="23"/>
       <c r="F926" s="23"/>
     </row>
-    <row r="927" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="927" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C927" s="24"/>
       <c r="D927" s="22"/>
       <c r="E927" s="22"/>
       <c r="F927" s="22"/>
     </row>
-    <row r="928" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="928" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C928" s="25"/>
       <c r="D928" s="23"/>
       <c r="E928" s="23"/>
       <c r="F928" s="23"/>
     </row>
-    <row r="929" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="929" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C929" s="24"/>
       <c r="D929" s="22"/>
       <c r="E929" s="22"/>
       <c r="F929" s="22"/>
     </row>
-    <row r="930" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="930" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C930" s="25"/>
       <c r="D930" s="23"/>
       <c r="E930" s="23"/>
       <c r="F930" s="23"/>
     </row>
-    <row r="931" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="931" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C931" s="24"/>
       <c r="D931" s="22"/>
       <c r="E931" s="22"/>
       <c r="F931" s="22"/>
     </row>
-    <row r="932" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="932" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C932" s="25"/>
       <c r="D932" s="23"/>
       <c r="E932" s="23"/>
       <c r="F932" s="23"/>
     </row>
-    <row r="933" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="933" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C933" s="24"/>
       <c r="D933" s="22"/>
       <c r="E933" s="22"/>
       <c r="F933" s="22"/>
     </row>
-    <row r="934" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="934" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C934" s="25"/>
       <c r="D934" s="23"/>
       <c r="E934" s="23"/>
       <c r="F934" s="23"/>
     </row>
-    <row r="935" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="935" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C935" s="24"/>
       <c r="D935" s="22"/>
       <c r="E935" s="22"/>
       <c r="F935" s="22"/>
     </row>
-    <row r="936" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="936" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C936" s="25"/>
       <c r="D936" s="23"/>
       <c r="E936" s="23"/>
       <c r="F936" s="23"/>
     </row>
-    <row r="937" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="937" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C937" s="24"/>
       <c r="D937" s="22"/>
       <c r="E937" s="22"/>
       <c r="F937" s="22"/>
     </row>
-    <row r="938" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="938" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C938" s="25"/>
       <c r="D938" s="23"/>
       <c r="E938" s="23"/>
       <c r="F938" s="23"/>
     </row>
-    <row r="939" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="939" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C939" s="24"/>
       <c r="D939" s="22"/>
       <c r="E939" s="22"/>
       <c r="F939" s="22"/>
     </row>
-    <row r="940" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="940" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C940" s="25"/>
       <c r="D940" s="23"/>
       <c r="E940" s="23"/>
       <c r="F940" s="23"/>
     </row>
-    <row r="941" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="941" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C941" s="24"/>
       <c r="D941" s="22"/>
       <c r="E941" s="22"/>
       <c r="F941" s="22"/>
     </row>
-    <row r="942" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="942" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C942" s="25"/>
       <c r="D942" s="23"/>
       <c r="E942" s="23"/>
       <c r="F942" s="23"/>
     </row>
-    <row r="943" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="943" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C943" s="24"/>
       <c r="D943" s="22"/>
       <c r="E943" s="22"/>
       <c r="F943" s="22"/>
     </row>
-    <row r="944" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="944" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C944" s="25"/>
       <c r="D944" s="23"/>
       <c r="E944" s="23"/>
       <c r="F944" s="23"/>
     </row>
-    <row r="945" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="945" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C945" s="24"/>
       <c r="D945" s="22"/>
       <c r="E945" s="22"/>
       <c r="F945" s="22"/>
     </row>
-    <row r="946" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="946" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C946" s="25"/>
       <c r="D946" s="23"/>
       <c r="E946" s="23"/>
       <c r="F946" s="23"/>
     </row>
-    <row r="947" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="947" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C947" s="24"/>
       <c r="D947" s="22"/>
       <c r="E947" s="22"/>
       <c r="F947" s="22"/>
     </row>
-    <row r="948" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="948" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C948" s="25"/>
       <c r="D948" s="23"/>
       <c r="E948" s="23"/>
       <c r="F948" s="23"/>
     </row>
-    <row r="949" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="949" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C949" s="24"/>
       <c r="D949" s="22"/>
       <c r="E949" s="22"/>
       <c r="F949" s="22"/>
     </row>
-    <row r="950" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="950" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C950" s="25"/>
       <c r="D950" s="23"/>
       <c r="E950" s="23"/>
       <c r="F950" s="23"/>
     </row>
-    <row r="951" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="951" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C951" s="24"/>
       <c r="D951" s="22"/>
       <c r="E951" s="22"/>
       <c r="F951" s="22"/>
     </row>
-    <row r="952" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="952" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C952" s="25"/>
       <c r="D952" s="23"/>
       <c r="E952" s="23"/>
       <c r="F952" s="23"/>
     </row>
-    <row r="953" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="953" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C953" s="24"/>
       <c r="D953" s="22"/>
       <c r="E953" s="22"/>
       <c r="F953" s="22"/>
     </row>
-    <row r="954" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="954" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C954" s="25"/>
       <c r="D954" s="23"/>
       <c r="E954" s="23"/>
       <c r="F954" s="23"/>
     </row>
-    <row r="955" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="955" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C955" s="24"/>
       <c r="D955" s="22"/>
       <c r="E955" s="22"/>
       <c r="F955" s="22"/>
     </row>
-    <row r="956" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="956" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C956" s="25"/>
       <c r="D956" s="23"/>
       <c r="E956" s="23"/>
       <c r="F956" s="23"/>
     </row>
-    <row r="957" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="957" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C957" s="24"/>
       <c r="D957" s="22"/>
       <c r="E957" s="22"/>
       <c r="F957" s="22"/>
     </row>
-    <row r="958" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="958" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C958" s="25"/>
       <c r="D958" s="23"/>
       <c r="E958" s="23"/>
       <c r="F958" s="23"/>
     </row>
-    <row r="959" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="959" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C959" s="24"/>
       <c r="D959" s="22"/>
       <c r="E959" s="22"/>
       <c r="F959" s="22"/>
     </row>
-    <row r="960" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="960" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C960" s="25"/>
       <c r="D960" s="23"/>
       <c r="E960" s="23"/>
       <c r="F960" s="23"/>
     </row>
-    <row r="961" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="961" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C961" s="24"/>
       <c r="D961" s="22"/>
       <c r="E961" s="22"/>
       <c r="F961" s="22"/>
     </row>
-    <row r="962" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="962" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C962" s="25"/>
       <c r="D962" s="23"/>
       <c r="E962" s="23"/>
       <c r="F962" s="23"/>
     </row>
-    <row r="963" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="963" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C963" s="24"/>
       <c r="D963" s="22"/>
       <c r="E963" s="22"/>
       <c r="F963" s="22"/>
     </row>
-    <row r="964" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="964" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C964" s="25"/>
       <c r="D964" s="23"/>
       <c r="E964" s="23"/>
       <c r="F964" s="23"/>
     </row>
-    <row r="965" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="965" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C965" s="24"/>
       <c r="D965" s="22"/>
       <c r="E965" s="22"/>
       <c r="F965" s="22"/>
     </row>
-    <row r="966" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="966" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C966" s="25"/>
       <c r="D966" s="23"/>
       <c r="E966" s="23"/>
       <c r="F966" s="23"/>
     </row>
-    <row r="967" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="967" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C967" s="24"/>
       <c r="D967" s="22"/>
       <c r="E967" s="22"/>
       <c r="F967" s="22"/>
     </row>
-    <row r="968" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="968" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C968" s="25"/>
       <c r="D968" s="23"/>
       <c r="E968" s="23"/>
       <c r="F968" s="23"/>
     </row>
-    <row r="969" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="969" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C969" s="24"/>
       <c r="D969" s="22"/>
       <c r="E969" s="22"/>
       <c r="F969" s="22"/>
     </row>
-    <row r="970" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="970" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C970" s="25"/>
       <c r="D970" s="23"/>
       <c r="E970" s="23"/>
       <c r="F970" s="23"/>
     </row>
-    <row r="971" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="971" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C971" s="24"/>
       <c r="D971" s="22"/>
       <c r="E971" s="22"/>
       <c r="F971" s="22"/>
     </row>
-    <row r="972" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="972" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C972" s="25"/>
       <c r="D972" s="23"/>
       <c r="E972" s="23"/>
       <c r="F972" s="23"/>
     </row>
-    <row r="973" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="973" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C973" s="24"/>
       <c r="D973" s="22"/>
       <c r="E973" s="22"/>
       <c r="F973" s="22"/>
     </row>
-    <row r="974" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="974" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C974" s="25"/>
       <c r="D974" s="23"/>
       <c r="E974" s="23"/>
       <c r="F974" s="23"/>
     </row>
-    <row r="975" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="975" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C975" s="24"/>
       <c r="D975" s="22"/>
       <c r="E975" s="22"/>
       <c r="F975" s="22"/>
     </row>
-    <row r="976" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="976" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C976" s="25"/>
       <c r="D976" s="23"/>
       <c r="E976" s="23"/>
       <c r="F976" s="23"/>
     </row>
-    <row r="977" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="977" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C977" s="24"/>
       <c r="D977" s="22"/>
       <c r="E977" s="22"/>
       <c r="F977" s="22"/>
     </row>
-    <row r="978" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="978" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C978" s="25"/>
       <c r="D978" s="23"/>
       <c r="E978" s="23"/>
       <c r="F978" s="23"/>
     </row>
-    <row r="979" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="979" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C979" s="24"/>
       <c r="D979" s="22"/>
       <c r="E979" s="22"/>
       <c r="F979" s="22"/>
     </row>
-    <row r="980" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="980" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C980" s="25"/>
       <c r="D980" s="23"/>
       <c r="E980" s="23"/>
       <c r="F980" s="23"/>
     </row>
-    <row r="981" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="981" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C981" s="24"/>
       <c r="D981" s="22"/>
       <c r="E981" s="22"/>
       <c r="F981" s="22"/>
     </row>
-    <row r="982" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="982" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C982" s="25"/>
       <c r="D982" s="23"/>
       <c r="E982" s="23"/>
       <c r="F982" s="23"/>
     </row>
-    <row r="983" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="983" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C983" s="24"/>
       <c r="D983" s="22"/>
       <c r="E983" s="22"/>
       <c r="F983" s="22"/>
     </row>
-    <row r="984" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="984" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C984" s="25"/>
       <c r="D984" s="23"/>
       <c r="E984" s="23"/>
       <c r="F984" s="23"/>
     </row>
-    <row r="985" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="985" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C985" s="24"/>
       <c r="D985" s="22"/>
       <c r="E985" s="22"/>
       <c r="F985" s="22"/>
     </row>
-    <row r="986" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="986" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C986" s="25"/>
       <c r="D986" s="23"/>
       <c r="E986" s="23"/>
       <c r="F986" s="23"/>
     </row>
-    <row r="987" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="987" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C987" s="24"/>
       <c r="D987" s="22"/>
       <c r="E987" s="22"/>
       <c r="F987" s="22"/>
     </row>
-    <row r="988" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="988" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C988" s="25"/>
       <c r="D988" s="23"/>
       <c r="E988" s="23"/>
       <c r="F988" s="23"/>
     </row>
-    <row r="989" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="989" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C989" s="24"/>
       <c r="D989" s="22"/>
       <c r="E989" s="22"/>
       <c r="F989" s="22"/>
     </row>
-    <row r="990" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="990" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C990" s="25"/>
       <c r="D990" s="23"/>
       <c r="E990" s="23"/>
       <c r="F990" s="23"/>
     </row>
-    <row r="991" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="991" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C991" s="24"/>
       <c r="D991" s="22"/>
       <c r="E991" s="22"/>
       <c r="F991" s="22"/>
     </row>
-    <row r="992" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="992" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C992" s="25"/>
       <c r="D992" s="23"/>
       <c r="E992" s="23"/>
       <c r="F992" s="23"/>
     </row>
-    <row r="993" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="993" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C993" s="24"/>
       <c r="D993" s="22"/>
       <c r="E993" s="22"/>
       <c r="F993" s="22"/>
     </row>
-    <row r="994" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="994" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C994" s="25"/>
       <c r="D994" s="23"/>
       <c r="E994" s="23"/>
       <c r="F994" s="23"/>
     </row>
-    <row r="995" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="995" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C995" s="24"/>
       <c r="D995" s="22"/>
       <c r="E995" s="22"/>
       <c r="F995" s="22"/>
     </row>
-    <row r="996" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="996" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C996" s="25"/>
       <c r="D996" s="23"/>
       <c r="E996" s="23"/>
       <c r="F996" s="23"/>
     </row>
-    <row r="997" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="997" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C997" s="24"/>
       <c r="D997" s="22"/>
       <c r="E997" s="22"/>
       <c r="F997" s="22"/>
     </row>
-    <row r="998" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="998" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C998" s="25"/>
       <c r="D998" s="23"/>
       <c r="E998" s="23"/>
       <c r="F998" s="23"/>
     </row>
-    <row r="999" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="999" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C999" s="24"/>
       <c r="D999" s="22"/>
       <c r="E999" s="22"/>
       <c r="F999" s="22"/>
     </row>
-    <row r="1000" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="1000" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1000" s="25"/>
       <c r="D1000" s="23"/>
       <c r="E1000" s="23"/>
@@ -16834,14 +16845,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
         <v>26</v>
       </c>
@@ -16852,80 +16863,80 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>2265</v>
+        <v>2325</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>6435</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>29</v>
       </c>

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A924D98E-C581-43B0-91B9-B05936496A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23456AC3-8475-478C-8DC5-13C8D0D9CFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>Week:</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>File decisions made</t>
+  </si>
+  <si>
+    <t>Fixed issues with XAMPP</t>
   </si>
 </sst>
 </file>
@@ -1549,10 +1552,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2325</c:v>
+                  <c:v>2415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6375</c:v>
+                  <c:v>6285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10149,20 +10152,20 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -10197,7 +10200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -10246,7 +10249,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
@@ -10269,7 +10272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -10284,7 +10287,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="36"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="45" t="s">
         <v>4</v>
@@ -10299,7 +10302,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>13</v>
       </c>
@@ -10316,7 +10319,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="36"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
@@ -10331,7 +10334,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="36"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
@@ -10346,7 +10349,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="36"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
@@ -10361,7 +10364,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="36"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>14</v>
       </c>
@@ -10378,7 +10381,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="36"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
@@ -10393,7 +10396,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="36"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
@@ -10408,7 +10411,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="36"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
@@ -10423,7 +10426,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
@@ -10438,7 +10441,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
@@ -10453,7 +10456,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>15</v>
       </c>
@@ -10470,7 +10473,7 @@
       <c r="J16" s="42"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>36</v>
       </c>
@@ -10478,7 +10481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
@@ -10486,7 +10489,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>4</v>
       </c>
@@ -10494,12 +10497,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>5</v>
       </c>
@@ -10507,7 +10510,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>6</v>
       </c>
@@ -10515,7 +10518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>38</v>
       </c>
@@ -10551,18 +10554,18 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="114.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="114.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="26" t="s">
         <v>22</v>
       </c>
@@ -10576,7 +10579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" s="28">
         <v>45927</v>
       </c>
@@ -10590,7 +10593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="32">
         <v>45927</v>
       </c>
@@ -10604,7 +10607,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="33">
         <v>45928</v>
       </c>
@@ -10618,7 +10621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="32">
         <v>45928</v>
       </c>
@@ -10632,7 +10635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" s="33">
         <v>45929</v>
       </c>
@@ -10646,7 +10649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="32">
         <v>45934</v>
       </c>
@@ -10660,7 +10663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="33">
         <v>45934</v>
       </c>
@@ -10674,7 +10677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="32">
         <v>45934</v>
       </c>
@@ -10688,7 +10691,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="33">
         <v>45935</v>
       </c>
@@ -10702,7 +10705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="32">
         <v>45936</v>
       </c>
@@ -10716,7 +10719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="33">
         <v>45940</v>
       </c>
@@ -10728,7 +10731,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="32">
         <v>45941</v>
       </c>
@@ -10740,7 +10743,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" s="33">
         <v>45942</v>
       </c>
@@ -10754,7 +10757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="32">
         <v>45944</v>
       </c>
@@ -10768,7 +10771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="33">
         <v>45944</v>
       </c>
@@ -10782,7 +10785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="32">
         <v>45944</v>
       </c>
@@ -10796,7 +10799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="33">
         <v>45944</v>
       </c>
@@ -10810,7 +10813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="32">
         <v>45944</v>
       </c>
@@ -10824,7 +10827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="33">
         <v>45945</v>
       </c>
@@ -10838,7 +10841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="32">
         <v>45945</v>
       </c>
@@ -10852,7 +10855,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="33">
         <v>45945</v>
       </c>
@@ -10866,7 +10869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="32">
         <v>45946</v>
       </c>
@@ -10880,7 +10883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="33">
         <v>45946</v>
       </c>
@@ -10894,7 +10897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="32">
         <v>45946</v>
       </c>
@@ -10908,7 +10911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="33">
         <v>45946</v>
       </c>
@@ -10922,7 +10925,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="32">
         <v>45946</v>
       </c>
@@ -10936,7 +10939,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="33">
         <v>45946</v>
       </c>
@@ -10950,7 +10953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="32">
         <v>45950</v>
       </c>
@@ -10964,7 +10967,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30" s="33">
         <v>45950</v>
       </c>
@@ -10978,7 +10981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="32">
         <v>45950</v>
       </c>
@@ -10992,7 +10995,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="33">
         <v>45951</v>
       </c>
@@ -11006,5809 +11009,5817 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="24"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="32">
+        <v>45951</v>
+      </c>
+      <c r="D33" s="22">
+        <v>90</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" s="25"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35" s="24"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36" s="25"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37" s="24"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C38" s="25"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C39" s="24"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C40" s="25"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C41" s="24"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C42" s="25"/>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C43" s="24"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C44" s="25"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C45" s="24"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C46" s="25"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C47" s="24"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C48" s="25"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" s="24"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" s="25"/>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" s="24"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" s="25"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C53" s="24"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C54" s="25"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C55" s="24"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C56" s="25"/>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C57" s="24"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C58" s="25"/>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C59" s="24"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C60" s="25"/>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C61" s="24"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C62" s="25"/>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C63" s="24"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C64" s="25"/>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" s="24"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" s="25"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" s="24"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C68" s="25"/>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C69" s="24"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C70" s="25"/>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C71" s="24"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C72" s="25"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C73" s="24"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C74" s="25"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C75" s="24"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C76" s="25"/>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C77" s="24"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C78" s="25"/>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C79" s="24"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C80" s="25"/>
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" s="24"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" s="25"/>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C83" s="24"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C84" s="25"/>
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C85" s="24"/>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C86" s="25"/>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C87" s="24"/>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C88" s="25"/>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C89" s="24"/>
       <c r="D89" s="22"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C90" s="25"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C91" s="24"/>
       <c r="D91" s="22"/>
       <c r="E91" s="22"/>
       <c r="F91" s="22"/>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C92" s="25"/>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C93" s="24"/>
       <c r="D93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C94" s="25"/>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C95" s="24"/>
       <c r="D95" s="22"/>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C96" s="25"/>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" s="24"/>
       <c r="D97" s="22"/>
       <c r="E97" s="22"/>
       <c r="F97" s="22"/>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C98" s="25"/>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C99" s="24"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22"/>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C100" s="25"/>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C101" s="24"/>
       <c r="D101" s="22"/>
       <c r="E101" s="22"/>
       <c r="F101" s="22"/>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C102" s="25"/>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
       <c r="F102" s="23"/>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C103" s="24"/>
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C104" s="25"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23"/>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C105" s="24"/>
       <c r="D105" s="22"/>
       <c r="E105" s="22"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C106" s="25"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C107" s="24"/>
       <c r="D107" s="22"/>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C108" s="25"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C109" s="24"/>
       <c r="D109" s="22"/>
       <c r="E109" s="22"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C110" s="25"/>
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
       <c r="F110" s="23"/>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C111" s="24"/>
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C112" s="25"/>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C113" s="24"/>
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
       <c r="F113" s="22"/>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C114" s="25"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C115" s="24"/>
       <c r="D115" s="22"/>
       <c r="E115" s="22"/>
       <c r="F115" s="22"/>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C116" s="25"/>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C117" s="24"/>
       <c r="D117" s="22"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22"/>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C118" s="25"/>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C119" s="24"/>
       <c r="D119" s="22"/>
       <c r="E119" s="22"/>
       <c r="F119" s="22"/>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C120" s="25"/>
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C121" s="24"/>
       <c r="D121" s="22"/>
       <c r="E121" s="22"/>
       <c r="F121" s="22"/>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C122" s="25"/>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C123" s="24"/>
       <c r="D123" s="22"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22"/>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C124" s="25"/>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C125" s="24"/>
       <c r="D125" s="22"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22"/>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C126" s="25"/>
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C127" s="24"/>
       <c r="D127" s="22"/>
       <c r="E127" s="22"/>
       <c r="F127" s="22"/>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C128" s="25"/>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
       <c r="F128" s="23"/>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C129" s="24"/>
       <c r="D129" s="22"/>
       <c r="E129" s="22"/>
       <c r="F129" s="22"/>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C130" s="25"/>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C131" s="24"/>
       <c r="D131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C132" s="25"/>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C133" s="24"/>
       <c r="D133" s="22"/>
       <c r="E133" s="22"/>
       <c r="F133" s="22"/>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C134" s="25"/>
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C135" s="24"/>
       <c r="D135" s="22"/>
       <c r="E135" s="22"/>
       <c r="F135" s="22"/>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C136" s="25"/>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23"/>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C137" s="24"/>
       <c r="D137" s="22"/>
       <c r="E137" s="22"/>
       <c r="F137" s="22"/>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C138" s="25"/>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
       <c r="F138" s="23"/>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C139" s="24"/>
       <c r="D139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C140" s="25"/>
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C141" s="24"/>
       <c r="D141" s="22"/>
       <c r="E141" s="22"/>
       <c r="F141" s="22"/>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C142" s="25"/>
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
       <c r="F142" s="23"/>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C143" s="24"/>
       <c r="D143" s="22"/>
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C144" s="25"/>
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C145" s="24"/>
       <c r="D145" s="22"/>
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C146" s="25"/>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
       <c r="F146" s="23"/>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C147" s="24"/>
       <c r="D147" s="22"/>
       <c r="E147" s="22"/>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C148" s="25"/>
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
       <c r="F148" s="23"/>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C149" s="24"/>
       <c r="D149" s="22"/>
       <c r="E149" s="22"/>
       <c r="F149" s="22"/>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C150" s="25"/>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
       <c r="F150" s="23"/>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C151" s="24"/>
       <c r="D151" s="22"/>
       <c r="E151" s="22"/>
       <c r="F151" s="22"/>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C152" s="25"/>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C153" s="24"/>
       <c r="D153" s="22"/>
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C154" s="25"/>
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
       <c r="F154" s="23"/>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C155" s="24"/>
       <c r="D155" s="22"/>
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C156" s="25"/>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
       <c r="F156" s="23"/>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C157" s="24"/>
       <c r="D157" s="22"/>
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C158" s="25"/>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
       <c r="F158" s="23"/>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C159" s="24"/>
       <c r="D159" s="22"/>
       <c r="E159" s="22"/>
       <c r="F159" s="22"/>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C160" s="25"/>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
       <c r="F160" s="23"/>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C161" s="24"/>
       <c r="D161" s="22"/>
       <c r="E161" s="22"/>
       <c r="F161" s="22"/>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C162" s="25"/>
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
       <c r="F162" s="23"/>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C163" s="24"/>
       <c r="D163" s="22"/>
       <c r="E163" s="22"/>
       <c r="F163" s="22"/>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C164" s="25"/>
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
       <c r="F164" s="23"/>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C165" s="24"/>
       <c r="D165" s="22"/>
       <c r="E165" s="22"/>
       <c r="F165" s="22"/>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C166" s="25"/>
       <c r="D166" s="23"/>
       <c r="E166" s="23"/>
       <c r="F166" s="23"/>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C167" s="24"/>
       <c r="D167" s="22"/>
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C168" s="25"/>
       <c r="D168" s="23"/>
       <c r="E168" s="23"/>
       <c r="F168" s="23"/>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C169" s="24"/>
       <c r="D169" s="22"/>
       <c r="E169" s="22"/>
       <c r="F169" s="22"/>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C170" s="25"/>
       <c r="D170" s="23"/>
       <c r="E170" s="23"/>
       <c r="F170" s="23"/>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C171" s="24"/>
       <c r="D171" s="22"/>
       <c r="E171" s="22"/>
       <c r="F171" s="22"/>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C172" s="25"/>
       <c r="D172" s="23"/>
       <c r="E172" s="23"/>
       <c r="F172" s="23"/>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C173" s="24"/>
       <c r="D173" s="22"/>
       <c r="E173" s="22"/>
       <c r="F173" s="22"/>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C174" s="25"/>
       <c r="D174" s="23"/>
       <c r="E174" s="23"/>
       <c r="F174" s="23"/>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C175" s="24"/>
       <c r="D175" s="22"/>
       <c r="E175" s="22"/>
       <c r="F175" s="22"/>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C176" s="25"/>
       <c r="D176" s="23"/>
       <c r="E176" s="23"/>
       <c r="F176" s="23"/>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C177" s="24"/>
       <c r="D177" s="22"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C178" s="25"/>
       <c r="D178" s="23"/>
       <c r="E178" s="23"/>
       <c r="F178" s="23"/>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C179" s="24"/>
       <c r="D179" s="22"/>
       <c r="E179" s="22"/>
       <c r="F179" s="22"/>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C180" s="25"/>
       <c r="D180" s="23"/>
       <c r="E180" s="23"/>
       <c r="F180" s="23"/>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C181" s="24"/>
       <c r="D181" s="22"/>
       <c r="E181" s="22"/>
       <c r="F181" s="22"/>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C182" s="25"/>
       <c r="D182" s="23"/>
       <c r="E182" s="23"/>
       <c r="F182" s="23"/>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C183" s="24"/>
       <c r="D183" s="22"/>
       <c r="E183" s="22"/>
       <c r="F183" s="22"/>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C184" s="25"/>
       <c r="D184" s="23"/>
       <c r="E184" s="23"/>
       <c r="F184" s="23"/>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C185" s="24"/>
       <c r="D185" s="22"/>
       <c r="E185" s="22"/>
       <c r="F185" s="22"/>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C186" s="25"/>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
       <c r="F186" s="23"/>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C187" s="24"/>
       <c r="D187" s="22"/>
       <c r="E187" s="22"/>
       <c r="F187" s="22"/>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C188" s="25"/>
       <c r="D188" s="23"/>
       <c r="E188" s="23"/>
       <c r="F188" s="23"/>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C189" s="24"/>
       <c r="D189" s="22"/>
       <c r="E189" s="22"/>
       <c r="F189" s="22"/>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C190" s="25"/>
       <c r="D190" s="23"/>
       <c r="E190" s="23"/>
       <c r="F190" s="23"/>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C191" s="24"/>
       <c r="D191" s="22"/>
       <c r="E191" s="22"/>
       <c r="F191" s="22"/>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C192" s="25"/>
       <c r="D192" s="23"/>
       <c r="E192" s="23"/>
       <c r="F192" s="23"/>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C193" s="24"/>
       <c r="D193" s="22"/>
       <c r="E193" s="22"/>
       <c r="F193" s="22"/>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C194" s="25"/>
       <c r="D194" s="23"/>
       <c r="E194" s="23"/>
       <c r="F194" s="23"/>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C195" s="24"/>
       <c r="D195" s="22"/>
       <c r="E195" s="22"/>
       <c r="F195" s="22"/>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C196" s="25"/>
       <c r="D196" s="23"/>
       <c r="E196" s="23"/>
       <c r="F196" s="23"/>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C197" s="24"/>
       <c r="D197" s="22"/>
       <c r="E197" s="22"/>
       <c r="F197" s="22"/>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C198" s="25"/>
       <c r="D198" s="23"/>
       <c r="E198" s="23"/>
       <c r="F198" s="23"/>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C199" s="24"/>
       <c r="D199" s="22"/>
       <c r="E199" s="22"/>
       <c r="F199" s="22"/>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C200" s="25"/>
       <c r="D200" s="23"/>
       <c r="E200" s="23"/>
       <c r="F200" s="23"/>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C201" s="24"/>
       <c r="D201" s="22"/>
       <c r="E201" s="22"/>
       <c r="F201" s="22"/>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C202" s="25"/>
       <c r="D202" s="23"/>
       <c r="E202" s="23"/>
       <c r="F202" s="23"/>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C203" s="24"/>
       <c r="D203" s="22"/>
       <c r="E203" s="22"/>
       <c r="F203" s="22"/>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C204" s="25"/>
       <c r="D204" s="23"/>
       <c r="E204" s="23"/>
       <c r="F204" s="23"/>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C205" s="24"/>
       <c r="D205" s="22"/>
       <c r="E205" s="22"/>
       <c r="F205" s="22"/>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C206" s="25"/>
       <c r="D206" s="23"/>
       <c r="E206" s="23"/>
       <c r="F206" s="23"/>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C207" s="24"/>
       <c r="D207" s="22"/>
       <c r="E207" s="22"/>
       <c r="F207" s="22"/>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C208" s="25"/>
       <c r="D208" s="23"/>
       <c r="E208" s="23"/>
       <c r="F208" s="23"/>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C209" s="24"/>
       <c r="D209" s="22"/>
       <c r="E209" s="22"/>
       <c r="F209" s="22"/>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C210" s="25"/>
       <c r="D210" s="23"/>
       <c r="E210" s="23"/>
       <c r="F210" s="23"/>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C211" s="24"/>
       <c r="D211" s="22"/>
       <c r="E211" s="22"/>
       <c r="F211" s="22"/>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C212" s="25"/>
       <c r="D212" s="23"/>
       <c r="E212" s="23"/>
       <c r="F212" s="23"/>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C213" s="24"/>
       <c r="D213" s="22"/>
       <c r="E213" s="22"/>
       <c r="F213" s="22"/>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C214" s="25"/>
       <c r="D214" s="23"/>
       <c r="E214" s="23"/>
       <c r="F214" s="23"/>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C215" s="24"/>
       <c r="D215" s="22"/>
       <c r="E215" s="22"/>
       <c r="F215" s="22"/>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C216" s="25"/>
       <c r="D216" s="23"/>
       <c r="E216" s="23"/>
       <c r="F216" s="23"/>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C217" s="24"/>
       <c r="D217" s="22"/>
       <c r="E217" s="22"/>
       <c r="F217" s="22"/>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C218" s="25"/>
       <c r="D218" s="23"/>
       <c r="E218" s="23"/>
       <c r="F218" s="23"/>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C219" s="24"/>
       <c r="D219" s="22"/>
       <c r="E219" s="22"/>
       <c r="F219" s="22"/>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C220" s="25"/>
       <c r="D220" s="23"/>
       <c r="E220" s="23"/>
       <c r="F220" s="23"/>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C221" s="24"/>
       <c r="D221" s="22"/>
       <c r="E221" s="22"/>
       <c r="F221" s="22"/>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C222" s="25"/>
       <c r="D222" s="23"/>
       <c r="E222" s="23"/>
       <c r="F222" s="23"/>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C223" s="24"/>
       <c r="D223" s="22"/>
       <c r="E223" s="22"/>
       <c r="F223" s="22"/>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C224" s="25"/>
       <c r="D224" s="23"/>
       <c r="E224" s="23"/>
       <c r="F224" s="23"/>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C225" s="24"/>
       <c r="D225" s="22"/>
       <c r="E225" s="22"/>
       <c r="F225" s="22"/>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C226" s="25"/>
       <c r="D226" s="23"/>
       <c r="E226" s="23"/>
       <c r="F226" s="23"/>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C227" s="24"/>
       <c r="D227" s="22"/>
       <c r="E227" s="22"/>
       <c r="F227" s="22"/>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C228" s="25"/>
       <c r="D228" s="23"/>
       <c r="E228" s="23"/>
       <c r="F228" s="23"/>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C229" s="24"/>
       <c r="D229" s="22"/>
       <c r="E229" s="22"/>
       <c r="F229" s="22"/>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C230" s="25"/>
       <c r="D230" s="23"/>
       <c r="E230" s="23"/>
       <c r="F230" s="23"/>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C231" s="24"/>
       <c r="D231" s="22"/>
       <c r="E231" s="22"/>
       <c r="F231" s="22"/>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C232" s="25"/>
       <c r="D232" s="23"/>
       <c r="E232" s="23"/>
       <c r="F232" s="23"/>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C233" s="24"/>
       <c r="D233" s="22"/>
       <c r="E233" s="22"/>
       <c r="F233" s="22"/>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C234" s="25"/>
       <c r="D234" s="23"/>
       <c r="E234" s="23"/>
       <c r="F234" s="23"/>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C235" s="24"/>
       <c r="D235" s="22"/>
       <c r="E235" s="22"/>
       <c r="F235" s="22"/>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C236" s="25"/>
       <c r="D236" s="23"/>
       <c r="E236" s="23"/>
       <c r="F236" s="23"/>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C237" s="24"/>
       <c r="D237" s="22"/>
       <c r="E237" s="22"/>
       <c r="F237" s="22"/>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C238" s="25"/>
       <c r="D238" s="23"/>
       <c r="E238" s="23"/>
       <c r="F238" s="23"/>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C239" s="24"/>
       <c r="D239" s="22"/>
       <c r="E239" s="22"/>
       <c r="F239" s="22"/>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C240" s="25"/>
       <c r="D240" s="23"/>
       <c r="E240" s="23"/>
       <c r="F240" s="23"/>
     </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C241" s="24"/>
       <c r="D241" s="22"/>
       <c r="E241" s="22"/>
       <c r="F241" s="22"/>
     </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C242" s="25"/>
       <c r="D242" s="23"/>
       <c r="E242" s="23"/>
       <c r="F242" s="23"/>
     </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C243" s="24"/>
       <c r="D243" s="22"/>
       <c r="E243" s="22"/>
       <c r="F243" s="22"/>
     </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C244" s="25"/>
       <c r="D244" s="23"/>
       <c r="E244" s="23"/>
       <c r="F244" s="23"/>
     </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C245" s="24"/>
       <c r="D245" s="22"/>
       <c r="E245" s="22"/>
       <c r="F245" s="22"/>
     </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C246" s="25"/>
       <c r="D246" s="23"/>
       <c r="E246" s="23"/>
       <c r="F246" s="23"/>
     </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C247" s="24"/>
       <c r="D247" s="22"/>
       <c r="E247" s="22"/>
       <c r="F247" s="22"/>
     </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C248" s="25"/>
       <c r="D248" s="23"/>
       <c r="E248" s="23"/>
       <c r="F248" s="23"/>
     </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C249" s="24"/>
       <c r="D249" s="22"/>
       <c r="E249" s="22"/>
       <c r="F249" s="22"/>
     </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C250" s="25"/>
       <c r="D250" s="23"/>
       <c r="E250" s="23"/>
       <c r="F250" s="23"/>
     </row>
-    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C251" s="24"/>
       <c r="D251" s="22"/>
       <c r="E251" s="22"/>
       <c r="F251" s="22"/>
     </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C252" s="25"/>
       <c r="D252" s="23"/>
       <c r="E252" s="23"/>
       <c r="F252" s="23"/>
     </row>
-    <row r="253" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C253" s="24"/>
       <c r="D253" s="22"/>
       <c r="E253" s="22"/>
       <c r="F253" s="22"/>
     </row>
-    <row r="254" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C254" s="25"/>
       <c r="D254" s="23"/>
       <c r="E254" s="23"/>
       <c r="F254" s="23"/>
     </row>
-    <row r="255" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C255" s="24"/>
       <c r="D255" s="22"/>
       <c r="E255" s="22"/>
       <c r="F255" s="22"/>
     </row>
-    <row r="256" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C256" s="25"/>
       <c r="D256" s="23"/>
       <c r="E256" s="23"/>
       <c r="F256" s="23"/>
     </row>
-    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C257" s="24"/>
       <c r="D257" s="22"/>
       <c r="E257" s="22"/>
       <c r="F257" s="22"/>
     </row>
-    <row r="258" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C258" s="25"/>
       <c r="D258" s="23"/>
       <c r="E258" s="23"/>
       <c r="F258" s="23"/>
     </row>
-    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C259" s="24"/>
       <c r="D259" s="22"/>
       <c r="E259" s="22"/>
       <c r="F259" s="22"/>
     </row>
-    <row r="260" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C260" s="25"/>
       <c r="D260" s="23"/>
       <c r="E260" s="23"/>
       <c r="F260" s="23"/>
     </row>
-    <row r="261" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C261" s="24"/>
       <c r="D261" s="22"/>
       <c r="E261" s="22"/>
       <c r="F261" s="22"/>
     </row>
-    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C262" s="25"/>
       <c r="D262" s="23"/>
       <c r="E262" s="23"/>
       <c r="F262" s="23"/>
     </row>
-    <row r="263" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C263" s="24"/>
       <c r="D263" s="22"/>
       <c r="E263" s="22"/>
       <c r="F263" s="22"/>
     </row>
-    <row r="264" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C264" s="25"/>
       <c r="D264" s="23"/>
       <c r="E264" s="23"/>
       <c r="F264" s="23"/>
     </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C265" s="24"/>
       <c r="D265" s="22"/>
       <c r="E265" s="22"/>
       <c r="F265" s="22"/>
     </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C266" s="25"/>
       <c r="D266" s="23"/>
       <c r="E266" s="23"/>
       <c r="F266" s="23"/>
     </row>
-    <row r="267" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C267" s="24"/>
       <c r="D267" s="22"/>
       <c r="E267" s="22"/>
       <c r="F267" s="22"/>
     </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C268" s="25"/>
       <c r="D268" s="23"/>
       <c r="E268" s="23"/>
       <c r="F268" s="23"/>
     </row>
-    <row r="269" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C269" s="24"/>
       <c r="D269" s="22"/>
       <c r="E269" s="22"/>
       <c r="F269" s="22"/>
     </row>
-    <row r="270" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C270" s="25"/>
       <c r="D270" s="23"/>
       <c r="E270" s="23"/>
       <c r="F270" s="23"/>
     </row>
-    <row r="271" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C271" s="24"/>
       <c r="D271" s="22"/>
       <c r="E271" s="22"/>
       <c r="F271" s="22"/>
     </row>
-    <row r="272" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C272" s="25"/>
       <c r="D272" s="23"/>
       <c r="E272" s="23"/>
       <c r="F272" s="23"/>
     </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C273" s="24"/>
       <c r="D273" s="22"/>
       <c r="E273" s="22"/>
       <c r="F273" s="22"/>
     </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C274" s="25"/>
       <c r="D274" s="23"/>
       <c r="E274" s="23"/>
       <c r="F274" s="23"/>
     </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C275" s="24"/>
       <c r="D275" s="22"/>
       <c r="E275" s="22"/>
       <c r="F275" s="22"/>
     </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C276" s="25"/>
       <c r="D276" s="23"/>
       <c r="E276" s="23"/>
       <c r="F276" s="23"/>
     </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C277" s="24"/>
       <c r="D277" s="22"/>
       <c r="E277" s="22"/>
       <c r="F277" s="22"/>
     </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C278" s="25"/>
       <c r="D278" s="23"/>
       <c r="E278" s="23"/>
       <c r="F278" s="23"/>
     </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C279" s="24"/>
       <c r="D279" s="22"/>
       <c r="E279" s="22"/>
       <c r="F279" s="22"/>
     </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C280" s="25"/>
       <c r="D280" s="23"/>
       <c r="E280" s="23"/>
       <c r="F280" s="23"/>
     </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C281" s="24"/>
       <c r="D281" s="22"/>
       <c r="E281" s="22"/>
       <c r="F281" s="22"/>
     </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C282" s="25"/>
       <c r="D282" s="23"/>
       <c r="E282" s="23"/>
       <c r="F282" s="23"/>
     </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C283" s="24"/>
       <c r="D283" s="22"/>
       <c r="E283" s="22"/>
       <c r="F283" s="22"/>
     </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C284" s="25"/>
       <c r="D284" s="23"/>
       <c r="E284" s="23"/>
       <c r="F284" s="23"/>
     </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C285" s="24"/>
       <c r="D285" s="22"/>
       <c r="E285" s="22"/>
       <c r="F285" s="22"/>
     </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C286" s="25"/>
       <c r="D286" s="23"/>
       <c r="E286" s="23"/>
       <c r="F286" s="23"/>
     </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C287" s="24"/>
       <c r="D287" s="22"/>
       <c r="E287" s="22"/>
       <c r="F287" s="22"/>
     </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C288" s="25"/>
       <c r="D288" s="23"/>
       <c r="E288" s="23"/>
       <c r="F288" s="23"/>
     </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C289" s="24"/>
       <c r="D289" s="22"/>
       <c r="E289" s="22"/>
       <c r="F289" s="22"/>
     </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C290" s="25"/>
       <c r="D290" s="23"/>
       <c r="E290" s="23"/>
       <c r="F290" s="23"/>
     </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C291" s="24"/>
       <c r="D291" s="22"/>
       <c r="E291" s="22"/>
       <c r="F291" s="22"/>
     </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C292" s="25"/>
       <c r="D292" s="23"/>
       <c r="E292" s="23"/>
       <c r="F292" s="23"/>
     </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C293" s="24"/>
       <c r="D293" s="22"/>
       <c r="E293" s="22"/>
       <c r="F293" s="22"/>
     </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C294" s="25"/>
       <c r="D294" s="23"/>
       <c r="E294" s="23"/>
       <c r="F294" s="23"/>
     </row>
-    <row r="295" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C295" s="24"/>
       <c r="D295" s="22"/>
       <c r="E295" s="22"/>
       <c r="F295" s="22"/>
     </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C296" s="25"/>
       <c r="D296" s="23"/>
       <c r="E296" s="23"/>
       <c r="F296" s="23"/>
     </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C297" s="24"/>
       <c r="D297" s="22"/>
       <c r="E297" s="22"/>
       <c r="F297" s="22"/>
     </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C298" s="25"/>
       <c r="D298" s="23"/>
       <c r="E298" s="23"/>
       <c r="F298" s="23"/>
     </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C299" s="24"/>
       <c r="D299" s="22"/>
       <c r="E299" s="22"/>
       <c r="F299" s="22"/>
     </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C300" s="25"/>
       <c r="D300" s="23"/>
       <c r="E300" s="23"/>
       <c r="F300" s="23"/>
     </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C301" s="24"/>
       <c r="D301" s="22"/>
       <c r="E301" s="22"/>
       <c r="F301" s="22"/>
     </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C302" s="25"/>
       <c r="D302" s="23"/>
       <c r="E302" s="23"/>
       <c r="F302" s="23"/>
     </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C303" s="24"/>
       <c r="D303" s="22"/>
       <c r="E303" s="22"/>
       <c r="F303" s="22"/>
     </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C304" s="25"/>
       <c r="D304" s="23"/>
       <c r="E304" s="23"/>
       <c r="F304" s="23"/>
     </row>
-    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C305" s="24"/>
       <c r="D305" s="22"/>
       <c r="E305" s="22"/>
       <c r="F305" s="22"/>
     </row>
-    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C306" s="25"/>
       <c r="D306" s="23"/>
       <c r="E306" s="23"/>
       <c r="F306" s="23"/>
     </row>
-    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C307" s="24"/>
       <c r="D307" s="22"/>
       <c r="E307" s="22"/>
       <c r="F307" s="22"/>
     </row>
-    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C308" s="25"/>
       <c r="D308" s="23"/>
       <c r="E308" s="23"/>
       <c r="F308" s="23"/>
     </row>
-    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C309" s="24"/>
       <c r="D309" s="22"/>
       <c r="E309" s="22"/>
       <c r="F309" s="22"/>
     </row>
-    <row r="310" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C310" s="25"/>
       <c r="D310" s="23"/>
       <c r="E310" s="23"/>
       <c r="F310" s="23"/>
     </row>
-    <row r="311" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C311" s="24"/>
       <c r="D311" s="22"/>
       <c r="E311" s="22"/>
       <c r="F311" s="22"/>
     </row>
-    <row r="312" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C312" s="25"/>
       <c r="D312" s="23"/>
       <c r="E312" s="23"/>
       <c r="F312" s="23"/>
     </row>
-    <row r="313" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C313" s="24"/>
       <c r="D313" s="22"/>
       <c r="E313" s="22"/>
       <c r="F313" s="22"/>
     </row>
-    <row r="314" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C314" s="25"/>
       <c r="D314" s="23"/>
       <c r="E314" s="23"/>
       <c r="F314" s="23"/>
     </row>
-    <row r="315" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C315" s="24"/>
       <c r="D315" s="22"/>
       <c r="E315" s="22"/>
       <c r="F315" s="22"/>
     </row>
-    <row r="316" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C316" s="25"/>
       <c r="D316" s="23"/>
       <c r="E316" s="23"/>
       <c r="F316" s="23"/>
     </row>
-    <row r="317" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C317" s="24"/>
       <c r="D317" s="22"/>
       <c r="E317" s="22"/>
       <c r="F317" s="22"/>
     </row>
-    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C318" s="25"/>
       <c r="D318" s="23"/>
       <c r="E318" s="23"/>
       <c r="F318" s="23"/>
     </row>
-    <row r="319" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C319" s="24"/>
       <c r="D319" s="22"/>
       <c r="E319" s="22"/>
       <c r="F319" s="22"/>
     </row>
-    <row r="320" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C320" s="25"/>
       <c r="D320" s="23"/>
       <c r="E320" s="23"/>
       <c r="F320" s="23"/>
     </row>
-    <row r="321" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C321" s="24"/>
       <c r="D321" s="22"/>
       <c r="E321" s="22"/>
       <c r="F321" s="22"/>
     </row>
-    <row r="322" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C322" s="25"/>
       <c r="D322" s="23"/>
       <c r="E322" s="23"/>
       <c r="F322" s="23"/>
     </row>
-    <row r="323" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C323" s="24"/>
       <c r="D323" s="22"/>
       <c r="E323" s="22"/>
       <c r="F323" s="22"/>
     </row>
-    <row r="324" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C324" s="25"/>
       <c r="D324" s="23"/>
       <c r="E324" s="23"/>
       <c r="F324" s="23"/>
     </row>
-    <row r="325" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C325" s="24"/>
       <c r="D325" s="22"/>
       <c r="E325" s="22"/>
       <c r="F325" s="22"/>
     </row>
-    <row r="326" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C326" s="25"/>
       <c r="D326" s="23"/>
       <c r="E326" s="23"/>
       <c r="F326" s="23"/>
     </row>
-    <row r="327" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C327" s="24"/>
       <c r="D327" s="22"/>
       <c r="E327" s="22"/>
       <c r="F327" s="22"/>
     </row>
-    <row r="328" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C328" s="25"/>
       <c r="D328" s="23"/>
       <c r="E328" s="23"/>
       <c r="F328" s="23"/>
     </row>
-    <row r="329" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C329" s="24"/>
       <c r="D329" s="22"/>
       <c r="E329" s="22"/>
       <c r="F329" s="22"/>
     </row>
-    <row r="330" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C330" s="25"/>
       <c r="D330" s="23"/>
       <c r="E330" s="23"/>
       <c r="F330" s="23"/>
     </row>
-    <row r="331" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C331" s="24"/>
       <c r="D331" s="22"/>
       <c r="E331" s="22"/>
       <c r="F331" s="22"/>
     </row>
-    <row r="332" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C332" s="25"/>
       <c r="D332" s="23"/>
       <c r="E332" s="23"/>
       <c r="F332" s="23"/>
     </row>
-    <row r="333" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C333" s="24"/>
       <c r="D333" s="22"/>
       <c r="E333" s="22"/>
       <c r="F333" s="22"/>
     </row>
-    <row r="334" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C334" s="25"/>
       <c r="D334" s="23"/>
       <c r="E334" s="23"/>
       <c r="F334" s="23"/>
     </row>
-    <row r="335" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C335" s="24"/>
       <c r="D335" s="22"/>
       <c r="E335" s="22"/>
       <c r="F335" s="22"/>
     </row>
-    <row r="336" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C336" s="25"/>
       <c r="D336" s="23"/>
       <c r="E336" s="23"/>
       <c r="F336" s="23"/>
     </row>
-    <row r="337" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C337" s="24"/>
       <c r="D337" s="22"/>
       <c r="E337" s="22"/>
       <c r="F337" s="22"/>
     </row>
-    <row r="338" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C338" s="25"/>
       <c r="D338" s="23"/>
       <c r="E338" s="23"/>
       <c r="F338" s="23"/>
     </row>
-    <row r="339" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C339" s="24"/>
       <c r="D339" s="22"/>
       <c r="E339" s="22"/>
       <c r="F339" s="22"/>
     </row>
-    <row r="340" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C340" s="25"/>
       <c r="D340" s="23"/>
       <c r="E340" s="23"/>
       <c r="F340" s="23"/>
     </row>
-    <row r="341" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C341" s="24"/>
       <c r="D341" s="22"/>
       <c r="E341" s="22"/>
       <c r="F341" s="22"/>
     </row>
-    <row r="342" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C342" s="25"/>
       <c r="D342" s="23"/>
       <c r="E342" s="23"/>
       <c r="F342" s="23"/>
     </row>
-    <row r="343" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C343" s="24"/>
       <c r="D343" s="22"/>
       <c r="E343" s="22"/>
       <c r="F343" s="22"/>
     </row>
-    <row r="344" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C344" s="25"/>
       <c r="D344" s="23"/>
       <c r="E344" s="23"/>
       <c r="F344" s="23"/>
     </row>
-    <row r="345" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C345" s="24"/>
       <c r="D345" s="22"/>
       <c r="E345" s="22"/>
       <c r="F345" s="22"/>
     </row>
-    <row r="346" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C346" s="25"/>
       <c r="D346" s="23"/>
       <c r="E346" s="23"/>
       <c r="F346" s="23"/>
     </row>
-    <row r="347" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C347" s="24"/>
       <c r="D347" s="22"/>
       <c r="E347" s="22"/>
       <c r="F347" s="22"/>
     </row>
-    <row r="348" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C348" s="25"/>
       <c r="D348" s="23"/>
       <c r="E348" s="23"/>
       <c r="F348" s="23"/>
     </row>
-    <row r="349" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C349" s="24"/>
       <c r="D349" s="22"/>
       <c r="E349" s="22"/>
       <c r="F349" s="22"/>
     </row>
-    <row r="350" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C350" s="25"/>
       <c r="D350" s="23"/>
       <c r="E350" s="23"/>
       <c r="F350" s="23"/>
     </row>
-    <row r="351" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C351" s="24"/>
       <c r="D351" s="22"/>
       <c r="E351" s="22"/>
       <c r="F351" s="22"/>
     </row>
-    <row r="352" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C352" s="25"/>
       <c r="D352" s="23"/>
       <c r="E352" s="23"/>
       <c r="F352" s="23"/>
     </row>
-    <row r="353" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C353" s="24"/>
       <c r="D353" s="22"/>
       <c r="E353" s="22"/>
       <c r="F353" s="22"/>
     </row>
-    <row r="354" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C354" s="25"/>
       <c r="D354" s="23"/>
       <c r="E354" s="23"/>
       <c r="F354" s="23"/>
     </row>
-    <row r="355" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C355" s="24"/>
       <c r="D355" s="22"/>
       <c r="E355" s="22"/>
       <c r="F355" s="22"/>
     </row>
-    <row r="356" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C356" s="25"/>
       <c r="D356" s="23"/>
       <c r="E356" s="23"/>
       <c r="F356" s="23"/>
     </row>
-    <row r="357" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C357" s="24"/>
       <c r="D357" s="22"/>
       <c r="E357" s="22"/>
       <c r="F357" s="22"/>
     </row>
-    <row r="358" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C358" s="25"/>
       <c r="D358" s="23"/>
       <c r="E358" s="23"/>
       <c r="F358" s="23"/>
     </row>
-    <row r="359" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C359" s="24"/>
       <c r="D359" s="22"/>
       <c r="E359" s="22"/>
       <c r="F359" s="22"/>
     </row>
-    <row r="360" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C360" s="25"/>
       <c r="D360" s="23"/>
       <c r="E360" s="23"/>
       <c r="F360" s="23"/>
     </row>
-    <row r="361" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C361" s="24"/>
       <c r="D361" s="22"/>
       <c r="E361" s="22"/>
       <c r="F361" s="22"/>
     </row>
-    <row r="362" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C362" s="25"/>
       <c r="D362" s="23"/>
       <c r="E362" s="23"/>
       <c r="F362" s="23"/>
     </row>
-    <row r="363" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C363" s="24"/>
       <c r="D363" s="22"/>
       <c r="E363" s="22"/>
       <c r="F363" s="22"/>
     </row>
-    <row r="364" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C364" s="25"/>
       <c r="D364" s="23"/>
       <c r="E364" s="23"/>
       <c r="F364" s="23"/>
     </row>
-    <row r="365" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C365" s="24"/>
       <c r="D365" s="22"/>
       <c r="E365" s="22"/>
       <c r="F365" s="22"/>
     </row>
-    <row r="366" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C366" s="25"/>
       <c r="D366" s="23"/>
       <c r="E366" s="23"/>
       <c r="F366" s="23"/>
     </row>
-    <row r="367" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C367" s="24"/>
       <c r="D367" s="22"/>
       <c r="E367" s="22"/>
       <c r="F367" s="22"/>
     </row>
-    <row r="368" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C368" s="25"/>
       <c r="D368" s="23"/>
       <c r="E368" s="23"/>
       <c r="F368" s="23"/>
     </row>
-    <row r="369" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C369" s="24"/>
       <c r="D369" s="22"/>
       <c r="E369" s="22"/>
       <c r="F369" s="22"/>
     </row>
-    <row r="370" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C370" s="25"/>
       <c r="D370" s="23"/>
       <c r="E370" s="23"/>
       <c r="F370" s="23"/>
     </row>
-    <row r="371" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C371" s="24"/>
       <c r="D371" s="22"/>
       <c r="E371" s="22"/>
       <c r="F371" s="22"/>
     </row>
-    <row r="372" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C372" s="25"/>
       <c r="D372" s="23"/>
       <c r="E372" s="23"/>
       <c r="F372" s="23"/>
     </row>
-    <row r="373" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C373" s="24"/>
       <c r="D373" s="22"/>
       <c r="E373" s="22"/>
       <c r="F373" s="22"/>
     </row>
-    <row r="374" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C374" s="25"/>
       <c r="D374" s="23"/>
       <c r="E374" s="23"/>
       <c r="F374" s="23"/>
     </row>
-    <row r="375" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C375" s="24"/>
       <c r="D375" s="22"/>
       <c r="E375" s="22"/>
       <c r="F375" s="22"/>
     </row>
-    <row r="376" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C376" s="25"/>
       <c r="D376" s="23"/>
       <c r="E376" s="23"/>
       <c r="F376" s="23"/>
     </row>
-    <row r="377" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C377" s="24"/>
       <c r="D377" s="22"/>
       <c r="E377" s="22"/>
       <c r="F377" s="22"/>
     </row>
-    <row r="378" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C378" s="25"/>
       <c r="D378" s="23"/>
       <c r="E378" s="23"/>
       <c r="F378" s="23"/>
     </row>
-    <row r="379" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C379" s="24"/>
       <c r="D379" s="22"/>
       <c r="E379" s="22"/>
       <c r="F379" s="22"/>
     </row>
-    <row r="380" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C380" s="25"/>
       <c r="D380" s="23"/>
       <c r="E380" s="23"/>
       <c r="F380" s="23"/>
     </row>
-    <row r="381" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C381" s="24"/>
       <c r="D381" s="22"/>
       <c r="E381" s="22"/>
       <c r="F381" s="22"/>
     </row>
-    <row r="382" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C382" s="25"/>
       <c r="D382" s="23"/>
       <c r="E382" s="23"/>
       <c r="F382" s="23"/>
     </row>
-    <row r="383" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C383" s="24"/>
       <c r="D383" s="22"/>
       <c r="E383" s="22"/>
       <c r="F383" s="22"/>
     </row>
-    <row r="384" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C384" s="25"/>
       <c r="D384" s="23"/>
       <c r="E384" s="23"/>
       <c r="F384" s="23"/>
     </row>
-    <row r="385" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C385" s="24"/>
       <c r="D385" s="22"/>
       <c r="E385" s="22"/>
       <c r="F385" s="22"/>
     </row>
-    <row r="386" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C386" s="25"/>
       <c r="D386" s="23"/>
       <c r="E386" s="23"/>
       <c r="F386" s="23"/>
     </row>
-    <row r="387" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C387" s="24"/>
       <c r="D387" s="22"/>
       <c r="E387" s="22"/>
       <c r="F387" s="22"/>
     </row>
-    <row r="388" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C388" s="25"/>
       <c r="D388" s="23"/>
       <c r="E388" s="23"/>
       <c r="F388" s="23"/>
     </row>
-    <row r="389" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C389" s="24"/>
       <c r="D389" s="22"/>
       <c r="E389" s="22"/>
       <c r="F389" s="22"/>
     </row>
-    <row r="390" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C390" s="25"/>
       <c r="D390" s="23"/>
       <c r="E390" s="23"/>
       <c r="F390" s="23"/>
     </row>
-    <row r="391" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C391" s="24"/>
       <c r="D391" s="22"/>
       <c r="E391" s="22"/>
       <c r="F391" s="22"/>
     </row>
-    <row r="392" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C392" s="25"/>
       <c r="D392" s="23"/>
       <c r="E392" s="23"/>
       <c r="F392" s="23"/>
     </row>
-    <row r="393" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C393" s="24"/>
       <c r="D393" s="22"/>
       <c r="E393" s="22"/>
       <c r="F393" s="22"/>
     </row>
-    <row r="394" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C394" s="25"/>
       <c r="D394" s="23"/>
       <c r="E394" s="23"/>
       <c r="F394" s="23"/>
     </row>
-    <row r="395" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C395" s="24"/>
       <c r="D395" s="22"/>
       <c r="E395" s="22"/>
       <c r="F395" s="22"/>
     </row>
-    <row r="396" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C396" s="25"/>
       <c r="D396" s="23"/>
       <c r="E396" s="23"/>
       <c r="F396" s="23"/>
     </row>
-    <row r="397" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C397" s="24"/>
       <c r="D397" s="22"/>
       <c r="E397" s="22"/>
       <c r="F397" s="22"/>
     </row>
-    <row r="398" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C398" s="25"/>
       <c r="D398" s="23"/>
       <c r="E398" s="23"/>
       <c r="F398" s="23"/>
     </row>
-    <row r="399" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C399" s="24"/>
       <c r="D399" s="22"/>
       <c r="E399" s="22"/>
       <c r="F399" s="22"/>
     </row>
-    <row r="400" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C400" s="25"/>
       <c r="D400" s="23"/>
       <c r="E400" s="23"/>
       <c r="F400" s="23"/>
     </row>
-    <row r="401" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C401" s="24"/>
       <c r="D401" s="22"/>
       <c r="E401" s="22"/>
       <c r="F401" s="22"/>
     </row>
-    <row r="402" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C402" s="25"/>
       <c r="D402" s="23"/>
       <c r="E402" s="23"/>
       <c r="F402" s="23"/>
     </row>
-    <row r="403" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C403" s="24"/>
       <c r="D403" s="22"/>
       <c r="E403" s="22"/>
       <c r="F403" s="22"/>
     </row>
-    <row r="404" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C404" s="25"/>
       <c r="D404" s="23"/>
       <c r="E404" s="23"/>
       <c r="F404" s="23"/>
     </row>
-    <row r="405" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C405" s="24"/>
       <c r="D405" s="22"/>
       <c r="E405" s="22"/>
       <c r="F405" s="22"/>
     </row>
-    <row r="406" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C406" s="25"/>
       <c r="D406" s="23"/>
       <c r="E406" s="23"/>
       <c r="F406" s="23"/>
     </row>
-    <row r="407" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C407" s="24"/>
       <c r="D407" s="22"/>
       <c r="E407" s="22"/>
       <c r="F407" s="22"/>
     </row>
-    <row r="408" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C408" s="25"/>
       <c r="D408" s="23"/>
       <c r="E408" s="23"/>
       <c r="F408" s="23"/>
     </row>
-    <row r="409" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C409" s="24"/>
       <c r="D409" s="22"/>
       <c r="E409" s="22"/>
       <c r="F409" s="22"/>
     </row>
-    <row r="410" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C410" s="25"/>
       <c r="D410" s="23"/>
       <c r="E410" s="23"/>
       <c r="F410" s="23"/>
     </row>
-    <row r="411" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C411" s="24"/>
       <c r="D411" s="22"/>
       <c r="E411" s="22"/>
       <c r="F411" s="22"/>
     </row>
-    <row r="412" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C412" s="25"/>
       <c r="D412" s="23"/>
       <c r="E412" s="23"/>
       <c r="F412" s="23"/>
     </row>
-    <row r="413" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C413" s="24"/>
       <c r="D413" s="22"/>
       <c r="E413" s="22"/>
       <c r="F413" s="22"/>
     </row>
-    <row r="414" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C414" s="25"/>
       <c r="D414" s="23"/>
       <c r="E414" s="23"/>
       <c r="F414" s="23"/>
     </row>
-    <row r="415" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C415" s="24"/>
       <c r="D415" s="22"/>
       <c r="E415" s="22"/>
       <c r="F415" s="22"/>
     </row>
-    <row r="416" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C416" s="25"/>
       <c r="D416" s="23"/>
       <c r="E416" s="23"/>
       <c r="F416" s="23"/>
     </row>
-    <row r="417" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C417" s="24"/>
       <c r="D417" s="22"/>
       <c r="E417" s="22"/>
       <c r="F417" s="22"/>
     </row>
-    <row r="418" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C418" s="25"/>
       <c r="D418" s="23"/>
       <c r="E418" s="23"/>
       <c r="F418" s="23"/>
     </row>
-    <row r="419" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C419" s="24"/>
       <c r="D419" s="22"/>
       <c r="E419" s="22"/>
       <c r="F419" s="22"/>
     </row>
-    <row r="420" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C420" s="25"/>
       <c r="D420" s="23"/>
       <c r="E420" s="23"/>
       <c r="F420" s="23"/>
     </row>
-    <row r="421" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C421" s="24"/>
       <c r="D421" s="22"/>
       <c r="E421" s="22"/>
       <c r="F421" s="22"/>
     </row>
-    <row r="422" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C422" s="25"/>
       <c r="D422" s="23"/>
       <c r="E422" s="23"/>
       <c r="F422" s="23"/>
     </row>
-    <row r="423" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C423" s="24"/>
       <c r="D423" s="22"/>
       <c r="E423" s="22"/>
       <c r="F423" s="22"/>
     </row>
-    <row r="424" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C424" s="25"/>
       <c r="D424" s="23"/>
       <c r="E424" s="23"/>
       <c r="F424" s="23"/>
     </row>
-    <row r="425" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C425" s="24"/>
       <c r="D425" s="22"/>
       <c r="E425" s="22"/>
       <c r="F425" s="22"/>
     </row>
-    <row r="426" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C426" s="25"/>
       <c r="D426" s="23"/>
       <c r="E426" s="23"/>
       <c r="F426" s="23"/>
     </row>
-    <row r="427" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C427" s="24"/>
       <c r="D427" s="22"/>
       <c r="E427" s="22"/>
       <c r="F427" s="22"/>
     </row>
-    <row r="428" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C428" s="25"/>
       <c r="D428" s="23"/>
       <c r="E428" s="23"/>
       <c r="F428" s="23"/>
     </row>
-    <row r="429" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C429" s="24"/>
       <c r="D429" s="22"/>
       <c r="E429" s="22"/>
       <c r="F429" s="22"/>
     </row>
-    <row r="430" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C430" s="25"/>
       <c r="D430" s="23"/>
       <c r="E430" s="23"/>
       <c r="F430" s="23"/>
     </row>
-    <row r="431" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C431" s="24"/>
       <c r="D431" s="22"/>
       <c r="E431" s="22"/>
       <c r="F431" s="22"/>
     </row>
-    <row r="432" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C432" s="25"/>
       <c r="D432" s="23"/>
       <c r="E432" s="23"/>
       <c r="F432" s="23"/>
     </row>
-    <row r="433" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C433" s="24"/>
       <c r="D433" s="22"/>
       <c r="E433" s="22"/>
       <c r="F433" s="22"/>
     </row>
-    <row r="434" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C434" s="25"/>
       <c r="D434" s="23"/>
       <c r="E434" s="23"/>
       <c r="F434" s="23"/>
     </row>
-    <row r="435" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C435" s="24"/>
       <c r="D435" s="22"/>
       <c r="E435" s="22"/>
       <c r="F435" s="22"/>
     </row>
-    <row r="436" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C436" s="25"/>
       <c r="D436" s="23"/>
       <c r="E436" s="23"/>
       <c r="F436" s="23"/>
     </row>
-    <row r="437" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C437" s="24"/>
       <c r="D437" s="22"/>
       <c r="E437" s="22"/>
       <c r="F437" s="22"/>
     </row>
-    <row r="438" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C438" s="25"/>
       <c r="D438" s="23"/>
       <c r="E438" s="23"/>
       <c r="F438" s="23"/>
     </row>
-    <row r="439" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C439" s="24"/>
       <c r="D439" s="22"/>
       <c r="E439" s="22"/>
       <c r="F439" s="22"/>
     </row>
-    <row r="440" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C440" s="25"/>
       <c r="D440" s="23"/>
       <c r="E440" s="23"/>
       <c r="F440" s="23"/>
     </row>
-    <row r="441" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C441" s="24"/>
       <c r="D441" s="22"/>
       <c r="E441" s="22"/>
       <c r="F441" s="22"/>
     </row>
-    <row r="442" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C442" s="25"/>
       <c r="D442" s="23"/>
       <c r="E442" s="23"/>
       <c r="F442" s="23"/>
     </row>
-    <row r="443" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C443" s="24"/>
       <c r="D443" s="22"/>
       <c r="E443" s="22"/>
       <c r="F443" s="22"/>
     </row>
-    <row r="444" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C444" s="25"/>
       <c r="D444" s="23"/>
       <c r="E444" s="23"/>
       <c r="F444" s="23"/>
     </row>
-    <row r="445" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C445" s="24"/>
       <c r="D445" s="22"/>
       <c r="E445" s="22"/>
       <c r="F445" s="22"/>
     </row>
-    <row r="446" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C446" s="25"/>
       <c r="D446" s="23"/>
       <c r="E446" s="23"/>
       <c r="F446" s="23"/>
     </row>
-    <row r="447" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C447" s="24"/>
       <c r="D447" s="22"/>
       <c r="E447" s="22"/>
       <c r="F447" s="22"/>
     </row>
-    <row r="448" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C448" s="25"/>
       <c r="D448" s="23"/>
       <c r="E448" s="23"/>
       <c r="F448" s="23"/>
     </row>
-    <row r="449" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C449" s="24"/>
       <c r="D449" s="22"/>
       <c r="E449" s="22"/>
       <c r="F449" s="22"/>
     </row>
-    <row r="450" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C450" s="25"/>
       <c r="D450" s="23"/>
       <c r="E450" s="23"/>
       <c r="F450" s="23"/>
     </row>
-    <row r="451" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C451" s="24"/>
       <c r="D451" s="22"/>
       <c r="E451" s="22"/>
       <c r="F451" s="22"/>
     </row>
-    <row r="452" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C452" s="25"/>
       <c r="D452" s="23"/>
       <c r="E452" s="23"/>
       <c r="F452" s="23"/>
     </row>
-    <row r="453" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C453" s="24"/>
       <c r="D453" s="22"/>
       <c r="E453" s="22"/>
       <c r="F453" s="22"/>
     </row>
-    <row r="454" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C454" s="25"/>
       <c r="D454" s="23"/>
       <c r="E454" s="23"/>
       <c r="F454" s="23"/>
     </row>
-    <row r="455" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C455" s="24"/>
       <c r="D455" s="22"/>
       <c r="E455" s="22"/>
       <c r="F455" s="22"/>
     </row>
-    <row r="456" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C456" s="25"/>
       <c r="D456" s="23"/>
       <c r="E456" s="23"/>
       <c r="F456" s="23"/>
     </row>
-    <row r="457" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C457" s="24"/>
       <c r="D457" s="22"/>
       <c r="E457" s="22"/>
       <c r="F457" s="22"/>
     </row>
-    <row r="458" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C458" s="25"/>
       <c r="D458" s="23"/>
       <c r="E458" s="23"/>
       <c r="F458" s="23"/>
     </row>
-    <row r="459" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C459" s="24"/>
       <c r="D459" s="22"/>
       <c r="E459" s="22"/>
       <c r="F459" s="22"/>
     </row>
-    <row r="460" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C460" s="25"/>
       <c r="D460" s="23"/>
       <c r="E460" s="23"/>
       <c r="F460" s="23"/>
     </row>
-    <row r="461" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C461" s="24"/>
       <c r="D461" s="22"/>
       <c r="E461" s="22"/>
       <c r="F461" s="22"/>
     </row>
-    <row r="462" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C462" s="25"/>
       <c r="D462" s="23"/>
       <c r="E462" s="23"/>
       <c r="F462" s="23"/>
     </row>
-    <row r="463" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C463" s="24"/>
       <c r="D463" s="22"/>
       <c r="E463" s="22"/>
       <c r="F463" s="22"/>
     </row>
-    <row r="464" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C464" s="25"/>
       <c r="D464" s="23"/>
       <c r="E464" s="23"/>
       <c r="F464" s="23"/>
     </row>
-    <row r="465" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C465" s="24"/>
       <c r="D465" s="22"/>
       <c r="E465" s="22"/>
       <c r="F465" s="22"/>
     </row>
-    <row r="466" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C466" s="25"/>
       <c r="D466" s="23"/>
       <c r="E466" s="23"/>
       <c r="F466" s="23"/>
     </row>
-    <row r="467" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C467" s="24"/>
       <c r="D467" s="22"/>
       <c r="E467" s="22"/>
       <c r="F467" s="22"/>
     </row>
-    <row r="468" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C468" s="25"/>
       <c r="D468" s="23"/>
       <c r="E468" s="23"/>
       <c r="F468" s="23"/>
     </row>
-    <row r="469" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C469" s="24"/>
       <c r="D469" s="22"/>
       <c r="E469" s="22"/>
       <c r="F469" s="22"/>
     </row>
-    <row r="470" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C470" s="25"/>
       <c r="D470" s="23"/>
       <c r="E470" s="23"/>
       <c r="F470" s="23"/>
     </row>
-    <row r="471" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C471" s="24"/>
       <c r="D471" s="22"/>
       <c r="E471" s="22"/>
       <c r="F471" s="22"/>
     </row>
-    <row r="472" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C472" s="25"/>
       <c r="D472" s="23"/>
       <c r="E472" s="23"/>
       <c r="F472" s="23"/>
     </row>
-    <row r="473" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C473" s="24"/>
       <c r="D473" s="22"/>
       <c r="E473" s="22"/>
       <c r="F473" s="22"/>
     </row>
-    <row r="474" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C474" s="25"/>
       <c r="D474" s="23"/>
       <c r="E474" s="23"/>
       <c r="F474" s="23"/>
     </row>
-    <row r="475" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C475" s="24"/>
       <c r="D475" s="22"/>
       <c r="E475" s="22"/>
       <c r="F475" s="22"/>
     </row>
-    <row r="476" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C476" s="25"/>
       <c r="D476" s="23"/>
       <c r="E476" s="23"/>
       <c r="F476" s="23"/>
     </row>
-    <row r="477" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C477" s="24"/>
       <c r="D477" s="22"/>
       <c r="E477" s="22"/>
       <c r="F477" s="22"/>
     </row>
-    <row r="478" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C478" s="25"/>
       <c r="D478" s="23"/>
       <c r="E478" s="23"/>
       <c r="F478" s="23"/>
     </row>
-    <row r="479" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C479" s="24"/>
       <c r="D479" s="22"/>
       <c r="E479" s="22"/>
       <c r="F479" s="22"/>
     </row>
-    <row r="480" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C480" s="25"/>
       <c r="D480" s="23"/>
       <c r="E480" s="23"/>
       <c r="F480" s="23"/>
     </row>
-    <row r="481" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C481" s="24"/>
       <c r="D481" s="22"/>
       <c r="E481" s="22"/>
       <c r="F481" s="22"/>
     </row>
-    <row r="482" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C482" s="25"/>
       <c r="D482" s="23"/>
       <c r="E482" s="23"/>
       <c r="F482" s="23"/>
     </row>
-    <row r="483" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C483" s="24"/>
       <c r="D483" s="22"/>
       <c r="E483" s="22"/>
       <c r="F483" s="22"/>
     </row>
-    <row r="484" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C484" s="25"/>
       <c r="D484" s="23"/>
       <c r="E484" s="23"/>
       <c r="F484" s="23"/>
     </row>
-    <row r="485" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C485" s="24"/>
       <c r="D485" s="22"/>
       <c r="E485" s="22"/>
       <c r="F485" s="22"/>
     </row>
-    <row r="486" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C486" s="25"/>
       <c r="D486" s="23"/>
       <c r="E486" s="23"/>
       <c r="F486" s="23"/>
     </row>
-    <row r="487" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C487" s="24"/>
       <c r="D487" s="22"/>
       <c r="E487" s="22"/>
       <c r="F487" s="22"/>
     </row>
-    <row r="488" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C488" s="25"/>
       <c r="D488" s="23"/>
       <c r="E488" s="23"/>
       <c r="F488" s="23"/>
     </row>
-    <row r="489" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C489" s="24"/>
       <c r="D489" s="22"/>
       <c r="E489" s="22"/>
       <c r="F489" s="22"/>
     </row>
-    <row r="490" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C490" s="25"/>
       <c r="D490" s="23"/>
       <c r="E490" s="23"/>
       <c r="F490" s="23"/>
     </row>
-    <row r="491" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C491" s="24"/>
       <c r="D491" s="22"/>
       <c r="E491" s="22"/>
       <c r="F491" s="22"/>
     </row>
-    <row r="492" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C492" s="25"/>
       <c r="D492" s="23"/>
       <c r="E492" s="23"/>
       <c r="F492" s="23"/>
     </row>
-    <row r="493" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C493" s="24"/>
       <c r="D493" s="22"/>
       <c r="E493" s="22"/>
       <c r="F493" s="22"/>
     </row>
-    <row r="494" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C494" s="25"/>
       <c r="D494" s="23"/>
       <c r="E494" s="23"/>
       <c r="F494" s="23"/>
     </row>
-    <row r="495" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C495" s="24"/>
       <c r="D495" s="22"/>
       <c r="E495" s="22"/>
       <c r="F495" s="22"/>
     </row>
-    <row r="496" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C496" s="25"/>
       <c r="D496" s="23"/>
       <c r="E496" s="23"/>
       <c r="F496" s="23"/>
     </row>
-    <row r="497" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C497" s="24"/>
       <c r="D497" s="22"/>
       <c r="E497" s="22"/>
       <c r="F497" s="22"/>
     </row>
-    <row r="498" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C498" s="25"/>
       <c r="D498" s="23"/>
       <c r="E498" s="23"/>
       <c r="F498" s="23"/>
     </row>
-    <row r="499" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C499" s="24"/>
       <c r="D499" s="22"/>
       <c r="E499" s="22"/>
       <c r="F499" s="22"/>
     </row>
-    <row r="500" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C500" s="25"/>
       <c r="D500" s="23"/>
       <c r="E500" s="23"/>
       <c r="F500" s="23"/>
     </row>
-    <row r="501" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C501" s="24"/>
       <c r="D501" s="22"/>
       <c r="E501" s="22"/>
       <c r="F501" s="22"/>
     </row>
-    <row r="502" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C502" s="25"/>
       <c r="D502" s="23"/>
       <c r="E502" s="23"/>
       <c r="F502" s="23"/>
     </row>
-    <row r="503" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C503" s="24"/>
       <c r="D503" s="22"/>
       <c r="E503" s="22"/>
       <c r="F503" s="22"/>
     </row>
-    <row r="504" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C504" s="25"/>
       <c r="D504" s="23"/>
       <c r="E504" s="23"/>
       <c r="F504" s="23"/>
     </row>
-    <row r="505" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C505" s="24"/>
       <c r="D505" s="22"/>
       <c r="E505" s="22"/>
       <c r="F505" s="22"/>
     </row>
-    <row r="506" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C506" s="25"/>
       <c r="D506" s="23"/>
       <c r="E506" s="23"/>
       <c r="F506" s="23"/>
     </row>
-    <row r="507" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C507" s="24"/>
       <c r="D507" s="22"/>
       <c r="E507" s="22"/>
       <c r="F507" s="22"/>
     </row>
-    <row r="508" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C508" s="25"/>
       <c r="D508" s="23"/>
       <c r="E508" s="23"/>
       <c r="F508" s="23"/>
     </row>
-    <row r="509" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C509" s="24"/>
       <c r="D509" s="22"/>
       <c r="E509" s="22"/>
       <c r="F509" s="22"/>
     </row>
-    <row r="510" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C510" s="25"/>
       <c r="D510" s="23"/>
       <c r="E510" s="23"/>
       <c r="F510" s="23"/>
     </row>
-    <row r="511" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C511" s="24"/>
       <c r="D511" s="22"/>
       <c r="E511" s="22"/>
       <c r="F511" s="22"/>
     </row>
-    <row r="512" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C512" s="25"/>
       <c r="D512" s="23"/>
       <c r="E512" s="23"/>
       <c r="F512" s="23"/>
     </row>
-    <row r="513" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C513" s="24"/>
       <c r="D513" s="22"/>
       <c r="E513" s="22"/>
       <c r="F513" s="22"/>
     </row>
-    <row r="514" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C514" s="25"/>
       <c r="D514" s="23"/>
       <c r="E514" s="23"/>
       <c r="F514" s="23"/>
     </row>
-    <row r="515" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C515" s="24"/>
       <c r="D515" s="22"/>
       <c r="E515" s="22"/>
       <c r="F515" s="22"/>
     </row>
-    <row r="516" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C516" s="25"/>
       <c r="D516" s="23"/>
       <c r="E516" s="23"/>
       <c r="F516" s="23"/>
     </row>
-    <row r="517" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C517" s="24"/>
       <c r="D517" s="22"/>
       <c r="E517" s="22"/>
       <c r="F517" s="22"/>
     </row>
-    <row r="518" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C518" s="25"/>
       <c r="D518" s="23"/>
       <c r="E518" s="23"/>
       <c r="F518" s="23"/>
     </row>
-    <row r="519" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C519" s="24"/>
       <c r="D519" s="22"/>
       <c r="E519" s="22"/>
       <c r="F519" s="22"/>
     </row>
-    <row r="520" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C520" s="25"/>
       <c r="D520" s="23"/>
       <c r="E520" s="23"/>
       <c r="F520" s="23"/>
     </row>
-    <row r="521" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C521" s="24"/>
       <c r="D521" s="22"/>
       <c r="E521" s="22"/>
       <c r="F521" s="22"/>
     </row>
-    <row r="522" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C522" s="25"/>
       <c r="D522" s="23"/>
       <c r="E522" s="23"/>
       <c r="F522" s="23"/>
     </row>
-    <row r="523" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C523" s="24"/>
       <c r="D523" s="22"/>
       <c r="E523" s="22"/>
       <c r="F523" s="22"/>
     </row>
-    <row r="524" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C524" s="25"/>
       <c r="D524" s="23"/>
       <c r="E524" s="23"/>
       <c r="F524" s="23"/>
     </row>
-    <row r="525" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C525" s="24"/>
       <c r="D525" s="22"/>
       <c r="E525" s="22"/>
       <c r="F525" s="22"/>
     </row>
-    <row r="526" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C526" s="25"/>
       <c r="D526" s="23"/>
       <c r="E526" s="23"/>
       <c r="F526" s="23"/>
     </row>
-    <row r="527" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C527" s="24"/>
       <c r="D527" s="22"/>
       <c r="E527" s="22"/>
       <c r="F527" s="22"/>
     </row>
-    <row r="528" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C528" s="25"/>
       <c r="D528" s="23"/>
       <c r="E528" s="23"/>
       <c r="F528" s="23"/>
     </row>
-    <row r="529" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C529" s="24"/>
       <c r="D529" s="22"/>
       <c r="E529" s="22"/>
       <c r="F529" s="22"/>
     </row>
-    <row r="530" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C530" s="25"/>
       <c r="D530" s="23"/>
       <c r="E530" s="23"/>
       <c r="F530" s="23"/>
     </row>
-    <row r="531" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C531" s="24"/>
       <c r="D531" s="22"/>
       <c r="E531" s="22"/>
       <c r="F531" s="22"/>
     </row>
-    <row r="532" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C532" s="25"/>
       <c r="D532" s="23"/>
       <c r="E532" s="23"/>
       <c r="F532" s="23"/>
     </row>
-    <row r="533" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C533" s="24"/>
       <c r="D533" s="22"/>
       <c r="E533" s="22"/>
       <c r="F533" s="22"/>
     </row>
-    <row r="534" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C534" s="25"/>
       <c r="D534" s="23"/>
       <c r="E534" s="23"/>
       <c r="F534" s="23"/>
     </row>
-    <row r="535" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C535" s="24"/>
       <c r="D535" s="22"/>
       <c r="E535" s="22"/>
       <c r="F535" s="22"/>
     </row>
-    <row r="536" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C536" s="25"/>
       <c r="D536" s="23"/>
       <c r="E536" s="23"/>
       <c r="F536" s="23"/>
     </row>
-    <row r="537" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C537" s="24"/>
       <c r="D537" s="22"/>
       <c r="E537" s="22"/>
       <c r="F537" s="22"/>
     </row>
-    <row r="538" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C538" s="25"/>
       <c r="D538" s="23"/>
       <c r="E538" s="23"/>
       <c r="F538" s="23"/>
     </row>
-    <row r="539" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C539" s="24"/>
       <c r="D539" s="22"/>
       <c r="E539" s="22"/>
       <c r="F539" s="22"/>
     </row>
-    <row r="540" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C540" s="25"/>
       <c r="D540" s="23"/>
       <c r="E540" s="23"/>
       <c r="F540" s="23"/>
     </row>
-    <row r="541" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C541" s="24"/>
       <c r="D541" s="22"/>
       <c r="E541" s="22"/>
       <c r="F541" s="22"/>
     </row>
-    <row r="542" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C542" s="25"/>
       <c r="D542" s="23"/>
       <c r="E542" s="23"/>
       <c r="F542" s="23"/>
     </row>
-    <row r="543" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C543" s="24"/>
       <c r="D543" s="22"/>
       <c r="E543" s="22"/>
       <c r="F543" s="22"/>
     </row>
-    <row r="544" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C544" s="25"/>
       <c r="D544" s="23"/>
       <c r="E544" s="23"/>
       <c r="F544" s="23"/>
     </row>
-    <row r="545" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C545" s="24"/>
       <c r="D545" s="22"/>
       <c r="E545" s="22"/>
       <c r="F545" s="22"/>
     </row>
-    <row r="546" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C546" s="25"/>
       <c r="D546" s="23"/>
       <c r="E546" s="23"/>
       <c r="F546" s="23"/>
     </row>
-    <row r="547" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C547" s="24"/>
       <c r="D547" s="22"/>
       <c r="E547" s="22"/>
       <c r="F547" s="22"/>
     </row>
-    <row r="548" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C548" s="25"/>
       <c r="D548" s="23"/>
       <c r="E548" s="23"/>
       <c r="F548" s="23"/>
     </row>
-    <row r="549" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C549" s="24"/>
       <c r="D549" s="22"/>
       <c r="E549" s="22"/>
       <c r="F549" s="22"/>
     </row>
-    <row r="550" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C550" s="25"/>
       <c r="D550" s="23"/>
       <c r="E550" s="23"/>
       <c r="F550" s="23"/>
     </row>
-    <row r="551" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C551" s="24"/>
       <c r="D551" s="22"/>
       <c r="E551" s="22"/>
       <c r="F551" s="22"/>
     </row>
-    <row r="552" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C552" s="25"/>
       <c r="D552" s="23"/>
       <c r="E552" s="23"/>
       <c r="F552" s="23"/>
     </row>
-    <row r="553" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C553" s="24"/>
       <c r="D553" s="22"/>
       <c r="E553" s="22"/>
       <c r="F553" s="22"/>
     </row>
-    <row r="554" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C554" s="25"/>
       <c r="D554" s="23"/>
       <c r="E554" s="23"/>
       <c r="F554" s="23"/>
     </row>
-    <row r="555" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C555" s="24"/>
       <c r="D555" s="22"/>
       <c r="E555" s="22"/>
       <c r="F555" s="22"/>
     </row>
-    <row r="556" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C556" s="25"/>
       <c r="D556" s="23"/>
       <c r="E556" s="23"/>
       <c r="F556" s="23"/>
     </row>
-    <row r="557" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C557" s="24"/>
       <c r="D557" s="22"/>
       <c r="E557" s="22"/>
       <c r="F557" s="22"/>
     </row>
-    <row r="558" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C558" s="25"/>
       <c r="D558" s="23"/>
       <c r="E558" s="23"/>
       <c r="F558" s="23"/>
     </row>
-    <row r="559" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C559" s="24"/>
       <c r="D559" s="22"/>
       <c r="E559" s="22"/>
       <c r="F559" s="22"/>
     </row>
-    <row r="560" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C560" s="25"/>
       <c r="D560" s="23"/>
       <c r="E560" s="23"/>
       <c r="F560" s="23"/>
     </row>
-    <row r="561" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C561" s="24"/>
       <c r="D561" s="22"/>
       <c r="E561" s="22"/>
       <c r="F561" s="22"/>
     </row>
-    <row r="562" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C562" s="25"/>
       <c r="D562" s="23"/>
       <c r="E562" s="23"/>
       <c r="F562" s="23"/>
     </row>
-    <row r="563" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C563" s="24"/>
       <c r="D563" s="22"/>
       <c r="E563" s="22"/>
       <c r="F563" s="22"/>
     </row>
-    <row r="564" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C564" s="25"/>
       <c r="D564" s="23"/>
       <c r="E564" s="23"/>
       <c r="F564" s="23"/>
     </row>
-    <row r="565" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C565" s="24"/>
       <c r="D565" s="22"/>
       <c r="E565" s="22"/>
       <c r="F565" s="22"/>
     </row>
-    <row r="566" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C566" s="25"/>
       <c r="D566" s="23"/>
       <c r="E566" s="23"/>
       <c r="F566" s="23"/>
     </row>
-    <row r="567" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C567" s="24"/>
       <c r="D567" s="22"/>
       <c r="E567" s="22"/>
       <c r="F567" s="22"/>
     </row>
-    <row r="568" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C568" s="25"/>
       <c r="D568" s="23"/>
       <c r="E568" s="23"/>
       <c r="F568" s="23"/>
     </row>
-    <row r="569" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C569" s="24"/>
       <c r="D569" s="22"/>
       <c r="E569" s="22"/>
       <c r="F569" s="22"/>
     </row>
-    <row r="570" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C570" s="25"/>
       <c r="D570" s="23"/>
       <c r="E570" s="23"/>
       <c r="F570" s="23"/>
     </row>
-    <row r="571" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C571" s="24"/>
       <c r="D571" s="22"/>
       <c r="E571" s="22"/>
       <c r="F571" s="22"/>
     </row>
-    <row r="572" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C572" s="25"/>
       <c r="D572" s="23"/>
       <c r="E572" s="23"/>
       <c r="F572" s="23"/>
     </row>
-    <row r="573" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C573" s="24"/>
       <c r="D573" s="22"/>
       <c r="E573" s="22"/>
       <c r="F573" s="22"/>
     </row>
-    <row r="574" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C574" s="25"/>
       <c r="D574" s="23"/>
       <c r="E574" s="23"/>
       <c r="F574" s="23"/>
     </row>
-    <row r="575" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C575" s="24"/>
       <c r="D575" s="22"/>
       <c r="E575" s="22"/>
       <c r="F575" s="22"/>
     </row>
-    <row r="576" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C576" s="25"/>
       <c r="D576" s="23"/>
       <c r="E576" s="23"/>
       <c r="F576" s="23"/>
     </row>
-    <row r="577" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C577" s="24"/>
       <c r="D577" s="22"/>
       <c r="E577" s="22"/>
       <c r="F577" s="22"/>
     </row>
-    <row r="578" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C578" s="25"/>
       <c r="D578" s="23"/>
       <c r="E578" s="23"/>
       <c r="F578" s="23"/>
     </row>
-    <row r="579" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C579" s="24"/>
       <c r="D579" s="22"/>
       <c r="E579" s="22"/>
       <c r="F579" s="22"/>
     </row>
-    <row r="580" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C580" s="25"/>
       <c r="D580" s="23"/>
       <c r="E580" s="23"/>
       <c r="F580" s="23"/>
     </row>
-    <row r="581" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C581" s="24"/>
       <c r="D581" s="22"/>
       <c r="E581" s="22"/>
       <c r="F581" s="22"/>
     </row>
-    <row r="582" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C582" s="25"/>
       <c r="D582" s="23"/>
       <c r="E582" s="23"/>
       <c r="F582" s="23"/>
     </row>
-    <row r="583" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C583" s="24"/>
       <c r="D583" s="22"/>
       <c r="E583" s="22"/>
       <c r="F583" s="22"/>
     </row>
-    <row r="584" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C584" s="25"/>
       <c r="D584" s="23"/>
       <c r="E584" s="23"/>
       <c r="F584" s="23"/>
     </row>
-    <row r="585" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C585" s="24"/>
       <c r="D585" s="22"/>
       <c r="E585" s="22"/>
       <c r="F585" s="22"/>
     </row>
-    <row r="586" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C586" s="25"/>
       <c r="D586" s="23"/>
       <c r="E586" s="23"/>
       <c r="F586" s="23"/>
     </row>
-    <row r="587" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C587" s="24"/>
       <c r="D587" s="22"/>
       <c r="E587" s="22"/>
       <c r="F587" s="22"/>
     </row>
-    <row r="588" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C588" s="25"/>
       <c r="D588" s="23"/>
       <c r="E588" s="23"/>
       <c r="F588" s="23"/>
     </row>
-    <row r="589" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C589" s="24"/>
       <c r="D589" s="22"/>
       <c r="E589" s="22"/>
       <c r="F589" s="22"/>
     </row>
-    <row r="590" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C590" s="25"/>
       <c r="D590" s="23"/>
       <c r="E590" s="23"/>
       <c r="F590" s="23"/>
     </row>
-    <row r="591" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C591" s="24"/>
       <c r="D591" s="22"/>
       <c r="E591" s="22"/>
       <c r="F591" s="22"/>
     </row>
-    <row r="592" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C592" s="25"/>
       <c r="D592" s="23"/>
       <c r="E592" s="23"/>
       <c r="F592" s="23"/>
     </row>
-    <row r="593" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C593" s="24"/>
       <c r="D593" s="22"/>
       <c r="E593" s="22"/>
       <c r="F593" s="22"/>
     </row>
-    <row r="594" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C594" s="25"/>
       <c r="D594" s="23"/>
       <c r="E594" s="23"/>
       <c r="F594" s="23"/>
     </row>
-    <row r="595" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C595" s="24"/>
       <c r="D595" s="22"/>
       <c r="E595" s="22"/>
       <c r="F595" s="22"/>
     </row>
-    <row r="596" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C596" s="25"/>
       <c r="D596" s="23"/>
       <c r="E596" s="23"/>
       <c r="F596" s="23"/>
     </row>
-    <row r="597" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C597" s="24"/>
       <c r="D597" s="22"/>
       <c r="E597" s="22"/>
       <c r="F597" s="22"/>
     </row>
-    <row r="598" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C598" s="25"/>
       <c r="D598" s="23"/>
       <c r="E598" s="23"/>
       <c r="F598" s="23"/>
     </row>
-    <row r="599" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C599" s="24"/>
       <c r="D599" s="22"/>
       <c r="E599" s="22"/>
       <c r="F599" s="22"/>
     </row>
-    <row r="600" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C600" s="25"/>
       <c r="D600" s="23"/>
       <c r="E600" s="23"/>
       <c r="F600" s="23"/>
     </row>
-    <row r="601" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C601" s="24"/>
       <c r="D601" s="22"/>
       <c r="E601" s="22"/>
       <c r="F601" s="22"/>
     </row>
-    <row r="602" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C602" s="25"/>
       <c r="D602" s="23"/>
       <c r="E602" s="23"/>
       <c r="F602" s="23"/>
     </row>
-    <row r="603" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C603" s="24"/>
       <c r="D603" s="22"/>
       <c r="E603" s="22"/>
       <c r="F603" s="22"/>
     </row>
-    <row r="604" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C604" s="25"/>
       <c r="D604" s="23"/>
       <c r="E604" s="23"/>
       <c r="F604" s="23"/>
     </row>
-    <row r="605" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C605" s="24"/>
       <c r="D605" s="22"/>
       <c r="E605" s="22"/>
       <c r="F605" s="22"/>
     </row>
-    <row r="606" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C606" s="25"/>
       <c r="D606" s="23"/>
       <c r="E606" s="23"/>
       <c r="F606" s="23"/>
     </row>
-    <row r="607" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C607" s="24"/>
       <c r="D607" s="22"/>
       <c r="E607" s="22"/>
       <c r="F607" s="22"/>
     </row>
-    <row r="608" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C608" s="25"/>
       <c r="D608" s="23"/>
       <c r="E608" s="23"/>
       <c r="F608" s="23"/>
     </row>
-    <row r="609" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C609" s="24"/>
       <c r="D609" s="22"/>
       <c r="E609" s="22"/>
       <c r="F609" s="22"/>
     </row>
-    <row r="610" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C610" s="25"/>
       <c r="D610" s="23"/>
       <c r="E610" s="23"/>
       <c r="F610" s="23"/>
     </row>
-    <row r="611" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C611" s="24"/>
       <c r="D611" s="22"/>
       <c r="E611" s="22"/>
       <c r="F611" s="22"/>
     </row>
-    <row r="612" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C612" s="25"/>
       <c r="D612" s="23"/>
       <c r="E612" s="23"/>
       <c r="F612" s="23"/>
     </row>
-    <row r="613" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C613" s="24"/>
       <c r="D613" s="22"/>
       <c r="E613" s="22"/>
       <c r="F613" s="22"/>
     </row>
-    <row r="614" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C614" s="25"/>
       <c r="D614" s="23"/>
       <c r="E614" s="23"/>
       <c r="F614" s="23"/>
     </row>
-    <row r="615" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C615" s="24"/>
       <c r="D615" s="22"/>
       <c r="E615" s="22"/>
       <c r="F615" s="22"/>
     </row>
-    <row r="616" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C616" s="25"/>
       <c r="D616" s="23"/>
       <c r="E616" s="23"/>
       <c r="F616" s="23"/>
     </row>
-    <row r="617" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C617" s="24"/>
       <c r="D617" s="22"/>
       <c r="E617" s="22"/>
       <c r="F617" s="22"/>
     </row>
-    <row r="618" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C618" s="25"/>
       <c r="D618" s="23"/>
       <c r="E618" s="23"/>
       <c r="F618" s="23"/>
     </row>
-    <row r="619" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C619" s="24"/>
       <c r="D619" s="22"/>
       <c r="E619" s="22"/>
       <c r="F619" s="22"/>
     </row>
-    <row r="620" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C620" s="25"/>
       <c r="D620" s="23"/>
       <c r="E620" s="23"/>
       <c r="F620" s="23"/>
     </row>
-    <row r="621" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C621" s="24"/>
       <c r="D621" s="22"/>
       <c r="E621" s="22"/>
       <c r="F621" s="22"/>
     </row>
-    <row r="622" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C622" s="25"/>
       <c r="D622" s="23"/>
       <c r="E622" s="23"/>
       <c r="F622" s="23"/>
     </row>
-    <row r="623" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C623" s="24"/>
       <c r="D623" s="22"/>
       <c r="E623" s="22"/>
       <c r="F623" s="22"/>
     </row>
-    <row r="624" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C624" s="25"/>
       <c r="D624" s="23"/>
       <c r="E624" s="23"/>
       <c r="F624" s="23"/>
     </row>
-    <row r="625" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C625" s="24"/>
       <c r="D625" s="22"/>
       <c r="E625" s="22"/>
       <c r="F625" s="22"/>
     </row>
-    <row r="626" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C626" s="25"/>
       <c r="D626" s="23"/>
       <c r="E626" s="23"/>
       <c r="F626" s="23"/>
     </row>
-    <row r="627" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C627" s="24"/>
       <c r="D627" s="22"/>
       <c r="E627" s="22"/>
       <c r="F627" s="22"/>
     </row>
-    <row r="628" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C628" s="25"/>
       <c r="D628" s="23"/>
       <c r="E628" s="23"/>
       <c r="F628" s="23"/>
     </row>
-    <row r="629" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C629" s="24"/>
       <c r="D629" s="22"/>
       <c r="E629" s="22"/>
       <c r="F629" s="22"/>
     </row>
-    <row r="630" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C630" s="25"/>
       <c r="D630" s="23"/>
       <c r="E630" s="23"/>
       <c r="F630" s="23"/>
     </row>
-    <row r="631" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C631" s="24"/>
       <c r="D631" s="22"/>
       <c r="E631" s="22"/>
       <c r="F631" s="22"/>
     </row>
-    <row r="632" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C632" s="25"/>
       <c r="D632" s="23"/>
       <c r="E632" s="23"/>
       <c r="F632" s="23"/>
     </row>
-    <row r="633" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C633" s="24"/>
       <c r="D633" s="22"/>
       <c r="E633" s="22"/>
       <c r="F633" s="22"/>
     </row>
-    <row r="634" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C634" s="25"/>
       <c r="D634" s="23"/>
       <c r="E634" s="23"/>
       <c r="F634" s="23"/>
     </row>
-    <row r="635" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C635" s="24"/>
       <c r="D635" s="22"/>
       <c r="E635" s="22"/>
       <c r="F635" s="22"/>
     </row>
-    <row r="636" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C636" s="25"/>
       <c r="D636" s="23"/>
       <c r="E636" s="23"/>
       <c r="F636" s="23"/>
     </row>
-    <row r="637" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C637" s="24"/>
       <c r="D637" s="22"/>
       <c r="E637" s="22"/>
       <c r="F637" s="22"/>
     </row>
-    <row r="638" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C638" s="25"/>
       <c r="D638" s="23"/>
       <c r="E638" s="23"/>
       <c r="F638" s="23"/>
     </row>
-    <row r="639" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C639" s="24"/>
       <c r="D639" s="22"/>
       <c r="E639" s="22"/>
       <c r="F639" s="22"/>
     </row>
-    <row r="640" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C640" s="25"/>
       <c r="D640" s="23"/>
       <c r="E640" s="23"/>
       <c r="F640" s="23"/>
     </row>
-    <row r="641" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C641" s="24"/>
       <c r="D641" s="22"/>
       <c r="E641" s="22"/>
       <c r="F641" s="22"/>
     </row>
-    <row r="642" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C642" s="25"/>
       <c r="D642" s="23"/>
       <c r="E642" s="23"/>
       <c r="F642" s="23"/>
     </row>
-    <row r="643" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C643" s="24"/>
       <c r="D643" s="22"/>
       <c r="E643" s="22"/>
       <c r="F643" s="22"/>
     </row>
-    <row r="644" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C644" s="25"/>
       <c r="D644" s="23"/>
       <c r="E644" s="23"/>
       <c r="F644" s="23"/>
     </row>
-    <row r="645" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C645" s="24"/>
       <c r="D645" s="22"/>
       <c r="E645" s="22"/>
       <c r="F645" s="22"/>
     </row>
-    <row r="646" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C646" s="25"/>
       <c r="D646" s="23"/>
       <c r="E646" s="23"/>
       <c r="F646" s="23"/>
     </row>
-    <row r="647" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C647" s="24"/>
       <c r="D647" s="22"/>
       <c r="E647" s="22"/>
       <c r="F647" s="22"/>
     </row>
-    <row r="648" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C648" s="25"/>
       <c r="D648" s="23"/>
       <c r="E648" s="23"/>
       <c r="F648" s="23"/>
     </row>
-    <row r="649" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C649" s="24"/>
       <c r="D649" s="22"/>
       <c r="E649" s="22"/>
       <c r="F649" s="22"/>
     </row>
-    <row r="650" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C650" s="25"/>
       <c r="D650" s="23"/>
       <c r="E650" s="23"/>
       <c r="F650" s="23"/>
     </row>
-    <row r="651" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C651" s="24"/>
       <c r="D651" s="22"/>
       <c r="E651" s="22"/>
       <c r="F651" s="22"/>
     </row>
-    <row r="652" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C652" s="25"/>
       <c r="D652" s="23"/>
       <c r="E652" s="23"/>
       <c r="F652" s="23"/>
     </row>
-    <row r="653" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C653" s="24"/>
       <c r="D653" s="22"/>
       <c r="E653" s="22"/>
       <c r="F653" s="22"/>
     </row>
-    <row r="654" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C654" s="25"/>
       <c r="D654" s="23"/>
       <c r="E654" s="23"/>
       <c r="F654" s="23"/>
     </row>
-    <row r="655" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C655" s="24"/>
       <c r="D655" s="22"/>
       <c r="E655" s="22"/>
       <c r="F655" s="22"/>
     </row>
-    <row r="656" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C656" s="25"/>
       <c r="D656" s="23"/>
       <c r="E656" s="23"/>
       <c r="F656" s="23"/>
     </row>
-    <row r="657" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C657" s="24"/>
       <c r="D657" s="22"/>
       <c r="E657" s="22"/>
       <c r="F657" s="22"/>
     </row>
-    <row r="658" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C658" s="25"/>
       <c r="D658" s="23"/>
       <c r="E658" s="23"/>
       <c r="F658" s="23"/>
     </row>
-    <row r="659" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C659" s="24"/>
       <c r="D659" s="22"/>
       <c r="E659" s="22"/>
       <c r="F659" s="22"/>
     </row>
-    <row r="660" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C660" s="25"/>
       <c r="D660" s="23"/>
       <c r="E660" s="23"/>
       <c r="F660" s="23"/>
     </row>
-    <row r="661" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C661" s="24"/>
       <c r="D661" s="22"/>
       <c r="E661" s="22"/>
       <c r="F661" s="22"/>
     </row>
-    <row r="662" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C662" s="25"/>
       <c r="D662" s="23"/>
       <c r="E662" s="23"/>
       <c r="F662" s="23"/>
     </row>
-    <row r="663" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C663" s="24"/>
       <c r="D663" s="22"/>
       <c r="E663" s="22"/>
       <c r="F663" s="22"/>
     </row>
-    <row r="664" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C664" s="25"/>
       <c r="D664" s="23"/>
       <c r="E664" s="23"/>
       <c r="F664" s="23"/>
     </row>
-    <row r="665" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C665" s="24"/>
       <c r="D665" s="22"/>
       <c r="E665" s="22"/>
       <c r="F665" s="22"/>
     </row>
-    <row r="666" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C666" s="25"/>
       <c r="D666" s="23"/>
       <c r="E666" s="23"/>
       <c r="F666" s="23"/>
     </row>
-    <row r="667" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C667" s="24"/>
       <c r="D667" s="22"/>
       <c r="E667" s="22"/>
       <c r="F667" s="22"/>
     </row>
-    <row r="668" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C668" s="25"/>
       <c r="D668" s="23"/>
       <c r="E668" s="23"/>
       <c r="F668" s="23"/>
     </row>
-    <row r="669" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C669" s="24"/>
       <c r="D669" s="22"/>
       <c r="E669" s="22"/>
       <c r="F669" s="22"/>
     </row>
-    <row r="670" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C670" s="25"/>
       <c r="D670" s="23"/>
       <c r="E670" s="23"/>
       <c r="F670" s="23"/>
     </row>
-    <row r="671" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C671" s="24"/>
       <c r="D671" s="22"/>
       <c r="E671" s="22"/>
       <c r="F671" s="22"/>
     </row>
-    <row r="672" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C672" s="25"/>
       <c r="D672" s="23"/>
       <c r="E672" s="23"/>
       <c r="F672" s="23"/>
     </row>
-    <row r="673" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C673" s="24"/>
       <c r="D673" s="22"/>
       <c r="E673" s="22"/>
       <c r="F673" s="22"/>
     </row>
-    <row r="674" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C674" s="25"/>
       <c r="D674" s="23"/>
       <c r="E674" s="23"/>
       <c r="F674" s="23"/>
     </row>
-    <row r="675" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C675" s="24"/>
       <c r="D675" s="22"/>
       <c r="E675" s="22"/>
       <c r="F675" s="22"/>
     </row>
-    <row r="676" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C676" s="25"/>
       <c r="D676" s="23"/>
       <c r="E676" s="23"/>
       <c r="F676" s="23"/>
     </row>
-    <row r="677" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C677" s="24"/>
       <c r="D677" s="22"/>
       <c r="E677" s="22"/>
       <c r="F677" s="22"/>
     </row>
-    <row r="678" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C678" s="25"/>
       <c r="D678" s="23"/>
       <c r="E678" s="23"/>
       <c r="F678" s="23"/>
     </row>
-    <row r="679" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C679" s="24"/>
       <c r="D679" s="22"/>
       <c r="E679" s="22"/>
       <c r="F679" s="22"/>
     </row>
-    <row r="680" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C680" s="25"/>
       <c r="D680" s="23"/>
       <c r="E680" s="23"/>
       <c r="F680" s="23"/>
     </row>
-    <row r="681" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C681" s="24"/>
       <c r="D681" s="22"/>
       <c r="E681" s="22"/>
       <c r="F681" s="22"/>
     </row>
-    <row r="682" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C682" s="25"/>
       <c r="D682" s="23"/>
       <c r="E682" s="23"/>
       <c r="F682" s="23"/>
     </row>
-    <row r="683" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C683" s="24"/>
       <c r="D683" s="22"/>
       <c r="E683" s="22"/>
       <c r="F683" s="22"/>
     </row>
-    <row r="684" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C684" s="25"/>
       <c r="D684" s="23"/>
       <c r="E684" s="23"/>
       <c r="F684" s="23"/>
     </row>
-    <row r="685" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C685" s="24"/>
       <c r="D685" s="22"/>
       <c r="E685" s="22"/>
       <c r="F685" s="22"/>
     </row>
-    <row r="686" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C686" s="25"/>
       <c r="D686" s="23"/>
       <c r="E686" s="23"/>
       <c r="F686" s="23"/>
     </row>
-    <row r="687" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C687" s="24"/>
       <c r="D687" s="22"/>
       <c r="E687" s="22"/>
       <c r="F687" s="22"/>
     </row>
-    <row r="688" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C688" s="25"/>
       <c r="D688" s="23"/>
       <c r="E688" s="23"/>
       <c r="F688" s="23"/>
     </row>
-    <row r="689" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C689" s="24"/>
       <c r="D689" s="22"/>
       <c r="E689" s="22"/>
       <c r="F689" s="22"/>
     </row>
-    <row r="690" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C690" s="25"/>
       <c r="D690" s="23"/>
       <c r="E690" s="23"/>
       <c r="F690" s="23"/>
     </row>
-    <row r="691" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C691" s="24"/>
       <c r="D691" s="22"/>
       <c r="E691" s="22"/>
       <c r="F691" s="22"/>
     </row>
-    <row r="692" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C692" s="25"/>
       <c r="D692" s="23"/>
       <c r="E692" s="23"/>
       <c r="F692" s="23"/>
     </row>
-    <row r="693" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C693" s="24"/>
       <c r="D693" s="22"/>
       <c r="E693" s="22"/>
       <c r="F693" s="22"/>
     </row>
-    <row r="694" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C694" s="25"/>
       <c r="D694" s="23"/>
       <c r="E694" s="23"/>
       <c r="F694" s="23"/>
     </row>
-    <row r="695" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C695" s="24"/>
       <c r="D695" s="22"/>
       <c r="E695" s="22"/>
       <c r="F695" s="22"/>
     </row>
-    <row r="696" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C696" s="25"/>
       <c r="D696" s="23"/>
       <c r="E696" s="23"/>
       <c r="F696" s="23"/>
     </row>
-    <row r="697" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C697" s="24"/>
       <c r="D697" s="22"/>
       <c r="E697" s="22"/>
       <c r="F697" s="22"/>
     </row>
-    <row r="698" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C698" s="25"/>
       <c r="D698" s="23"/>
       <c r="E698" s="23"/>
       <c r="F698" s="23"/>
     </row>
-    <row r="699" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C699" s="24"/>
       <c r="D699" s="22"/>
       <c r="E699" s="22"/>
       <c r="F699" s="22"/>
     </row>
-    <row r="700" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C700" s="25"/>
       <c r="D700" s="23"/>
       <c r="E700" s="23"/>
       <c r="F700" s="23"/>
     </row>
-    <row r="701" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C701" s="24"/>
       <c r="D701" s="22"/>
       <c r="E701" s="22"/>
       <c r="F701" s="22"/>
     </row>
-    <row r="702" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C702" s="25"/>
       <c r="D702" s="23"/>
       <c r="E702" s="23"/>
       <c r="F702" s="23"/>
     </row>
-    <row r="703" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C703" s="24"/>
       <c r="D703" s="22"/>
       <c r="E703" s="22"/>
       <c r="F703" s="22"/>
     </row>
-    <row r="704" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C704" s="25"/>
       <c r="D704" s="23"/>
       <c r="E704" s="23"/>
       <c r="F704" s="23"/>
     </row>
-    <row r="705" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C705" s="24"/>
       <c r="D705" s="22"/>
       <c r="E705" s="22"/>
       <c r="F705" s="22"/>
     </row>
-    <row r="706" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C706" s="25"/>
       <c r="D706" s="23"/>
       <c r="E706" s="23"/>
       <c r="F706" s="23"/>
     </row>
-    <row r="707" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C707" s="24"/>
       <c r="D707" s="22"/>
       <c r="E707" s="22"/>
       <c r="F707" s="22"/>
     </row>
-    <row r="708" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C708" s="25"/>
       <c r="D708" s="23"/>
       <c r="E708" s="23"/>
       <c r="F708" s="23"/>
     </row>
-    <row r="709" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C709" s="24"/>
       <c r="D709" s="22"/>
       <c r="E709" s="22"/>
       <c r="F709" s="22"/>
     </row>
-    <row r="710" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C710" s="25"/>
       <c r="D710" s="23"/>
       <c r="E710" s="23"/>
       <c r="F710" s="23"/>
     </row>
-    <row r="711" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C711" s="24"/>
       <c r="D711" s="22"/>
       <c r="E711" s="22"/>
       <c r="F711" s="22"/>
     </row>
-    <row r="712" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C712" s="25"/>
       <c r="D712" s="23"/>
       <c r="E712" s="23"/>
       <c r="F712" s="23"/>
     </row>
-    <row r="713" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C713" s="24"/>
       <c r="D713" s="22"/>
       <c r="E713" s="22"/>
       <c r="F713" s="22"/>
     </row>
-    <row r="714" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C714" s="25"/>
       <c r="D714" s="23"/>
       <c r="E714" s="23"/>
       <c r="F714" s="23"/>
     </row>
-    <row r="715" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C715" s="24"/>
       <c r="D715" s="22"/>
       <c r="E715" s="22"/>
       <c r="F715" s="22"/>
     </row>
-    <row r="716" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C716" s="25"/>
       <c r="D716" s="23"/>
       <c r="E716" s="23"/>
       <c r="F716" s="23"/>
     </row>
-    <row r="717" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C717" s="24"/>
       <c r="D717" s="22"/>
       <c r="E717" s="22"/>
       <c r="F717" s="22"/>
     </row>
-    <row r="718" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C718" s="25"/>
       <c r="D718" s="23"/>
       <c r="E718" s="23"/>
       <c r="F718" s="23"/>
     </row>
-    <row r="719" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C719" s="24"/>
       <c r="D719" s="22"/>
       <c r="E719" s="22"/>
       <c r="F719" s="22"/>
     </row>
-    <row r="720" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C720" s="25"/>
       <c r="D720" s="23"/>
       <c r="E720" s="23"/>
       <c r="F720" s="23"/>
     </row>
-    <row r="721" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C721" s="24"/>
       <c r="D721" s="22"/>
       <c r="E721" s="22"/>
       <c r="F721" s="22"/>
     </row>
-    <row r="722" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C722" s="25"/>
       <c r="D722" s="23"/>
       <c r="E722" s="23"/>
       <c r="F722" s="23"/>
     </row>
-    <row r="723" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C723" s="24"/>
       <c r="D723" s="22"/>
       <c r="E723" s="22"/>
       <c r="F723" s="22"/>
     </row>
-    <row r="724" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C724" s="25"/>
       <c r="D724" s="23"/>
       <c r="E724" s="23"/>
       <c r="F724" s="23"/>
     </row>
-    <row r="725" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C725" s="24"/>
       <c r="D725" s="22"/>
       <c r="E725" s="22"/>
       <c r="F725" s="22"/>
     </row>
-    <row r="726" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C726" s="25"/>
       <c r="D726" s="23"/>
       <c r="E726" s="23"/>
       <c r="F726" s="23"/>
     </row>
-    <row r="727" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C727" s="24"/>
       <c r="D727" s="22"/>
       <c r="E727" s="22"/>
       <c r="F727" s="22"/>
     </row>
-    <row r="728" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C728" s="25"/>
       <c r="D728" s="23"/>
       <c r="E728" s="23"/>
       <c r="F728" s="23"/>
     </row>
-    <row r="729" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C729" s="24"/>
       <c r="D729" s="22"/>
       <c r="E729" s="22"/>
       <c r="F729" s="22"/>
     </row>
-    <row r="730" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C730" s="25"/>
       <c r="D730" s="23"/>
       <c r="E730" s="23"/>
       <c r="F730" s="23"/>
     </row>
-    <row r="731" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C731" s="24"/>
       <c r="D731" s="22"/>
       <c r="E731" s="22"/>
       <c r="F731" s="22"/>
     </row>
-    <row r="732" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C732" s="25"/>
       <c r="D732" s="23"/>
       <c r="E732" s="23"/>
       <c r="F732" s="23"/>
     </row>
-    <row r="733" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C733" s="24"/>
       <c r="D733" s="22"/>
       <c r="E733" s="22"/>
       <c r="F733" s="22"/>
     </row>
-    <row r="734" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C734" s="25"/>
       <c r="D734" s="23"/>
       <c r="E734" s="23"/>
       <c r="F734" s="23"/>
     </row>
-    <row r="735" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C735" s="24"/>
       <c r="D735" s="22"/>
       <c r="E735" s="22"/>
       <c r="F735" s="22"/>
     </row>
-    <row r="736" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C736" s="25"/>
       <c r="D736" s="23"/>
       <c r="E736" s="23"/>
       <c r="F736" s="23"/>
     </row>
-    <row r="737" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C737" s="24"/>
       <c r="D737" s="22"/>
       <c r="E737" s="22"/>
       <c r="F737" s="22"/>
     </row>
-    <row r="738" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C738" s="25"/>
       <c r="D738" s="23"/>
       <c r="E738" s="23"/>
       <c r="F738" s="23"/>
     </row>
-    <row r="739" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C739" s="24"/>
       <c r="D739" s="22"/>
       <c r="E739" s="22"/>
       <c r="F739" s="22"/>
     </row>
-    <row r="740" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C740" s="25"/>
       <c r="D740" s="23"/>
       <c r="E740" s="23"/>
       <c r="F740" s="23"/>
     </row>
-    <row r="741" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C741" s="24"/>
       <c r="D741" s="22"/>
       <c r="E741" s="22"/>
       <c r="F741" s="22"/>
     </row>
-    <row r="742" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C742" s="25"/>
       <c r="D742" s="23"/>
       <c r="E742" s="23"/>
       <c r="F742" s="23"/>
     </row>
-    <row r="743" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C743" s="24"/>
       <c r="D743" s="22"/>
       <c r="E743" s="22"/>
       <c r="F743" s="22"/>
     </row>
-    <row r="744" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C744" s="25"/>
       <c r="D744" s="23"/>
       <c r="E744" s="23"/>
       <c r="F744" s="23"/>
     </row>
-    <row r="745" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C745" s="24"/>
       <c r="D745" s="22"/>
       <c r="E745" s="22"/>
       <c r="F745" s="22"/>
     </row>
-    <row r="746" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C746" s="25"/>
       <c r="D746" s="23"/>
       <c r="E746" s="23"/>
       <c r="F746" s="23"/>
     </row>
-    <row r="747" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C747" s="24"/>
       <c r="D747" s="22"/>
       <c r="E747" s="22"/>
       <c r="F747" s="22"/>
     </row>
-    <row r="748" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C748" s="25"/>
       <c r="D748" s="23"/>
       <c r="E748" s="23"/>
       <c r="F748" s="23"/>
     </row>
-    <row r="749" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C749" s="24"/>
       <c r="D749" s="22"/>
       <c r="E749" s="22"/>
       <c r="F749" s="22"/>
     </row>
-    <row r="750" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C750" s="25"/>
       <c r="D750" s="23"/>
       <c r="E750" s="23"/>
       <c r="F750" s="23"/>
     </row>
-    <row r="751" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C751" s="24"/>
       <c r="D751" s="22"/>
       <c r="E751" s="22"/>
       <c r="F751" s="22"/>
     </row>
-    <row r="752" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C752" s="25"/>
       <c r="D752" s="23"/>
       <c r="E752" s="23"/>
       <c r="F752" s="23"/>
     </row>
-    <row r="753" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C753" s="24"/>
       <c r="D753" s="22"/>
       <c r="E753" s="22"/>
       <c r="F753" s="22"/>
     </row>
-    <row r="754" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C754" s="25"/>
       <c r="D754" s="23"/>
       <c r="E754" s="23"/>
       <c r="F754" s="23"/>
     </row>
-    <row r="755" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C755" s="24"/>
       <c r="D755" s="22"/>
       <c r="E755" s="22"/>
       <c r="F755" s="22"/>
     </row>
-    <row r="756" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C756" s="25"/>
       <c r="D756" s="23"/>
       <c r="E756" s="23"/>
       <c r="F756" s="23"/>
     </row>
-    <row r="757" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C757" s="24"/>
       <c r="D757" s="22"/>
       <c r="E757" s="22"/>
       <c r="F757" s="22"/>
     </row>
-    <row r="758" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C758" s="25"/>
       <c r="D758" s="23"/>
       <c r="E758" s="23"/>
       <c r="F758" s="23"/>
     </row>
-    <row r="759" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C759" s="24"/>
       <c r="D759" s="22"/>
       <c r="E759" s="22"/>
       <c r="F759" s="22"/>
     </row>
-    <row r="760" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C760" s="25"/>
       <c r="D760" s="23"/>
       <c r="E760" s="23"/>
       <c r="F760" s="23"/>
     </row>
-    <row r="761" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C761" s="24"/>
       <c r="D761" s="22"/>
       <c r="E761" s="22"/>
       <c r="F761" s="22"/>
     </row>
-    <row r="762" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C762" s="25"/>
       <c r="D762" s="23"/>
       <c r="E762" s="23"/>
       <c r="F762" s="23"/>
     </row>
-    <row r="763" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C763" s="24"/>
       <c r="D763" s="22"/>
       <c r="E763" s="22"/>
       <c r="F763" s="22"/>
     </row>
-    <row r="764" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C764" s="25"/>
       <c r="D764" s="23"/>
       <c r="E764" s="23"/>
       <c r="F764" s="23"/>
     </row>
-    <row r="765" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C765" s="24"/>
       <c r="D765" s="22"/>
       <c r="E765" s="22"/>
       <c r="F765" s="22"/>
     </row>
-    <row r="766" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C766" s="25"/>
       <c r="D766" s="23"/>
       <c r="E766" s="23"/>
       <c r="F766" s="23"/>
     </row>
-    <row r="767" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C767" s="24"/>
       <c r="D767" s="22"/>
       <c r="E767" s="22"/>
       <c r="F767" s="22"/>
     </row>
-    <row r="768" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C768" s="25"/>
       <c r="D768" s="23"/>
       <c r="E768" s="23"/>
       <c r="F768" s="23"/>
     </row>
-    <row r="769" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C769" s="24"/>
       <c r="D769" s="22"/>
       <c r="E769" s="22"/>
       <c r="F769" s="22"/>
     </row>
-    <row r="770" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C770" s="25"/>
       <c r="D770" s="23"/>
       <c r="E770" s="23"/>
       <c r="F770" s="23"/>
     </row>
-    <row r="771" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C771" s="24"/>
       <c r="D771" s="22"/>
       <c r="E771" s="22"/>
       <c r="F771" s="22"/>
     </row>
-    <row r="772" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C772" s="25"/>
       <c r="D772" s="23"/>
       <c r="E772" s="23"/>
       <c r="F772" s="23"/>
     </row>
-    <row r="773" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C773" s="24"/>
       <c r="D773" s="22"/>
       <c r="E773" s="22"/>
       <c r="F773" s="22"/>
     </row>
-    <row r="774" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C774" s="25"/>
       <c r="D774" s="23"/>
       <c r="E774" s="23"/>
       <c r="F774" s="23"/>
     </row>
-    <row r="775" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C775" s="24"/>
       <c r="D775" s="22"/>
       <c r="E775" s="22"/>
       <c r="F775" s="22"/>
     </row>
-    <row r="776" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C776" s="25"/>
       <c r="D776" s="23"/>
       <c r="E776" s="23"/>
       <c r="F776" s="23"/>
     </row>
-    <row r="777" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C777" s="24"/>
       <c r="D777" s="22"/>
       <c r="E777" s="22"/>
       <c r="F777" s="22"/>
     </row>
-    <row r="778" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C778" s="25"/>
       <c r="D778" s="23"/>
       <c r="E778" s="23"/>
       <c r="F778" s="23"/>
     </row>
-    <row r="779" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C779" s="24"/>
       <c r="D779" s="22"/>
       <c r="E779" s="22"/>
       <c r="F779" s="22"/>
     </row>
-    <row r="780" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C780" s="25"/>
       <c r="D780" s="23"/>
       <c r="E780" s="23"/>
       <c r="F780" s="23"/>
     </row>
-    <row r="781" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C781" s="24"/>
       <c r="D781" s="22"/>
       <c r="E781" s="22"/>
       <c r="F781" s="22"/>
     </row>
-    <row r="782" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C782" s="25"/>
       <c r="D782" s="23"/>
       <c r="E782" s="23"/>
       <c r="F782" s="23"/>
     </row>
-    <row r="783" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C783" s="24"/>
       <c r="D783" s="22"/>
       <c r="E783" s="22"/>
       <c r="F783" s="22"/>
     </row>
-    <row r="784" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C784" s="25"/>
       <c r="D784" s="23"/>
       <c r="E784" s="23"/>
       <c r="F784" s="23"/>
     </row>
-    <row r="785" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C785" s="24"/>
       <c r="D785" s="22"/>
       <c r="E785" s="22"/>
       <c r="F785" s="22"/>
     </row>
-    <row r="786" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C786" s="25"/>
       <c r="D786" s="23"/>
       <c r="E786" s="23"/>
       <c r="F786" s="23"/>
     </row>
-    <row r="787" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C787" s="24"/>
       <c r="D787" s="22"/>
       <c r="E787" s="22"/>
       <c r="F787" s="22"/>
     </row>
-    <row r="788" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C788" s="25"/>
       <c r="D788" s="23"/>
       <c r="E788" s="23"/>
       <c r="F788" s="23"/>
     </row>
-    <row r="789" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C789" s="24"/>
       <c r="D789" s="22"/>
       <c r="E789" s="22"/>
       <c r="F789" s="22"/>
     </row>
-    <row r="790" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C790" s="25"/>
       <c r="D790" s="23"/>
       <c r="E790" s="23"/>
       <c r="F790" s="23"/>
     </row>
-    <row r="791" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C791" s="24"/>
       <c r="D791" s="22"/>
       <c r="E791" s="22"/>
       <c r="F791" s="22"/>
     </row>
-    <row r="792" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C792" s="25"/>
       <c r="D792" s="23"/>
       <c r="E792" s="23"/>
       <c r="F792" s="23"/>
     </row>
-    <row r="793" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C793" s="24"/>
       <c r="D793" s="22"/>
       <c r="E793" s="22"/>
       <c r="F793" s="22"/>
     </row>
-    <row r="794" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C794" s="25"/>
       <c r="D794" s="23"/>
       <c r="E794" s="23"/>
       <c r="F794" s="23"/>
     </row>
-    <row r="795" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C795" s="24"/>
       <c r="D795" s="22"/>
       <c r="E795" s="22"/>
       <c r="F795" s="22"/>
     </row>
-    <row r="796" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C796" s="25"/>
       <c r="D796" s="23"/>
       <c r="E796" s="23"/>
       <c r="F796" s="23"/>
     </row>
-    <row r="797" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C797" s="24"/>
       <c r="D797" s="22"/>
       <c r="E797" s="22"/>
       <c r="F797" s="22"/>
     </row>
-    <row r="798" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C798" s="25"/>
       <c r="D798" s="23"/>
       <c r="E798" s="23"/>
       <c r="F798" s="23"/>
     </row>
-    <row r="799" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C799" s="24"/>
       <c r="D799" s="22"/>
       <c r="E799" s="22"/>
       <c r="F799" s="22"/>
     </row>
-    <row r="800" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C800" s="25"/>
       <c r="D800" s="23"/>
       <c r="E800" s="23"/>
       <c r="F800" s="23"/>
     </row>
-    <row r="801" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C801" s="24"/>
       <c r="D801" s="22"/>
       <c r="E801" s="22"/>
       <c r="F801" s="22"/>
     </row>
-    <row r="802" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C802" s="25"/>
       <c r="D802" s="23"/>
       <c r="E802" s="23"/>
       <c r="F802" s="23"/>
     </row>
-    <row r="803" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C803" s="24"/>
       <c r="D803" s="22"/>
       <c r="E803" s="22"/>
       <c r="F803" s="22"/>
     </row>
-    <row r="804" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C804" s="25"/>
       <c r="D804" s="23"/>
       <c r="E804" s="23"/>
       <c r="F804" s="23"/>
     </row>
-    <row r="805" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C805" s="24"/>
       <c r="D805" s="22"/>
       <c r="E805" s="22"/>
       <c r="F805" s="22"/>
     </row>
-    <row r="806" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C806" s="25"/>
       <c r="D806" s="23"/>
       <c r="E806" s="23"/>
       <c r="F806" s="23"/>
     </row>
-    <row r="807" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C807" s="24"/>
       <c r="D807" s="22"/>
       <c r="E807" s="22"/>
       <c r="F807" s="22"/>
     </row>
-    <row r="808" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C808" s="25"/>
       <c r="D808" s="23"/>
       <c r="E808" s="23"/>
       <c r="F808" s="23"/>
     </row>
-    <row r="809" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C809" s="24"/>
       <c r="D809" s="22"/>
       <c r="E809" s="22"/>
       <c r="F809" s="22"/>
     </row>
-    <row r="810" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C810" s="25"/>
       <c r="D810" s="23"/>
       <c r="E810" s="23"/>
       <c r="F810" s="23"/>
     </row>
-    <row r="811" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C811" s="24"/>
       <c r="D811" s="22"/>
       <c r="E811" s="22"/>
       <c r="F811" s="22"/>
     </row>
-    <row r="812" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C812" s="25"/>
       <c r="D812" s="23"/>
       <c r="E812" s="23"/>
       <c r="F812" s="23"/>
     </row>
-    <row r="813" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C813" s="24"/>
       <c r="D813" s="22"/>
       <c r="E813" s="22"/>
       <c r="F813" s="22"/>
     </row>
-    <row r="814" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C814" s="25"/>
       <c r="D814" s="23"/>
       <c r="E814" s="23"/>
       <c r="F814" s="23"/>
     </row>
-    <row r="815" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C815" s="24"/>
       <c r="D815" s="22"/>
       <c r="E815" s="22"/>
       <c r="F815" s="22"/>
     </row>
-    <row r="816" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C816" s="25"/>
       <c r="D816" s="23"/>
       <c r="E816" s="23"/>
       <c r="F816" s="23"/>
     </row>
-    <row r="817" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C817" s="24"/>
       <c r="D817" s="22"/>
       <c r="E817" s="22"/>
       <c r="F817" s="22"/>
     </row>
-    <row r="818" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C818" s="25"/>
       <c r="D818" s="23"/>
       <c r="E818" s="23"/>
       <c r="F818" s="23"/>
     </row>
-    <row r="819" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C819" s="24"/>
       <c r="D819" s="22"/>
       <c r="E819" s="22"/>
       <c r="F819" s="22"/>
     </row>
-    <row r="820" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C820" s="25"/>
       <c r="D820" s="23"/>
       <c r="E820" s="23"/>
       <c r="F820" s="23"/>
     </row>
-    <row r="821" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C821" s="24"/>
       <c r="D821" s="22"/>
       <c r="E821" s="22"/>
       <c r="F821" s="22"/>
     </row>
-    <row r="822" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C822" s="25"/>
       <c r="D822" s="23"/>
       <c r="E822" s="23"/>
       <c r="F822" s="23"/>
     </row>
-    <row r="823" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C823" s="24"/>
       <c r="D823" s="22"/>
       <c r="E823" s="22"/>
       <c r="F823" s="22"/>
     </row>
-    <row r="824" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C824" s="25"/>
       <c r="D824" s="23"/>
       <c r="E824" s="23"/>
       <c r="F824" s="23"/>
     </row>
-    <row r="825" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C825" s="24"/>
       <c r="D825" s="22"/>
       <c r="E825" s="22"/>
       <c r="F825" s="22"/>
     </row>
-    <row r="826" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C826" s="25"/>
       <c r="D826" s="23"/>
       <c r="E826" s="23"/>
       <c r="F826" s="23"/>
     </row>
-    <row r="827" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C827" s="24"/>
       <c r="D827" s="22"/>
       <c r="E827" s="22"/>
       <c r="F827" s="22"/>
     </row>
-    <row r="828" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C828" s="25"/>
       <c r="D828" s="23"/>
       <c r="E828" s="23"/>
       <c r="F828" s="23"/>
     </row>
-    <row r="829" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C829" s="24"/>
       <c r="D829" s="22"/>
       <c r="E829" s="22"/>
       <c r="F829" s="22"/>
     </row>
-    <row r="830" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C830" s="25"/>
       <c r="D830" s="23"/>
       <c r="E830" s="23"/>
       <c r="F830" s="23"/>
     </row>
-    <row r="831" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C831" s="24"/>
       <c r="D831" s="22"/>
       <c r="E831" s="22"/>
       <c r="F831" s="22"/>
     </row>
-    <row r="832" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C832" s="25"/>
       <c r="D832" s="23"/>
       <c r="E832" s="23"/>
       <c r="F832" s="23"/>
     </row>
-    <row r="833" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C833" s="24"/>
       <c r="D833" s="22"/>
       <c r="E833" s="22"/>
       <c r="F833" s="22"/>
     </row>
-    <row r="834" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C834" s="25"/>
       <c r="D834" s="23"/>
       <c r="E834" s="23"/>
       <c r="F834" s="23"/>
     </row>
-    <row r="835" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C835" s="24"/>
       <c r="D835" s="22"/>
       <c r="E835" s="22"/>
       <c r="F835" s="22"/>
     </row>
-    <row r="836" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C836" s="25"/>
       <c r="D836" s="23"/>
       <c r="E836" s="23"/>
       <c r="F836" s="23"/>
     </row>
-    <row r="837" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C837" s="24"/>
       <c r="D837" s="22"/>
       <c r="E837" s="22"/>
       <c r="F837" s="22"/>
     </row>
-    <row r="838" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C838" s="25"/>
       <c r="D838" s="23"/>
       <c r="E838" s="23"/>
       <c r="F838" s="23"/>
     </row>
-    <row r="839" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C839" s="24"/>
       <c r="D839" s="22"/>
       <c r="E839" s="22"/>
       <c r="F839" s="22"/>
     </row>
-    <row r="840" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C840" s="25"/>
       <c r="D840" s="23"/>
       <c r="E840" s="23"/>
       <c r="F840" s="23"/>
     </row>
-    <row r="841" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C841" s="24"/>
       <c r="D841" s="22"/>
       <c r="E841" s="22"/>
       <c r="F841" s="22"/>
     </row>
-    <row r="842" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C842" s="25"/>
       <c r="D842" s="23"/>
       <c r="E842" s="23"/>
       <c r="F842" s="23"/>
     </row>
-    <row r="843" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C843" s="24"/>
       <c r="D843" s="22"/>
       <c r="E843" s="22"/>
       <c r="F843" s="22"/>
     </row>
-    <row r="844" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C844" s="25"/>
       <c r="D844" s="23"/>
       <c r="E844" s="23"/>
       <c r="F844" s="23"/>
     </row>
-    <row r="845" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C845" s="24"/>
       <c r="D845" s="22"/>
       <c r="E845" s="22"/>
       <c r="F845" s="22"/>
     </row>
-    <row r="846" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C846" s="25"/>
       <c r="D846" s="23"/>
       <c r="E846" s="23"/>
       <c r="F846" s="23"/>
     </row>
-    <row r="847" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C847" s="24"/>
       <c r="D847" s="22"/>
       <c r="E847" s="22"/>
       <c r="F847" s="22"/>
     </row>
-    <row r="848" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C848" s="25"/>
       <c r="D848" s="23"/>
       <c r="E848" s="23"/>
       <c r="F848" s="23"/>
     </row>
-    <row r="849" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C849" s="24"/>
       <c r="D849" s="22"/>
       <c r="E849" s="22"/>
       <c r="F849" s="22"/>
     </row>
-    <row r="850" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C850" s="25"/>
       <c r="D850" s="23"/>
       <c r="E850" s="23"/>
       <c r="F850" s="23"/>
     </row>
-    <row r="851" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C851" s="24"/>
       <c r="D851" s="22"/>
       <c r="E851" s="22"/>
       <c r="F851" s="22"/>
     </row>
-    <row r="852" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C852" s="25"/>
       <c r="D852" s="23"/>
       <c r="E852" s="23"/>
       <c r="F852" s="23"/>
     </row>
-    <row r="853" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C853" s="24"/>
       <c r="D853" s="22"/>
       <c r="E853" s="22"/>
       <c r="F853" s="22"/>
     </row>
-    <row r="854" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C854" s="25"/>
       <c r="D854" s="23"/>
       <c r="E854" s="23"/>
       <c r="F854" s="23"/>
     </row>
-    <row r="855" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C855" s="24"/>
       <c r="D855" s="22"/>
       <c r="E855" s="22"/>
       <c r="F855" s="22"/>
     </row>
-    <row r="856" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C856" s="25"/>
       <c r="D856" s="23"/>
       <c r="E856" s="23"/>
       <c r="F856" s="23"/>
     </row>
-    <row r="857" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C857" s="24"/>
       <c r="D857" s="22"/>
       <c r="E857" s="22"/>
       <c r="F857" s="22"/>
     </row>
-    <row r="858" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C858" s="25"/>
       <c r="D858" s="23"/>
       <c r="E858" s="23"/>
       <c r="F858" s="23"/>
     </row>
-    <row r="859" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C859" s="24"/>
       <c r="D859" s="22"/>
       <c r="E859" s="22"/>
       <c r="F859" s="22"/>
     </row>
-    <row r="860" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C860" s="25"/>
       <c r="D860" s="23"/>
       <c r="E860" s="23"/>
       <c r="F860" s="23"/>
     </row>
-    <row r="861" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C861" s="24"/>
       <c r="D861" s="22"/>
       <c r="E861" s="22"/>
       <c r="F861" s="22"/>
     </row>
-    <row r="862" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C862" s="25"/>
       <c r="D862" s="23"/>
       <c r="E862" s="23"/>
       <c r="F862" s="23"/>
     </row>
-    <row r="863" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C863" s="24"/>
       <c r="D863" s="22"/>
       <c r="E863" s="22"/>
       <c r="F863" s="22"/>
     </row>
-    <row r="864" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C864" s="25"/>
       <c r="D864" s="23"/>
       <c r="E864" s="23"/>
       <c r="F864" s="23"/>
     </row>
-    <row r="865" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C865" s="24"/>
       <c r="D865" s="22"/>
       <c r="E865" s="22"/>
       <c r="F865" s="22"/>
     </row>
-    <row r="866" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C866" s="25"/>
       <c r="D866" s="23"/>
       <c r="E866" s="23"/>
       <c r="F866" s="23"/>
     </row>
-    <row r="867" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C867" s="24"/>
       <c r="D867" s="22"/>
       <c r="E867" s="22"/>
       <c r="F867" s="22"/>
     </row>
-    <row r="868" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C868" s="25"/>
       <c r="D868" s="23"/>
       <c r="E868" s="23"/>
       <c r="F868" s="23"/>
     </row>
-    <row r="869" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C869" s="24"/>
       <c r="D869" s="22"/>
       <c r="E869" s="22"/>
       <c r="F869" s="22"/>
     </row>
-    <row r="870" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C870" s="25"/>
       <c r="D870" s="23"/>
       <c r="E870" s="23"/>
       <c r="F870" s="23"/>
     </row>
-    <row r="871" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C871" s="24"/>
       <c r="D871" s="22"/>
       <c r="E871" s="22"/>
       <c r="F871" s="22"/>
     </row>
-    <row r="872" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C872" s="25"/>
       <c r="D872" s="23"/>
       <c r="E872" s="23"/>
       <c r="F872" s="23"/>
     </row>
-    <row r="873" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C873" s="24"/>
       <c r="D873" s="22"/>
       <c r="E873" s="22"/>
       <c r="F873" s="22"/>
     </row>
-    <row r="874" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C874" s="25"/>
       <c r="D874" s="23"/>
       <c r="E874" s="23"/>
       <c r="F874" s="23"/>
     </row>
-    <row r="875" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C875" s="24"/>
       <c r="D875" s="22"/>
       <c r="E875" s="22"/>
       <c r="F875" s="22"/>
     </row>
-    <row r="876" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C876" s="25"/>
       <c r="D876" s="23"/>
       <c r="E876" s="23"/>
       <c r="F876" s="23"/>
     </row>
-    <row r="877" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C877" s="24"/>
       <c r="D877" s="22"/>
       <c r="E877" s="22"/>
       <c r="F877" s="22"/>
     </row>
-    <row r="878" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C878" s="25"/>
       <c r="D878" s="23"/>
       <c r="E878" s="23"/>
       <c r="F878" s="23"/>
     </row>
-    <row r="879" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C879" s="24"/>
       <c r="D879" s="22"/>
       <c r="E879" s="22"/>
       <c r="F879" s="22"/>
     </row>
-    <row r="880" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C880" s="25"/>
       <c r="D880" s="23"/>
       <c r="E880" s="23"/>
       <c r="F880" s="23"/>
     </row>
-    <row r="881" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C881" s="24"/>
       <c r="D881" s="22"/>
       <c r="E881" s="22"/>
       <c r="F881" s="22"/>
     </row>
-    <row r="882" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C882" s="25"/>
       <c r="D882" s="23"/>
       <c r="E882" s="23"/>
       <c r="F882" s="23"/>
     </row>
-    <row r="883" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C883" s="24"/>
       <c r="D883" s="22"/>
       <c r="E883" s="22"/>
       <c r="F883" s="22"/>
     </row>
-    <row r="884" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C884" s="25"/>
       <c r="D884" s="23"/>
       <c r="E884" s="23"/>
       <c r="F884" s="23"/>
     </row>
-    <row r="885" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C885" s="24"/>
       <c r="D885" s="22"/>
       <c r="E885" s="22"/>
       <c r="F885" s="22"/>
     </row>
-    <row r="886" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C886" s="25"/>
       <c r="D886" s="23"/>
       <c r="E886" s="23"/>
       <c r="F886" s="23"/>
     </row>
-    <row r="887" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C887" s="24"/>
       <c r="D887" s="22"/>
       <c r="E887" s="22"/>
       <c r="F887" s="22"/>
     </row>
-    <row r="888" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C888" s="25"/>
       <c r="D888" s="23"/>
       <c r="E888" s="23"/>
       <c r="F888" s="23"/>
     </row>
-    <row r="889" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C889" s="24"/>
       <c r="D889" s="22"/>
       <c r="E889" s="22"/>
       <c r="F889" s="22"/>
     </row>
-    <row r="890" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C890" s="25"/>
       <c r="D890" s="23"/>
       <c r="E890" s="23"/>
       <c r="F890" s="23"/>
     </row>
-    <row r="891" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C891" s="24"/>
       <c r="D891" s="22"/>
       <c r="E891" s="22"/>
       <c r="F891" s="22"/>
     </row>
-    <row r="892" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C892" s="25"/>
       <c r="D892" s="23"/>
       <c r="E892" s="23"/>
       <c r="F892" s="23"/>
     </row>
-    <row r="893" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C893" s="24"/>
       <c r="D893" s="22"/>
       <c r="E893" s="22"/>
       <c r="F893" s="22"/>
     </row>
-    <row r="894" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C894" s="25"/>
       <c r="D894" s="23"/>
       <c r="E894" s="23"/>
       <c r="F894" s="23"/>
     </row>
-    <row r="895" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C895" s="24"/>
       <c r="D895" s="22"/>
       <c r="E895" s="22"/>
       <c r="F895" s="22"/>
     </row>
-    <row r="896" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C896" s="25"/>
       <c r="D896" s="23"/>
       <c r="E896" s="23"/>
       <c r="F896" s="23"/>
     </row>
-    <row r="897" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C897" s="24"/>
       <c r="D897" s="22"/>
       <c r="E897" s="22"/>
       <c r="F897" s="22"/>
     </row>
-    <row r="898" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C898" s="25"/>
       <c r="D898" s="23"/>
       <c r="E898" s="23"/>
       <c r="F898" s="23"/>
     </row>
-    <row r="899" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C899" s="24"/>
       <c r="D899" s="22"/>
       <c r="E899" s="22"/>
       <c r="F899" s="22"/>
     </row>
-    <row r="900" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C900" s="25"/>
       <c r="D900" s="23"/>
       <c r="E900" s="23"/>
       <c r="F900" s="23"/>
     </row>
-    <row r="901" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C901" s="24"/>
       <c r="D901" s="22"/>
       <c r="E901" s="22"/>
       <c r="F901" s="22"/>
     </row>
-    <row r="902" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C902" s="25"/>
       <c r="D902" s="23"/>
       <c r="E902" s="23"/>
       <c r="F902" s="23"/>
     </row>
-    <row r="903" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C903" s="24"/>
       <c r="D903" s="22"/>
       <c r="E903" s="22"/>
       <c r="F903" s="22"/>
     </row>
-    <row r="904" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C904" s="25"/>
       <c r="D904" s="23"/>
       <c r="E904" s="23"/>
       <c r="F904" s="23"/>
     </row>
-    <row r="905" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C905" s="24"/>
       <c r="D905" s="22"/>
       <c r="E905" s="22"/>
       <c r="F905" s="22"/>
     </row>
-    <row r="906" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C906" s="25"/>
       <c r="D906" s="23"/>
       <c r="E906" s="23"/>
       <c r="F906" s="23"/>
     </row>
-    <row r="907" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C907" s="24"/>
       <c r="D907" s="22"/>
       <c r="E907" s="22"/>
       <c r="F907" s="22"/>
     </row>
-    <row r="908" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C908" s="25"/>
       <c r="D908" s="23"/>
       <c r="E908" s="23"/>
       <c r="F908" s="23"/>
     </row>
-    <row r="909" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C909" s="24"/>
       <c r="D909" s="22"/>
       <c r="E909" s="22"/>
       <c r="F909" s="22"/>
     </row>
-    <row r="910" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C910" s="25"/>
       <c r="D910" s="23"/>
       <c r="E910" s="23"/>
       <c r="F910" s="23"/>
     </row>
-    <row r="911" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C911" s="24"/>
       <c r="D911" s="22"/>
       <c r="E911" s="22"/>
       <c r="F911" s="22"/>
     </row>
-    <row r="912" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C912" s="25"/>
       <c r="D912" s="23"/>
       <c r="E912" s="23"/>
       <c r="F912" s="23"/>
     </row>
-    <row r="913" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C913" s="24"/>
       <c r="D913" s="22"/>
       <c r="E913" s="22"/>
       <c r="F913" s="22"/>
     </row>
-    <row r="914" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C914" s="25"/>
       <c r="D914" s="23"/>
       <c r="E914" s="23"/>
       <c r="F914" s="23"/>
     </row>
-    <row r="915" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C915" s="24"/>
       <c r="D915" s="22"/>
       <c r="E915" s="22"/>
       <c r="F915" s="22"/>
     </row>
-    <row r="916" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C916" s="25"/>
       <c r="D916" s="23"/>
       <c r="E916" s="23"/>
       <c r="F916" s="23"/>
     </row>
-    <row r="917" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C917" s="24"/>
       <c r="D917" s="22"/>
       <c r="E917" s="22"/>
       <c r="F917" s="22"/>
     </row>
-    <row r="918" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C918" s="25"/>
       <c r="D918" s="23"/>
       <c r="E918" s="23"/>
       <c r="F918" s="23"/>
     </row>
-    <row r="919" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C919" s="24"/>
       <c r="D919" s="22"/>
       <c r="E919" s="22"/>
       <c r="F919" s="22"/>
     </row>
-    <row r="920" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C920" s="25"/>
       <c r="D920" s="23"/>
       <c r="E920" s="23"/>
       <c r="F920" s="23"/>
     </row>
-    <row r="921" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C921" s="24"/>
       <c r="D921" s="22"/>
       <c r="E921" s="22"/>
       <c r="F921" s="22"/>
     </row>
-    <row r="922" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C922" s="25"/>
       <c r="D922" s="23"/>
       <c r="E922" s="23"/>
       <c r="F922" s="23"/>
     </row>
-    <row r="923" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C923" s="24"/>
       <c r="D923" s="22"/>
       <c r="E923" s="22"/>
       <c r="F923" s="22"/>
     </row>
-    <row r="924" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C924" s="25"/>
       <c r="D924" s="23"/>
       <c r="E924" s="23"/>
       <c r="F924" s="23"/>
     </row>
-    <row r="925" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C925" s="24"/>
       <c r="D925" s="22"/>
       <c r="E925" s="22"/>
       <c r="F925" s="22"/>
     </row>
-    <row r="926" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C926" s="25"/>
       <c r="D926" s="23"/>
       <c r="E926" s="23"/>
       <c r="F926" s="23"/>
     </row>
-    <row r="927" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C927" s="24"/>
       <c r="D927" s="22"/>
       <c r="E927" s="22"/>
       <c r="F927" s="22"/>
     </row>
-    <row r="928" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C928" s="25"/>
       <c r="D928" s="23"/>
       <c r="E928" s="23"/>
       <c r="F928" s="23"/>
     </row>
-    <row r="929" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C929" s="24"/>
       <c r="D929" s="22"/>
       <c r="E929" s="22"/>
       <c r="F929" s="22"/>
     </row>
-    <row r="930" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C930" s="25"/>
       <c r="D930" s="23"/>
       <c r="E930" s="23"/>
       <c r="F930" s="23"/>
     </row>
-    <row r="931" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C931" s="24"/>
       <c r="D931" s="22"/>
       <c r="E931" s="22"/>
       <c r="F931" s="22"/>
     </row>
-    <row r="932" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C932" s="25"/>
       <c r="D932" s="23"/>
       <c r="E932" s="23"/>
       <c r="F932" s="23"/>
     </row>
-    <row r="933" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C933" s="24"/>
       <c r="D933" s="22"/>
       <c r="E933" s="22"/>
       <c r="F933" s="22"/>
     </row>
-    <row r="934" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C934" s="25"/>
       <c r="D934" s="23"/>
       <c r="E934" s="23"/>
       <c r="F934" s="23"/>
     </row>
-    <row r="935" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C935" s="24"/>
       <c r="D935" s="22"/>
       <c r="E935" s="22"/>
       <c r="F935" s="22"/>
     </row>
-    <row r="936" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C936" s="25"/>
       <c r="D936" s="23"/>
       <c r="E936" s="23"/>
       <c r="F936" s="23"/>
     </row>
-    <row r="937" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C937" s="24"/>
       <c r="D937" s="22"/>
       <c r="E937" s="22"/>
       <c r="F937" s="22"/>
     </row>
-    <row r="938" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C938" s="25"/>
       <c r="D938" s="23"/>
       <c r="E938" s="23"/>
       <c r="F938" s="23"/>
     </row>
-    <row r="939" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C939" s="24"/>
       <c r="D939" s="22"/>
       <c r="E939" s="22"/>
       <c r="F939" s="22"/>
     </row>
-    <row r="940" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C940" s="25"/>
       <c r="D940" s="23"/>
       <c r="E940" s="23"/>
       <c r="F940" s="23"/>
     </row>
-    <row r="941" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C941" s="24"/>
       <c r="D941" s="22"/>
       <c r="E941" s="22"/>
       <c r="F941" s="22"/>
     </row>
-    <row r="942" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C942" s="25"/>
       <c r="D942" s="23"/>
       <c r="E942" s="23"/>
       <c r="F942" s="23"/>
     </row>
-    <row r="943" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C943" s="24"/>
       <c r="D943" s="22"/>
       <c r="E943" s="22"/>
       <c r="F943" s="22"/>
     </row>
-    <row r="944" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C944" s="25"/>
       <c r="D944" s="23"/>
       <c r="E944" s="23"/>
       <c r="F944" s="23"/>
     </row>
-    <row r="945" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C945" s="24"/>
       <c r="D945" s="22"/>
       <c r="E945" s="22"/>
       <c r="F945" s="22"/>
     </row>
-    <row r="946" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C946" s="25"/>
       <c r="D946" s="23"/>
       <c r="E946" s="23"/>
       <c r="F946" s="23"/>
     </row>
-    <row r="947" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C947" s="24"/>
       <c r="D947" s="22"/>
       <c r="E947" s="22"/>
       <c r="F947" s="22"/>
     </row>
-    <row r="948" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C948" s="25"/>
       <c r="D948" s="23"/>
       <c r="E948" s="23"/>
       <c r="F948" s="23"/>
     </row>
-    <row r="949" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C949" s="24"/>
       <c r="D949" s="22"/>
       <c r="E949" s="22"/>
       <c r="F949" s="22"/>
     </row>
-    <row r="950" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C950" s="25"/>
       <c r="D950" s="23"/>
       <c r="E950" s="23"/>
       <c r="F950" s="23"/>
     </row>
-    <row r="951" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C951" s="24"/>
       <c r="D951" s="22"/>
       <c r="E951" s="22"/>
       <c r="F951" s="22"/>
     </row>
-    <row r="952" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C952" s="25"/>
       <c r="D952" s="23"/>
       <c r="E952" s="23"/>
       <c r="F952" s="23"/>
     </row>
-    <row r="953" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C953" s="24"/>
       <c r="D953" s="22"/>
       <c r="E953" s="22"/>
       <c r="F953" s="22"/>
     </row>
-    <row r="954" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C954" s="25"/>
       <c r="D954" s="23"/>
       <c r="E954" s="23"/>
       <c r="F954" s="23"/>
     </row>
-    <row r="955" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C955" s="24"/>
       <c r="D955" s="22"/>
       <c r="E955" s="22"/>
       <c r="F955" s="22"/>
     </row>
-    <row r="956" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C956" s="25"/>
       <c r="D956" s="23"/>
       <c r="E956" s="23"/>
       <c r="F956" s="23"/>
     </row>
-    <row r="957" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C957" s="24"/>
       <c r="D957" s="22"/>
       <c r="E957" s="22"/>
       <c r="F957" s="22"/>
     </row>
-    <row r="958" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C958" s="25"/>
       <c r="D958" s="23"/>
       <c r="E958" s="23"/>
       <c r="F958" s="23"/>
     </row>
-    <row r="959" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C959" s="24"/>
       <c r="D959" s="22"/>
       <c r="E959" s="22"/>
       <c r="F959" s="22"/>
     </row>
-    <row r="960" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C960" s="25"/>
       <c r="D960" s="23"/>
       <c r="E960" s="23"/>
       <c r="F960" s="23"/>
     </row>
-    <row r="961" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C961" s="24"/>
       <c r="D961" s="22"/>
       <c r="E961" s="22"/>
       <c r="F961" s="22"/>
     </row>
-    <row r="962" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C962" s="25"/>
       <c r="D962" s="23"/>
       <c r="E962" s="23"/>
       <c r="F962" s="23"/>
     </row>
-    <row r="963" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C963" s="24"/>
       <c r="D963" s="22"/>
       <c r="E963" s="22"/>
       <c r="F963" s="22"/>
     </row>
-    <row r="964" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C964" s="25"/>
       <c r="D964" s="23"/>
       <c r="E964" s="23"/>
       <c r="F964" s="23"/>
     </row>
-    <row r="965" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C965" s="24"/>
       <c r="D965" s="22"/>
       <c r="E965" s="22"/>
       <c r="F965" s="22"/>
     </row>
-    <row r="966" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C966" s="25"/>
       <c r="D966" s="23"/>
       <c r="E966" s="23"/>
       <c r="F966" s="23"/>
     </row>
-    <row r="967" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C967" s="24"/>
       <c r="D967" s="22"/>
       <c r="E967" s="22"/>
       <c r="F967" s="22"/>
     </row>
-    <row r="968" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C968" s="25"/>
       <c r="D968" s="23"/>
       <c r="E968" s="23"/>
       <c r="F968" s="23"/>
     </row>
-    <row r="969" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C969" s="24"/>
       <c r="D969" s="22"/>
       <c r="E969" s="22"/>
       <c r="F969" s="22"/>
     </row>
-    <row r="970" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C970" s="25"/>
       <c r="D970" s="23"/>
       <c r="E970" s="23"/>
       <c r="F970" s="23"/>
     </row>
-    <row r="971" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C971" s="24"/>
       <c r="D971" s="22"/>
       <c r="E971" s="22"/>
       <c r="F971" s="22"/>
     </row>
-    <row r="972" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C972" s="25"/>
       <c r="D972" s="23"/>
       <c r="E972" s="23"/>
       <c r="F972" s="23"/>
     </row>
-    <row r="973" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C973" s="24"/>
       <c r="D973" s="22"/>
       <c r="E973" s="22"/>
       <c r="F973" s="22"/>
     </row>
-    <row r="974" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C974" s="25"/>
       <c r="D974" s="23"/>
       <c r="E974" s="23"/>
       <c r="F974" s="23"/>
     </row>
-    <row r="975" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C975" s="24"/>
       <c r="D975" s="22"/>
       <c r="E975" s="22"/>
       <c r="F975" s="22"/>
     </row>
-    <row r="976" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C976" s="25"/>
       <c r="D976" s="23"/>
       <c r="E976" s="23"/>
       <c r="F976" s="23"/>
     </row>
-    <row r="977" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C977" s="24"/>
       <c r="D977" s="22"/>
       <c r="E977" s="22"/>
       <c r="F977" s="22"/>
     </row>
-    <row r="978" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C978" s="25"/>
       <c r="D978" s="23"/>
       <c r="E978" s="23"/>
       <c r="F978" s="23"/>
     </row>
-    <row r="979" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C979" s="24"/>
       <c r="D979" s="22"/>
       <c r="E979" s="22"/>
       <c r="F979" s="22"/>
     </row>
-    <row r="980" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C980" s="25"/>
       <c r="D980" s="23"/>
       <c r="E980" s="23"/>
       <c r="F980" s="23"/>
     </row>
-    <row r="981" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C981" s="24"/>
       <c r="D981" s="22"/>
       <c r="E981" s="22"/>
       <c r="F981" s="22"/>
     </row>
-    <row r="982" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C982" s="25"/>
       <c r="D982" s="23"/>
       <c r="E982" s="23"/>
       <c r="F982" s="23"/>
     </row>
-    <row r="983" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C983" s="24"/>
       <c r="D983" s="22"/>
       <c r="E983" s="22"/>
       <c r="F983" s="22"/>
     </row>
-    <row r="984" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C984" s="25"/>
       <c r="D984" s="23"/>
       <c r="E984" s="23"/>
       <c r="F984" s="23"/>
     </row>
-    <row r="985" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C985" s="24"/>
       <c r="D985" s="22"/>
       <c r="E985" s="22"/>
       <c r="F985" s="22"/>
     </row>
-    <row r="986" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C986" s="25"/>
       <c r="D986" s="23"/>
       <c r="E986" s="23"/>
       <c r="F986" s="23"/>
     </row>
-    <row r="987" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C987" s="24"/>
       <c r="D987" s="22"/>
       <c r="E987" s="22"/>
       <c r="F987" s="22"/>
     </row>
-    <row r="988" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C988" s="25"/>
       <c r="D988" s="23"/>
       <c r="E988" s="23"/>
       <c r="F988" s="23"/>
     </row>
-    <row r="989" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C989" s="24"/>
       <c r="D989" s="22"/>
       <c r="E989" s="22"/>
       <c r="F989" s="22"/>
     </row>
-    <row r="990" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C990" s="25"/>
       <c r="D990" s="23"/>
       <c r="E990" s="23"/>
       <c r="F990" s="23"/>
     </row>
-    <row r="991" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C991" s="24"/>
       <c r="D991" s="22"/>
       <c r="E991" s="22"/>
       <c r="F991" s="22"/>
     </row>
-    <row r="992" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C992" s="25"/>
       <c r="D992" s="23"/>
       <c r="E992" s="23"/>
       <c r="F992" s="23"/>
     </row>
-    <row r="993" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C993" s="24"/>
       <c r="D993" s="22"/>
       <c r="E993" s="22"/>
       <c r="F993" s="22"/>
     </row>
-    <row r="994" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C994" s="25"/>
       <c r="D994" s="23"/>
       <c r="E994" s="23"/>
       <c r="F994" s="23"/>
     </row>
-    <row r="995" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C995" s="24"/>
       <c r="D995" s="22"/>
       <c r="E995" s="22"/>
       <c r="F995" s="22"/>
     </row>
-    <row r="996" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C996" s="25"/>
       <c r="D996" s="23"/>
       <c r="E996" s="23"/>
       <c r="F996" s="23"/>
     </row>
-    <row r="997" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C997" s="24"/>
       <c r="D997" s="22"/>
       <c r="E997" s="22"/>
       <c r="F997" s="22"/>
     </row>
-    <row r="998" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C998" s="25"/>
       <c r="D998" s="23"/>
       <c r="E998" s="23"/>
       <c r="F998" s="23"/>
     </row>
-    <row r="999" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C999" s="24"/>
       <c r="D999" s="22"/>
       <c r="E999" s="22"/>
       <c r="F999" s="22"/>
     </row>
-    <row r="1000" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C1000" s="25"/>
       <c r="D1000" s="23"/>
       <c r="E1000" s="23"/>
@@ -16845,14 +16856,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="31" t="s">
         <v>26</v>
       </c>
@@ -16863,80 +16874,80 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>2325</v>
+        <v>2415</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>6375</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>6285</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>29</v>
       </c>

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23456AC3-8475-478C-8DC5-13C8D0D9CFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB216D2-3C0F-4585-AD02-1488AE1F666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -21,6 +21,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>Week:</t>
   </si>
@@ -233,6 +234,9 @@
   </si>
   <si>
     <t>Fixed issues with XAMPP</t>
+  </si>
+  <si>
+    <t>worked on basic layout</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1556,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2415</c:v>
+                  <c:v>2685</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6285</c:v>
+                  <c:v>6015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10553,8 +10557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154930E-2F36-41CB-8896-D63BC278B832}">
   <dimension ref="C1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11024,16 +11028,32 @@
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="25"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
+      <c r="C34" s="33">
+        <v>45955</v>
+      </c>
+      <c r="D34" s="23">
+        <v>180</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="24"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="C35" s="32">
+        <v>45956</v>
+      </c>
+      <c r="D35" s="22">
+        <v>90</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36" s="25"/>
@@ -16880,11 +16900,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>2415</v>
+        <v>2685</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>6285</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB216D2-3C0F-4585-AD02-1488AE1F666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252769CF-0572-4F4F-8543-0ADB29D72A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -21,7 +21,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>Week:</t>
   </si>
@@ -237,6 +236,9 @@
   </si>
   <si>
     <t>worked on basic layout</t>
+  </si>
+  <si>
+    <t>Worked on home page</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1558,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2685</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6015</c:v>
+                  <c:v>5850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10558,7 +10560,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11056,10 +11058,18 @@
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="25"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="C36" s="33">
+        <v>45956</v>
+      </c>
+      <c r="D36" s="23">
+        <v>165</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37" s="24"/>
@@ -16900,11 +16910,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>2685</v>
+        <v>2850</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>6015</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252769CF-0572-4F4F-8543-0ADB29D72A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCDF673-5A4A-45AF-BAA8-E78966DE3E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
   <si>
     <t>Week:</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>Worked on home page</t>
+  </si>
+  <si>
+    <t>small fixes</t>
+  </si>
+  <si>
+    <t>Working on first question page</t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1564,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2850</c:v>
+                  <c:v>2985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5850</c:v>
+                  <c:v>5715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10560,7 +10566,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11072,16 +11078,32 @@
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="24"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="C37" s="32">
+        <v>45957</v>
+      </c>
+      <c r="D37" s="22">
+        <v>45</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="25"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="C38" s="33">
+        <v>45958</v>
+      </c>
+      <c r="D38" s="23">
+        <v>90</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C39" s="24"/>
@@ -16910,11 +16932,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>2850</v>
+        <v>2985</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>5850</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCDF673-5A4A-45AF-BAA8-E78966DE3E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4202B828-24ED-4F9F-B73C-F62B7513EB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -1564,10 +1564,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2985</c:v>
+                  <c:v>3015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5715</c:v>
+                  <c:v>5685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10566,7 +10566,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11096,7 +11096,7 @@
         <v>45958</v>
       </c>
       <c r="D38" s="23">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>27</v>
@@ -16932,11 +16932,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>2985</v>
+        <v>3015</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>5715</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4202B828-24ED-4F9F-B73C-F62B7513EB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FA42C0-7F58-4C33-BB4B-EDF640D45E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -1564,10 +1564,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3015</c:v>
+                  <c:v>3075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5685</c:v>
+                  <c:v>5625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10566,7 +10566,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11096,7 +11096,7 @@
         <v>45958</v>
       </c>
       <c r="D38" s="23">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>27</v>
@@ -16932,11 +16932,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>3015</v>
+        <v>3075</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>5685</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58C0462-4214-42DE-8B83-64BD1D33A4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8CA29D-C177-4D79-A4E0-D4A726B71DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>Week:</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>Fixing laptop XAMPP</t>
+  </si>
+  <si>
+    <t>Working on assessment</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -644,7 +647,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1113,6 +1115,100 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:shade val="88000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:shade val="76000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:shade val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:shade val="53000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:shade val="41000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1256,6 +1352,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-5C21-4687-90FD-2477E5A7EA45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1273,6 +1374,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-5C21-4687-90FD-2477E5A7EA45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1290,6 +1396,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-5C21-4687-90FD-2477E5A7EA45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1307,6 +1418,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-5C21-4687-90FD-2477E5A7EA45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1324,6 +1440,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-5C21-4687-90FD-2477E5A7EA45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1341,6 +1462,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-5C21-4687-90FD-2477E5A7EA45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1704,10 +1830,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3195</c:v>
+                  <c:v>3465</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5505</c:v>
+                  <c:v>5235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9443,7 +9569,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{542969FB-8A7D-470E-946B-17B5961CB080}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{542969FB-8A7D-470E-946B-17B5961CB080}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A18:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -9928,7 +10054,7 @@
   <dataFields count="1">
     <dataField name="Sum of Time (Mins)" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="12">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -9994,6 +10120,78 @@
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -10683,7 +10881,7 @@
       <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19">
         <v>390</v>
       </c>
     </row>
@@ -10691,7 +10889,7 @@
       <c r="A20" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20">
         <v>600</v>
       </c>
     </row>
@@ -10699,13 +10897,12 @@
       <c r="A21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22">
         <v>360</v>
       </c>
     </row>
@@ -10713,7 +10910,7 @@
       <c r="A23" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23">
         <v>285</v>
       </c>
     </row>
@@ -10721,7 +10918,7 @@
       <c r="A24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24">
         <v>225</v>
       </c>
     </row>
@@ -10729,7 +10926,7 @@
       <c r="A25" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25">
         <v>60</v>
       </c>
     </row>
@@ -10737,7 +10934,7 @@
       <c r="A26" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26">
         <v>60</v>
       </c>
     </row>
@@ -10745,7 +10942,7 @@
       <c r="A27" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27">
         <v>90</v>
       </c>
     </row>
@@ -10753,7 +10950,7 @@
       <c r="A28" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28">
         <v>195</v>
       </c>
     </row>
@@ -10761,7 +10958,7 @@
       <c r="A29" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29">
         <v>930</v>
       </c>
     </row>
@@ -10769,7 +10966,7 @@
       <c r="A30" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30">
         <v>3195</v>
       </c>
     </row>
@@ -10800,8 +10997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154930E-2F36-41CB-8896-D63BC278B832}">
   <dimension ref="C1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11355,15 +11552,29 @@
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="25"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
+      <c r="C40" s="33">
+        <v>45960</v>
+      </c>
+      <c r="D40" s="23">
+        <v>150</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="24"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
+      <c r="C41" s="32">
+        <v>45961</v>
+      </c>
+      <c r="D41" s="22">
+        <v>120</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.3">
@@ -17175,11 +17386,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>3195</v>
+        <v>3465</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>5505</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8CA29D-C177-4D79-A4E0-D4A726B71DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B705D2-BF04-4273-AA90-D5EA68403058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -1830,10 +1830,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3465</c:v>
+                  <c:v>3585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5235</c:v>
+                  <c:v>5115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10998,7 +10998,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11570,7 +11570,7 @@
         <v>45961</v>
       </c>
       <c r="D41" s="22">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>27</v>
@@ -17386,11 +17386,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>3465</v>
+        <v>3585</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>5235</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B705D2-BF04-4273-AA90-D5EA68403058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABA395D-8F3F-47DB-8BDD-0EA48EBBF698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
   <si>
     <t>Week:</t>
   </si>
@@ -1830,10 +1830,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3585</c:v>
+                  <c:v>3630</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5115</c:v>
+                  <c:v>5070</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3057,16 +3057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177165</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177165</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3081,8 +3081,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7263765" y="371475"/>
-          <a:ext cx="0" cy="2545080"/>
+          <a:off x="8345805" y="363855"/>
+          <a:ext cx="0" cy="2539365"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10545,7 +10545,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10997,8 +10997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154930E-2F36-41CB-8896-D63BC278B832}">
   <dimension ref="C1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11570,18 +11570,28 @@
         <v>45961</v>
       </c>
       <c r="D41" s="22">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="22"/>
+      <c r="F41" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="25"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="C42" s="33">
+        <v>45962</v>
+      </c>
+      <c r="D42" s="23">
+        <v>30</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C43" s="24"/>
@@ -17386,11 +17396,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>3585</v>
+        <v>3630</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>5115</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABA395D-8F3F-47DB-8BDD-0EA48EBBF698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1320CAFA-EDAE-495D-BBE3-066329CB93D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -1830,10 +1830,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3630</c:v>
+                  <c:v>3720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5070</c:v>
+                  <c:v>4980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10998,7 +10998,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E41" sqref="E40:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11584,7 +11584,7 @@
         <v>45962</v>
       </c>
       <c r="D42" s="23">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>27</v>
@@ -17396,11 +17396,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>3630</v>
+        <v>3720</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>5070</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1320CAFA-EDAE-495D-BBE3-066329CB93D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EB71D6-FFA9-4FCD-BACA-806F61237AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1830,10 +1830,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3720</c:v>
+                  <c:v>3795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4980</c:v>
+                  <c:v>4905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10998,7 +10998,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E41" sqref="E40:E41"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11584,7 +11584,7 @@
         <v>45962</v>
       </c>
       <c r="D42" s="23">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>27</v>
@@ -17369,7 +17369,7 @@
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17396,11 +17396,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>3720</v>
+        <v>3795</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4980</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EB71D6-FFA9-4FCD-BACA-806F61237AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7990C72-1F06-485B-B425-3095A9C4104E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
   <si>
     <t>Week:</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Working on assessment</t>
+  </si>
+  <si>
+    <t>Creating an AWS account and putting the CMMC Fledge websit eon there (CSS does not work on asessment pages)</t>
   </si>
 </sst>
 </file>
@@ -1830,10 +1833,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3795</c:v>
+                  <c:v>3930</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4905</c:v>
+                  <c:v>4770</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10998,7 +11001,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11594,10 +11597,18 @@
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C43" s="24"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
+      <c r="C43" s="32">
+        <v>45962</v>
+      </c>
+      <c r="D43" s="22">
+        <v>135</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C44" s="25"/>
@@ -17396,11 +17407,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>3795</v>
+        <v>3930</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4905</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7990C72-1F06-485B-B425-3095A9C4104E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746D8BD2-8A04-4080-BD66-FC94F7016035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>Week:</t>
   </si>
@@ -253,7 +253,7 @@
     <t>Working on assessment</t>
   </si>
   <si>
-    <t>Creating an AWS account and putting the CMMC Fledge websit eon there (CSS does not work on asessment pages)</t>
+    <t>Creating an AWS account and putting the CMMC Fledge website on there (CSS does not work on asessment pages)</t>
   </si>
 </sst>
 </file>
@@ -1833,10 +1833,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3930</c:v>
+                  <c:v>3975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4770</c:v>
+                  <c:v>4725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11000,8 +11000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154930E-2F36-41CB-8896-D63BC278B832}">
   <dimension ref="C1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11611,9 +11611,15 @@
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="25"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="C44" s="33">
+        <v>45963</v>
+      </c>
+      <c r="D44" s="23">
+        <v>45</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="F44" s="23"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.3">
@@ -17407,11 +17413,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>3930</v>
+        <v>3975</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4770</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746D8BD2-8A04-4080-BD66-FC94F7016035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A341804C-C9EA-4DD7-9AB0-8157C4F55966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>Week:</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Creating an AWS account and putting the CMMC Fledge website on there (CSS does not work on asessment pages)</t>
+  </si>
+  <si>
+    <t>working on assessment</t>
+  </si>
+  <si>
+    <t>Fighting with CUI types</t>
   </si>
 </sst>
 </file>
@@ -1833,10 +1839,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3975</c:v>
+                  <c:v>4155</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4725</c:v>
+                  <c:v>4545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11001,7 +11007,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11615,18 +11621,28 @@
         <v>45963</v>
       </c>
       <c r="D44" s="23">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="23"/>
+      <c r="F44" s="23" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="24"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="C45" s="32">
+        <v>45963</v>
+      </c>
+      <c r="D45" s="22">
+        <v>135</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C46" s="25"/>
@@ -17413,11 +17429,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>3975</v>
+        <v>4155</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4725</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A341804C-C9EA-4DD7-9AB0-8157C4F55966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24198B16-83F2-403B-87A7-C3E2AA331A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -1839,10 +1839,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4155</c:v>
+                  <c:v>4185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4545</c:v>
+                  <c:v>4515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11007,7 +11007,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11621,7 +11621,7 @@
         <v>45963</v>
       </c>
       <c r="D44" s="23">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>27</v>
@@ -17429,11 +17429,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>4155</v>
+        <v>4185</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4545</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24198B16-83F2-403B-87A7-C3E2AA331A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512E66BB-BBFA-4158-BBD7-FA32E1FB467F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
   <si>
     <t>Week:</t>
   </si>
@@ -1839,10 +1839,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4185</c:v>
+                  <c:v>4215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4515</c:v>
+                  <c:v>4485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11007,7 +11007,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11645,10 +11645,18 @@
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="25"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
+      <c r="C46" s="33">
+        <v>45964</v>
+      </c>
+      <c r="D46" s="23">
+        <v>30</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C47" s="24"/>
@@ -17429,11 +17437,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>4185</v>
+        <v>4215</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4515</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512E66BB-BBFA-4158-BBD7-FA32E1FB467F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D02F2-7126-4490-BF8E-59F5F5999ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -1839,10 +1839,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4215</c:v>
+                  <c:v>4275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4485</c:v>
+                  <c:v>4425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11007,7 +11007,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11649,7 +11649,7 @@
         <v>45964</v>
       </c>
       <c r="D46" s="23">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>27</v>
@@ -17437,11 +17437,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>4215</v>
+        <v>4275</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4485</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D02F2-7126-4490-BF8E-59F5F5999ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD79171E-6E83-4D60-9B42-2548449F1D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="70905" yWindow="3780" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
     <t>Week:</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Fighting with CUI types</t>
+  </si>
+  <si>
+    <t>Working on assessment report for l1</t>
   </si>
 </sst>
 </file>
@@ -1839,10 +1842,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4275</c:v>
+                  <c:v>4335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4425</c:v>
+                  <c:v>4365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11006,8 +11009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154930E-2F36-41CB-8896-D63BC278B832}">
   <dimension ref="C1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11659,10 +11662,18 @@
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C47" s="24"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
+      <c r="C47" s="32">
+        <v>45964</v>
+      </c>
+      <c r="D47" s="22">
+        <v>60</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C48" s="25"/>
@@ -17437,11 +17448,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>4275</v>
+        <v>4335</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4425</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD79171E-6E83-4D60-9B42-2548449F1D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4121B7-C3F0-4221-B5F9-C68B211676D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="70905" yWindow="3780" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>Week:</t>
   </si>
@@ -1842,10 +1842,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4335</c:v>
+                  <c:v>4395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4365</c:v>
+                  <c:v>4305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11009,8 +11009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154930E-2F36-41CB-8896-D63BC278B832}">
   <dimension ref="C1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11676,10 +11676,18 @@
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C48" s="25"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="C48" s="33">
+        <v>45965</v>
+      </c>
+      <c r="D48" s="23">
+        <v>60</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" s="24"/>
@@ -17448,11 +17456,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>4335</v>
+        <v>4395</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4365</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4121B7-C3F0-4221-B5F9-C68B211676D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3F0778-7520-45DA-A058-86A5A7504061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70905" yWindow="3780" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
   <si>
     <t>Week:</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Working on assessment report for l1</t>
+  </si>
+  <si>
+    <t>Working on presentation for milestone 2</t>
   </si>
 </sst>
 </file>
@@ -1842,10 +1845,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4395</c:v>
+                  <c:v>4560</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4305</c:v>
+                  <c:v>4140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11010,7 +11013,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11680,7 +11683,7 @@
         <v>45965</v>
       </c>
       <c r="D48" s="23">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>27</v>
@@ -11690,10 +11693,18 @@
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C49" s="24"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
+      <c r="C49" s="32">
+        <v>45965</v>
+      </c>
+      <c r="D49" s="22">
+        <v>30</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" s="25"/>
@@ -17456,11 +17467,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>4395</v>
+        <v>4560</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4305</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3F0778-7520-45DA-A058-86A5A7504061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762BFCA1-4149-4BB7-BBA3-340582AF96C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -1845,10 +1845,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4560</c:v>
+                  <c:v>4590</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4140</c:v>
+                  <c:v>4110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11013,7 +11013,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11683,7 +11683,7 @@
         <v>45965</v>
       </c>
       <c r="D48" s="23">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>27</v>
@@ -17467,11 +17467,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>4560</v>
+        <v>4590</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4140</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762BFCA1-4149-4BB7-BBA3-340582AF96C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE79CB-266A-4464-A3F1-8DA7DDF921B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -1845,10 +1845,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4590</c:v>
+                  <c:v>4650</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4110</c:v>
+                  <c:v>4050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11013,7 +11013,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11683,7 +11683,7 @@
         <v>45965</v>
       </c>
       <c r="D48" s="23">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>27</v>
@@ -17467,11 +17467,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>4590</v>
+        <v>4650</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4110</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE79CB-266A-4464-A3F1-8DA7DDF921B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B6AB53-AB2C-406E-8397-A3AC819D44DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="2190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="70905" yWindow="3780" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1845,10 +1845,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4650</c:v>
+                  <c:v>4665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4050</c:v>
+                  <c:v>4035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11013,7 +11013,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11697,7 +11697,7 @@
         <v>45965</v>
       </c>
       <c r="D49" s="22">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>28</v>
@@ -17467,11 +17467,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>4650</v>
+        <v>4665</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4050</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B6AB53-AB2C-406E-8397-A3AC819D44DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FCD4E7-7DA3-4248-99FB-C41E29EDAF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70905" yWindow="3780" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="40185" yWindow="4260" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="79">
   <si>
     <t>Week:</t>
   </si>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>Working on presentation for milestone 2</t>
+  </si>
+  <si>
+    <t>Getting AWS RDS</t>
+  </si>
+  <si>
+    <t>Getting AWS RDS tables</t>
+  </si>
+  <si>
+    <t>Git Fixes / RDS fixes</t>
+  </si>
+  <si>
+    <t>Feedback discussion</t>
   </si>
 </sst>
 </file>
@@ -1845,10 +1857,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4665</c:v>
+                  <c:v>4965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4035</c:v>
+                  <c:v>3735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11012,8 +11024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154930E-2F36-41CB-8896-D63BC278B832}">
   <dimension ref="C1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11707,28 +11719,60 @@
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C50" s="25"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+      <c r="C50" s="33">
+        <v>45969</v>
+      </c>
+      <c r="D50" s="23">
+        <v>75</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C51" s="24"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
+      <c r="C51" s="32">
+        <v>45970</v>
+      </c>
+      <c r="D51" s="22">
+        <v>120</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="25"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
+      <c r="C52" s="33">
+        <v>45971</v>
+      </c>
+      <c r="D52" s="23">
+        <v>45</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C53" s="24"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
+      <c r="C53" s="32">
+        <v>45971</v>
+      </c>
+      <c r="D53" s="22">
+        <v>60</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C54" s="25"/>
@@ -17467,11 +17511,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>4665</v>
+        <v>4965</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>4035</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FCD4E7-7DA3-4248-99FB-C41E29EDAF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F99D11-FB43-40F1-9217-437D9410D0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40185" yWindow="4260" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>Week:</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Feedback discussion</t>
+  </si>
+  <si>
+    <t>Fighting with AWS suppport for domain name</t>
   </si>
 </sst>
 </file>
@@ -1857,10 +1860,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4965</c:v>
+                  <c:v>5010</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3735</c:v>
+                  <c:v>3690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10575,20 +10578,20 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -10623,7 +10626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -10672,7 +10675,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
@@ -10695,7 +10698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -10710,7 +10713,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="36"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="45" t="s">
         <v>4</v>
@@ -10725,7 +10728,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>13</v>
       </c>
@@ -10742,7 +10745,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="36"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
@@ -10757,7 +10760,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="36"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
@@ -10772,7 +10775,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="36"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
@@ -10787,7 +10790,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="36"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>14</v>
       </c>
@@ -10804,7 +10807,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="36"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
@@ -10819,7 +10822,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="36"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
@@ -10834,7 +10837,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="36"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
@@ -10849,7 +10852,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
@@ -10864,7 +10867,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
@@ -10879,7 +10882,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>15</v>
       </c>
@@ -10896,7 +10899,7 @@
       <c r="J16" s="42"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>36</v>
       </c>
@@ -10904,7 +10907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
@@ -10912,7 +10915,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>4</v>
       </c>
@@ -10920,12 +10923,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>5</v>
       </c>
@@ -10933,7 +10936,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>6</v>
       </c>
@@ -10941,7 +10944,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>28</v>
       </c>
@@ -10949,7 +10952,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>7</v>
       </c>
@@ -10957,7 +10960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>8</v>
       </c>
@@ -10965,7 +10968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>9</v>
       </c>
@@ -10973,7 +10976,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>19</v>
       </c>
@@ -10981,7 +10984,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>27</v>
       </c>
@@ -10989,7 +10992,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>38</v>
       </c>
@@ -11024,19 +11027,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154930E-2F36-41CB-8896-D63BC278B832}">
   <dimension ref="C1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="114.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="114.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="26" t="s">
         <v>22</v>
       </c>
@@ -11050,7 +11053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="28">
         <v>45927</v>
       </c>
@@ -11064,7 +11067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="32">
         <v>45927</v>
       </c>
@@ -11078,7 +11081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="33">
         <v>45928</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="32">
         <v>45928</v>
       </c>
@@ -11106,7 +11109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="33">
         <v>45929</v>
       </c>
@@ -11120,7 +11123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="32">
         <v>45934</v>
       </c>
@@ -11134,7 +11137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="33">
         <v>45934</v>
       </c>
@@ -11148,7 +11151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="32">
         <v>45934</v>
       </c>
@@ -11162,7 +11165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="33">
         <v>45935</v>
       </c>
@@ -11176,7 +11179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="32">
         <v>45936</v>
       </c>
@@ -11190,7 +11193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="33">
         <v>45940</v>
       </c>
@@ -11202,7 +11205,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="32">
         <v>45941</v>
       </c>
@@ -11214,7 +11217,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="33">
         <v>45942</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="32">
         <v>45944</v>
       </c>
@@ -11242,7 +11245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" s="33">
         <v>45944</v>
       </c>
@@ -11256,7 +11259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="32">
         <v>45944</v>
       </c>
@@ -11270,7 +11273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="33">
         <v>45944</v>
       </c>
@@ -11284,7 +11287,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="32">
         <v>45944</v>
       </c>
@@ -11298,7 +11301,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="33">
         <v>45945</v>
       </c>
@@ -11312,7 +11315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="32">
         <v>45945</v>
       </c>
@@ -11326,7 +11329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="33">
         <v>45945</v>
       </c>
@@ -11340,7 +11343,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="32">
         <v>45946</v>
       </c>
@@ -11354,7 +11357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="33">
         <v>45946</v>
       </c>
@@ -11368,7 +11371,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="32">
         <v>45946</v>
       </c>
@@ -11382,7 +11385,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="33">
         <v>45946</v>
       </c>
@@ -11396,7 +11399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="32">
         <v>45946</v>
       </c>
@@ -11410,7 +11413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="33">
         <v>45946</v>
       </c>
@@ -11424,7 +11427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="32">
         <v>45950</v>
       </c>
@@ -11438,7 +11441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="33">
         <v>45950</v>
       </c>
@@ -11452,7 +11455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="32">
         <v>45950</v>
       </c>
@@ -11466,7 +11469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="33">
         <v>45951</v>
       </c>
@@ -11480,7 +11483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="32">
         <v>45951</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="33">
         <v>45955</v>
       </c>
@@ -11508,7 +11511,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="32">
         <v>45956</v>
       </c>
@@ -11522,7 +11525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="33">
         <v>45956</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="32">
         <v>45957</v>
       </c>
@@ -11550,7 +11553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="33">
         <v>45958</v>
       </c>
@@ -11564,7 +11567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="32">
         <v>45958</v>
       </c>
@@ -11578,7 +11581,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="33">
         <v>45960</v>
       </c>
@@ -11592,7 +11595,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="32">
         <v>45961</v>
       </c>
@@ -11606,7 +11609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="33">
         <v>45962</v>
       </c>
@@ -11620,7 +11623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="32">
         <v>45962</v>
       </c>
@@ -11634,7 +11637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="33">
         <v>45963</v>
       </c>
@@ -11648,7 +11651,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" s="32">
         <v>45963</v>
       </c>
@@ -11662,7 +11665,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="33">
         <v>45964</v>
       </c>
@@ -11676,7 +11679,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="32">
         <v>45964</v>
       </c>
@@ -11690,7 +11693,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" s="33">
         <v>45965</v>
       </c>
@@ -11704,7 +11707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="32">
         <v>45965</v>
       </c>
@@ -11718,7 +11721,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="33">
         <v>45969</v>
       </c>
@@ -11732,7 +11735,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="32">
         <v>45970</v>
       </c>
@@ -11746,7 +11749,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="33">
         <v>45971</v>
       </c>
@@ -11760,7 +11763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="32">
         <v>45971</v>
       </c>
@@ -11774,5683 +11777,5691 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C54" s="25"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="33">
+        <v>45972</v>
+      </c>
+      <c r="D54" s="23">
+        <v>45</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="24"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="25"/>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" s="24"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="25"/>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="24"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="25"/>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="24"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="25"/>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="24"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="25"/>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="24"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="25"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="24"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="25"/>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="24"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="25"/>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="24"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="25"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="24"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="25"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="24"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" s="25"/>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="24"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" s="25"/>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" s="24"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" s="25"/>
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" s="24"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" s="25"/>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" s="24"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" s="25"/>
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C85" s="24"/>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C86" s="25"/>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87" s="24"/>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" s="25"/>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C89" s="24"/>
       <c r="D89" s="22"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C90" s="25"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C91" s="24"/>
       <c r="D91" s="22"/>
       <c r="E91" s="22"/>
       <c r="F91" s="22"/>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92" s="25"/>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C93" s="24"/>
       <c r="D93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C94" s="25"/>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C95" s="24"/>
       <c r="D95" s="22"/>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C96" s="25"/>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" s="24"/>
       <c r="D97" s="22"/>
       <c r="E97" s="22"/>
       <c r="F97" s="22"/>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" s="25"/>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C99" s="24"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22"/>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C100" s="25"/>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C101" s="24"/>
       <c r="D101" s="22"/>
       <c r="E101" s="22"/>
       <c r="F101" s="22"/>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C102" s="25"/>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
       <c r="F102" s="23"/>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C103" s="24"/>
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104" s="25"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23"/>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C105" s="24"/>
       <c r="D105" s="22"/>
       <c r="E105" s="22"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C106" s="25"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C107" s="24"/>
       <c r="D107" s="22"/>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C108" s="25"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C109" s="24"/>
       <c r="D109" s="22"/>
       <c r="E109" s="22"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C110" s="25"/>
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
       <c r="F110" s="23"/>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C111" s="24"/>
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C112" s="25"/>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" s="24"/>
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
       <c r="F113" s="22"/>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114" s="25"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C115" s="24"/>
       <c r="D115" s="22"/>
       <c r="E115" s="22"/>
       <c r="F115" s="22"/>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C116" s="25"/>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C117" s="24"/>
       <c r="D117" s="22"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22"/>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C118" s="25"/>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C119" s="24"/>
       <c r="D119" s="22"/>
       <c r="E119" s="22"/>
       <c r="F119" s="22"/>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C120" s="25"/>
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C121" s="24"/>
       <c r="D121" s="22"/>
       <c r="E121" s="22"/>
       <c r="F121" s="22"/>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C122" s="25"/>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C123" s="24"/>
       <c r="D123" s="22"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22"/>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C124" s="25"/>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C125" s="24"/>
       <c r="D125" s="22"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22"/>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C126" s="25"/>
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C127" s="24"/>
       <c r="D127" s="22"/>
       <c r="E127" s="22"/>
       <c r="F127" s="22"/>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C128" s="25"/>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
       <c r="F128" s="23"/>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C129" s="24"/>
       <c r="D129" s="22"/>
       <c r="E129" s="22"/>
       <c r="F129" s="22"/>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C130" s="25"/>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C131" s="24"/>
       <c r="D131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C132" s="25"/>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C133" s="24"/>
       <c r="D133" s="22"/>
       <c r="E133" s="22"/>
       <c r="F133" s="22"/>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C134" s="25"/>
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C135" s="24"/>
       <c r="D135" s="22"/>
       <c r="E135" s="22"/>
       <c r="F135" s="22"/>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C136" s="25"/>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23"/>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C137" s="24"/>
       <c r="D137" s="22"/>
       <c r="E137" s="22"/>
       <c r="F137" s="22"/>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C138" s="25"/>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
       <c r="F138" s="23"/>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C139" s="24"/>
       <c r="D139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C140" s="25"/>
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C141" s="24"/>
       <c r="D141" s="22"/>
       <c r="E141" s="22"/>
       <c r="F141" s="22"/>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C142" s="25"/>
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
       <c r="F142" s="23"/>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C143" s="24"/>
       <c r="D143" s="22"/>
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C144" s="25"/>
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C145" s="24"/>
       <c r="D145" s="22"/>
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C146" s="25"/>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
       <c r="F146" s="23"/>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C147" s="24"/>
       <c r="D147" s="22"/>
       <c r="E147" s="22"/>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C148" s="25"/>
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
       <c r="F148" s="23"/>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C149" s="24"/>
       <c r="D149" s="22"/>
       <c r="E149" s="22"/>
       <c r="F149" s="22"/>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C150" s="25"/>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
       <c r="F150" s="23"/>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C151" s="24"/>
       <c r="D151" s="22"/>
       <c r="E151" s="22"/>
       <c r="F151" s="22"/>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C152" s="25"/>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C153" s="24"/>
       <c r="D153" s="22"/>
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C154" s="25"/>
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
       <c r="F154" s="23"/>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C155" s="24"/>
       <c r="D155" s="22"/>
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C156" s="25"/>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
       <c r="F156" s="23"/>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C157" s="24"/>
       <c r="D157" s="22"/>
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C158" s="25"/>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
       <c r="F158" s="23"/>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C159" s="24"/>
       <c r="D159" s="22"/>
       <c r="E159" s="22"/>
       <c r="F159" s="22"/>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C160" s="25"/>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
       <c r="F160" s="23"/>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C161" s="24"/>
       <c r="D161" s="22"/>
       <c r="E161" s="22"/>
       <c r="F161" s="22"/>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C162" s="25"/>
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
       <c r="F162" s="23"/>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C163" s="24"/>
       <c r="D163" s="22"/>
       <c r="E163" s="22"/>
       <c r="F163" s="22"/>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C164" s="25"/>
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
       <c r="F164" s="23"/>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C165" s="24"/>
       <c r="D165" s="22"/>
       <c r="E165" s="22"/>
       <c r="F165" s="22"/>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C166" s="25"/>
       <c r="D166" s="23"/>
       <c r="E166" s="23"/>
       <c r="F166" s="23"/>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C167" s="24"/>
       <c r="D167" s="22"/>
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C168" s="25"/>
       <c r="D168" s="23"/>
       <c r="E168" s="23"/>
       <c r="F168" s="23"/>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C169" s="24"/>
       <c r="D169" s="22"/>
       <c r="E169" s="22"/>
       <c r="F169" s="22"/>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C170" s="25"/>
       <c r="D170" s="23"/>
       <c r="E170" s="23"/>
       <c r="F170" s="23"/>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C171" s="24"/>
       <c r="D171" s="22"/>
       <c r="E171" s="22"/>
       <c r="F171" s="22"/>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C172" s="25"/>
       <c r="D172" s="23"/>
       <c r="E172" s="23"/>
       <c r="F172" s="23"/>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C173" s="24"/>
       <c r="D173" s="22"/>
       <c r="E173" s="22"/>
       <c r="F173" s="22"/>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C174" s="25"/>
       <c r="D174" s="23"/>
       <c r="E174" s="23"/>
       <c r="F174" s="23"/>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C175" s="24"/>
       <c r="D175" s="22"/>
       <c r="E175" s="22"/>
       <c r="F175" s="22"/>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C176" s="25"/>
       <c r="D176" s="23"/>
       <c r="E176" s="23"/>
       <c r="F176" s="23"/>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C177" s="24"/>
       <c r="D177" s="22"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C178" s="25"/>
       <c r="D178" s="23"/>
       <c r="E178" s="23"/>
       <c r="F178" s="23"/>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C179" s="24"/>
       <c r="D179" s="22"/>
       <c r="E179" s="22"/>
       <c r="F179" s="22"/>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C180" s="25"/>
       <c r="D180" s="23"/>
       <c r="E180" s="23"/>
       <c r="F180" s="23"/>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C181" s="24"/>
       <c r="D181" s="22"/>
       <c r="E181" s="22"/>
       <c r="F181" s="22"/>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C182" s="25"/>
       <c r="D182" s="23"/>
       <c r="E182" s="23"/>
       <c r="F182" s="23"/>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C183" s="24"/>
       <c r="D183" s="22"/>
       <c r="E183" s="22"/>
       <c r="F183" s="22"/>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C184" s="25"/>
       <c r="D184" s="23"/>
       <c r="E184" s="23"/>
       <c r="F184" s="23"/>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C185" s="24"/>
       <c r="D185" s="22"/>
       <c r="E185" s="22"/>
       <c r="F185" s="22"/>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C186" s="25"/>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
       <c r="F186" s="23"/>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C187" s="24"/>
       <c r="D187" s="22"/>
       <c r="E187" s="22"/>
       <c r="F187" s="22"/>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C188" s="25"/>
       <c r="D188" s="23"/>
       <c r="E188" s="23"/>
       <c r="F188" s="23"/>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C189" s="24"/>
       <c r="D189" s="22"/>
       <c r="E189" s="22"/>
       <c r="F189" s="22"/>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C190" s="25"/>
       <c r="D190" s="23"/>
       <c r="E190" s="23"/>
       <c r="F190" s="23"/>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C191" s="24"/>
       <c r="D191" s="22"/>
       <c r="E191" s="22"/>
       <c r="F191" s="22"/>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C192" s="25"/>
       <c r="D192" s="23"/>
       <c r="E192" s="23"/>
       <c r="F192" s="23"/>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C193" s="24"/>
       <c r="D193" s="22"/>
       <c r="E193" s="22"/>
       <c r="F193" s="22"/>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C194" s="25"/>
       <c r="D194" s="23"/>
       <c r="E194" s="23"/>
       <c r="F194" s="23"/>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C195" s="24"/>
       <c r="D195" s="22"/>
       <c r="E195" s="22"/>
       <c r="F195" s="22"/>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C196" s="25"/>
       <c r="D196" s="23"/>
       <c r="E196" s="23"/>
       <c r="F196" s="23"/>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C197" s="24"/>
       <c r="D197" s="22"/>
       <c r="E197" s="22"/>
       <c r="F197" s="22"/>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C198" s="25"/>
       <c r="D198" s="23"/>
       <c r="E198" s="23"/>
       <c r="F198" s="23"/>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C199" s="24"/>
       <c r="D199" s="22"/>
       <c r="E199" s="22"/>
       <c r="F199" s="22"/>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C200" s="25"/>
       <c r="D200" s="23"/>
       <c r="E200" s="23"/>
       <c r="F200" s="23"/>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C201" s="24"/>
       <c r="D201" s="22"/>
       <c r="E201" s="22"/>
       <c r="F201" s="22"/>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C202" s="25"/>
       <c r="D202" s="23"/>
       <c r="E202" s="23"/>
       <c r="F202" s="23"/>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C203" s="24"/>
       <c r="D203" s="22"/>
       <c r="E203" s="22"/>
       <c r="F203" s="22"/>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C204" s="25"/>
       <c r="D204" s="23"/>
       <c r="E204" s="23"/>
       <c r="F204" s="23"/>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C205" s="24"/>
       <c r="D205" s="22"/>
       <c r="E205" s="22"/>
       <c r="F205" s="22"/>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C206" s="25"/>
       <c r="D206" s="23"/>
       <c r="E206" s="23"/>
       <c r="F206" s="23"/>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C207" s="24"/>
       <c r="D207" s="22"/>
       <c r="E207" s="22"/>
       <c r="F207" s="22"/>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C208" s="25"/>
       <c r="D208" s="23"/>
       <c r="E208" s="23"/>
       <c r="F208" s="23"/>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C209" s="24"/>
       <c r="D209" s="22"/>
       <c r="E209" s="22"/>
       <c r="F209" s="22"/>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C210" s="25"/>
       <c r="D210" s="23"/>
       <c r="E210" s="23"/>
       <c r="F210" s="23"/>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C211" s="24"/>
       <c r="D211" s="22"/>
       <c r="E211" s="22"/>
       <c r="F211" s="22"/>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C212" s="25"/>
       <c r="D212" s="23"/>
       <c r="E212" s="23"/>
       <c r="F212" s="23"/>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C213" s="24"/>
       <c r="D213" s="22"/>
       <c r="E213" s="22"/>
       <c r="F213" s="22"/>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C214" s="25"/>
       <c r="D214" s="23"/>
       <c r="E214" s="23"/>
       <c r="F214" s="23"/>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C215" s="24"/>
       <c r="D215" s="22"/>
       <c r="E215" s="22"/>
       <c r="F215" s="22"/>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C216" s="25"/>
       <c r="D216" s="23"/>
       <c r="E216" s="23"/>
       <c r="F216" s="23"/>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C217" s="24"/>
       <c r="D217" s="22"/>
       <c r="E217" s="22"/>
       <c r="F217" s="22"/>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C218" s="25"/>
       <c r="D218" s="23"/>
       <c r="E218" s="23"/>
       <c r="F218" s="23"/>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C219" s="24"/>
       <c r="D219" s="22"/>
       <c r="E219" s="22"/>
       <c r="F219" s="22"/>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C220" s="25"/>
       <c r="D220" s="23"/>
       <c r="E220" s="23"/>
       <c r="F220" s="23"/>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C221" s="24"/>
       <c r="D221" s="22"/>
       <c r="E221" s="22"/>
       <c r="F221" s="22"/>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C222" s="25"/>
       <c r="D222" s="23"/>
       <c r="E222" s="23"/>
       <c r="F222" s="23"/>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C223" s="24"/>
       <c r="D223" s="22"/>
       <c r="E223" s="22"/>
       <c r="F223" s="22"/>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C224" s="25"/>
       <c r="D224" s="23"/>
       <c r="E224" s="23"/>
       <c r="F224" s="23"/>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C225" s="24"/>
       <c r="D225" s="22"/>
       <c r="E225" s="22"/>
       <c r="F225" s="22"/>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C226" s="25"/>
       <c r="D226" s="23"/>
       <c r="E226" s="23"/>
       <c r="F226" s="23"/>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C227" s="24"/>
       <c r="D227" s="22"/>
       <c r="E227" s="22"/>
       <c r="F227" s="22"/>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C228" s="25"/>
       <c r="D228" s="23"/>
       <c r="E228" s="23"/>
       <c r="F228" s="23"/>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C229" s="24"/>
       <c r="D229" s="22"/>
       <c r="E229" s="22"/>
       <c r="F229" s="22"/>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C230" s="25"/>
       <c r="D230" s="23"/>
       <c r="E230" s="23"/>
       <c r="F230" s="23"/>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C231" s="24"/>
       <c r="D231" s="22"/>
       <c r="E231" s="22"/>
       <c r="F231" s="22"/>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C232" s="25"/>
       <c r="D232" s="23"/>
       <c r="E232" s="23"/>
       <c r="F232" s="23"/>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C233" s="24"/>
       <c r="D233" s="22"/>
       <c r="E233" s="22"/>
       <c r="F233" s="22"/>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C234" s="25"/>
       <c r="D234" s="23"/>
       <c r="E234" s="23"/>
       <c r="F234" s="23"/>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C235" s="24"/>
       <c r="D235" s="22"/>
       <c r="E235" s="22"/>
       <c r="F235" s="22"/>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C236" s="25"/>
       <c r="D236" s="23"/>
       <c r="E236" s="23"/>
       <c r="F236" s="23"/>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C237" s="24"/>
       <c r="D237" s="22"/>
       <c r="E237" s="22"/>
       <c r="F237" s="22"/>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C238" s="25"/>
       <c r="D238" s="23"/>
       <c r="E238" s="23"/>
       <c r="F238" s="23"/>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C239" s="24"/>
       <c r="D239" s="22"/>
       <c r="E239" s="22"/>
       <c r="F239" s="22"/>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C240" s="25"/>
       <c r="D240" s="23"/>
       <c r="E240" s="23"/>
       <c r="F240" s="23"/>
     </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C241" s="24"/>
       <c r="D241" s="22"/>
       <c r="E241" s="22"/>
       <c r="F241" s="22"/>
     </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C242" s="25"/>
       <c r="D242" s="23"/>
       <c r="E242" s="23"/>
       <c r="F242" s="23"/>
     </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C243" s="24"/>
       <c r="D243" s="22"/>
       <c r="E243" s="22"/>
       <c r="F243" s="22"/>
     </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C244" s="25"/>
       <c r="D244" s="23"/>
       <c r="E244" s="23"/>
       <c r="F244" s="23"/>
     </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C245" s="24"/>
       <c r="D245" s="22"/>
       <c r="E245" s="22"/>
       <c r="F245" s="22"/>
     </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C246" s="25"/>
       <c r="D246" s="23"/>
       <c r="E246" s="23"/>
       <c r="F246" s="23"/>
     </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C247" s="24"/>
       <c r="D247" s="22"/>
       <c r="E247" s="22"/>
       <c r="F247" s="22"/>
     </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C248" s="25"/>
       <c r="D248" s="23"/>
       <c r="E248" s="23"/>
       <c r="F248" s="23"/>
     </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C249" s="24"/>
       <c r="D249" s="22"/>
       <c r="E249" s="22"/>
       <c r="F249" s="22"/>
     </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C250" s="25"/>
       <c r="D250" s="23"/>
       <c r="E250" s="23"/>
       <c r="F250" s="23"/>
     </row>
-    <row r="251" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C251" s="24"/>
       <c r="D251" s="22"/>
       <c r="E251" s="22"/>
       <c r="F251" s="22"/>
     </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C252" s="25"/>
       <c r="D252" s="23"/>
       <c r="E252" s="23"/>
       <c r="F252" s="23"/>
     </row>
-    <row r="253" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C253" s="24"/>
       <c r="D253" s="22"/>
       <c r="E253" s="22"/>
       <c r="F253" s="22"/>
     </row>
-    <row r="254" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C254" s="25"/>
       <c r="D254" s="23"/>
       <c r="E254" s="23"/>
       <c r="F254" s="23"/>
     </row>
-    <row r="255" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C255" s="24"/>
       <c r="D255" s="22"/>
       <c r="E255" s="22"/>
       <c r="F255" s="22"/>
     </row>
-    <row r="256" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C256" s="25"/>
       <c r="D256" s="23"/>
       <c r="E256" s="23"/>
       <c r="F256" s="23"/>
     </row>
-    <row r="257" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C257" s="24"/>
       <c r="D257" s="22"/>
       <c r="E257" s="22"/>
       <c r="F257" s="22"/>
     </row>
-    <row r="258" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C258" s="25"/>
       <c r="D258" s="23"/>
       <c r="E258" s="23"/>
       <c r="F258" s="23"/>
     </row>
-    <row r="259" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C259" s="24"/>
       <c r="D259" s="22"/>
       <c r="E259" s="22"/>
       <c r="F259" s="22"/>
     </row>
-    <row r="260" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C260" s="25"/>
       <c r="D260" s="23"/>
       <c r="E260" s="23"/>
       <c r="F260" s="23"/>
     </row>
-    <row r="261" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C261" s="24"/>
       <c r="D261" s="22"/>
       <c r="E261" s="22"/>
       <c r="F261" s="22"/>
     </row>
-    <row r="262" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C262" s="25"/>
       <c r="D262" s="23"/>
       <c r="E262" s="23"/>
       <c r="F262" s="23"/>
     </row>
-    <row r="263" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C263" s="24"/>
       <c r="D263" s="22"/>
       <c r="E263" s="22"/>
       <c r="F263" s="22"/>
     </row>
-    <row r="264" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C264" s="25"/>
       <c r="D264" s="23"/>
       <c r="E264" s="23"/>
       <c r="F264" s="23"/>
     </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C265" s="24"/>
       <c r="D265" s="22"/>
       <c r="E265" s="22"/>
       <c r="F265" s="22"/>
     </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C266" s="25"/>
       <c r="D266" s="23"/>
       <c r="E266" s="23"/>
       <c r="F266" s="23"/>
     </row>
-    <row r="267" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C267" s="24"/>
       <c r="D267" s="22"/>
       <c r="E267" s="22"/>
       <c r="F267" s="22"/>
     </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C268" s="25"/>
       <c r="D268" s="23"/>
       <c r="E268" s="23"/>
       <c r="F268" s="23"/>
     </row>
-    <row r="269" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C269" s="24"/>
       <c r="D269" s="22"/>
       <c r="E269" s="22"/>
       <c r="F269" s="22"/>
     </row>
-    <row r="270" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C270" s="25"/>
       <c r="D270" s="23"/>
       <c r="E270" s="23"/>
       <c r="F270" s="23"/>
     </row>
-    <row r="271" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C271" s="24"/>
       <c r="D271" s="22"/>
       <c r="E271" s="22"/>
       <c r="F271" s="22"/>
     </row>
-    <row r="272" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C272" s="25"/>
       <c r="D272" s="23"/>
       <c r="E272" s="23"/>
       <c r="F272" s="23"/>
     </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C273" s="24"/>
       <c r="D273" s="22"/>
       <c r="E273" s="22"/>
       <c r="F273" s="22"/>
     </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C274" s="25"/>
       <c r="D274" s="23"/>
       <c r="E274" s="23"/>
       <c r="F274" s="23"/>
     </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C275" s="24"/>
       <c r="D275" s="22"/>
       <c r="E275" s="22"/>
       <c r="F275" s="22"/>
     </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C276" s="25"/>
       <c r="D276" s="23"/>
       <c r="E276" s="23"/>
       <c r="F276" s="23"/>
     </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C277" s="24"/>
       <c r="D277" s="22"/>
       <c r="E277" s="22"/>
       <c r="F277" s="22"/>
     </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C278" s="25"/>
       <c r="D278" s="23"/>
       <c r="E278" s="23"/>
       <c r="F278" s="23"/>
     </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C279" s="24"/>
       <c r="D279" s="22"/>
       <c r="E279" s="22"/>
       <c r="F279" s="22"/>
     </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C280" s="25"/>
       <c r="D280" s="23"/>
       <c r="E280" s="23"/>
       <c r="F280" s="23"/>
     </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C281" s="24"/>
       <c r="D281" s="22"/>
       <c r="E281" s="22"/>
       <c r="F281" s="22"/>
     </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C282" s="25"/>
       <c r="D282" s="23"/>
       <c r="E282" s="23"/>
       <c r="F282" s="23"/>
     </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C283" s="24"/>
       <c r="D283" s="22"/>
       <c r="E283" s="22"/>
       <c r="F283" s="22"/>
     </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C284" s="25"/>
       <c r="D284" s="23"/>
       <c r="E284" s="23"/>
       <c r="F284" s="23"/>
     </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C285" s="24"/>
       <c r="D285" s="22"/>
       <c r="E285" s="22"/>
       <c r="F285" s="22"/>
     </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C286" s="25"/>
       <c r="D286" s="23"/>
       <c r="E286" s="23"/>
       <c r="F286" s="23"/>
     </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C287" s="24"/>
       <c r="D287" s="22"/>
       <c r="E287" s="22"/>
       <c r="F287" s="22"/>
     </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C288" s="25"/>
       <c r="D288" s="23"/>
       <c r="E288" s="23"/>
       <c r="F288" s="23"/>
     </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C289" s="24"/>
       <c r="D289" s="22"/>
       <c r="E289" s="22"/>
       <c r="F289" s="22"/>
     </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C290" s="25"/>
       <c r="D290" s="23"/>
       <c r="E290" s="23"/>
       <c r="F290" s="23"/>
     </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C291" s="24"/>
       <c r="D291" s="22"/>
       <c r="E291" s="22"/>
       <c r="F291" s="22"/>
     </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C292" s="25"/>
       <c r="D292" s="23"/>
       <c r="E292" s="23"/>
       <c r="F292" s="23"/>
     </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C293" s="24"/>
       <c r="D293" s="22"/>
       <c r="E293" s="22"/>
       <c r="F293" s="22"/>
     </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C294" s="25"/>
       <c r="D294" s="23"/>
       <c r="E294" s="23"/>
       <c r="F294" s="23"/>
     </row>
-    <row r="295" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C295" s="24"/>
       <c r="D295" s="22"/>
       <c r="E295" s="22"/>
       <c r="F295" s="22"/>
     </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C296" s="25"/>
       <c r="D296" s="23"/>
       <c r="E296" s="23"/>
       <c r="F296" s="23"/>
     </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C297" s="24"/>
       <c r="D297" s="22"/>
       <c r="E297" s="22"/>
       <c r="F297" s="22"/>
     </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C298" s="25"/>
       <c r="D298" s="23"/>
       <c r="E298" s="23"/>
       <c r="F298" s="23"/>
     </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C299" s="24"/>
       <c r="D299" s="22"/>
       <c r="E299" s="22"/>
       <c r="F299" s="22"/>
     </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C300" s="25"/>
       <c r="D300" s="23"/>
       <c r="E300" s="23"/>
       <c r="F300" s="23"/>
     </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C301" s="24"/>
       <c r="D301" s="22"/>
       <c r="E301" s="22"/>
       <c r="F301" s="22"/>
     </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C302" s="25"/>
       <c r="D302" s="23"/>
       <c r="E302" s="23"/>
       <c r="F302" s="23"/>
     </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C303" s="24"/>
       <c r="D303" s="22"/>
       <c r="E303" s="22"/>
       <c r="F303" s="22"/>
     </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C304" s="25"/>
       <c r="D304" s="23"/>
       <c r="E304" s="23"/>
       <c r="F304" s="23"/>
     </row>
-    <row r="305" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C305" s="24"/>
       <c r="D305" s="22"/>
       <c r="E305" s="22"/>
       <c r="F305" s="22"/>
     </row>
-    <row r="306" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C306" s="25"/>
       <c r="D306" s="23"/>
       <c r="E306" s="23"/>
       <c r="F306" s="23"/>
     </row>
-    <row r="307" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C307" s="24"/>
       <c r="D307" s="22"/>
       <c r="E307" s="22"/>
       <c r="F307" s="22"/>
     </row>
-    <row r="308" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C308" s="25"/>
       <c r="D308" s="23"/>
       <c r="E308" s="23"/>
       <c r="F308" s="23"/>
     </row>
-    <row r="309" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C309" s="24"/>
       <c r="D309" s="22"/>
       <c r="E309" s="22"/>
       <c r="F309" s="22"/>
     </row>
-    <row r="310" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C310" s="25"/>
       <c r="D310" s="23"/>
       <c r="E310" s="23"/>
       <c r="F310" s="23"/>
     </row>
-    <row r="311" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C311" s="24"/>
       <c r="D311" s="22"/>
       <c r="E311" s="22"/>
       <c r="F311" s="22"/>
     </row>
-    <row r="312" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C312" s="25"/>
       <c r="D312" s="23"/>
       <c r="E312" s="23"/>
       <c r="F312" s="23"/>
     </row>
-    <row r="313" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C313" s="24"/>
       <c r="D313" s="22"/>
       <c r="E313" s="22"/>
       <c r="F313" s="22"/>
     </row>
-    <row r="314" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C314" s="25"/>
       <c r="D314" s="23"/>
       <c r="E314" s="23"/>
       <c r="F314" s="23"/>
     </row>
-    <row r="315" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C315" s="24"/>
       <c r="D315" s="22"/>
       <c r="E315" s="22"/>
       <c r="F315" s="22"/>
     </row>
-    <row r="316" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C316" s="25"/>
       <c r="D316" s="23"/>
       <c r="E316" s="23"/>
       <c r="F316" s="23"/>
     </row>
-    <row r="317" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C317" s="24"/>
       <c r="D317" s="22"/>
       <c r="E317" s="22"/>
       <c r="F317" s="22"/>
     </row>
-    <row r="318" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C318" s="25"/>
       <c r="D318" s="23"/>
       <c r="E318" s="23"/>
       <c r="F318" s="23"/>
     </row>
-    <row r="319" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C319" s="24"/>
       <c r="D319" s="22"/>
       <c r="E319" s="22"/>
       <c r="F319" s="22"/>
     </row>
-    <row r="320" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C320" s="25"/>
       <c r="D320" s="23"/>
       <c r="E320" s="23"/>
       <c r="F320" s="23"/>
     </row>
-    <row r="321" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C321" s="24"/>
       <c r="D321" s="22"/>
       <c r="E321" s="22"/>
       <c r="F321" s="22"/>
     </row>
-    <row r="322" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C322" s="25"/>
       <c r="D322" s="23"/>
       <c r="E322" s="23"/>
       <c r="F322" s="23"/>
     </row>
-    <row r="323" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C323" s="24"/>
       <c r="D323" s="22"/>
       <c r="E323" s="22"/>
       <c r="F323" s="22"/>
     </row>
-    <row r="324" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C324" s="25"/>
       <c r="D324" s="23"/>
       <c r="E324" s="23"/>
       <c r="F324" s="23"/>
     </row>
-    <row r="325" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C325" s="24"/>
       <c r="D325" s="22"/>
       <c r="E325" s="22"/>
       <c r="F325" s="22"/>
     </row>
-    <row r="326" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C326" s="25"/>
       <c r="D326" s="23"/>
       <c r="E326" s="23"/>
       <c r="F326" s="23"/>
     </row>
-    <row r="327" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C327" s="24"/>
       <c r="D327" s="22"/>
       <c r="E327" s="22"/>
       <c r="F327" s="22"/>
     </row>
-    <row r="328" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C328" s="25"/>
       <c r="D328" s="23"/>
       <c r="E328" s="23"/>
       <c r="F328" s="23"/>
     </row>
-    <row r="329" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C329" s="24"/>
       <c r="D329" s="22"/>
       <c r="E329" s="22"/>
       <c r="F329" s="22"/>
     </row>
-    <row r="330" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C330" s="25"/>
       <c r="D330" s="23"/>
       <c r="E330" s="23"/>
       <c r="F330" s="23"/>
     </row>
-    <row r="331" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C331" s="24"/>
       <c r="D331" s="22"/>
       <c r="E331" s="22"/>
       <c r="F331" s="22"/>
     </row>
-    <row r="332" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C332" s="25"/>
       <c r="D332" s="23"/>
       <c r="E332" s="23"/>
       <c r="F332" s="23"/>
     </row>
-    <row r="333" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C333" s="24"/>
       <c r="D333" s="22"/>
       <c r="E333" s="22"/>
       <c r="F333" s="22"/>
     </row>
-    <row r="334" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C334" s="25"/>
       <c r="D334" s="23"/>
       <c r="E334" s="23"/>
       <c r="F334" s="23"/>
     </row>
-    <row r="335" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C335" s="24"/>
       <c r="D335" s="22"/>
       <c r="E335" s="22"/>
       <c r="F335" s="22"/>
     </row>
-    <row r="336" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C336" s="25"/>
       <c r="D336" s="23"/>
       <c r="E336" s="23"/>
       <c r="F336" s="23"/>
     </row>
-    <row r="337" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C337" s="24"/>
       <c r="D337" s="22"/>
       <c r="E337" s="22"/>
       <c r="F337" s="22"/>
     </row>
-    <row r="338" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C338" s="25"/>
       <c r="D338" s="23"/>
       <c r="E338" s="23"/>
       <c r="F338" s="23"/>
     </row>
-    <row r="339" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C339" s="24"/>
       <c r="D339" s="22"/>
       <c r="E339" s="22"/>
       <c r="F339" s="22"/>
     </row>
-    <row r="340" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C340" s="25"/>
       <c r="D340" s="23"/>
       <c r="E340" s="23"/>
       <c r="F340" s="23"/>
     </row>
-    <row r="341" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C341" s="24"/>
       <c r="D341" s="22"/>
       <c r="E341" s="22"/>
       <c r="F341" s="22"/>
     </row>
-    <row r="342" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C342" s="25"/>
       <c r="D342" s="23"/>
       <c r="E342" s="23"/>
       <c r="F342" s="23"/>
     </row>
-    <row r="343" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C343" s="24"/>
       <c r="D343" s="22"/>
       <c r="E343" s="22"/>
       <c r="F343" s="22"/>
     </row>
-    <row r="344" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C344" s="25"/>
       <c r="D344" s="23"/>
       <c r="E344" s="23"/>
       <c r="F344" s="23"/>
     </row>
-    <row r="345" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C345" s="24"/>
       <c r="D345" s="22"/>
       <c r="E345" s="22"/>
       <c r="F345" s="22"/>
     </row>
-    <row r="346" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C346" s="25"/>
       <c r="D346" s="23"/>
       <c r="E346" s="23"/>
       <c r="F346" s="23"/>
     </row>
-    <row r="347" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C347" s="24"/>
       <c r="D347" s="22"/>
       <c r="E347" s="22"/>
       <c r="F347" s="22"/>
     </row>
-    <row r="348" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C348" s="25"/>
       <c r="D348" s="23"/>
       <c r="E348" s="23"/>
       <c r="F348" s="23"/>
     </row>
-    <row r="349" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C349" s="24"/>
       <c r="D349" s="22"/>
       <c r="E349" s="22"/>
       <c r="F349" s="22"/>
     </row>
-    <row r="350" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C350" s="25"/>
       <c r="D350" s="23"/>
       <c r="E350" s="23"/>
       <c r="F350" s="23"/>
     </row>
-    <row r="351" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C351" s="24"/>
       <c r="D351" s="22"/>
       <c r="E351" s="22"/>
       <c r="F351" s="22"/>
     </row>
-    <row r="352" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C352" s="25"/>
       <c r="D352" s="23"/>
       <c r="E352" s="23"/>
       <c r="F352" s="23"/>
     </row>
-    <row r="353" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C353" s="24"/>
       <c r="D353" s="22"/>
       <c r="E353" s="22"/>
       <c r="F353" s="22"/>
     </row>
-    <row r="354" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C354" s="25"/>
       <c r="D354" s="23"/>
       <c r="E354" s="23"/>
       <c r="F354" s="23"/>
     </row>
-    <row r="355" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C355" s="24"/>
       <c r="D355" s="22"/>
       <c r="E355" s="22"/>
       <c r="F355" s="22"/>
     </row>
-    <row r="356" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C356" s="25"/>
       <c r="D356" s="23"/>
       <c r="E356" s="23"/>
       <c r="F356" s="23"/>
     </row>
-    <row r="357" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C357" s="24"/>
       <c r="D357" s="22"/>
       <c r="E357" s="22"/>
       <c r="F357" s="22"/>
     </row>
-    <row r="358" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C358" s="25"/>
       <c r="D358" s="23"/>
       <c r="E358" s="23"/>
       <c r="F358" s="23"/>
     </row>
-    <row r="359" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C359" s="24"/>
       <c r="D359" s="22"/>
       <c r="E359" s="22"/>
       <c r="F359" s="22"/>
     </row>
-    <row r="360" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C360" s="25"/>
       <c r="D360" s="23"/>
       <c r="E360" s="23"/>
       <c r="F360" s="23"/>
     </row>
-    <row r="361" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C361" s="24"/>
       <c r="D361" s="22"/>
       <c r="E361" s="22"/>
       <c r="F361" s="22"/>
     </row>
-    <row r="362" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C362" s="25"/>
       <c r="D362" s="23"/>
       <c r="E362" s="23"/>
       <c r="F362" s="23"/>
     </row>
-    <row r="363" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C363" s="24"/>
       <c r="D363" s="22"/>
       <c r="E363" s="22"/>
       <c r="F363" s="22"/>
     </row>
-    <row r="364" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C364" s="25"/>
       <c r="D364" s="23"/>
       <c r="E364" s="23"/>
       <c r="F364" s="23"/>
     </row>
-    <row r="365" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C365" s="24"/>
       <c r="D365" s="22"/>
       <c r="E365" s="22"/>
       <c r="F365" s="22"/>
     </row>
-    <row r="366" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C366" s="25"/>
       <c r="D366" s="23"/>
       <c r="E366" s="23"/>
       <c r="F366" s="23"/>
     </row>
-    <row r="367" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C367" s="24"/>
       <c r="D367" s="22"/>
       <c r="E367" s="22"/>
       <c r="F367" s="22"/>
     </row>
-    <row r="368" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C368" s="25"/>
       <c r="D368" s="23"/>
       <c r="E368" s="23"/>
       <c r="F368" s="23"/>
     </row>
-    <row r="369" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C369" s="24"/>
       <c r="D369" s="22"/>
       <c r="E369" s="22"/>
       <c r="F369" s="22"/>
     </row>
-    <row r="370" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C370" s="25"/>
       <c r="D370" s="23"/>
       <c r="E370" s="23"/>
       <c r="F370" s="23"/>
     </row>
-    <row r="371" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C371" s="24"/>
       <c r="D371" s="22"/>
       <c r="E371" s="22"/>
       <c r="F371" s="22"/>
     </row>
-    <row r="372" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C372" s="25"/>
       <c r="D372" s="23"/>
       <c r="E372" s="23"/>
       <c r="F372" s="23"/>
     </row>
-    <row r="373" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C373" s="24"/>
       <c r="D373" s="22"/>
       <c r="E373" s="22"/>
       <c r="F373" s="22"/>
     </row>
-    <row r="374" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C374" s="25"/>
       <c r="D374" s="23"/>
       <c r="E374" s="23"/>
       <c r="F374" s="23"/>
     </row>
-    <row r="375" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C375" s="24"/>
       <c r="D375" s="22"/>
       <c r="E375" s="22"/>
       <c r="F375" s="22"/>
     </row>
-    <row r="376" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C376" s="25"/>
       <c r="D376" s="23"/>
       <c r="E376" s="23"/>
       <c r="F376" s="23"/>
     </row>
-    <row r="377" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C377" s="24"/>
       <c r="D377" s="22"/>
       <c r="E377" s="22"/>
       <c r="F377" s="22"/>
     </row>
-    <row r="378" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C378" s="25"/>
       <c r="D378" s="23"/>
       <c r="E378" s="23"/>
       <c r="F378" s="23"/>
     </row>
-    <row r="379" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C379" s="24"/>
       <c r="D379" s="22"/>
       <c r="E379" s="22"/>
       <c r="F379" s="22"/>
     </row>
-    <row r="380" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C380" s="25"/>
       <c r="D380" s="23"/>
       <c r="E380" s="23"/>
       <c r="F380" s="23"/>
     </row>
-    <row r="381" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C381" s="24"/>
       <c r="D381" s="22"/>
       <c r="E381" s="22"/>
       <c r="F381" s="22"/>
     </row>
-    <row r="382" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C382" s="25"/>
       <c r="D382" s="23"/>
       <c r="E382" s="23"/>
       <c r="F382" s="23"/>
     </row>
-    <row r="383" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C383" s="24"/>
       <c r="D383" s="22"/>
       <c r="E383" s="22"/>
       <c r="F383" s="22"/>
     </row>
-    <row r="384" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C384" s="25"/>
       <c r="D384" s="23"/>
       <c r="E384" s="23"/>
       <c r="F384" s="23"/>
     </row>
-    <row r="385" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C385" s="24"/>
       <c r="D385" s="22"/>
       <c r="E385" s="22"/>
       <c r="F385" s="22"/>
     </row>
-    <row r="386" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C386" s="25"/>
       <c r="D386" s="23"/>
       <c r="E386" s="23"/>
       <c r="F386" s="23"/>
     </row>
-    <row r="387" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C387" s="24"/>
       <c r="D387" s="22"/>
       <c r="E387" s="22"/>
       <c r="F387" s="22"/>
     </row>
-    <row r="388" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C388" s="25"/>
       <c r="D388" s="23"/>
       <c r="E388" s="23"/>
       <c r="F388" s="23"/>
     </row>
-    <row r="389" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C389" s="24"/>
       <c r="D389" s="22"/>
       <c r="E389" s="22"/>
       <c r="F389" s="22"/>
     </row>
-    <row r="390" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C390" s="25"/>
       <c r="D390" s="23"/>
       <c r="E390" s="23"/>
       <c r="F390" s="23"/>
     </row>
-    <row r="391" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C391" s="24"/>
       <c r="D391" s="22"/>
       <c r="E391" s="22"/>
       <c r="F391" s="22"/>
     </row>
-    <row r="392" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C392" s="25"/>
       <c r="D392" s="23"/>
       <c r="E392" s="23"/>
       <c r="F392" s="23"/>
     </row>
-    <row r="393" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C393" s="24"/>
       <c r="D393" s="22"/>
       <c r="E393" s="22"/>
       <c r="F393" s="22"/>
     </row>
-    <row r="394" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C394" s="25"/>
       <c r="D394" s="23"/>
       <c r="E394" s="23"/>
       <c r="F394" s="23"/>
     </row>
-    <row r="395" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C395" s="24"/>
       <c r="D395" s="22"/>
       <c r="E395" s="22"/>
       <c r="F395" s="22"/>
     </row>
-    <row r="396" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C396" s="25"/>
       <c r="D396" s="23"/>
       <c r="E396" s="23"/>
       <c r="F396" s="23"/>
     </row>
-    <row r="397" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C397" s="24"/>
       <c r="D397" s="22"/>
       <c r="E397" s="22"/>
       <c r="F397" s="22"/>
     </row>
-    <row r="398" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C398" s="25"/>
       <c r="D398" s="23"/>
       <c r="E398" s="23"/>
       <c r="F398" s="23"/>
     </row>
-    <row r="399" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C399" s="24"/>
       <c r="D399" s="22"/>
       <c r="E399" s="22"/>
       <c r="F399" s="22"/>
     </row>
-    <row r="400" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C400" s="25"/>
       <c r="D400" s="23"/>
       <c r="E400" s="23"/>
       <c r="F400" s="23"/>
     </row>
-    <row r="401" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C401" s="24"/>
       <c r="D401" s="22"/>
       <c r="E401" s="22"/>
       <c r="F401" s="22"/>
     </row>
-    <row r="402" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C402" s="25"/>
       <c r="D402" s="23"/>
       <c r="E402" s="23"/>
       <c r="F402" s="23"/>
     </row>
-    <row r="403" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C403" s="24"/>
       <c r="D403" s="22"/>
       <c r="E403" s="22"/>
       <c r="F403" s="22"/>
     </row>
-    <row r="404" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C404" s="25"/>
       <c r="D404" s="23"/>
       <c r="E404" s="23"/>
       <c r="F404" s="23"/>
     </row>
-    <row r="405" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C405" s="24"/>
       <c r="D405" s="22"/>
       <c r="E405" s="22"/>
       <c r="F405" s="22"/>
     </row>
-    <row r="406" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C406" s="25"/>
       <c r="D406" s="23"/>
       <c r="E406" s="23"/>
       <c r="F406" s="23"/>
     </row>
-    <row r="407" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C407" s="24"/>
       <c r="D407" s="22"/>
       <c r="E407" s="22"/>
       <c r="F407" s="22"/>
     </row>
-    <row r="408" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C408" s="25"/>
       <c r="D408" s="23"/>
       <c r="E408" s="23"/>
       <c r="F408" s="23"/>
     </row>
-    <row r="409" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C409" s="24"/>
       <c r="D409" s="22"/>
       <c r="E409" s="22"/>
       <c r="F409" s="22"/>
     </row>
-    <row r="410" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C410" s="25"/>
       <c r="D410" s="23"/>
       <c r="E410" s="23"/>
       <c r="F410" s="23"/>
     </row>
-    <row r="411" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C411" s="24"/>
       <c r="D411" s="22"/>
       <c r="E411" s="22"/>
       <c r="F411" s="22"/>
     </row>
-    <row r="412" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C412" s="25"/>
       <c r="D412" s="23"/>
       <c r="E412" s="23"/>
       <c r="F412" s="23"/>
     </row>
-    <row r="413" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C413" s="24"/>
       <c r="D413" s="22"/>
       <c r="E413" s="22"/>
       <c r="F413" s="22"/>
     </row>
-    <row r="414" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C414" s="25"/>
       <c r="D414" s="23"/>
       <c r="E414" s="23"/>
       <c r="F414" s="23"/>
     </row>
-    <row r="415" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C415" s="24"/>
       <c r="D415" s="22"/>
       <c r="E415" s="22"/>
       <c r="F415" s="22"/>
     </row>
-    <row r="416" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C416" s="25"/>
       <c r="D416" s="23"/>
       <c r="E416" s="23"/>
       <c r="F416" s="23"/>
     </row>
-    <row r="417" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C417" s="24"/>
       <c r="D417" s="22"/>
       <c r="E417" s="22"/>
       <c r="F417" s="22"/>
     </row>
-    <row r="418" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C418" s="25"/>
       <c r="D418" s="23"/>
       <c r="E418" s="23"/>
       <c r="F418" s="23"/>
     </row>
-    <row r="419" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C419" s="24"/>
       <c r="D419" s="22"/>
       <c r="E419" s="22"/>
       <c r="F419" s="22"/>
     </row>
-    <row r="420" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C420" s="25"/>
       <c r="D420" s="23"/>
       <c r="E420" s="23"/>
       <c r="F420" s="23"/>
     </row>
-    <row r="421" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C421" s="24"/>
       <c r="D421" s="22"/>
       <c r="E421" s="22"/>
       <c r="F421" s="22"/>
     </row>
-    <row r="422" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C422" s="25"/>
       <c r="D422" s="23"/>
       <c r="E422" s="23"/>
       <c r="F422" s="23"/>
     </row>
-    <row r="423" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C423" s="24"/>
       <c r="D423" s="22"/>
       <c r="E423" s="22"/>
       <c r="F423" s="22"/>
     </row>
-    <row r="424" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C424" s="25"/>
       <c r="D424" s="23"/>
       <c r="E424" s="23"/>
       <c r="F424" s="23"/>
     </row>
-    <row r="425" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C425" s="24"/>
       <c r="D425" s="22"/>
       <c r="E425" s="22"/>
       <c r="F425" s="22"/>
     </row>
-    <row r="426" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C426" s="25"/>
       <c r="D426" s="23"/>
       <c r="E426" s="23"/>
       <c r="F426" s="23"/>
     </row>
-    <row r="427" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C427" s="24"/>
       <c r="D427" s="22"/>
       <c r="E427" s="22"/>
       <c r="F427" s="22"/>
     </row>
-    <row r="428" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C428" s="25"/>
       <c r="D428" s="23"/>
       <c r="E428" s="23"/>
       <c r="F428" s="23"/>
     </row>
-    <row r="429" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C429" s="24"/>
       <c r="D429" s="22"/>
       <c r="E429" s="22"/>
       <c r="F429" s="22"/>
     </row>
-    <row r="430" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C430" s="25"/>
       <c r="D430" s="23"/>
       <c r="E430" s="23"/>
       <c r="F430" s="23"/>
     </row>
-    <row r="431" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C431" s="24"/>
       <c r="D431" s="22"/>
       <c r="E431" s="22"/>
       <c r="F431" s="22"/>
     </row>
-    <row r="432" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C432" s="25"/>
       <c r="D432" s="23"/>
       <c r="E432" s="23"/>
       <c r="F432" s="23"/>
     </row>
-    <row r="433" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C433" s="24"/>
       <c r="D433" s="22"/>
       <c r="E433" s="22"/>
       <c r="F433" s="22"/>
     </row>
-    <row r="434" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C434" s="25"/>
       <c r="D434" s="23"/>
       <c r="E434" s="23"/>
       <c r="F434" s="23"/>
     </row>
-    <row r="435" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C435" s="24"/>
       <c r="D435" s="22"/>
       <c r="E435" s="22"/>
       <c r="F435" s="22"/>
     </row>
-    <row r="436" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C436" s="25"/>
       <c r="D436" s="23"/>
       <c r="E436" s="23"/>
       <c r="F436" s="23"/>
     </row>
-    <row r="437" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C437" s="24"/>
       <c r="D437" s="22"/>
       <c r="E437" s="22"/>
       <c r="F437" s="22"/>
     </row>
-    <row r="438" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C438" s="25"/>
       <c r="D438" s="23"/>
       <c r="E438" s="23"/>
       <c r="F438" s="23"/>
     </row>
-    <row r="439" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C439" s="24"/>
       <c r="D439" s="22"/>
       <c r="E439" s="22"/>
       <c r="F439" s="22"/>
     </row>
-    <row r="440" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C440" s="25"/>
       <c r="D440" s="23"/>
       <c r="E440" s="23"/>
       <c r="F440" s="23"/>
     </row>
-    <row r="441" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C441" s="24"/>
       <c r="D441" s="22"/>
       <c r="E441" s="22"/>
       <c r="F441" s="22"/>
     </row>
-    <row r="442" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C442" s="25"/>
       <c r="D442" s="23"/>
       <c r="E442" s="23"/>
       <c r="F442" s="23"/>
     </row>
-    <row r="443" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C443" s="24"/>
       <c r="D443" s="22"/>
       <c r="E443" s="22"/>
       <c r="F443" s="22"/>
     </row>
-    <row r="444" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C444" s="25"/>
       <c r="D444" s="23"/>
       <c r="E444" s="23"/>
       <c r="F444" s="23"/>
     </row>
-    <row r="445" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C445" s="24"/>
       <c r="D445" s="22"/>
       <c r="E445" s="22"/>
       <c r="F445" s="22"/>
     </row>
-    <row r="446" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C446" s="25"/>
       <c r="D446" s="23"/>
       <c r="E446" s="23"/>
       <c r="F446" s="23"/>
     </row>
-    <row r="447" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C447" s="24"/>
       <c r="D447" s="22"/>
       <c r="E447" s="22"/>
       <c r="F447" s="22"/>
     </row>
-    <row r="448" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C448" s="25"/>
       <c r="D448" s="23"/>
       <c r="E448" s="23"/>
       <c r="F448" s="23"/>
     </row>
-    <row r="449" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C449" s="24"/>
       <c r="D449" s="22"/>
       <c r="E449" s="22"/>
       <c r="F449" s="22"/>
     </row>
-    <row r="450" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C450" s="25"/>
       <c r="D450" s="23"/>
       <c r="E450" s="23"/>
       <c r="F450" s="23"/>
     </row>
-    <row r="451" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C451" s="24"/>
       <c r="D451" s="22"/>
       <c r="E451" s="22"/>
       <c r="F451" s="22"/>
     </row>
-    <row r="452" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C452" s="25"/>
       <c r="D452" s="23"/>
       <c r="E452" s="23"/>
       <c r="F452" s="23"/>
     </row>
-    <row r="453" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C453" s="24"/>
       <c r="D453" s="22"/>
       <c r="E453" s="22"/>
       <c r="F453" s="22"/>
     </row>
-    <row r="454" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C454" s="25"/>
       <c r="D454" s="23"/>
       <c r="E454" s="23"/>
       <c r="F454" s="23"/>
     </row>
-    <row r="455" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C455" s="24"/>
       <c r="D455" s="22"/>
       <c r="E455" s="22"/>
       <c r="F455" s="22"/>
     </row>
-    <row r="456" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C456" s="25"/>
       <c r="D456" s="23"/>
       <c r="E456" s="23"/>
       <c r="F456" s="23"/>
     </row>
-    <row r="457" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C457" s="24"/>
       <c r="D457" s="22"/>
       <c r="E457" s="22"/>
       <c r="F457" s="22"/>
     </row>
-    <row r="458" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C458" s="25"/>
       <c r="D458" s="23"/>
       <c r="E458" s="23"/>
       <c r="F458" s="23"/>
     </row>
-    <row r="459" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C459" s="24"/>
       <c r="D459" s="22"/>
       <c r="E459" s="22"/>
       <c r="F459" s="22"/>
     </row>
-    <row r="460" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C460" s="25"/>
       <c r="D460" s="23"/>
       <c r="E460" s="23"/>
       <c r="F460" s="23"/>
     </row>
-    <row r="461" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C461" s="24"/>
       <c r="D461" s="22"/>
       <c r="E461" s="22"/>
       <c r="F461" s="22"/>
     </row>
-    <row r="462" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C462" s="25"/>
       <c r="D462" s="23"/>
       <c r="E462" s="23"/>
       <c r="F462" s="23"/>
     </row>
-    <row r="463" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C463" s="24"/>
       <c r="D463" s="22"/>
       <c r="E463" s="22"/>
       <c r="F463" s="22"/>
     </row>
-    <row r="464" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C464" s="25"/>
       <c r="D464" s="23"/>
       <c r="E464" s="23"/>
       <c r="F464" s="23"/>
     </row>
-    <row r="465" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C465" s="24"/>
       <c r="D465" s="22"/>
       <c r="E465" s="22"/>
       <c r="F465" s="22"/>
     </row>
-    <row r="466" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C466" s="25"/>
       <c r="D466" s="23"/>
       <c r="E466" s="23"/>
       <c r="F466" s="23"/>
     </row>
-    <row r="467" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C467" s="24"/>
       <c r="D467" s="22"/>
       <c r="E467" s="22"/>
       <c r="F467" s="22"/>
     </row>
-    <row r="468" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C468" s="25"/>
       <c r="D468" s="23"/>
       <c r="E468" s="23"/>
       <c r="F468" s="23"/>
     </row>
-    <row r="469" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C469" s="24"/>
       <c r="D469" s="22"/>
       <c r="E469" s="22"/>
       <c r="F469" s="22"/>
     </row>
-    <row r="470" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C470" s="25"/>
       <c r="D470" s="23"/>
       <c r="E470" s="23"/>
       <c r="F470" s="23"/>
     </row>
-    <row r="471" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C471" s="24"/>
       <c r="D471" s="22"/>
       <c r="E471" s="22"/>
       <c r="F471" s="22"/>
     </row>
-    <row r="472" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C472" s="25"/>
       <c r="D472" s="23"/>
       <c r="E472" s="23"/>
       <c r="F472" s="23"/>
     </row>
-    <row r="473" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C473" s="24"/>
       <c r="D473" s="22"/>
       <c r="E473" s="22"/>
       <c r="F473" s="22"/>
     </row>
-    <row r="474" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C474" s="25"/>
       <c r="D474" s="23"/>
       <c r="E474" s="23"/>
       <c r="F474" s="23"/>
     </row>
-    <row r="475" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C475" s="24"/>
       <c r="D475" s="22"/>
       <c r="E475" s="22"/>
       <c r="F475" s="22"/>
     </row>
-    <row r="476" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C476" s="25"/>
       <c r="D476" s="23"/>
       <c r="E476" s="23"/>
       <c r="F476" s="23"/>
     </row>
-    <row r="477" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C477" s="24"/>
       <c r="D477" s="22"/>
       <c r="E477" s="22"/>
       <c r="F477" s="22"/>
     </row>
-    <row r="478" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C478" s="25"/>
       <c r="D478" s="23"/>
       <c r="E478" s="23"/>
       <c r="F478" s="23"/>
     </row>
-    <row r="479" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C479" s="24"/>
       <c r="D479" s="22"/>
       <c r="E479" s="22"/>
       <c r="F479" s="22"/>
     </row>
-    <row r="480" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C480" s="25"/>
       <c r="D480" s="23"/>
       <c r="E480" s="23"/>
       <c r="F480" s="23"/>
     </row>
-    <row r="481" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C481" s="24"/>
       <c r="D481" s="22"/>
       <c r="E481" s="22"/>
       <c r="F481" s="22"/>
     </row>
-    <row r="482" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C482" s="25"/>
       <c r="D482" s="23"/>
       <c r="E482" s="23"/>
       <c r="F482" s="23"/>
     </row>
-    <row r="483" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C483" s="24"/>
       <c r="D483" s="22"/>
       <c r="E483" s="22"/>
       <c r="F483" s="22"/>
     </row>
-    <row r="484" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C484" s="25"/>
       <c r="D484" s="23"/>
       <c r="E484" s="23"/>
       <c r="F484" s="23"/>
     </row>
-    <row r="485" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C485" s="24"/>
       <c r="D485" s="22"/>
       <c r="E485" s="22"/>
       <c r="F485" s="22"/>
     </row>
-    <row r="486" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C486" s="25"/>
       <c r="D486" s="23"/>
       <c r="E486" s="23"/>
       <c r="F486" s="23"/>
     </row>
-    <row r="487" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C487" s="24"/>
       <c r="D487" s="22"/>
       <c r="E487" s="22"/>
       <c r="F487" s="22"/>
     </row>
-    <row r="488" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C488" s="25"/>
       <c r="D488" s="23"/>
       <c r="E488" s="23"/>
       <c r="F488" s="23"/>
     </row>
-    <row r="489" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C489" s="24"/>
       <c r="D489" s="22"/>
       <c r="E489" s="22"/>
       <c r="F489" s="22"/>
     </row>
-    <row r="490" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C490" s="25"/>
       <c r="D490" s="23"/>
       <c r="E490" s="23"/>
       <c r="F490" s="23"/>
     </row>
-    <row r="491" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C491" s="24"/>
       <c r="D491" s="22"/>
       <c r="E491" s="22"/>
       <c r="F491" s="22"/>
     </row>
-    <row r="492" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C492" s="25"/>
       <c r="D492" s="23"/>
       <c r="E492" s="23"/>
       <c r="F492" s="23"/>
     </row>
-    <row r="493" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C493" s="24"/>
       <c r="D493" s="22"/>
       <c r="E493" s="22"/>
       <c r="F493" s="22"/>
     </row>
-    <row r="494" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C494" s="25"/>
       <c r="D494" s="23"/>
       <c r="E494" s="23"/>
       <c r="F494" s="23"/>
     </row>
-    <row r="495" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C495" s="24"/>
       <c r="D495" s="22"/>
       <c r="E495" s="22"/>
       <c r="F495" s="22"/>
     </row>
-    <row r="496" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C496" s="25"/>
       <c r="D496" s="23"/>
       <c r="E496" s="23"/>
       <c r="F496" s="23"/>
     </row>
-    <row r="497" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C497" s="24"/>
       <c r="D497" s="22"/>
       <c r="E497" s="22"/>
       <c r="F497" s="22"/>
     </row>
-    <row r="498" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C498" s="25"/>
       <c r="D498" s="23"/>
       <c r="E498" s="23"/>
       <c r="F498" s="23"/>
     </row>
-    <row r="499" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C499" s="24"/>
       <c r="D499" s="22"/>
       <c r="E499" s="22"/>
       <c r="F499" s="22"/>
     </row>
-    <row r="500" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C500" s="25"/>
       <c r="D500" s="23"/>
       <c r="E500" s="23"/>
       <c r="F500" s="23"/>
     </row>
-    <row r="501" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C501" s="24"/>
       <c r="D501" s="22"/>
       <c r="E501" s="22"/>
       <c r="F501" s="22"/>
     </row>
-    <row r="502" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C502" s="25"/>
       <c r="D502" s="23"/>
       <c r="E502" s="23"/>
       <c r="F502" s="23"/>
     </row>
-    <row r="503" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C503" s="24"/>
       <c r="D503" s="22"/>
       <c r="E503" s="22"/>
       <c r="F503" s="22"/>
     </row>
-    <row r="504" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C504" s="25"/>
       <c r="D504" s="23"/>
       <c r="E504" s="23"/>
       <c r="F504" s="23"/>
     </row>
-    <row r="505" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C505" s="24"/>
       <c r="D505" s="22"/>
       <c r="E505" s="22"/>
       <c r="F505" s="22"/>
     </row>
-    <row r="506" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C506" s="25"/>
       <c r="D506" s="23"/>
       <c r="E506" s="23"/>
       <c r="F506" s="23"/>
     </row>
-    <row r="507" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C507" s="24"/>
       <c r="D507" s="22"/>
       <c r="E507" s="22"/>
       <c r="F507" s="22"/>
     </row>
-    <row r="508" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C508" s="25"/>
       <c r="D508" s="23"/>
       <c r="E508" s="23"/>
       <c r="F508" s="23"/>
     </row>
-    <row r="509" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C509" s="24"/>
       <c r="D509" s="22"/>
       <c r="E509" s="22"/>
       <c r="F509" s="22"/>
     </row>
-    <row r="510" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C510" s="25"/>
       <c r="D510" s="23"/>
       <c r="E510" s="23"/>
       <c r="F510" s="23"/>
     </row>
-    <row r="511" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C511" s="24"/>
       <c r="D511" s="22"/>
       <c r="E511" s="22"/>
       <c r="F511" s="22"/>
     </row>
-    <row r="512" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C512" s="25"/>
       <c r="D512" s="23"/>
       <c r="E512" s="23"/>
       <c r="F512" s="23"/>
     </row>
-    <row r="513" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C513" s="24"/>
       <c r="D513" s="22"/>
       <c r="E513" s="22"/>
       <c r="F513" s="22"/>
     </row>
-    <row r="514" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C514" s="25"/>
       <c r="D514" s="23"/>
       <c r="E514" s="23"/>
       <c r="F514" s="23"/>
     </row>
-    <row r="515" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C515" s="24"/>
       <c r="D515" s="22"/>
       <c r="E515" s="22"/>
       <c r="F515" s="22"/>
     </row>
-    <row r="516" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C516" s="25"/>
       <c r="D516" s="23"/>
       <c r="E516" s="23"/>
       <c r="F516" s="23"/>
     </row>
-    <row r="517" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C517" s="24"/>
       <c r="D517" s="22"/>
       <c r="E517" s="22"/>
       <c r="F517" s="22"/>
     </row>
-    <row r="518" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C518" s="25"/>
       <c r="D518" s="23"/>
       <c r="E518" s="23"/>
       <c r="F518" s="23"/>
     </row>
-    <row r="519" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C519" s="24"/>
       <c r="D519" s="22"/>
       <c r="E519" s="22"/>
       <c r="F519" s="22"/>
     </row>
-    <row r="520" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C520" s="25"/>
       <c r="D520" s="23"/>
       <c r="E520" s="23"/>
       <c r="F520" s="23"/>
     </row>
-    <row r="521" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C521" s="24"/>
       <c r="D521" s="22"/>
       <c r="E521" s="22"/>
       <c r="F521" s="22"/>
     </row>
-    <row r="522" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C522" s="25"/>
       <c r="D522" s="23"/>
       <c r="E522" s="23"/>
       <c r="F522" s="23"/>
     </row>
-    <row r="523" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C523" s="24"/>
       <c r="D523" s="22"/>
       <c r="E523" s="22"/>
       <c r="F523" s="22"/>
     </row>
-    <row r="524" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C524" s="25"/>
       <c r="D524" s="23"/>
       <c r="E524" s="23"/>
       <c r="F524" s="23"/>
     </row>
-    <row r="525" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C525" s="24"/>
       <c r="D525" s="22"/>
       <c r="E525" s="22"/>
       <c r="F525" s="22"/>
     </row>
-    <row r="526" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C526" s="25"/>
       <c r="D526" s="23"/>
       <c r="E526" s="23"/>
       <c r="F526" s="23"/>
     </row>
-    <row r="527" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C527" s="24"/>
       <c r="D527" s="22"/>
       <c r="E527" s="22"/>
       <c r="F527" s="22"/>
     </row>
-    <row r="528" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C528" s="25"/>
       <c r="D528" s="23"/>
       <c r="E528" s="23"/>
       <c r="F528" s="23"/>
     </row>
-    <row r="529" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C529" s="24"/>
       <c r="D529" s="22"/>
       <c r="E529" s="22"/>
       <c r="F529" s="22"/>
     </row>
-    <row r="530" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C530" s="25"/>
       <c r="D530" s="23"/>
       <c r="E530" s="23"/>
       <c r="F530" s="23"/>
     </row>
-    <row r="531" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C531" s="24"/>
       <c r="D531" s="22"/>
       <c r="E531" s="22"/>
       <c r="F531" s="22"/>
     </row>
-    <row r="532" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C532" s="25"/>
       <c r="D532" s="23"/>
       <c r="E532" s="23"/>
       <c r="F532" s="23"/>
     </row>
-    <row r="533" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C533" s="24"/>
       <c r="D533" s="22"/>
       <c r="E533" s="22"/>
       <c r="F533" s="22"/>
     </row>
-    <row r="534" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C534" s="25"/>
       <c r="D534" s="23"/>
       <c r="E534" s="23"/>
       <c r="F534" s="23"/>
     </row>
-    <row r="535" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C535" s="24"/>
       <c r="D535" s="22"/>
       <c r="E535" s="22"/>
       <c r="F535" s="22"/>
     </row>
-    <row r="536" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C536" s="25"/>
       <c r="D536" s="23"/>
       <c r="E536" s="23"/>
       <c r="F536" s="23"/>
     </row>
-    <row r="537" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C537" s="24"/>
       <c r="D537" s="22"/>
       <c r="E537" s="22"/>
       <c r="F537" s="22"/>
     </row>
-    <row r="538" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C538" s="25"/>
       <c r="D538" s="23"/>
       <c r="E538" s="23"/>
       <c r="F538" s="23"/>
     </row>
-    <row r="539" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C539" s="24"/>
       <c r="D539" s="22"/>
       <c r="E539" s="22"/>
       <c r="F539" s="22"/>
     </row>
-    <row r="540" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C540" s="25"/>
       <c r="D540" s="23"/>
       <c r="E540" s="23"/>
       <c r="F540" s="23"/>
     </row>
-    <row r="541" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C541" s="24"/>
       <c r="D541" s="22"/>
       <c r="E541" s="22"/>
       <c r="F541" s="22"/>
     </row>
-    <row r="542" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C542" s="25"/>
       <c r="D542" s="23"/>
       <c r="E542" s="23"/>
       <c r="F542" s="23"/>
     </row>
-    <row r="543" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C543" s="24"/>
       <c r="D543" s="22"/>
       <c r="E543" s="22"/>
       <c r="F543" s="22"/>
     </row>
-    <row r="544" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C544" s="25"/>
       <c r="D544" s="23"/>
       <c r="E544" s="23"/>
       <c r="F544" s="23"/>
     </row>
-    <row r="545" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C545" s="24"/>
       <c r="D545" s="22"/>
       <c r="E545" s="22"/>
       <c r="F545" s="22"/>
     </row>
-    <row r="546" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C546" s="25"/>
       <c r="D546" s="23"/>
       <c r="E546" s="23"/>
       <c r="F546" s="23"/>
     </row>
-    <row r="547" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C547" s="24"/>
       <c r="D547" s="22"/>
       <c r="E547" s="22"/>
       <c r="F547" s="22"/>
     </row>
-    <row r="548" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C548" s="25"/>
       <c r="D548" s="23"/>
       <c r="E548" s="23"/>
       <c r="F548" s="23"/>
     </row>
-    <row r="549" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C549" s="24"/>
       <c r="D549" s="22"/>
       <c r="E549" s="22"/>
       <c r="F549" s="22"/>
     </row>
-    <row r="550" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C550" s="25"/>
       <c r="D550" s="23"/>
       <c r="E550" s="23"/>
       <c r="F550" s="23"/>
     </row>
-    <row r="551" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C551" s="24"/>
       <c r="D551" s="22"/>
       <c r="E551" s="22"/>
       <c r="F551" s="22"/>
     </row>
-    <row r="552" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C552" s="25"/>
       <c r="D552" s="23"/>
       <c r="E552" s="23"/>
       <c r="F552" s="23"/>
     </row>
-    <row r="553" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C553" s="24"/>
       <c r="D553" s="22"/>
       <c r="E553" s="22"/>
       <c r="F553" s="22"/>
     </row>
-    <row r="554" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C554" s="25"/>
       <c r="D554" s="23"/>
       <c r="E554" s="23"/>
       <c r="F554" s="23"/>
     </row>
-    <row r="555" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C555" s="24"/>
       <c r="D555" s="22"/>
       <c r="E555" s="22"/>
       <c r="F555" s="22"/>
     </row>
-    <row r="556" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C556" s="25"/>
       <c r="D556" s="23"/>
       <c r="E556" s="23"/>
       <c r="F556" s="23"/>
     </row>
-    <row r="557" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C557" s="24"/>
       <c r="D557" s="22"/>
       <c r="E557" s="22"/>
       <c r="F557" s="22"/>
     </row>
-    <row r="558" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C558" s="25"/>
       <c r="D558" s="23"/>
       <c r="E558" s="23"/>
       <c r="F558" s="23"/>
     </row>
-    <row r="559" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C559" s="24"/>
       <c r="D559" s="22"/>
       <c r="E559" s="22"/>
       <c r="F559" s="22"/>
     </row>
-    <row r="560" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C560" s="25"/>
       <c r="D560" s="23"/>
       <c r="E560" s="23"/>
       <c r="F560" s="23"/>
     </row>
-    <row r="561" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C561" s="24"/>
       <c r="D561" s="22"/>
       <c r="E561" s="22"/>
       <c r="F561" s="22"/>
     </row>
-    <row r="562" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C562" s="25"/>
       <c r="D562" s="23"/>
       <c r="E562" s="23"/>
       <c r="F562" s="23"/>
     </row>
-    <row r="563" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C563" s="24"/>
       <c r="D563" s="22"/>
       <c r="E563" s="22"/>
       <c r="F563" s="22"/>
     </row>
-    <row r="564" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C564" s="25"/>
       <c r="D564" s="23"/>
       <c r="E564" s="23"/>
       <c r="F564" s="23"/>
     </row>
-    <row r="565" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C565" s="24"/>
       <c r="D565" s="22"/>
       <c r="E565" s="22"/>
       <c r="F565" s="22"/>
     </row>
-    <row r="566" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C566" s="25"/>
       <c r="D566" s="23"/>
       <c r="E566" s="23"/>
       <c r="F566" s="23"/>
     </row>
-    <row r="567" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C567" s="24"/>
       <c r="D567" s="22"/>
       <c r="E567" s="22"/>
       <c r="F567" s="22"/>
     </row>
-    <row r="568" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C568" s="25"/>
       <c r="D568" s="23"/>
       <c r="E568" s="23"/>
       <c r="F568" s="23"/>
     </row>
-    <row r="569" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C569" s="24"/>
       <c r="D569" s="22"/>
       <c r="E569" s="22"/>
       <c r="F569" s="22"/>
     </row>
-    <row r="570" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C570" s="25"/>
       <c r="D570" s="23"/>
       <c r="E570" s="23"/>
       <c r="F570" s="23"/>
     </row>
-    <row r="571" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C571" s="24"/>
       <c r="D571" s="22"/>
       <c r="E571" s="22"/>
       <c r="F571" s="22"/>
     </row>
-    <row r="572" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C572" s="25"/>
       <c r="D572" s="23"/>
       <c r="E572" s="23"/>
       <c r="F572" s="23"/>
     </row>
-    <row r="573" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C573" s="24"/>
       <c r="D573" s="22"/>
       <c r="E573" s="22"/>
       <c r="F573" s="22"/>
     </row>
-    <row r="574" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C574" s="25"/>
       <c r="D574" s="23"/>
       <c r="E574" s="23"/>
       <c r="F574" s="23"/>
     </row>
-    <row r="575" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C575" s="24"/>
       <c r="D575" s="22"/>
       <c r="E575" s="22"/>
       <c r="F575" s="22"/>
     </row>
-    <row r="576" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C576" s="25"/>
       <c r="D576" s="23"/>
       <c r="E576" s="23"/>
       <c r="F576" s="23"/>
     </row>
-    <row r="577" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C577" s="24"/>
       <c r="D577" s="22"/>
       <c r="E577" s="22"/>
       <c r="F577" s="22"/>
     </row>
-    <row r="578" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C578" s="25"/>
       <c r="D578" s="23"/>
       <c r="E578" s="23"/>
       <c r="F578" s="23"/>
     </row>
-    <row r="579" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C579" s="24"/>
       <c r="D579" s="22"/>
       <c r="E579" s="22"/>
       <c r="F579" s="22"/>
     </row>
-    <row r="580" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C580" s="25"/>
       <c r="D580" s="23"/>
       <c r="E580" s="23"/>
       <c r="F580" s="23"/>
     </row>
-    <row r="581" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C581" s="24"/>
       <c r="D581" s="22"/>
       <c r="E581" s="22"/>
       <c r="F581" s="22"/>
     </row>
-    <row r="582" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C582" s="25"/>
       <c r="D582" s="23"/>
       <c r="E582" s="23"/>
       <c r="F582" s="23"/>
     </row>
-    <row r="583" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C583" s="24"/>
       <c r="D583" s="22"/>
       <c r="E583" s="22"/>
       <c r="F583" s="22"/>
     </row>
-    <row r="584" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C584" s="25"/>
       <c r="D584" s="23"/>
       <c r="E584" s="23"/>
       <c r="F584" s="23"/>
     </row>
-    <row r="585" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C585" s="24"/>
       <c r="D585" s="22"/>
       <c r="E585" s="22"/>
       <c r="F585" s="22"/>
     </row>
-    <row r="586" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C586" s="25"/>
       <c r="D586" s="23"/>
       <c r="E586" s="23"/>
       <c r="F586" s="23"/>
     </row>
-    <row r="587" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C587" s="24"/>
       <c r="D587" s="22"/>
       <c r="E587" s="22"/>
       <c r="F587" s="22"/>
     </row>
-    <row r="588" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C588" s="25"/>
       <c r="D588" s="23"/>
       <c r="E588" s="23"/>
       <c r="F588" s="23"/>
     </row>
-    <row r="589" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C589" s="24"/>
       <c r="D589" s="22"/>
       <c r="E589" s="22"/>
       <c r="F589" s="22"/>
     </row>
-    <row r="590" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C590" s="25"/>
       <c r="D590" s="23"/>
       <c r="E590" s="23"/>
       <c r="F590" s="23"/>
     </row>
-    <row r="591" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C591" s="24"/>
       <c r="D591" s="22"/>
       <c r="E591" s="22"/>
       <c r="F591" s="22"/>
     </row>
-    <row r="592" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C592" s="25"/>
       <c r="D592" s="23"/>
       <c r="E592" s="23"/>
       <c r="F592" s="23"/>
     </row>
-    <row r="593" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C593" s="24"/>
       <c r="D593" s="22"/>
       <c r="E593" s="22"/>
       <c r="F593" s="22"/>
     </row>
-    <row r="594" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C594" s="25"/>
       <c r="D594" s="23"/>
       <c r="E594" s="23"/>
       <c r="F594" s="23"/>
     </row>
-    <row r="595" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C595" s="24"/>
       <c r="D595" s="22"/>
       <c r="E595" s="22"/>
       <c r="F595" s="22"/>
     </row>
-    <row r="596" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C596" s="25"/>
       <c r="D596" s="23"/>
       <c r="E596" s="23"/>
       <c r="F596" s="23"/>
     </row>
-    <row r="597" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C597" s="24"/>
       <c r="D597" s="22"/>
       <c r="E597" s="22"/>
       <c r="F597" s="22"/>
     </row>
-    <row r="598" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C598" s="25"/>
       <c r="D598" s="23"/>
       <c r="E598" s="23"/>
       <c r="F598" s="23"/>
     </row>
-    <row r="599" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C599" s="24"/>
       <c r="D599" s="22"/>
       <c r="E599" s="22"/>
       <c r="F599" s="22"/>
     </row>
-    <row r="600" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C600" s="25"/>
       <c r="D600" s="23"/>
       <c r="E600" s="23"/>
       <c r="F600" s="23"/>
     </row>
-    <row r="601" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C601" s="24"/>
       <c r="D601" s="22"/>
       <c r="E601" s="22"/>
       <c r="F601" s="22"/>
     </row>
-    <row r="602" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C602" s="25"/>
       <c r="D602" s="23"/>
       <c r="E602" s="23"/>
       <c r="F602" s="23"/>
     </row>
-    <row r="603" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C603" s="24"/>
       <c r="D603" s="22"/>
       <c r="E603" s="22"/>
       <c r="F603" s="22"/>
     </row>
-    <row r="604" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C604" s="25"/>
       <c r="D604" s="23"/>
       <c r="E604" s="23"/>
       <c r="F604" s="23"/>
     </row>
-    <row r="605" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C605" s="24"/>
       <c r="D605" s="22"/>
       <c r="E605" s="22"/>
       <c r="F605" s="22"/>
     </row>
-    <row r="606" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C606" s="25"/>
       <c r="D606" s="23"/>
       <c r="E606" s="23"/>
       <c r="F606" s="23"/>
     </row>
-    <row r="607" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C607" s="24"/>
       <c r="D607" s="22"/>
       <c r="E607" s="22"/>
       <c r="F607" s="22"/>
     </row>
-    <row r="608" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C608" s="25"/>
       <c r="D608" s="23"/>
       <c r="E608" s="23"/>
       <c r="F608" s="23"/>
     </row>
-    <row r="609" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C609" s="24"/>
       <c r="D609" s="22"/>
       <c r="E609" s="22"/>
       <c r="F609" s="22"/>
     </row>
-    <row r="610" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C610" s="25"/>
       <c r="D610" s="23"/>
       <c r="E610" s="23"/>
       <c r="F610" s="23"/>
     </row>
-    <row r="611" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C611" s="24"/>
       <c r="D611" s="22"/>
       <c r="E611" s="22"/>
       <c r="F611" s="22"/>
     </row>
-    <row r="612" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C612" s="25"/>
       <c r="D612" s="23"/>
       <c r="E612" s="23"/>
       <c r="F612" s="23"/>
     </row>
-    <row r="613" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C613" s="24"/>
       <c r="D613" s="22"/>
       <c r="E613" s="22"/>
       <c r="F613" s="22"/>
     </row>
-    <row r="614" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C614" s="25"/>
       <c r="D614" s="23"/>
       <c r="E614" s="23"/>
       <c r="F614" s="23"/>
     </row>
-    <row r="615" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C615" s="24"/>
       <c r="D615" s="22"/>
       <c r="E615" s="22"/>
       <c r="F615" s="22"/>
     </row>
-    <row r="616" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C616" s="25"/>
       <c r="D616" s="23"/>
       <c r="E616" s="23"/>
       <c r="F616" s="23"/>
     </row>
-    <row r="617" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C617" s="24"/>
       <c r="D617" s="22"/>
       <c r="E617" s="22"/>
       <c r="F617" s="22"/>
     </row>
-    <row r="618" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C618" s="25"/>
       <c r="D618" s="23"/>
       <c r="E618" s="23"/>
       <c r="F618" s="23"/>
     </row>
-    <row r="619" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C619" s="24"/>
       <c r="D619" s="22"/>
       <c r="E619" s="22"/>
       <c r="F619" s="22"/>
     </row>
-    <row r="620" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C620" s="25"/>
       <c r="D620" s="23"/>
       <c r="E620" s="23"/>
       <c r="F620" s="23"/>
     </row>
-    <row r="621" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C621" s="24"/>
       <c r="D621" s="22"/>
       <c r="E621" s="22"/>
       <c r="F621" s="22"/>
     </row>
-    <row r="622" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C622" s="25"/>
       <c r="D622" s="23"/>
       <c r="E622" s="23"/>
       <c r="F622" s="23"/>
     </row>
-    <row r="623" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C623" s="24"/>
       <c r="D623" s="22"/>
       <c r="E623" s="22"/>
       <c r="F623" s="22"/>
     </row>
-    <row r="624" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C624" s="25"/>
       <c r="D624" s="23"/>
       <c r="E624" s="23"/>
       <c r="F624" s="23"/>
     </row>
-    <row r="625" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C625" s="24"/>
       <c r="D625" s="22"/>
       <c r="E625" s="22"/>
       <c r="F625" s="22"/>
     </row>
-    <row r="626" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C626" s="25"/>
       <c r="D626" s="23"/>
       <c r="E626" s="23"/>
       <c r="F626" s="23"/>
     </row>
-    <row r="627" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C627" s="24"/>
       <c r="D627" s="22"/>
       <c r="E627" s="22"/>
       <c r="F627" s="22"/>
     </row>
-    <row r="628" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C628" s="25"/>
       <c r="D628" s="23"/>
       <c r="E628" s="23"/>
       <c r="F628" s="23"/>
     </row>
-    <row r="629" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C629" s="24"/>
       <c r="D629" s="22"/>
       <c r="E629" s="22"/>
       <c r="F629" s="22"/>
     </row>
-    <row r="630" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C630" s="25"/>
       <c r="D630" s="23"/>
       <c r="E630" s="23"/>
       <c r="F630" s="23"/>
     </row>
-    <row r="631" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C631" s="24"/>
       <c r="D631" s="22"/>
       <c r="E631" s="22"/>
       <c r="F631" s="22"/>
     </row>
-    <row r="632" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C632" s="25"/>
       <c r="D632" s="23"/>
       <c r="E632" s="23"/>
       <c r="F632" s="23"/>
     </row>
-    <row r="633" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C633" s="24"/>
       <c r="D633" s="22"/>
       <c r="E633" s="22"/>
       <c r="F633" s="22"/>
     </row>
-    <row r="634" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C634" s="25"/>
       <c r="D634" s="23"/>
       <c r="E634" s="23"/>
       <c r="F634" s="23"/>
     </row>
-    <row r="635" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C635" s="24"/>
       <c r="D635" s="22"/>
       <c r="E635" s="22"/>
       <c r="F635" s="22"/>
     </row>
-    <row r="636" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C636" s="25"/>
       <c r="D636" s="23"/>
       <c r="E636" s="23"/>
       <c r="F636" s="23"/>
     </row>
-    <row r="637" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C637" s="24"/>
       <c r="D637" s="22"/>
       <c r="E637" s="22"/>
       <c r="F637" s="22"/>
     </row>
-    <row r="638" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C638" s="25"/>
       <c r="D638" s="23"/>
       <c r="E638" s="23"/>
       <c r="F638" s="23"/>
     </row>
-    <row r="639" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C639" s="24"/>
       <c r="D639" s="22"/>
       <c r="E639" s="22"/>
       <c r="F639" s="22"/>
     </row>
-    <row r="640" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C640" s="25"/>
       <c r="D640" s="23"/>
       <c r="E640" s="23"/>
       <c r="F640" s="23"/>
     </row>
-    <row r="641" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C641" s="24"/>
       <c r="D641" s="22"/>
       <c r="E641" s="22"/>
       <c r="F641" s="22"/>
     </row>
-    <row r="642" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C642" s="25"/>
       <c r="D642" s="23"/>
       <c r="E642" s="23"/>
       <c r="F642" s="23"/>
     </row>
-    <row r="643" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C643" s="24"/>
       <c r="D643" s="22"/>
       <c r="E643" s="22"/>
       <c r="F643" s="22"/>
     </row>
-    <row r="644" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C644" s="25"/>
       <c r="D644" s="23"/>
       <c r="E644" s="23"/>
       <c r="F644" s="23"/>
     </row>
-    <row r="645" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C645" s="24"/>
       <c r="D645" s="22"/>
       <c r="E645" s="22"/>
       <c r="F645" s="22"/>
     </row>
-    <row r="646" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C646" s="25"/>
       <c r="D646" s="23"/>
       <c r="E646" s="23"/>
       <c r="F646" s="23"/>
     </row>
-    <row r="647" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C647" s="24"/>
       <c r="D647" s="22"/>
       <c r="E647" s="22"/>
       <c r="F647" s="22"/>
     </row>
-    <row r="648" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C648" s="25"/>
       <c r="D648" s="23"/>
       <c r="E648" s="23"/>
       <c r="F648" s="23"/>
     </row>
-    <row r="649" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C649" s="24"/>
       <c r="D649" s="22"/>
       <c r="E649" s="22"/>
       <c r="F649" s="22"/>
     </row>
-    <row r="650" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C650" s="25"/>
       <c r="D650" s="23"/>
       <c r="E650" s="23"/>
       <c r="F650" s="23"/>
     </row>
-    <row r="651" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C651" s="24"/>
       <c r="D651" s="22"/>
       <c r="E651" s="22"/>
       <c r="F651" s="22"/>
     </row>
-    <row r="652" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C652" s="25"/>
       <c r="D652" s="23"/>
       <c r="E652" s="23"/>
       <c r="F652" s="23"/>
     </row>
-    <row r="653" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C653" s="24"/>
       <c r="D653" s="22"/>
       <c r="E653" s="22"/>
       <c r="F653" s="22"/>
     </row>
-    <row r="654" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C654" s="25"/>
       <c r="D654" s="23"/>
       <c r="E654" s="23"/>
       <c r="F654" s="23"/>
     </row>
-    <row r="655" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C655" s="24"/>
       <c r="D655" s="22"/>
       <c r="E655" s="22"/>
       <c r="F655" s="22"/>
     </row>
-    <row r="656" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C656" s="25"/>
       <c r="D656" s="23"/>
       <c r="E656" s="23"/>
       <c r="F656" s="23"/>
     </row>
-    <row r="657" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C657" s="24"/>
       <c r="D657" s="22"/>
       <c r="E657" s="22"/>
       <c r="F657" s="22"/>
     </row>
-    <row r="658" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C658" s="25"/>
       <c r="D658" s="23"/>
       <c r="E658" s="23"/>
       <c r="F658" s="23"/>
     </row>
-    <row r="659" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C659" s="24"/>
       <c r="D659" s="22"/>
       <c r="E659" s="22"/>
       <c r="F659" s="22"/>
     </row>
-    <row r="660" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C660" s="25"/>
       <c r="D660" s="23"/>
       <c r="E660" s="23"/>
       <c r="F660" s="23"/>
     </row>
-    <row r="661" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C661" s="24"/>
       <c r="D661" s="22"/>
       <c r="E661" s="22"/>
       <c r="F661" s="22"/>
     </row>
-    <row r="662" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C662" s="25"/>
       <c r="D662" s="23"/>
       <c r="E662" s="23"/>
       <c r="F662" s="23"/>
     </row>
-    <row r="663" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C663" s="24"/>
       <c r="D663" s="22"/>
       <c r="E663" s="22"/>
       <c r="F663" s="22"/>
     </row>
-    <row r="664" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C664" s="25"/>
       <c r="D664" s="23"/>
       <c r="E664" s="23"/>
       <c r="F664" s="23"/>
     </row>
-    <row r="665" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C665" s="24"/>
       <c r="D665" s="22"/>
       <c r="E665" s="22"/>
       <c r="F665" s="22"/>
     </row>
-    <row r="666" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C666" s="25"/>
       <c r="D666" s="23"/>
       <c r="E666" s="23"/>
       <c r="F666" s="23"/>
     </row>
-    <row r="667" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C667" s="24"/>
       <c r="D667" s="22"/>
       <c r="E667" s="22"/>
       <c r="F667" s="22"/>
     </row>
-    <row r="668" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C668" s="25"/>
       <c r="D668" s="23"/>
       <c r="E668" s="23"/>
       <c r="F668" s="23"/>
     </row>
-    <row r="669" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C669" s="24"/>
       <c r="D669" s="22"/>
       <c r="E669" s="22"/>
       <c r="F669" s="22"/>
     </row>
-    <row r="670" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C670" s="25"/>
       <c r="D670" s="23"/>
       <c r="E670" s="23"/>
       <c r="F670" s="23"/>
     </row>
-    <row r="671" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C671" s="24"/>
       <c r="D671" s="22"/>
       <c r="E671" s="22"/>
       <c r="F671" s="22"/>
     </row>
-    <row r="672" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C672" s="25"/>
       <c r="D672" s="23"/>
       <c r="E672" s="23"/>
       <c r="F672" s="23"/>
     </row>
-    <row r="673" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C673" s="24"/>
       <c r="D673" s="22"/>
       <c r="E673" s="22"/>
       <c r="F673" s="22"/>
     </row>
-    <row r="674" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C674" s="25"/>
       <c r="D674" s="23"/>
       <c r="E674" s="23"/>
       <c r="F674" s="23"/>
     </row>
-    <row r="675" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C675" s="24"/>
       <c r="D675" s="22"/>
       <c r="E675" s="22"/>
       <c r="F675" s="22"/>
     </row>
-    <row r="676" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C676" s="25"/>
       <c r="D676" s="23"/>
       <c r="E676" s="23"/>
       <c r="F676" s="23"/>
     </row>
-    <row r="677" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C677" s="24"/>
       <c r="D677" s="22"/>
       <c r="E677" s="22"/>
       <c r="F677" s="22"/>
     </row>
-    <row r="678" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C678" s="25"/>
       <c r="D678" s="23"/>
       <c r="E678" s="23"/>
       <c r="F678" s="23"/>
     </row>
-    <row r="679" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C679" s="24"/>
       <c r="D679" s="22"/>
       <c r="E679" s="22"/>
       <c r="F679" s="22"/>
     </row>
-    <row r="680" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C680" s="25"/>
       <c r="D680" s="23"/>
       <c r="E680" s="23"/>
       <c r="F680" s="23"/>
     </row>
-    <row r="681" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C681" s="24"/>
       <c r="D681" s="22"/>
       <c r="E681" s="22"/>
       <c r="F681" s="22"/>
     </row>
-    <row r="682" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C682" s="25"/>
       <c r="D682" s="23"/>
       <c r="E682" s="23"/>
       <c r="F682" s="23"/>
     </row>
-    <row r="683" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C683" s="24"/>
       <c r="D683" s="22"/>
       <c r="E683" s="22"/>
       <c r="F683" s="22"/>
     </row>
-    <row r="684" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C684" s="25"/>
       <c r="D684" s="23"/>
       <c r="E684" s="23"/>
       <c r="F684" s="23"/>
     </row>
-    <row r="685" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C685" s="24"/>
       <c r="D685" s="22"/>
       <c r="E685" s="22"/>
       <c r="F685" s="22"/>
     </row>
-    <row r="686" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C686" s="25"/>
       <c r="D686" s="23"/>
       <c r="E686" s="23"/>
       <c r="F686" s="23"/>
     </row>
-    <row r="687" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C687" s="24"/>
       <c r="D687" s="22"/>
       <c r="E687" s="22"/>
       <c r="F687" s="22"/>
     </row>
-    <row r="688" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C688" s="25"/>
       <c r="D688" s="23"/>
       <c r="E688" s="23"/>
       <c r="F688" s="23"/>
     </row>
-    <row r="689" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C689" s="24"/>
       <c r="D689" s="22"/>
       <c r="E689" s="22"/>
       <c r="F689" s="22"/>
     </row>
-    <row r="690" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C690" s="25"/>
       <c r="D690" s="23"/>
       <c r="E690" s="23"/>
       <c r="F690" s="23"/>
     </row>
-    <row r="691" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C691" s="24"/>
       <c r="D691" s="22"/>
       <c r="E691" s="22"/>
       <c r="F691" s="22"/>
     </row>
-    <row r="692" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C692" s="25"/>
       <c r="D692" s="23"/>
       <c r="E692" s="23"/>
       <c r="F692" s="23"/>
     </row>
-    <row r="693" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C693" s="24"/>
       <c r="D693" s="22"/>
       <c r="E693" s="22"/>
       <c r="F693" s="22"/>
     </row>
-    <row r="694" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C694" s="25"/>
       <c r="D694" s="23"/>
       <c r="E694" s="23"/>
       <c r="F694" s="23"/>
     </row>
-    <row r="695" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C695" s="24"/>
       <c r="D695" s="22"/>
       <c r="E695" s="22"/>
       <c r="F695" s="22"/>
     </row>
-    <row r="696" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C696" s="25"/>
       <c r="D696" s="23"/>
       <c r="E696" s="23"/>
       <c r="F696" s="23"/>
     </row>
-    <row r="697" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C697" s="24"/>
       <c r="D697" s="22"/>
       <c r="E697" s="22"/>
       <c r="F697" s="22"/>
     </row>
-    <row r="698" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C698" s="25"/>
       <c r="D698" s="23"/>
       <c r="E698" s="23"/>
       <c r="F698" s="23"/>
     </row>
-    <row r="699" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C699" s="24"/>
       <c r="D699" s="22"/>
       <c r="E699" s="22"/>
       <c r="F699" s="22"/>
     </row>
-    <row r="700" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C700" s="25"/>
       <c r="D700" s="23"/>
       <c r="E700" s="23"/>
       <c r="F700" s="23"/>
     </row>
-    <row r="701" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C701" s="24"/>
       <c r="D701" s="22"/>
       <c r="E701" s="22"/>
       <c r="F701" s="22"/>
     </row>
-    <row r="702" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C702" s="25"/>
       <c r="D702" s="23"/>
       <c r="E702" s="23"/>
       <c r="F702" s="23"/>
     </row>
-    <row r="703" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C703" s="24"/>
       <c r="D703" s="22"/>
       <c r="E703" s="22"/>
       <c r="F703" s="22"/>
     </row>
-    <row r="704" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C704" s="25"/>
       <c r="D704" s="23"/>
       <c r="E704" s="23"/>
       <c r="F704" s="23"/>
     </row>
-    <row r="705" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C705" s="24"/>
       <c r="D705" s="22"/>
       <c r="E705" s="22"/>
       <c r="F705" s="22"/>
     </row>
-    <row r="706" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C706" s="25"/>
       <c r="D706" s="23"/>
       <c r="E706" s="23"/>
       <c r="F706" s="23"/>
     </row>
-    <row r="707" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C707" s="24"/>
       <c r="D707" s="22"/>
       <c r="E707" s="22"/>
       <c r="F707" s="22"/>
     </row>
-    <row r="708" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C708" s="25"/>
       <c r="D708" s="23"/>
       <c r="E708" s="23"/>
       <c r="F708" s="23"/>
     </row>
-    <row r="709" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C709" s="24"/>
       <c r="D709" s="22"/>
       <c r="E709" s="22"/>
       <c r="F709" s="22"/>
     </row>
-    <row r="710" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C710" s="25"/>
       <c r="D710" s="23"/>
       <c r="E710" s="23"/>
       <c r="F710" s="23"/>
     </row>
-    <row r="711" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C711" s="24"/>
       <c r="D711" s="22"/>
       <c r="E711" s="22"/>
       <c r="F711" s="22"/>
     </row>
-    <row r="712" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C712" s="25"/>
       <c r="D712" s="23"/>
       <c r="E712" s="23"/>
       <c r="F712" s="23"/>
     </row>
-    <row r="713" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C713" s="24"/>
       <c r="D713" s="22"/>
       <c r="E713" s="22"/>
       <c r="F713" s="22"/>
     </row>
-    <row r="714" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C714" s="25"/>
       <c r="D714" s="23"/>
       <c r="E714" s="23"/>
       <c r="F714" s="23"/>
     </row>
-    <row r="715" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C715" s="24"/>
       <c r="D715" s="22"/>
       <c r="E715" s="22"/>
       <c r="F715" s="22"/>
     </row>
-    <row r="716" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C716" s="25"/>
       <c r="D716" s="23"/>
       <c r="E716" s="23"/>
       <c r="F716" s="23"/>
     </row>
-    <row r="717" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C717" s="24"/>
       <c r="D717" s="22"/>
       <c r="E717" s="22"/>
       <c r="F717" s="22"/>
     </row>
-    <row r="718" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C718" s="25"/>
       <c r="D718" s="23"/>
       <c r="E718" s="23"/>
       <c r="F718" s="23"/>
     </row>
-    <row r="719" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C719" s="24"/>
       <c r="D719" s="22"/>
       <c r="E719" s="22"/>
       <c r="F719" s="22"/>
     </row>
-    <row r="720" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C720" s="25"/>
       <c r="D720" s="23"/>
       <c r="E720" s="23"/>
       <c r="F720" s="23"/>
     </row>
-    <row r="721" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C721" s="24"/>
       <c r="D721" s="22"/>
       <c r="E721" s="22"/>
       <c r="F721" s="22"/>
     </row>
-    <row r="722" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C722" s="25"/>
       <c r="D722" s="23"/>
       <c r="E722" s="23"/>
       <c r="F722" s="23"/>
     </row>
-    <row r="723" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C723" s="24"/>
       <c r="D723" s="22"/>
       <c r="E723" s="22"/>
       <c r="F723" s="22"/>
     </row>
-    <row r="724" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C724" s="25"/>
       <c r="D724" s="23"/>
       <c r="E724" s="23"/>
       <c r="F724" s="23"/>
     </row>
-    <row r="725" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C725" s="24"/>
       <c r="D725" s="22"/>
       <c r="E725" s="22"/>
       <c r="F725" s="22"/>
     </row>
-    <row r="726" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C726" s="25"/>
       <c r="D726" s="23"/>
       <c r="E726" s="23"/>
       <c r="F726" s="23"/>
     </row>
-    <row r="727" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C727" s="24"/>
       <c r="D727" s="22"/>
       <c r="E727" s="22"/>
       <c r="F727" s="22"/>
     </row>
-    <row r="728" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C728" s="25"/>
       <c r="D728" s="23"/>
       <c r="E728" s="23"/>
       <c r="F728" s="23"/>
     </row>
-    <row r="729" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C729" s="24"/>
       <c r="D729" s="22"/>
       <c r="E729" s="22"/>
       <c r="F729" s="22"/>
     </row>
-    <row r="730" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C730" s="25"/>
       <c r="D730" s="23"/>
       <c r="E730" s="23"/>
       <c r="F730" s="23"/>
     </row>
-    <row r="731" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C731" s="24"/>
       <c r="D731" s="22"/>
       <c r="E731" s="22"/>
       <c r="F731" s="22"/>
     </row>
-    <row r="732" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C732" s="25"/>
       <c r="D732" s="23"/>
       <c r="E732" s="23"/>
       <c r="F732" s="23"/>
     </row>
-    <row r="733" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C733" s="24"/>
       <c r="D733" s="22"/>
       <c r="E733" s="22"/>
       <c r="F733" s="22"/>
     </row>
-    <row r="734" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C734" s="25"/>
       <c r="D734" s="23"/>
       <c r="E734" s="23"/>
       <c r="F734" s="23"/>
     </row>
-    <row r="735" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C735" s="24"/>
       <c r="D735" s="22"/>
       <c r="E735" s="22"/>
       <c r="F735" s="22"/>
     </row>
-    <row r="736" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C736" s="25"/>
       <c r="D736" s="23"/>
       <c r="E736" s="23"/>
       <c r="F736" s="23"/>
     </row>
-    <row r="737" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C737" s="24"/>
       <c r="D737" s="22"/>
       <c r="E737" s="22"/>
       <c r="F737" s="22"/>
     </row>
-    <row r="738" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C738" s="25"/>
       <c r="D738" s="23"/>
       <c r="E738" s="23"/>
       <c r="F738" s="23"/>
     </row>
-    <row r="739" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C739" s="24"/>
       <c r="D739" s="22"/>
       <c r="E739" s="22"/>
       <c r="F739" s="22"/>
     </row>
-    <row r="740" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C740" s="25"/>
       <c r="D740" s="23"/>
       <c r="E740" s="23"/>
       <c r="F740" s="23"/>
     </row>
-    <row r="741" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C741" s="24"/>
       <c r="D741" s="22"/>
       <c r="E741" s="22"/>
       <c r="F741" s="22"/>
     </row>
-    <row r="742" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C742" s="25"/>
       <c r="D742" s="23"/>
       <c r="E742" s="23"/>
       <c r="F742" s="23"/>
     </row>
-    <row r="743" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C743" s="24"/>
       <c r="D743" s="22"/>
       <c r="E743" s="22"/>
       <c r="F743" s="22"/>
     </row>
-    <row r="744" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C744" s="25"/>
       <c r="D744" s="23"/>
       <c r="E744" s="23"/>
       <c r="F744" s="23"/>
     </row>
-    <row r="745" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C745" s="24"/>
       <c r="D745" s="22"/>
       <c r="E745" s="22"/>
       <c r="F745" s="22"/>
     </row>
-    <row r="746" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C746" s="25"/>
       <c r="D746" s="23"/>
       <c r="E746" s="23"/>
       <c r="F746" s="23"/>
     </row>
-    <row r="747" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C747" s="24"/>
       <c r="D747" s="22"/>
       <c r="E747" s="22"/>
       <c r="F747" s="22"/>
     </row>
-    <row r="748" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C748" s="25"/>
       <c r="D748" s="23"/>
       <c r="E748" s="23"/>
       <c r="F748" s="23"/>
     </row>
-    <row r="749" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C749" s="24"/>
       <c r="D749" s="22"/>
       <c r="E749" s="22"/>
       <c r="F749" s="22"/>
     </row>
-    <row r="750" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C750" s="25"/>
       <c r="D750" s="23"/>
       <c r="E750" s="23"/>
       <c r="F750" s="23"/>
     </row>
-    <row r="751" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C751" s="24"/>
       <c r="D751" s="22"/>
       <c r="E751" s="22"/>
       <c r="F751" s="22"/>
     </row>
-    <row r="752" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C752" s="25"/>
       <c r="D752" s="23"/>
       <c r="E752" s="23"/>
       <c r="F752" s="23"/>
     </row>
-    <row r="753" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C753" s="24"/>
       <c r="D753" s="22"/>
       <c r="E753" s="22"/>
       <c r="F753" s="22"/>
     </row>
-    <row r="754" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C754" s="25"/>
       <c r="D754" s="23"/>
       <c r="E754" s="23"/>
       <c r="F754" s="23"/>
     </row>
-    <row r="755" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C755" s="24"/>
       <c r="D755" s="22"/>
       <c r="E755" s="22"/>
       <c r="F755" s="22"/>
     </row>
-    <row r="756" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C756" s="25"/>
       <c r="D756" s="23"/>
       <c r="E756" s="23"/>
       <c r="F756" s="23"/>
     </row>
-    <row r="757" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C757" s="24"/>
       <c r="D757" s="22"/>
       <c r="E757" s="22"/>
       <c r="F757" s="22"/>
     </row>
-    <row r="758" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C758" s="25"/>
       <c r="D758" s="23"/>
       <c r="E758" s="23"/>
       <c r="F758" s="23"/>
     </row>
-    <row r="759" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C759" s="24"/>
       <c r="D759" s="22"/>
       <c r="E759" s="22"/>
       <c r="F759" s="22"/>
     </row>
-    <row r="760" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C760" s="25"/>
       <c r="D760" s="23"/>
       <c r="E760" s="23"/>
       <c r="F760" s="23"/>
     </row>
-    <row r="761" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C761" s="24"/>
       <c r="D761" s="22"/>
       <c r="E761" s="22"/>
       <c r="F761" s="22"/>
     </row>
-    <row r="762" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C762" s="25"/>
       <c r="D762" s="23"/>
       <c r="E762" s="23"/>
       <c r="F762" s="23"/>
     </row>
-    <row r="763" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C763" s="24"/>
       <c r="D763" s="22"/>
       <c r="E763" s="22"/>
       <c r="F763" s="22"/>
     </row>
-    <row r="764" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C764" s="25"/>
       <c r="D764" s="23"/>
       <c r="E764" s="23"/>
       <c r="F764" s="23"/>
     </row>
-    <row r="765" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C765" s="24"/>
       <c r="D765" s="22"/>
       <c r="E765" s="22"/>
       <c r="F765" s="22"/>
     </row>
-    <row r="766" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C766" s="25"/>
       <c r="D766" s="23"/>
       <c r="E766" s="23"/>
       <c r="F766" s="23"/>
     </row>
-    <row r="767" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="767" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C767" s="24"/>
       <c r="D767" s="22"/>
       <c r="E767" s="22"/>
       <c r="F767" s="22"/>
     </row>
-    <row r="768" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="768" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C768" s="25"/>
       <c r="D768" s="23"/>
       <c r="E768" s="23"/>
       <c r="F768" s="23"/>
     </row>
-    <row r="769" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C769" s="24"/>
       <c r="D769" s="22"/>
       <c r="E769" s="22"/>
       <c r="F769" s="22"/>
     </row>
-    <row r="770" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C770" s="25"/>
       <c r="D770" s="23"/>
       <c r="E770" s="23"/>
       <c r="F770" s="23"/>
     </row>
-    <row r="771" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C771" s="24"/>
       <c r="D771" s="22"/>
       <c r="E771" s="22"/>
       <c r="F771" s="22"/>
     </row>
-    <row r="772" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C772" s="25"/>
       <c r="D772" s="23"/>
       <c r="E772" s="23"/>
       <c r="F772" s="23"/>
     </row>
-    <row r="773" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C773" s="24"/>
       <c r="D773" s="22"/>
       <c r="E773" s="22"/>
       <c r="F773" s="22"/>
     </row>
-    <row r="774" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="774" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C774" s="25"/>
       <c r="D774" s="23"/>
       <c r="E774" s="23"/>
       <c r="F774" s="23"/>
     </row>
-    <row r="775" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="775" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C775" s="24"/>
       <c r="D775" s="22"/>
       <c r="E775" s="22"/>
       <c r="F775" s="22"/>
     </row>
-    <row r="776" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="776" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C776" s="25"/>
       <c r="D776" s="23"/>
       <c r="E776" s="23"/>
       <c r="F776" s="23"/>
     </row>
-    <row r="777" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="777" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C777" s="24"/>
       <c r="D777" s="22"/>
       <c r="E777" s="22"/>
       <c r="F777" s="22"/>
     </row>
-    <row r="778" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="778" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C778" s="25"/>
       <c r="D778" s="23"/>
       <c r="E778" s="23"/>
       <c r="F778" s="23"/>
     </row>
-    <row r="779" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C779" s="24"/>
       <c r="D779" s="22"/>
       <c r="E779" s="22"/>
       <c r="F779" s="22"/>
     </row>
-    <row r="780" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="780" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C780" s="25"/>
       <c r="D780" s="23"/>
       <c r="E780" s="23"/>
       <c r="F780" s="23"/>
     </row>
-    <row r="781" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="781" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C781" s="24"/>
       <c r="D781" s="22"/>
       <c r="E781" s="22"/>
       <c r="F781" s="22"/>
     </row>
-    <row r="782" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="782" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C782" s="25"/>
       <c r="D782" s="23"/>
       <c r="E782" s="23"/>
       <c r="F782" s="23"/>
     </row>
-    <row r="783" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="783" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C783" s="24"/>
       <c r="D783" s="22"/>
       <c r="E783" s="22"/>
       <c r="F783" s="22"/>
     </row>
-    <row r="784" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="784" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C784" s="25"/>
       <c r="D784" s="23"/>
       <c r="E784" s="23"/>
       <c r="F784" s="23"/>
     </row>
-    <row r="785" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="785" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C785" s="24"/>
       <c r="D785" s="22"/>
       <c r="E785" s="22"/>
       <c r="F785" s="22"/>
     </row>
-    <row r="786" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="786" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C786" s="25"/>
       <c r="D786" s="23"/>
       <c r="E786" s="23"/>
       <c r="F786" s="23"/>
     </row>
-    <row r="787" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C787" s="24"/>
       <c r="D787" s="22"/>
       <c r="E787" s="22"/>
       <c r="F787" s="22"/>
     </row>
-    <row r="788" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="788" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C788" s="25"/>
       <c r="D788" s="23"/>
       <c r="E788" s="23"/>
       <c r="F788" s="23"/>
     </row>
-    <row r="789" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="789" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C789" s="24"/>
       <c r="D789" s="22"/>
       <c r="E789" s="22"/>
       <c r="F789" s="22"/>
     </row>
-    <row r="790" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C790" s="25"/>
       <c r="D790" s="23"/>
       <c r="E790" s="23"/>
       <c r="F790" s="23"/>
     </row>
-    <row r="791" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C791" s="24"/>
       <c r="D791" s="22"/>
       <c r="E791" s="22"/>
       <c r="F791" s="22"/>
     </row>
-    <row r="792" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C792" s="25"/>
       <c r="D792" s="23"/>
       <c r="E792" s="23"/>
       <c r="F792" s="23"/>
     </row>
-    <row r="793" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="793" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C793" s="24"/>
       <c r="D793" s="22"/>
       <c r="E793" s="22"/>
       <c r="F793" s="22"/>
     </row>
-    <row r="794" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="794" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C794" s="25"/>
       <c r="D794" s="23"/>
       <c r="E794" s="23"/>
       <c r="F794" s="23"/>
     </row>
-    <row r="795" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="795" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C795" s="24"/>
       <c r="D795" s="22"/>
       <c r="E795" s="22"/>
       <c r="F795" s="22"/>
     </row>
-    <row r="796" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="796" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C796" s="25"/>
       <c r="D796" s="23"/>
       <c r="E796" s="23"/>
       <c r="F796" s="23"/>
     </row>
-    <row r="797" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C797" s="24"/>
       <c r="D797" s="22"/>
       <c r="E797" s="22"/>
       <c r="F797" s="22"/>
     </row>
-    <row r="798" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="798" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C798" s="25"/>
       <c r="D798" s="23"/>
       <c r="E798" s="23"/>
       <c r="F798" s="23"/>
     </row>
-    <row r="799" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C799" s="24"/>
       <c r="D799" s="22"/>
       <c r="E799" s="22"/>
       <c r="F799" s="22"/>
     </row>
-    <row r="800" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C800" s="25"/>
       <c r="D800" s="23"/>
       <c r="E800" s="23"/>
       <c r="F800" s="23"/>
     </row>
-    <row r="801" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C801" s="24"/>
       <c r="D801" s="22"/>
       <c r="E801" s="22"/>
       <c r="F801" s="22"/>
     </row>
-    <row r="802" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C802" s="25"/>
       <c r="D802" s="23"/>
       <c r="E802" s="23"/>
       <c r="F802" s="23"/>
     </row>
-    <row r="803" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="803" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C803" s="24"/>
       <c r="D803" s="22"/>
       <c r="E803" s="22"/>
       <c r="F803" s="22"/>
     </row>
-    <row r="804" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="804" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C804" s="25"/>
       <c r="D804" s="23"/>
       <c r="E804" s="23"/>
       <c r="F804" s="23"/>
     </row>
-    <row r="805" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="805" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C805" s="24"/>
       <c r="D805" s="22"/>
       <c r="E805" s="22"/>
       <c r="F805" s="22"/>
     </row>
-    <row r="806" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="806" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C806" s="25"/>
       <c r="D806" s="23"/>
       <c r="E806" s="23"/>
       <c r="F806" s="23"/>
     </row>
-    <row r="807" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="807" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C807" s="24"/>
       <c r="D807" s="22"/>
       <c r="E807" s="22"/>
       <c r="F807" s="22"/>
     </row>
-    <row r="808" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="808" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C808" s="25"/>
       <c r="D808" s="23"/>
       <c r="E808" s="23"/>
       <c r="F808" s="23"/>
     </row>
-    <row r="809" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="809" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C809" s="24"/>
       <c r="D809" s="22"/>
       <c r="E809" s="22"/>
       <c r="F809" s="22"/>
     </row>
-    <row r="810" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="810" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C810" s="25"/>
       <c r="D810" s="23"/>
       <c r="E810" s="23"/>
       <c r="F810" s="23"/>
     </row>
-    <row r="811" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="811" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C811" s="24"/>
       <c r="D811" s="22"/>
       <c r="E811" s="22"/>
       <c r="F811" s="22"/>
     </row>
-    <row r="812" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="812" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C812" s="25"/>
       <c r="D812" s="23"/>
       <c r="E812" s="23"/>
       <c r="F812" s="23"/>
     </row>
-    <row r="813" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="813" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C813" s="24"/>
       <c r="D813" s="22"/>
       <c r="E813" s="22"/>
       <c r="F813" s="22"/>
     </row>
-    <row r="814" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="814" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C814" s="25"/>
       <c r="D814" s="23"/>
       <c r="E814" s="23"/>
       <c r="F814" s="23"/>
     </row>
-    <row r="815" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="815" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C815" s="24"/>
       <c r="D815" s="22"/>
       <c r="E815" s="22"/>
       <c r="F815" s="22"/>
     </row>
-    <row r="816" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="816" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C816" s="25"/>
       <c r="D816" s="23"/>
       <c r="E816" s="23"/>
       <c r="F816" s="23"/>
     </row>
-    <row r="817" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="817" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C817" s="24"/>
       <c r="D817" s="22"/>
       <c r="E817" s="22"/>
       <c r="F817" s="22"/>
     </row>
-    <row r="818" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="818" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C818" s="25"/>
       <c r="D818" s="23"/>
       <c r="E818" s="23"/>
       <c r="F818" s="23"/>
     </row>
-    <row r="819" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="819" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C819" s="24"/>
       <c r="D819" s="22"/>
       <c r="E819" s="22"/>
       <c r="F819" s="22"/>
     </row>
-    <row r="820" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="820" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C820" s="25"/>
       <c r="D820" s="23"/>
       <c r="E820" s="23"/>
       <c r="F820" s="23"/>
     </row>
-    <row r="821" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="821" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C821" s="24"/>
       <c r="D821" s="22"/>
       <c r="E821" s="22"/>
       <c r="F821" s="22"/>
     </row>
-    <row r="822" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="822" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C822" s="25"/>
       <c r="D822" s="23"/>
       <c r="E822" s="23"/>
       <c r="F822" s="23"/>
     </row>
-    <row r="823" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="823" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C823" s="24"/>
       <c r="D823" s="22"/>
       <c r="E823" s="22"/>
       <c r="F823" s="22"/>
     </row>
-    <row r="824" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="824" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C824" s="25"/>
       <c r="D824" s="23"/>
       <c r="E824" s="23"/>
       <c r="F824" s="23"/>
     </row>
-    <row r="825" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="825" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C825" s="24"/>
       <c r="D825" s="22"/>
       <c r="E825" s="22"/>
       <c r="F825" s="22"/>
     </row>
-    <row r="826" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="826" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C826" s="25"/>
       <c r="D826" s="23"/>
       <c r="E826" s="23"/>
       <c r="F826" s="23"/>
     </row>
-    <row r="827" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="827" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C827" s="24"/>
       <c r="D827" s="22"/>
       <c r="E827" s="22"/>
       <c r="F827" s="22"/>
     </row>
-    <row r="828" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="828" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C828" s="25"/>
       <c r="D828" s="23"/>
       <c r="E828" s="23"/>
       <c r="F828" s="23"/>
     </row>
-    <row r="829" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="829" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C829" s="24"/>
       <c r="D829" s="22"/>
       <c r="E829" s="22"/>
       <c r="F829" s="22"/>
     </row>
-    <row r="830" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="830" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C830" s="25"/>
       <c r="D830" s="23"/>
       <c r="E830" s="23"/>
       <c r="F830" s="23"/>
     </row>
-    <row r="831" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="831" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C831" s="24"/>
       <c r="D831" s="22"/>
       <c r="E831" s="22"/>
       <c r="F831" s="22"/>
     </row>
-    <row r="832" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="832" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C832" s="25"/>
       <c r="D832" s="23"/>
       <c r="E832" s="23"/>
       <c r="F832" s="23"/>
     </row>
-    <row r="833" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="833" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C833" s="24"/>
       <c r="D833" s="22"/>
       <c r="E833" s="22"/>
       <c r="F833" s="22"/>
     </row>
-    <row r="834" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="834" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C834" s="25"/>
       <c r="D834" s="23"/>
       <c r="E834" s="23"/>
       <c r="F834" s="23"/>
     </row>
-    <row r="835" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="835" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C835" s="24"/>
       <c r="D835" s="22"/>
       <c r="E835" s="22"/>
       <c r="F835" s="22"/>
     </row>
-    <row r="836" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="836" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C836" s="25"/>
       <c r="D836" s="23"/>
       <c r="E836" s="23"/>
       <c r="F836" s="23"/>
     </row>
-    <row r="837" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="837" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C837" s="24"/>
       <c r="D837" s="22"/>
       <c r="E837" s="22"/>
       <c r="F837" s="22"/>
     </row>
-    <row r="838" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="838" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C838" s="25"/>
       <c r="D838" s="23"/>
       <c r="E838" s="23"/>
       <c r="F838" s="23"/>
     </row>
-    <row r="839" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="839" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C839" s="24"/>
       <c r="D839" s="22"/>
       <c r="E839" s="22"/>
       <c r="F839" s="22"/>
     </row>
-    <row r="840" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="840" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C840" s="25"/>
       <c r="D840" s="23"/>
       <c r="E840" s="23"/>
       <c r="F840" s="23"/>
     </row>
-    <row r="841" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="841" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C841" s="24"/>
       <c r="D841" s="22"/>
       <c r="E841" s="22"/>
       <c r="F841" s="22"/>
     </row>
-    <row r="842" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="842" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C842" s="25"/>
       <c r="D842" s="23"/>
       <c r="E842" s="23"/>
       <c r="F842" s="23"/>
     </row>
-    <row r="843" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="843" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C843" s="24"/>
       <c r="D843" s="22"/>
       <c r="E843" s="22"/>
       <c r="F843" s="22"/>
     </row>
-    <row r="844" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="844" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C844" s="25"/>
       <c r="D844" s="23"/>
       <c r="E844" s="23"/>
       <c r="F844" s="23"/>
     </row>
-    <row r="845" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="845" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C845" s="24"/>
       <c r="D845" s="22"/>
       <c r="E845" s="22"/>
       <c r="F845" s="22"/>
     </row>
-    <row r="846" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="846" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C846" s="25"/>
       <c r="D846" s="23"/>
       <c r="E846" s="23"/>
       <c r="F846" s="23"/>
     </row>
-    <row r="847" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="847" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C847" s="24"/>
       <c r="D847" s="22"/>
       <c r="E847" s="22"/>
       <c r="F847" s="22"/>
     </row>
-    <row r="848" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="848" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C848" s="25"/>
       <c r="D848" s="23"/>
       <c r="E848" s="23"/>
       <c r="F848" s="23"/>
     </row>
-    <row r="849" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="849" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C849" s="24"/>
       <c r="D849" s="22"/>
       <c r="E849" s="22"/>
       <c r="F849" s="22"/>
     </row>
-    <row r="850" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="850" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C850" s="25"/>
       <c r="D850" s="23"/>
       <c r="E850" s="23"/>
       <c r="F850" s="23"/>
     </row>
-    <row r="851" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="851" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C851" s="24"/>
       <c r="D851" s="22"/>
       <c r="E851" s="22"/>
       <c r="F851" s="22"/>
     </row>
-    <row r="852" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="852" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C852" s="25"/>
       <c r="D852" s="23"/>
       <c r="E852" s="23"/>
       <c r="F852" s="23"/>
     </row>
-    <row r="853" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="853" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C853" s="24"/>
       <c r="D853" s="22"/>
       <c r="E853" s="22"/>
       <c r="F853" s="22"/>
     </row>
-    <row r="854" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="854" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C854" s="25"/>
       <c r="D854" s="23"/>
       <c r="E854" s="23"/>
       <c r="F854" s="23"/>
     </row>
-    <row r="855" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="855" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C855" s="24"/>
       <c r="D855" s="22"/>
       <c r="E855" s="22"/>
       <c r="F855" s="22"/>
     </row>
-    <row r="856" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="856" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C856" s="25"/>
       <c r="D856" s="23"/>
       <c r="E856" s="23"/>
       <c r="F856" s="23"/>
     </row>
-    <row r="857" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="857" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C857" s="24"/>
       <c r="D857" s="22"/>
       <c r="E857" s="22"/>
       <c r="F857" s="22"/>
     </row>
-    <row r="858" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="858" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C858" s="25"/>
       <c r="D858" s="23"/>
       <c r="E858" s="23"/>
       <c r="F858" s="23"/>
     </row>
-    <row r="859" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="859" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C859" s="24"/>
       <c r="D859" s="22"/>
       <c r="E859" s="22"/>
       <c r="F859" s="22"/>
     </row>
-    <row r="860" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="860" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C860" s="25"/>
       <c r="D860" s="23"/>
       <c r="E860" s="23"/>
       <c r="F860" s="23"/>
     </row>
-    <row r="861" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="861" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C861" s="24"/>
       <c r="D861" s="22"/>
       <c r="E861" s="22"/>
       <c r="F861" s="22"/>
     </row>
-    <row r="862" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="862" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C862" s="25"/>
       <c r="D862" s="23"/>
       <c r="E862" s="23"/>
       <c r="F862" s="23"/>
     </row>
-    <row r="863" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="863" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C863" s="24"/>
       <c r="D863" s="22"/>
       <c r="E863" s="22"/>
       <c r="F863" s="22"/>
     </row>
-    <row r="864" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="864" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C864" s="25"/>
       <c r="D864" s="23"/>
       <c r="E864" s="23"/>
       <c r="F864" s="23"/>
     </row>
-    <row r="865" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="865" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C865" s="24"/>
       <c r="D865" s="22"/>
       <c r="E865" s="22"/>
       <c r="F865" s="22"/>
     </row>
-    <row r="866" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="866" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C866" s="25"/>
       <c r="D866" s="23"/>
       <c r="E866" s="23"/>
       <c r="F866" s="23"/>
     </row>
-    <row r="867" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="867" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C867" s="24"/>
       <c r="D867" s="22"/>
       <c r="E867" s="22"/>
       <c r="F867" s="22"/>
     </row>
-    <row r="868" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="868" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C868" s="25"/>
       <c r="D868" s="23"/>
       <c r="E868" s="23"/>
       <c r="F868" s="23"/>
     </row>
-    <row r="869" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="869" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C869" s="24"/>
       <c r="D869" s="22"/>
       <c r="E869" s="22"/>
       <c r="F869" s="22"/>
     </row>
-    <row r="870" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="870" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C870" s="25"/>
       <c r="D870" s="23"/>
       <c r="E870" s="23"/>
       <c r="F870" s="23"/>
     </row>
-    <row r="871" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="871" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C871" s="24"/>
       <c r="D871" s="22"/>
       <c r="E871" s="22"/>
       <c r="F871" s="22"/>
     </row>
-    <row r="872" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="872" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C872" s="25"/>
       <c r="D872" s="23"/>
       <c r="E872" s="23"/>
       <c r="F872" s="23"/>
     </row>
-    <row r="873" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="873" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C873" s="24"/>
       <c r="D873" s="22"/>
       <c r="E873" s="22"/>
       <c r="F873" s="22"/>
     </row>
-    <row r="874" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="874" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C874" s="25"/>
       <c r="D874" s="23"/>
       <c r="E874" s="23"/>
       <c r="F874" s="23"/>
     </row>
-    <row r="875" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="875" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C875" s="24"/>
       <c r="D875" s="22"/>
       <c r="E875" s="22"/>
       <c r="F875" s="22"/>
     </row>
-    <row r="876" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="876" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C876" s="25"/>
       <c r="D876" s="23"/>
       <c r="E876" s="23"/>
       <c r="F876" s="23"/>
     </row>
-    <row r="877" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="877" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C877" s="24"/>
       <c r="D877" s="22"/>
       <c r="E877" s="22"/>
       <c r="F877" s="22"/>
     </row>
-    <row r="878" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="878" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C878" s="25"/>
       <c r="D878" s="23"/>
       <c r="E878" s="23"/>
       <c r="F878" s="23"/>
     </row>
-    <row r="879" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="879" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C879" s="24"/>
       <c r="D879" s="22"/>
       <c r="E879" s="22"/>
       <c r="F879" s="22"/>
     </row>
-    <row r="880" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="880" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C880" s="25"/>
       <c r="D880" s="23"/>
       <c r="E880" s="23"/>
       <c r="F880" s="23"/>
     </row>
-    <row r="881" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="881" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C881" s="24"/>
       <c r="D881" s="22"/>
       <c r="E881" s="22"/>
       <c r="F881" s="22"/>
     </row>
-    <row r="882" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="882" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C882" s="25"/>
       <c r="D882" s="23"/>
       <c r="E882" s="23"/>
       <c r="F882" s="23"/>
     </row>
-    <row r="883" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="883" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C883" s="24"/>
       <c r="D883" s="22"/>
       <c r="E883" s="22"/>
       <c r="F883" s="22"/>
     </row>
-    <row r="884" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="884" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C884" s="25"/>
       <c r="D884" s="23"/>
       <c r="E884" s="23"/>
       <c r="F884" s="23"/>
     </row>
-    <row r="885" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="885" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C885" s="24"/>
       <c r="D885" s="22"/>
       <c r="E885" s="22"/>
       <c r="F885" s="22"/>
     </row>
-    <row r="886" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="886" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C886" s="25"/>
       <c r="D886" s="23"/>
       <c r="E886" s="23"/>
       <c r="F886" s="23"/>
     </row>
-    <row r="887" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="887" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C887" s="24"/>
       <c r="D887" s="22"/>
       <c r="E887" s="22"/>
       <c r="F887" s="22"/>
     </row>
-    <row r="888" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="888" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C888" s="25"/>
       <c r="D888" s="23"/>
       <c r="E888" s="23"/>
       <c r="F888" s="23"/>
     </row>
-    <row r="889" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="889" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C889" s="24"/>
       <c r="D889" s="22"/>
       <c r="E889" s="22"/>
       <c r="F889" s="22"/>
     </row>
-    <row r="890" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="890" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C890" s="25"/>
       <c r="D890" s="23"/>
       <c r="E890" s="23"/>
       <c r="F890" s="23"/>
     </row>
-    <row r="891" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="891" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C891" s="24"/>
       <c r="D891" s="22"/>
       <c r="E891" s="22"/>
       <c r="F891" s="22"/>
     </row>
-    <row r="892" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="892" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C892" s="25"/>
       <c r="D892" s="23"/>
       <c r="E892" s="23"/>
       <c r="F892" s="23"/>
     </row>
-    <row r="893" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="893" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C893" s="24"/>
       <c r="D893" s="22"/>
       <c r="E893" s="22"/>
       <c r="F893" s="22"/>
     </row>
-    <row r="894" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="894" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C894" s="25"/>
       <c r="D894" s="23"/>
       <c r="E894" s="23"/>
       <c r="F894" s="23"/>
     </row>
-    <row r="895" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="895" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C895" s="24"/>
       <c r="D895" s="22"/>
       <c r="E895" s="22"/>
       <c r="F895" s="22"/>
     </row>
-    <row r="896" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="896" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C896" s="25"/>
       <c r="D896" s="23"/>
       <c r="E896" s="23"/>
       <c r="F896" s="23"/>
     </row>
-    <row r="897" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="897" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C897" s="24"/>
       <c r="D897" s="22"/>
       <c r="E897" s="22"/>
       <c r="F897" s="22"/>
     </row>
-    <row r="898" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="898" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C898" s="25"/>
       <c r="D898" s="23"/>
       <c r="E898" s="23"/>
       <c r="F898" s="23"/>
     </row>
-    <row r="899" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="899" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C899" s="24"/>
       <c r="D899" s="22"/>
       <c r="E899" s="22"/>
       <c r="F899" s="22"/>
     </row>
-    <row r="900" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="900" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C900" s="25"/>
       <c r="D900" s="23"/>
       <c r="E900" s="23"/>
       <c r="F900" s="23"/>
     </row>
-    <row r="901" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="901" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C901" s="24"/>
       <c r="D901" s="22"/>
       <c r="E901" s="22"/>
       <c r="F901" s="22"/>
     </row>
-    <row r="902" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="902" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C902" s="25"/>
       <c r="D902" s="23"/>
       <c r="E902" s="23"/>
       <c r="F902" s="23"/>
     </row>
-    <row r="903" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="903" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C903" s="24"/>
       <c r="D903" s="22"/>
       <c r="E903" s="22"/>
       <c r="F903" s="22"/>
     </row>
-    <row r="904" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="904" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C904" s="25"/>
       <c r="D904" s="23"/>
       <c r="E904" s="23"/>
       <c r="F904" s="23"/>
     </row>
-    <row r="905" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="905" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C905" s="24"/>
       <c r="D905" s="22"/>
       <c r="E905" s="22"/>
       <c r="F905" s="22"/>
     </row>
-    <row r="906" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="906" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C906" s="25"/>
       <c r="D906" s="23"/>
       <c r="E906" s="23"/>
       <c r="F906" s="23"/>
     </row>
-    <row r="907" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="907" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C907" s="24"/>
       <c r="D907" s="22"/>
       <c r="E907" s="22"/>
       <c r="F907" s="22"/>
     </row>
-    <row r="908" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="908" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C908" s="25"/>
       <c r="D908" s="23"/>
       <c r="E908" s="23"/>
       <c r="F908" s="23"/>
     </row>
-    <row r="909" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="909" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C909" s="24"/>
       <c r="D909" s="22"/>
       <c r="E909" s="22"/>
       <c r="F909" s="22"/>
     </row>
-    <row r="910" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="910" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C910" s="25"/>
       <c r="D910" s="23"/>
       <c r="E910" s="23"/>
       <c r="F910" s="23"/>
     </row>
-    <row r="911" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="911" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C911" s="24"/>
       <c r="D911" s="22"/>
       <c r="E911" s="22"/>
       <c r="F911" s="22"/>
     </row>
-    <row r="912" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="912" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C912" s="25"/>
       <c r="D912" s="23"/>
       <c r="E912" s="23"/>
       <c r="F912" s="23"/>
     </row>
-    <row r="913" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="913" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C913" s="24"/>
       <c r="D913" s="22"/>
       <c r="E913" s="22"/>
       <c r="F913" s="22"/>
     </row>
-    <row r="914" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="914" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C914" s="25"/>
       <c r="D914" s="23"/>
       <c r="E914" s="23"/>
       <c r="F914" s="23"/>
     </row>
-    <row r="915" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="915" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C915" s="24"/>
       <c r="D915" s="22"/>
       <c r="E915" s="22"/>
       <c r="F915" s="22"/>
     </row>
-    <row r="916" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="916" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C916" s="25"/>
       <c r="D916" s="23"/>
       <c r="E916" s="23"/>
       <c r="F916" s="23"/>
     </row>
-    <row r="917" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="917" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C917" s="24"/>
       <c r="D917" s="22"/>
       <c r="E917" s="22"/>
       <c r="F917" s="22"/>
     </row>
-    <row r="918" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="918" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C918" s="25"/>
       <c r="D918" s="23"/>
       <c r="E918" s="23"/>
       <c r="F918" s="23"/>
     </row>
-    <row r="919" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="919" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C919" s="24"/>
       <c r="D919" s="22"/>
       <c r="E919" s="22"/>
       <c r="F919" s="22"/>
     </row>
-    <row r="920" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="920" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C920" s="25"/>
       <c r="D920" s="23"/>
       <c r="E920" s="23"/>
       <c r="F920" s="23"/>
     </row>
-    <row r="921" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="921" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C921" s="24"/>
       <c r="D921" s="22"/>
       <c r="E921" s="22"/>
       <c r="F921" s="22"/>
     </row>
-    <row r="922" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="922" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C922" s="25"/>
       <c r="D922" s="23"/>
       <c r="E922" s="23"/>
       <c r="F922" s="23"/>
     </row>
-    <row r="923" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="923" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C923" s="24"/>
       <c r="D923" s="22"/>
       <c r="E923" s="22"/>
       <c r="F923" s="22"/>
     </row>
-    <row r="924" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="924" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C924" s="25"/>
       <c r="D924" s="23"/>
       <c r="E924" s="23"/>
       <c r="F924" s="23"/>
     </row>
-    <row r="925" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="925" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C925" s="24"/>
       <c r="D925" s="22"/>
       <c r="E925" s="22"/>
       <c r="F925" s="22"/>
     </row>
-    <row r="926" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="926" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C926" s="25"/>
       <c r="D926" s="23"/>
       <c r="E926" s="23"/>
       <c r="F926" s="23"/>
     </row>
-    <row r="927" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="927" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C927" s="24"/>
       <c r="D927" s="22"/>
       <c r="E927" s="22"/>
       <c r="F927" s="22"/>
     </row>
-    <row r="928" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="928" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C928" s="25"/>
       <c r="D928" s="23"/>
       <c r="E928" s="23"/>
       <c r="F928" s="23"/>
     </row>
-    <row r="929" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="929" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C929" s="24"/>
       <c r="D929" s="22"/>
       <c r="E929" s="22"/>
       <c r="F929" s="22"/>
     </row>
-    <row r="930" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="930" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C930" s="25"/>
       <c r="D930" s="23"/>
       <c r="E930" s="23"/>
       <c r="F930" s="23"/>
     </row>
-    <row r="931" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="931" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C931" s="24"/>
       <c r="D931" s="22"/>
       <c r="E931" s="22"/>
       <c r="F931" s="22"/>
     </row>
-    <row r="932" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="932" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C932" s="25"/>
       <c r="D932" s="23"/>
       <c r="E932" s="23"/>
       <c r="F932" s="23"/>
     </row>
-    <row r="933" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="933" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C933" s="24"/>
       <c r="D933" s="22"/>
       <c r="E933" s="22"/>
       <c r="F933" s="22"/>
     </row>
-    <row r="934" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="934" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C934" s="25"/>
       <c r="D934" s="23"/>
       <c r="E934" s="23"/>
       <c r="F934" s="23"/>
     </row>
-    <row r="935" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="935" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C935" s="24"/>
       <c r="D935" s="22"/>
       <c r="E935" s="22"/>
       <c r="F935" s="22"/>
     </row>
-    <row r="936" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="936" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C936" s="25"/>
       <c r="D936" s="23"/>
       <c r="E936" s="23"/>
       <c r="F936" s="23"/>
     </row>
-    <row r="937" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="937" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C937" s="24"/>
       <c r="D937" s="22"/>
       <c r="E937" s="22"/>
       <c r="F937" s="22"/>
     </row>
-    <row r="938" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="938" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C938" s="25"/>
       <c r="D938" s="23"/>
       <c r="E938" s="23"/>
       <c r="F938" s="23"/>
     </row>
-    <row r="939" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="939" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C939" s="24"/>
       <c r="D939" s="22"/>
       <c r="E939" s="22"/>
       <c r="F939" s="22"/>
     </row>
-    <row r="940" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="940" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C940" s="25"/>
       <c r="D940" s="23"/>
       <c r="E940" s="23"/>
       <c r="F940" s="23"/>
     </row>
-    <row r="941" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="941" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C941" s="24"/>
       <c r="D941" s="22"/>
       <c r="E941" s="22"/>
       <c r="F941" s="22"/>
     </row>
-    <row r="942" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="942" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C942" s="25"/>
       <c r="D942" s="23"/>
       <c r="E942" s="23"/>
       <c r="F942" s="23"/>
     </row>
-    <row r="943" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="943" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C943" s="24"/>
       <c r="D943" s="22"/>
       <c r="E943" s="22"/>
       <c r="F943" s="22"/>
     </row>
-    <row r="944" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="944" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C944" s="25"/>
       <c r="D944" s="23"/>
       <c r="E944" s="23"/>
       <c r="F944" s="23"/>
     </row>
-    <row r="945" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="945" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C945" s="24"/>
       <c r="D945" s="22"/>
       <c r="E945" s="22"/>
       <c r="F945" s="22"/>
     </row>
-    <row r="946" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="946" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C946" s="25"/>
       <c r="D946" s="23"/>
       <c r="E946" s="23"/>
       <c r="F946" s="23"/>
     </row>
-    <row r="947" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="947" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C947" s="24"/>
       <c r="D947" s="22"/>
       <c r="E947" s="22"/>
       <c r="F947" s="22"/>
     </row>
-    <row r="948" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="948" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C948" s="25"/>
       <c r="D948" s="23"/>
       <c r="E948" s="23"/>
       <c r="F948" s="23"/>
     </row>
-    <row r="949" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="949" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C949" s="24"/>
       <c r="D949" s="22"/>
       <c r="E949" s="22"/>
       <c r="F949" s="22"/>
     </row>
-    <row r="950" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="950" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C950" s="25"/>
       <c r="D950" s="23"/>
       <c r="E950" s="23"/>
       <c r="F950" s="23"/>
     </row>
-    <row r="951" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="951" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C951" s="24"/>
       <c r="D951" s="22"/>
       <c r="E951" s="22"/>
       <c r="F951" s="22"/>
     </row>
-    <row r="952" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="952" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C952" s="25"/>
       <c r="D952" s="23"/>
       <c r="E952" s="23"/>
       <c r="F952" s="23"/>
     </row>
-    <row r="953" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="953" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C953" s="24"/>
       <c r="D953" s="22"/>
       <c r="E953" s="22"/>
       <c r="F953" s="22"/>
     </row>
-    <row r="954" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="954" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C954" s="25"/>
       <c r="D954" s="23"/>
       <c r="E954" s="23"/>
       <c r="F954" s="23"/>
     </row>
-    <row r="955" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="955" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C955" s="24"/>
       <c r="D955" s="22"/>
       <c r="E955" s="22"/>
       <c r="F955" s="22"/>
     </row>
-    <row r="956" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="956" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C956" s="25"/>
       <c r="D956" s="23"/>
       <c r="E956" s="23"/>
       <c r="F956" s="23"/>
     </row>
-    <row r="957" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="957" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C957" s="24"/>
       <c r="D957" s="22"/>
       <c r="E957" s="22"/>
       <c r="F957" s="22"/>
     </row>
-    <row r="958" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="958" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C958" s="25"/>
       <c r="D958" s="23"/>
       <c r="E958" s="23"/>
       <c r="F958" s="23"/>
     </row>
-    <row r="959" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="959" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C959" s="24"/>
       <c r="D959" s="22"/>
       <c r="E959" s="22"/>
       <c r="F959" s="22"/>
     </row>
-    <row r="960" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="960" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C960" s="25"/>
       <c r="D960" s="23"/>
       <c r="E960" s="23"/>
       <c r="F960" s="23"/>
     </row>
-    <row r="961" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="961" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C961" s="24"/>
       <c r="D961" s="22"/>
       <c r="E961" s="22"/>
       <c r="F961" s="22"/>
     </row>
-    <row r="962" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="962" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C962" s="25"/>
       <c r="D962" s="23"/>
       <c r="E962" s="23"/>
       <c r="F962" s="23"/>
     </row>
-    <row r="963" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="963" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C963" s="24"/>
       <c r="D963" s="22"/>
       <c r="E963" s="22"/>
       <c r="F963" s="22"/>
     </row>
-    <row r="964" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="964" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C964" s="25"/>
       <c r="D964" s="23"/>
       <c r="E964" s="23"/>
       <c r="F964" s="23"/>
     </row>
-    <row r="965" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="965" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C965" s="24"/>
       <c r="D965" s="22"/>
       <c r="E965" s="22"/>
       <c r="F965" s="22"/>
     </row>
-    <row r="966" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="966" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C966" s="25"/>
       <c r="D966" s="23"/>
       <c r="E966" s="23"/>
       <c r="F966" s="23"/>
     </row>
-    <row r="967" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="967" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C967" s="24"/>
       <c r="D967" s="22"/>
       <c r="E967" s="22"/>
       <c r="F967" s="22"/>
     </row>
-    <row r="968" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="968" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C968" s="25"/>
       <c r="D968" s="23"/>
       <c r="E968" s="23"/>
       <c r="F968" s="23"/>
     </row>
-    <row r="969" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="969" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C969" s="24"/>
       <c r="D969" s="22"/>
       <c r="E969" s="22"/>
       <c r="F969" s="22"/>
     </row>
-    <row r="970" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="970" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C970" s="25"/>
       <c r="D970" s="23"/>
       <c r="E970" s="23"/>
       <c r="F970" s="23"/>
     </row>
-    <row r="971" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="971" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C971" s="24"/>
       <c r="D971" s="22"/>
       <c r="E971" s="22"/>
       <c r="F971" s="22"/>
     </row>
-    <row r="972" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="972" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C972" s="25"/>
       <c r="D972" s="23"/>
       <c r="E972" s="23"/>
       <c r="F972" s="23"/>
     </row>
-    <row r="973" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="973" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C973" s="24"/>
       <c r="D973" s="22"/>
       <c r="E973" s="22"/>
       <c r="F973" s="22"/>
     </row>
-    <row r="974" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="974" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C974" s="25"/>
       <c r="D974" s="23"/>
       <c r="E974" s="23"/>
       <c r="F974" s="23"/>
     </row>
-    <row r="975" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="975" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C975" s="24"/>
       <c r="D975" s="22"/>
       <c r="E975" s="22"/>
       <c r="F975" s="22"/>
     </row>
-    <row r="976" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="976" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C976" s="25"/>
       <c r="D976" s="23"/>
       <c r="E976" s="23"/>
       <c r="F976" s="23"/>
     </row>
-    <row r="977" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="977" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C977" s="24"/>
       <c r="D977" s="22"/>
       <c r="E977" s="22"/>
       <c r="F977" s="22"/>
     </row>
-    <row r="978" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="978" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C978" s="25"/>
       <c r="D978" s="23"/>
       <c r="E978" s="23"/>
       <c r="F978" s="23"/>
     </row>
-    <row r="979" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="979" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C979" s="24"/>
       <c r="D979" s="22"/>
       <c r="E979" s="22"/>
       <c r="F979" s="22"/>
     </row>
-    <row r="980" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="980" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C980" s="25"/>
       <c r="D980" s="23"/>
       <c r="E980" s="23"/>
       <c r="F980" s="23"/>
     </row>
-    <row r="981" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="981" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C981" s="24"/>
       <c r="D981" s="22"/>
       <c r="E981" s="22"/>
       <c r="F981" s="22"/>
     </row>
-    <row r="982" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="982" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C982" s="25"/>
       <c r="D982" s="23"/>
       <c r="E982" s="23"/>
       <c r="F982" s="23"/>
     </row>
-    <row r="983" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="983" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C983" s="24"/>
       <c r="D983" s="22"/>
       <c r="E983" s="22"/>
       <c r="F983" s="22"/>
     </row>
-    <row r="984" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="984" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C984" s="25"/>
       <c r="D984" s="23"/>
       <c r="E984" s="23"/>
       <c r="F984" s="23"/>
     </row>
-    <row r="985" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="985" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C985" s="24"/>
       <c r="D985" s="22"/>
       <c r="E985" s="22"/>
       <c r="F985" s="22"/>
     </row>
-    <row r="986" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="986" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C986" s="25"/>
       <c r="D986" s="23"/>
       <c r="E986" s="23"/>
       <c r="F986" s="23"/>
     </row>
-    <row r="987" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="987" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C987" s="24"/>
       <c r="D987" s="22"/>
       <c r="E987" s="22"/>
       <c r="F987" s="22"/>
     </row>
-    <row r="988" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="988" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C988" s="25"/>
       <c r="D988" s="23"/>
       <c r="E988" s="23"/>
       <c r="F988" s="23"/>
     </row>
-    <row r="989" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="989" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C989" s="24"/>
       <c r="D989" s="22"/>
       <c r="E989" s="22"/>
       <c r="F989" s="22"/>
     </row>
-    <row r="990" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="990" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C990" s="25"/>
       <c r="D990" s="23"/>
       <c r="E990" s="23"/>
       <c r="F990" s="23"/>
     </row>
-    <row r="991" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="991" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C991" s="24"/>
       <c r="D991" s="22"/>
       <c r="E991" s="22"/>
       <c r="F991" s="22"/>
     </row>
-    <row r="992" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="992" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C992" s="25"/>
       <c r="D992" s="23"/>
       <c r="E992" s="23"/>
       <c r="F992" s="23"/>
     </row>
-    <row r="993" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="993" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C993" s="24"/>
       <c r="D993" s="22"/>
       <c r="E993" s="22"/>
       <c r="F993" s="22"/>
     </row>
-    <row r="994" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="994" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C994" s="25"/>
       <c r="D994" s="23"/>
       <c r="E994" s="23"/>
       <c r="F994" s="23"/>
     </row>
-    <row r="995" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="995" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C995" s="24"/>
       <c r="D995" s="22"/>
       <c r="E995" s="22"/>
       <c r="F995" s="22"/>
     </row>
-    <row r="996" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="996" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C996" s="25"/>
       <c r="D996" s="23"/>
       <c r="E996" s="23"/>
       <c r="F996" s="23"/>
     </row>
-    <row r="997" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="997" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C997" s="24"/>
       <c r="D997" s="22"/>
       <c r="E997" s="22"/>
       <c r="F997" s="22"/>
     </row>
-    <row r="998" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="998" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C998" s="25"/>
       <c r="D998" s="23"/>
       <c r="E998" s="23"/>
       <c r="F998" s="23"/>
     </row>
-    <row r="999" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="999" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C999" s="24"/>
       <c r="D999" s="22"/>
       <c r="E999" s="22"/>
       <c r="F999" s="22"/>
     </row>
-    <row r="1000" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="1000" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1000" s="25"/>
       <c r="D1000" s="23"/>
       <c r="E1000" s="23"/>
@@ -17487,14 +17498,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
         <v>26</v>
       </c>
@@ -17505,80 +17516,80 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>4965</v>
+        <v>5010</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>3735</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>29</v>
       </c>

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F99D11-FB43-40F1-9217-437D9410D0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8A249E-AFF5-4FC3-ACE8-B124AAE18053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Time_Log" sheetId="2" r:id="rId2"/>
     <sheet name="BACKGROUND_LOGIC" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="84">
   <si>
     <t>Week:</t>
   </si>
@@ -259,9 +260,6 @@
     <t>working on assessment</t>
   </si>
   <si>
-    <t>Fighting with CUI types</t>
-  </si>
-  <si>
     <t>Working on assessment report for l1</t>
   </si>
   <si>
@@ -280,7 +278,22 @@
     <t>Feedback discussion</t>
   </si>
   <si>
-    <t>Fighting with AWS suppport for domain name</t>
+    <t>Contacting AWS suppport for domain name</t>
+  </si>
+  <si>
+    <t>working with CUI types in the assessment</t>
+  </si>
+  <si>
+    <t>Discussion with outside stakeholder to discuss future look of the website</t>
+  </si>
+  <si>
+    <t>Resloving DNS issues, got cmmcfledge.com</t>
+  </si>
+  <si>
+    <t>Getting HTTPS traffic to work</t>
+  </si>
+  <si>
+    <t>Changing website colors</t>
   </si>
 </sst>
 </file>
@@ -1860,10 +1873,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5010</c:v>
+                  <c:v>5280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3690</c:v>
+                  <c:v>3420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3087,16 +3100,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>135255</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>264795</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>135255</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>264795</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3111,8 +3124,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8345805" y="363855"/>
-          <a:ext cx="0" cy="2539365"/>
+          <a:off x="9599295" y="335280"/>
+          <a:ext cx="0" cy="2541270"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10578,20 +10591,20 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -10626,7 +10639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -10675,7 +10688,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
@@ -10698,7 +10711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -10713,7 +10726,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="36"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="45" t="s">
         <v>4</v>
@@ -10728,7 +10741,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>13</v>
       </c>
@@ -10745,7 +10758,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="36"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
@@ -10760,7 +10773,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="36"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
@@ -10775,7 +10788,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="36"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
@@ -10790,7 +10803,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="36"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>14</v>
       </c>
@@ -10807,7 +10820,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="36"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
@@ -10822,7 +10835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="36"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
@@ -10837,7 +10850,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="36"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
@@ -10852,7 +10865,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
@@ -10867,7 +10880,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
@@ -10882,7 +10895,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>15</v>
       </c>
@@ -10899,7 +10912,7 @@
       <c r="J16" s="42"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>36</v>
       </c>
@@ -10907,7 +10920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
@@ -10915,7 +10928,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>4</v>
       </c>
@@ -10923,12 +10936,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>5</v>
       </c>
@@ -10936,7 +10949,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>6</v>
       </c>
@@ -10944,7 +10957,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>28</v>
       </c>
@@ -10952,7 +10965,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>7</v>
       </c>
@@ -10960,7 +10973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
         <v>8</v>
       </c>
@@ -10968,7 +10981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>9</v>
       </c>
@@ -10976,7 +10989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>19</v>
       </c>
@@ -10984,7 +10997,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
         <v>27</v>
       </c>
@@ -10992,7 +11005,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
         <v>38</v>
       </c>
@@ -11027,19 +11040,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154930E-2F36-41CB-8896-D63BC278B832}">
   <dimension ref="C1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="114.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="114.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="26" t="s">
         <v>22</v>
       </c>
@@ -11053,7 +11066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" s="28">
         <v>45927</v>
       </c>
@@ -11067,7 +11080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="32">
         <v>45927</v>
       </c>
@@ -11081,7 +11094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="33">
         <v>45928</v>
       </c>
@@ -11095,7 +11108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="32">
         <v>45928</v>
       </c>
@@ -11109,7 +11122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" s="33">
         <v>45929</v>
       </c>
@@ -11123,7 +11136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="32">
         <v>45934</v>
       </c>
@@ -11137,7 +11150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="33">
         <v>45934</v>
       </c>
@@ -11151,7 +11164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="32">
         <v>45934</v>
       </c>
@@ -11165,7 +11178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="33">
         <v>45935</v>
       </c>
@@ -11179,7 +11192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="32">
         <v>45936</v>
       </c>
@@ -11193,7 +11206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="33">
         <v>45940</v>
       </c>
@@ -11205,7 +11218,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="32">
         <v>45941</v>
       </c>
@@ -11217,7 +11230,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" s="33">
         <v>45942</v>
       </c>
@@ -11231,7 +11244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="32">
         <v>45944</v>
       </c>
@@ -11245,7 +11258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="33">
         <v>45944</v>
       </c>
@@ -11259,7 +11272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="32">
         <v>45944</v>
       </c>
@@ -11273,7 +11286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="33">
         <v>45944</v>
       </c>
@@ -11287,7 +11300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="32">
         <v>45944</v>
       </c>
@@ -11301,7 +11314,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="33">
         <v>45945</v>
       </c>
@@ -11315,7 +11328,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="32">
         <v>45945</v>
       </c>
@@ -11329,7 +11342,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="33">
         <v>45945</v>
       </c>
@@ -11343,7 +11356,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="32">
         <v>45946</v>
       </c>
@@ -11357,7 +11370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="33">
         <v>45946</v>
       </c>
@@ -11371,7 +11384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="32">
         <v>45946</v>
       </c>
@@ -11385,7 +11398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="33">
         <v>45946</v>
       </c>
@@ -11399,7 +11412,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="32">
         <v>45946</v>
       </c>
@@ -11413,7 +11426,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="33">
         <v>45946</v>
       </c>
@@ -11427,7 +11440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="32">
         <v>45950</v>
       </c>
@@ -11441,7 +11454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30" s="33">
         <v>45950</v>
       </c>
@@ -11455,7 +11468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="32">
         <v>45950</v>
       </c>
@@ -11469,7 +11482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="33">
         <v>45951</v>
       </c>
@@ -11483,7 +11496,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" s="32">
         <v>45951</v>
       </c>
@@ -11497,7 +11510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" s="33">
         <v>45955</v>
       </c>
@@ -11511,7 +11524,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35" s="32">
         <v>45956</v>
       </c>
@@ -11525,7 +11538,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36" s="33">
         <v>45956</v>
       </c>
@@ -11539,7 +11552,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37" s="32">
         <v>45957</v>
       </c>
@@ -11553,7 +11566,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C38" s="33">
         <v>45958</v>
       </c>
@@ -11567,7 +11580,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C39" s="32">
         <v>45958</v>
       </c>
@@ -11581,7 +11594,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C40" s="33">
         <v>45960</v>
       </c>
@@ -11595,7 +11608,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C41" s="32">
         <v>45961</v>
       </c>
@@ -11609,7 +11622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C42" s="33">
         <v>45962</v>
       </c>
@@ -11623,7 +11636,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C43" s="32">
         <v>45962</v>
       </c>
@@ -11637,7 +11650,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C44" s="33">
         <v>45963</v>
       </c>
@@ -11651,7 +11664,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C45" s="32">
         <v>45963</v>
       </c>
@@ -11662,10 +11675,10 @@
         <v>27</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C46" s="33">
         <v>45964</v>
       </c>
@@ -11679,7 +11692,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C47" s="32">
         <v>45964</v>
       </c>
@@ -11690,10 +11703,10 @@
         <v>27</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C48" s="33">
         <v>45965</v>
       </c>
@@ -11704,10 +11717,10 @@
         <v>27</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" s="32">
         <v>45965</v>
       </c>
@@ -11718,10 +11731,10 @@
         <v>28</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" s="33">
         <v>45969</v>
       </c>
@@ -11732,10 +11745,10 @@
         <v>11</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" s="32">
         <v>45970</v>
       </c>
@@ -11746,10 +11759,10 @@
         <v>11</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" s="33">
         <v>45971</v>
       </c>
@@ -11760,10 +11773,10 @@
         <v>11</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C53" s="32">
         <v>45971</v>
       </c>
@@ -11774,10 +11787,10 @@
         <v>29</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C54" s="33">
         <v>45972</v>
       </c>
@@ -11788,5680 +11801,5712 @@
         <v>29</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="24"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="25"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="24"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="25"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C55" s="32">
+        <v>45974</v>
+      </c>
+      <c r="D55" s="22">
+        <v>45</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C56" s="33">
+        <v>45974</v>
+      </c>
+      <c r="D56" s="23">
+        <v>15</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="32">
+        <v>45974</v>
+      </c>
+      <c r="D57" s="22">
+        <v>90</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="33">
+        <v>45975</v>
+      </c>
+      <c r="D58" s="23">
+        <v>120</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C59" s="24"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C60" s="25"/>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C61" s="24"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C62" s="25"/>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C63" s="24"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C64" s="25"/>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" s="24"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" s="25"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" s="24"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C68" s="25"/>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C69" s="24"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C70" s="25"/>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C71" s="24"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C72" s="25"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C73" s="24"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C74" s="25"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C75" s="24"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C76" s="25"/>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C77" s="24"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C78" s="25"/>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C79" s="24"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C80" s="25"/>
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" s="24"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" s="25"/>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C83" s="24"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C84" s="25"/>
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C85" s="24"/>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C86" s="25"/>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C87" s="24"/>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C88" s="25"/>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C89" s="24"/>
       <c r="D89" s="22"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C90" s="25"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C91" s="24"/>
       <c r="D91" s="22"/>
       <c r="E91" s="22"/>
       <c r="F91" s="22"/>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C92" s="25"/>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C93" s="24"/>
       <c r="D93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C94" s="25"/>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C95" s="24"/>
       <c r="D95" s="22"/>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C96" s="25"/>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" s="24"/>
       <c r="D97" s="22"/>
       <c r="E97" s="22"/>
       <c r="F97" s="22"/>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C98" s="25"/>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C99" s="24"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22"/>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C100" s="25"/>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C101" s="24"/>
       <c r="D101" s="22"/>
       <c r="E101" s="22"/>
       <c r="F101" s="22"/>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C102" s="25"/>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
       <c r="F102" s="23"/>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C103" s="24"/>
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C104" s="25"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23"/>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C105" s="24"/>
       <c r="D105" s="22"/>
       <c r="E105" s="22"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C106" s="25"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C107" s="24"/>
       <c r="D107" s="22"/>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C108" s="25"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C109" s="24"/>
       <c r="D109" s="22"/>
       <c r="E109" s="22"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C110" s="25"/>
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
       <c r="F110" s="23"/>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C111" s="24"/>
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C112" s="25"/>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C113" s="24"/>
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
       <c r="F113" s="22"/>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C114" s="25"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C115" s="24"/>
       <c r="D115" s="22"/>
       <c r="E115" s="22"/>
       <c r="F115" s="22"/>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C116" s="25"/>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C117" s="24"/>
       <c r="D117" s="22"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22"/>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C118" s="25"/>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C119" s="24"/>
       <c r="D119" s="22"/>
       <c r="E119" s="22"/>
       <c r="F119" s="22"/>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C120" s="25"/>
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C121" s="24"/>
       <c r="D121" s="22"/>
       <c r="E121" s="22"/>
       <c r="F121" s="22"/>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C122" s="25"/>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C123" s="24"/>
       <c r="D123" s="22"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22"/>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C124" s="25"/>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C125" s="24"/>
       <c r="D125" s="22"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22"/>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C126" s="25"/>
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C127" s="24"/>
       <c r="D127" s="22"/>
       <c r="E127" s="22"/>
       <c r="F127" s="22"/>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C128" s="25"/>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
       <c r="F128" s="23"/>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C129" s="24"/>
       <c r="D129" s="22"/>
       <c r="E129" s="22"/>
       <c r="F129" s="22"/>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C130" s="25"/>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C131" s="24"/>
       <c r="D131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C132" s="25"/>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C133" s="24"/>
       <c r="D133" s="22"/>
       <c r="E133" s="22"/>
       <c r="F133" s="22"/>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C134" s="25"/>
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C135" s="24"/>
       <c r="D135" s="22"/>
       <c r="E135" s="22"/>
       <c r="F135" s="22"/>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C136" s="25"/>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23"/>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C137" s="24"/>
       <c r="D137" s="22"/>
       <c r="E137" s="22"/>
       <c r="F137" s="22"/>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C138" s="25"/>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
       <c r="F138" s="23"/>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C139" s="24"/>
       <c r="D139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C140" s="25"/>
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C141" s="24"/>
       <c r="D141" s="22"/>
       <c r="E141" s="22"/>
       <c r="F141" s="22"/>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C142" s="25"/>
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
       <c r="F142" s="23"/>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C143" s="24"/>
       <c r="D143" s="22"/>
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C144" s="25"/>
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C145" s="24"/>
       <c r="D145" s="22"/>
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C146" s="25"/>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
       <c r="F146" s="23"/>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C147" s="24"/>
       <c r="D147" s="22"/>
       <c r="E147" s="22"/>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C148" s="25"/>
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
       <c r="F148" s="23"/>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C149" s="24"/>
       <c r="D149" s="22"/>
       <c r="E149" s="22"/>
       <c r="F149" s="22"/>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C150" s="25"/>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
       <c r="F150" s="23"/>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C151" s="24"/>
       <c r="D151" s="22"/>
       <c r="E151" s="22"/>
       <c r="F151" s="22"/>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C152" s="25"/>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C153" s="24"/>
       <c r="D153" s="22"/>
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C154" s="25"/>
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
       <c r="F154" s="23"/>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C155" s="24"/>
       <c r="D155" s="22"/>
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C156" s="25"/>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
       <c r="F156" s="23"/>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C157" s="24"/>
       <c r="D157" s="22"/>
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C158" s="25"/>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
       <c r="F158" s="23"/>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C159" s="24"/>
       <c r="D159" s="22"/>
       <c r="E159" s="22"/>
       <c r="F159" s="22"/>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C160" s="25"/>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
       <c r="F160" s="23"/>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C161" s="24"/>
       <c r="D161" s="22"/>
       <c r="E161" s="22"/>
       <c r="F161" s="22"/>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C162" s="25"/>
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
       <c r="F162" s="23"/>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C163" s="24"/>
       <c r="D163" s="22"/>
       <c r="E163" s="22"/>
       <c r="F163" s="22"/>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C164" s="25"/>
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
       <c r="F164" s="23"/>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C165" s="24"/>
       <c r="D165" s="22"/>
       <c r="E165" s="22"/>
       <c r="F165" s="22"/>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C166" s="25"/>
       <c r="D166" s="23"/>
       <c r="E166" s="23"/>
       <c r="F166" s="23"/>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C167" s="24"/>
       <c r="D167" s="22"/>
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C168" s="25"/>
       <c r="D168" s="23"/>
       <c r="E168" s="23"/>
       <c r="F168" s="23"/>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C169" s="24"/>
       <c r="D169" s="22"/>
       <c r="E169" s="22"/>
       <c r="F169" s="22"/>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C170" s="25"/>
       <c r="D170" s="23"/>
       <c r="E170" s="23"/>
       <c r="F170" s="23"/>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C171" s="24"/>
       <c r="D171" s="22"/>
       <c r="E171" s="22"/>
       <c r="F171" s="22"/>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C172" s="25"/>
       <c r="D172" s="23"/>
       <c r="E172" s="23"/>
       <c r="F172" s="23"/>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C173" s="24"/>
       <c r="D173" s="22"/>
       <c r="E173" s="22"/>
       <c r="F173" s="22"/>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C174" s="25"/>
       <c r="D174" s="23"/>
       <c r="E174" s="23"/>
       <c r="F174" s="23"/>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C175" s="24"/>
       <c r="D175" s="22"/>
       <c r="E175" s="22"/>
       <c r="F175" s="22"/>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C176" s="25"/>
       <c r="D176" s="23"/>
       <c r="E176" s="23"/>
       <c r="F176" s="23"/>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C177" s="24"/>
       <c r="D177" s="22"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C178" s="25"/>
       <c r="D178" s="23"/>
       <c r="E178" s="23"/>
       <c r="F178" s="23"/>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C179" s="24"/>
       <c r="D179" s="22"/>
       <c r="E179" s="22"/>
       <c r="F179" s="22"/>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C180" s="25"/>
       <c r="D180" s="23"/>
       <c r="E180" s="23"/>
       <c r="F180" s="23"/>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C181" s="24"/>
       <c r="D181" s="22"/>
       <c r="E181" s="22"/>
       <c r="F181" s="22"/>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C182" s="25"/>
       <c r="D182" s="23"/>
       <c r="E182" s="23"/>
       <c r="F182" s="23"/>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C183" s="24"/>
       <c r="D183" s="22"/>
       <c r="E183" s="22"/>
       <c r="F183" s="22"/>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C184" s="25"/>
       <c r="D184" s="23"/>
       <c r="E184" s="23"/>
       <c r="F184" s="23"/>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C185" s="24"/>
       <c r="D185" s="22"/>
       <c r="E185" s="22"/>
       <c r="F185" s="22"/>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C186" s="25"/>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
       <c r="F186" s="23"/>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C187" s="24"/>
       <c r="D187" s="22"/>
       <c r="E187" s="22"/>
       <c r="F187" s="22"/>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C188" s="25"/>
       <c r="D188" s="23"/>
       <c r="E188" s="23"/>
       <c r="F188" s="23"/>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C189" s="24"/>
       <c r="D189" s="22"/>
       <c r="E189" s="22"/>
       <c r="F189" s="22"/>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C190" s="25"/>
       <c r="D190" s="23"/>
       <c r="E190" s="23"/>
       <c r="F190" s="23"/>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C191" s="24"/>
       <c r="D191" s="22"/>
       <c r="E191" s="22"/>
       <c r="F191" s="22"/>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C192" s="25"/>
       <c r="D192" s="23"/>
       <c r="E192" s="23"/>
       <c r="F192" s="23"/>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C193" s="24"/>
       <c r="D193" s="22"/>
       <c r="E193" s="22"/>
       <c r="F193" s="22"/>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C194" s="25"/>
       <c r="D194" s="23"/>
       <c r="E194" s="23"/>
       <c r="F194" s="23"/>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C195" s="24"/>
       <c r="D195" s="22"/>
       <c r="E195" s="22"/>
       <c r="F195" s="22"/>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C196" s="25"/>
       <c r="D196" s="23"/>
       <c r="E196" s="23"/>
       <c r="F196" s="23"/>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C197" s="24"/>
       <c r="D197" s="22"/>
       <c r="E197" s="22"/>
       <c r="F197" s="22"/>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C198" s="25"/>
       <c r="D198" s="23"/>
       <c r="E198" s="23"/>
       <c r="F198" s="23"/>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C199" s="24"/>
       <c r="D199" s="22"/>
       <c r="E199" s="22"/>
       <c r="F199" s="22"/>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C200" s="25"/>
       <c r="D200" s="23"/>
       <c r="E200" s="23"/>
       <c r="F200" s="23"/>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C201" s="24"/>
       <c r="D201" s="22"/>
       <c r="E201" s="22"/>
       <c r="F201" s="22"/>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C202" s="25"/>
       <c r="D202" s="23"/>
       <c r="E202" s="23"/>
       <c r="F202" s="23"/>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C203" s="24"/>
       <c r="D203" s="22"/>
       <c r="E203" s="22"/>
       <c r="F203" s="22"/>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C204" s="25"/>
       <c r="D204" s="23"/>
       <c r="E204" s="23"/>
       <c r="F204" s="23"/>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C205" s="24"/>
       <c r="D205" s="22"/>
       <c r="E205" s="22"/>
       <c r="F205" s="22"/>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C206" s="25"/>
       <c r="D206" s="23"/>
       <c r="E206" s="23"/>
       <c r="F206" s="23"/>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C207" s="24"/>
       <c r="D207" s="22"/>
       <c r="E207" s="22"/>
       <c r="F207" s="22"/>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C208" s="25"/>
       <c r="D208" s="23"/>
       <c r="E208" s="23"/>
       <c r="F208" s="23"/>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C209" s="24"/>
       <c r="D209" s="22"/>
       <c r="E209" s="22"/>
       <c r="F209" s="22"/>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C210" s="25"/>
       <c r="D210" s="23"/>
       <c r="E210" s="23"/>
       <c r="F210" s="23"/>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C211" s="24"/>
       <c r="D211" s="22"/>
       <c r="E211" s="22"/>
       <c r="F211" s="22"/>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C212" s="25"/>
       <c r="D212" s="23"/>
       <c r="E212" s="23"/>
       <c r="F212" s="23"/>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C213" s="24"/>
       <c r="D213" s="22"/>
       <c r="E213" s="22"/>
       <c r="F213" s="22"/>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C214" s="25"/>
       <c r="D214" s="23"/>
       <c r="E214" s="23"/>
       <c r="F214" s="23"/>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C215" s="24"/>
       <c r="D215" s="22"/>
       <c r="E215" s="22"/>
       <c r="F215" s="22"/>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C216" s="25"/>
       <c r="D216" s="23"/>
       <c r="E216" s="23"/>
       <c r="F216" s="23"/>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C217" s="24"/>
       <c r="D217" s="22"/>
       <c r="E217" s="22"/>
       <c r="F217" s="22"/>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C218" s="25"/>
       <c r="D218" s="23"/>
       <c r="E218" s="23"/>
       <c r="F218" s="23"/>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C219" s="24"/>
       <c r="D219" s="22"/>
       <c r="E219" s="22"/>
       <c r="F219" s="22"/>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C220" s="25"/>
       <c r="D220" s="23"/>
       <c r="E220" s="23"/>
       <c r="F220" s="23"/>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C221" s="24"/>
       <c r="D221" s="22"/>
       <c r="E221" s="22"/>
       <c r="F221" s="22"/>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C222" s="25"/>
       <c r="D222" s="23"/>
       <c r="E222" s="23"/>
       <c r="F222" s="23"/>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C223" s="24"/>
       <c r="D223" s="22"/>
       <c r="E223" s="22"/>
       <c r="F223" s="22"/>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C224" s="25"/>
       <c r="D224" s="23"/>
       <c r="E224" s="23"/>
       <c r="F224" s="23"/>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C225" s="24"/>
       <c r="D225" s="22"/>
       <c r="E225" s="22"/>
       <c r="F225" s="22"/>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C226" s="25"/>
       <c r="D226" s="23"/>
       <c r="E226" s="23"/>
       <c r="F226" s="23"/>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C227" s="24"/>
       <c r="D227" s="22"/>
       <c r="E227" s="22"/>
       <c r="F227" s="22"/>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C228" s="25"/>
       <c r="D228" s="23"/>
       <c r="E228" s="23"/>
       <c r="F228" s="23"/>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C229" s="24"/>
       <c r="D229" s="22"/>
       <c r="E229" s="22"/>
       <c r="F229" s="22"/>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C230" s="25"/>
       <c r="D230" s="23"/>
       <c r="E230" s="23"/>
       <c r="F230" s="23"/>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C231" s="24"/>
       <c r="D231" s="22"/>
       <c r="E231" s="22"/>
       <c r="F231" s="22"/>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C232" s="25"/>
       <c r="D232" s="23"/>
       <c r="E232" s="23"/>
       <c r="F232" s="23"/>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C233" s="24"/>
       <c r="D233" s="22"/>
       <c r="E233" s="22"/>
       <c r="F233" s="22"/>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C234" s="25"/>
       <c r="D234" s="23"/>
       <c r="E234" s="23"/>
       <c r="F234" s="23"/>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C235" s="24"/>
       <c r="D235" s="22"/>
       <c r="E235" s="22"/>
       <c r="F235" s="22"/>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C236" s="25"/>
       <c r="D236" s="23"/>
       <c r="E236" s="23"/>
       <c r="F236" s="23"/>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C237" s="24"/>
       <c r="D237" s="22"/>
       <c r="E237" s="22"/>
       <c r="F237" s="22"/>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C238" s="25"/>
       <c r="D238" s="23"/>
       <c r="E238" s="23"/>
       <c r="F238" s="23"/>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C239" s="24"/>
       <c r="D239" s="22"/>
       <c r="E239" s="22"/>
       <c r="F239" s="22"/>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C240" s="25"/>
       <c r="D240" s="23"/>
       <c r="E240" s="23"/>
       <c r="F240" s="23"/>
     </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C241" s="24"/>
       <c r="D241" s="22"/>
       <c r="E241" s="22"/>
       <c r="F241" s="22"/>
     </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C242" s="25"/>
       <c r="D242" s="23"/>
       <c r="E242" s="23"/>
       <c r="F242" s="23"/>
     </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C243" s="24"/>
       <c r="D243" s="22"/>
       <c r="E243" s="22"/>
       <c r="F243" s="22"/>
     </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C244" s="25"/>
       <c r="D244" s="23"/>
       <c r="E244" s="23"/>
       <c r="F244" s="23"/>
     </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C245" s="24"/>
       <c r="D245" s="22"/>
       <c r="E245" s="22"/>
       <c r="F245" s="22"/>
     </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C246" s="25"/>
       <c r="D246" s="23"/>
       <c r="E246" s="23"/>
       <c r="F246" s="23"/>
     </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C247" s="24"/>
       <c r="D247" s="22"/>
       <c r="E247" s="22"/>
       <c r="F247" s="22"/>
     </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C248" s="25"/>
       <c r="D248" s="23"/>
       <c r="E248" s="23"/>
       <c r="F248" s="23"/>
     </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C249" s="24"/>
       <c r="D249" s="22"/>
       <c r="E249" s="22"/>
       <c r="F249" s="22"/>
     </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C250" s="25"/>
       <c r="D250" s="23"/>
       <c r="E250" s="23"/>
       <c r="F250" s="23"/>
     </row>
-    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C251" s="24"/>
       <c r="D251" s="22"/>
       <c r="E251" s="22"/>
       <c r="F251" s="22"/>
     </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C252" s="25"/>
       <c r="D252" s="23"/>
       <c r="E252" s="23"/>
       <c r="F252" s="23"/>
     </row>
-    <row r="253" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C253" s="24"/>
       <c r="D253" s="22"/>
       <c r="E253" s="22"/>
       <c r="F253" s="22"/>
     </row>
-    <row r="254" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C254" s="25"/>
       <c r="D254" s="23"/>
       <c r="E254" s="23"/>
       <c r="F254" s="23"/>
     </row>
-    <row r="255" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C255" s="24"/>
       <c r="D255" s="22"/>
       <c r="E255" s="22"/>
       <c r="F255" s="22"/>
     </row>
-    <row r="256" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C256" s="25"/>
       <c r="D256" s="23"/>
       <c r="E256" s="23"/>
       <c r="F256" s="23"/>
     </row>
-    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C257" s="24"/>
       <c r="D257" s="22"/>
       <c r="E257" s="22"/>
       <c r="F257" s="22"/>
     </row>
-    <row r="258" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C258" s="25"/>
       <c r="D258" s="23"/>
       <c r="E258" s="23"/>
       <c r="F258" s="23"/>
     </row>
-    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C259" s="24"/>
       <c r="D259" s="22"/>
       <c r="E259" s="22"/>
       <c r="F259" s="22"/>
     </row>
-    <row r="260" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C260" s="25"/>
       <c r="D260" s="23"/>
       <c r="E260" s="23"/>
       <c r="F260" s="23"/>
     </row>
-    <row r="261" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C261" s="24"/>
       <c r="D261" s="22"/>
       <c r="E261" s="22"/>
       <c r="F261" s="22"/>
     </row>
-    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C262" s="25"/>
       <c r="D262" s="23"/>
       <c r="E262" s="23"/>
       <c r="F262" s="23"/>
     </row>
-    <row r="263" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C263" s="24"/>
       <c r="D263" s="22"/>
       <c r="E263" s="22"/>
       <c r="F263" s="22"/>
     </row>
-    <row r="264" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C264" s="25"/>
       <c r="D264" s="23"/>
       <c r="E264" s="23"/>
       <c r="F264" s="23"/>
     </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C265" s="24"/>
       <c r="D265" s="22"/>
       <c r="E265" s="22"/>
       <c r="F265" s="22"/>
     </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C266" s="25"/>
       <c r="D266" s="23"/>
       <c r="E266" s="23"/>
       <c r="F266" s="23"/>
     </row>
-    <row r="267" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C267" s="24"/>
       <c r="D267" s="22"/>
       <c r="E267" s="22"/>
       <c r="F267" s="22"/>
     </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C268" s="25"/>
       <c r="D268" s="23"/>
       <c r="E268" s="23"/>
       <c r="F268" s="23"/>
     </row>
-    <row r="269" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C269" s="24"/>
       <c r="D269" s="22"/>
       <c r="E269" s="22"/>
       <c r="F269" s="22"/>
     </row>
-    <row r="270" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C270" s="25"/>
       <c r="D270" s="23"/>
       <c r="E270" s="23"/>
       <c r="F270" s="23"/>
     </row>
-    <row r="271" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C271" s="24"/>
       <c r="D271" s="22"/>
       <c r="E271" s="22"/>
       <c r="F271" s="22"/>
     </row>
-    <row r="272" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C272" s="25"/>
       <c r="D272" s="23"/>
       <c r="E272" s="23"/>
       <c r="F272" s="23"/>
     </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C273" s="24"/>
       <c r="D273" s="22"/>
       <c r="E273" s="22"/>
       <c r="F273" s="22"/>
     </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C274" s="25"/>
       <c r="D274" s="23"/>
       <c r="E274" s="23"/>
       <c r="F274" s="23"/>
     </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C275" s="24"/>
       <c r="D275" s="22"/>
       <c r="E275" s="22"/>
       <c r="F275" s="22"/>
     </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C276" s="25"/>
       <c r="D276" s="23"/>
       <c r="E276" s="23"/>
       <c r="F276" s="23"/>
     </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C277" s="24"/>
       <c r="D277" s="22"/>
       <c r="E277" s="22"/>
       <c r="F277" s="22"/>
     </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C278" s="25"/>
       <c r="D278" s="23"/>
       <c r="E278" s="23"/>
       <c r="F278" s="23"/>
     </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C279" s="24"/>
       <c r="D279" s="22"/>
       <c r="E279" s="22"/>
       <c r="F279" s="22"/>
     </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C280" s="25"/>
       <c r="D280" s="23"/>
       <c r="E280" s="23"/>
       <c r="F280" s="23"/>
     </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C281" s="24"/>
       <c r="D281" s="22"/>
       <c r="E281" s="22"/>
       <c r="F281" s="22"/>
     </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C282" s="25"/>
       <c r="D282" s="23"/>
       <c r="E282" s="23"/>
       <c r="F282" s="23"/>
     </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C283" s="24"/>
       <c r="D283" s="22"/>
       <c r="E283" s="22"/>
       <c r="F283" s="22"/>
     </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C284" s="25"/>
       <c r="D284" s="23"/>
       <c r="E284" s="23"/>
       <c r="F284" s="23"/>
     </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C285" s="24"/>
       <c r="D285" s="22"/>
       <c r="E285" s="22"/>
       <c r="F285" s="22"/>
     </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C286" s="25"/>
       <c r="D286" s="23"/>
       <c r="E286" s="23"/>
       <c r="F286" s="23"/>
     </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C287" s="24"/>
       <c r="D287" s="22"/>
       <c r="E287" s="22"/>
       <c r="F287" s="22"/>
     </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C288" s="25"/>
       <c r="D288" s="23"/>
       <c r="E288" s="23"/>
       <c r="F288" s="23"/>
     </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C289" s="24"/>
       <c r="D289" s="22"/>
       <c r="E289" s="22"/>
       <c r="F289" s="22"/>
     </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C290" s="25"/>
       <c r="D290" s="23"/>
       <c r="E290" s="23"/>
       <c r="F290" s="23"/>
     </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C291" s="24"/>
       <c r="D291" s="22"/>
       <c r="E291" s="22"/>
       <c r="F291" s="22"/>
     </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C292" s="25"/>
       <c r="D292" s="23"/>
       <c r="E292" s="23"/>
       <c r="F292" s="23"/>
     </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C293" s="24"/>
       <c r="D293" s="22"/>
       <c r="E293" s="22"/>
       <c r="F293" s="22"/>
     </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C294" s="25"/>
       <c r="D294" s="23"/>
       <c r="E294" s="23"/>
       <c r="F294" s="23"/>
     </row>
-    <row r="295" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C295" s="24"/>
       <c r="D295" s="22"/>
       <c r="E295" s="22"/>
       <c r="F295" s="22"/>
     </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C296" s="25"/>
       <c r="D296" s="23"/>
       <c r="E296" s="23"/>
       <c r="F296" s="23"/>
     </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C297" s="24"/>
       <c r="D297" s="22"/>
       <c r="E297" s="22"/>
       <c r="F297" s="22"/>
     </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C298" s="25"/>
       <c r="D298" s="23"/>
       <c r="E298" s="23"/>
       <c r="F298" s="23"/>
     </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C299" s="24"/>
       <c r="D299" s="22"/>
       <c r="E299" s="22"/>
       <c r="F299" s="22"/>
     </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C300" s="25"/>
       <c r="D300" s="23"/>
       <c r="E300" s="23"/>
       <c r="F300" s="23"/>
     </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C301" s="24"/>
       <c r="D301" s="22"/>
       <c r="E301" s="22"/>
       <c r="F301" s="22"/>
     </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C302" s="25"/>
       <c r="D302" s="23"/>
       <c r="E302" s="23"/>
       <c r="F302" s="23"/>
     </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C303" s="24"/>
       <c r="D303" s="22"/>
       <c r="E303" s="22"/>
       <c r="F303" s="22"/>
     </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C304" s="25"/>
       <c r="D304" s="23"/>
       <c r="E304" s="23"/>
       <c r="F304" s="23"/>
     </row>
-    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C305" s="24"/>
       <c r="D305" s="22"/>
       <c r="E305" s="22"/>
       <c r="F305" s="22"/>
     </row>
-    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C306" s="25"/>
       <c r="D306" s="23"/>
       <c r="E306" s="23"/>
       <c r="F306" s="23"/>
     </row>
-    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C307" s="24"/>
       <c r="D307" s="22"/>
       <c r="E307" s="22"/>
       <c r="F307" s="22"/>
     </row>
-    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C308" s="25"/>
       <c r="D308" s="23"/>
       <c r="E308" s="23"/>
       <c r="F308" s="23"/>
     </row>
-    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C309" s="24"/>
       <c r="D309" s="22"/>
       <c r="E309" s="22"/>
       <c r="F309" s="22"/>
     </row>
-    <row r="310" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C310" s="25"/>
       <c r="D310" s="23"/>
       <c r="E310" s="23"/>
       <c r="F310" s="23"/>
     </row>
-    <row r="311" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C311" s="24"/>
       <c r="D311" s="22"/>
       <c r="E311" s="22"/>
       <c r="F311" s="22"/>
     </row>
-    <row r="312" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C312" s="25"/>
       <c r="D312" s="23"/>
       <c r="E312" s="23"/>
       <c r="F312" s="23"/>
     </row>
-    <row r="313" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C313" s="24"/>
       <c r="D313" s="22"/>
       <c r="E313" s="22"/>
       <c r="F313" s="22"/>
     </row>
-    <row r="314" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C314" s="25"/>
       <c r="D314" s="23"/>
       <c r="E314" s="23"/>
       <c r="F314" s="23"/>
     </row>
-    <row r="315" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C315" s="24"/>
       <c r="D315" s="22"/>
       <c r="E315" s="22"/>
       <c r="F315" s="22"/>
     </row>
-    <row r="316" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C316" s="25"/>
       <c r="D316" s="23"/>
       <c r="E316" s="23"/>
       <c r="F316" s="23"/>
     </row>
-    <row r="317" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C317" s="24"/>
       <c r="D317" s="22"/>
       <c r="E317" s="22"/>
       <c r="F317" s="22"/>
     </row>
-    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C318" s="25"/>
       <c r="D318" s="23"/>
       <c r="E318" s="23"/>
       <c r="F318" s="23"/>
     </row>
-    <row r="319" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C319" s="24"/>
       <c r="D319" s="22"/>
       <c r="E319" s="22"/>
       <c r="F319" s="22"/>
     </row>
-    <row r="320" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C320" s="25"/>
       <c r="D320" s="23"/>
       <c r="E320" s="23"/>
       <c r="F320" s="23"/>
     </row>
-    <row r="321" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C321" s="24"/>
       <c r="D321" s="22"/>
       <c r="E321" s="22"/>
       <c r="F321" s="22"/>
     </row>
-    <row r="322" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C322" s="25"/>
       <c r="D322" s="23"/>
       <c r="E322" s="23"/>
       <c r="F322" s="23"/>
     </row>
-    <row r="323" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C323" s="24"/>
       <c r="D323" s="22"/>
       <c r="E323" s="22"/>
       <c r="F323" s="22"/>
     </row>
-    <row r="324" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C324" s="25"/>
       <c r="D324" s="23"/>
       <c r="E324" s="23"/>
       <c r="F324" s="23"/>
     </row>
-    <row r="325" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C325" s="24"/>
       <c r="D325" s="22"/>
       <c r="E325" s="22"/>
       <c r="F325" s="22"/>
     </row>
-    <row r="326" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C326" s="25"/>
       <c r="D326" s="23"/>
       <c r="E326" s="23"/>
       <c r="F326" s="23"/>
     </row>
-    <row r="327" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C327" s="24"/>
       <c r="D327" s="22"/>
       <c r="E327" s="22"/>
       <c r="F327" s="22"/>
     </row>
-    <row r="328" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C328" s="25"/>
       <c r="D328" s="23"/>
       <c r="E328" s="23"/>
       <c r="F328" s="23"/>
     </row>
-    <row r="329" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C329" s="24"/>
       <c r="D329" s="22"/>
       <c r="E329" s="22"/>
       <c r="F329" s="22"/>
     </row>
-    <row r="330" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C330" s="25"/>
       <c r="D330" s="23"/>
       <c r="E330" s="23"/>
       <c r="F330" s="23"/>
     </row>
-    <row r="331" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C331" s="24"/>
       <c r="D331" s="22"/>
       <c r="E331" s="22"/>
       <c r="F331" s="22"/>
     </row>
-    <row r="332" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C332" s="25"/>
       <c r="D332" s="23"/>
       <c r="E332" s="23"/>
       <c r="F332" s="23"/>
     </row>
-    <row r="333" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C333" s="24"/>
       <c r="D333" s="22"/>
       <c r="E333" s="22"/>
       <c r="F333" s="22"/>
     </row>
-    <row r="334" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C334" s="25"/>
       <c r="D334" s="23"/>
       <c r="E334" s="23"/>
       <c r="F334" s="23"/>
     </row>
-    <row r="335" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C335" s="24"/>
       <c r="D335" s="22"/>
       <c r="E335" s="22"/>
       <c r="F335" s="22"/>
     </row>
-    <row r="336" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C336" s="25"/>
       <c r="D336" s="23"/>
       <c r="E336" s="23"/>
       <c r="F336" s="23"/>
     </row>
-    <row r="337" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C337" s="24"/>
       <c r="D337" s="22"/>
       <c r="E337" s="22"/>
       <c r="F337" s="22"/>
     </row>
-    <row r="338" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C338" s="25"/>
       <c r="D338" s="23"/>
       <c r="E338" s="23"/>
       <c r="F338" s="23"/>
     </row>
-    <row r="339" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C339" s="24"/>
       <c r="D339" s="22"/>
       <c r="E339" s="22"/>
       <c r="F339" s="22"/>
     </row>
-    <row r="340" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C340" s="25"/>
       <c r="D340" s="23"/>
       <c r="E340" s="23"/>
       <c r="F340" s="23"/>
     </row>
-    <row r="341" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C341" s="24"/>
       <c r="D341" s="22"/>
       <c r="E341" s="22"/>
       <c r="F341" s="22"/>
     </row>
-    <row r="342" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C342" s="25"/>
       <c r="D342" s="23"/>
       <c r="E342" s="23"/>
       <c r="F342" s="23"/>
     </row>
-    <row r="343" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C343" s="24"/>
       <c r="D343" s="22"/>
       <c r="E343" s="22"/>
       <c r="F343" s="22"/>
     </row>
-    <row r="344" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C344" s="25"/>
       <c r="D344" s="23"/>
       <c r="E344" s="23"/>
       <c r="F344" s="23"/>
     </row>
-    <row r="345" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C345" s="24"/>
       <c r="D345" s="22"/>
       <c r="E345" s="22"/>
       <c r="F345" s="22"/>
     </row>
-    <row r="346" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C346" s="25"/>
       <c r="D346" s="23"/>
       <c r="E346" s="23"/>
       <c r="F346" s="23"/>
     </row>
-    <row r="347" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C347" s="24"/>
       <c r="D347" s="22"/>
       <c r="E347" s="22"/>
       <c r="F347" s="22"/>
     </row>
-    <row r="348" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C348" s="25"/>
       <c r="D348" s="23"/>
       <c r="E348" s="23"/>
       <c r="F348" s="23"/>
     </row>
-    <row r="349" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C349" s="24"/>
       <c r="D349" s="22"/>
       <c r="E349" s="22"/>
       <c r="F349" s="22"/>
     </row>
-    <row r="350" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C350" s="25"/>
       <c r="D350" s="23"/>
       <c r="E350" s="23"/>
       <c r="F350" s="23"/>
     </row>
-    <row r="351" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C351" s="24"/>
       <c r="D351" s="22"/>
       <c r="E351" s="22"/>
       <c r="F351" s="22"/>
     </row>
-    <row r="352" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C352" s="25"/>
       <c r="D352" s="23"/>
       <c r="E352" s="23"/>
       <c r="F352" s="23"/>
     </row>
-    <row r="353" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C353" s="24"/>
       <c r="D353" s="22"/>
       <c r="E353" s="22"/>
       <c r="F353" s="22"/>
     </row>
-    <row r="354" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C354" s="25"/>
       <c r="D354" s="23"/>
       <c r="E354" s="23"/>
       <c r="F354" s="23"/>
     </row>
-    <row r="355" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C355" s="24"/>
       <c r="D355" s="22"/>
       <c r="E355" s="22"/>
       <c r="F355" s="22"/>
     </row>
-    <row r="356" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C356" s="25"/>
       <c r="D356" s="23"/>
       <c r="E356" s="23"/>
       <c r="F356" s="23"/>
     </row>
-    <row r="357" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C357" s="24"/>
       <c r="D357" s="22"/>
       <c r="E357" s="22"/>
       <c r="F357" s="22"/>
     </row>
-    <row r="358" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C358" s="25"/>
       <c r="D358" s="23"/>
       <c r="E358" s="23"/>
       <c r="F358" s="23"/>
     </row>
-    <row r="359" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C359" s="24"/>
       <c r="D359" s="22"/>
       <c r="E359" s="22"/>
       <c r="F359" s="22"/>
     </row>
-    <row r="360" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C360" s="25"/>
       <c r="D360" s="23"/>
       <c r="E360" s="23"/>
       <c r="F360" s="23"/>
     </row>
-    <row r="361" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C361" s="24"/>
       <c r="D361" s="22"/>
       <c r="E361" s="22"/>
       <c r="F361" s="22"/>
     </row>
-    <row r="362" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C362" s="25"/>
       <c r="D362" s="23"/>
       <c r="E362" s="23"/>
       <c r="F362" s="23"/>
     </row>
-    <row r="363" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C363" s="24"/>
       <c r="D363" s="22"/>
       <c r="E363" s="22"/>
       <c r="F363" s="22"/>
     </row>
-    <row r="364" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C364" s="25"/>
       <c r="D364" s="23"/>
       <c r="E364" s="23"/>
       <c r="F364" s="23"/>
     </row>
-    <row r="365" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C365" s="24"/>
       <c r="D365" s="22"/>
       <c r="E365" s="22"/>
       <c r="F365" s="22"/>
     </row>
-    <row r="366" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C366" s="25"/>
       <c r="D366" s="23"/>
       <c r="E366" s="23"/>
       <c r="F366" s="23"/>
     </row>
-    <row r="367" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C367" s="24"/>
       <c r="D367" s="22"/>
       <c r="E367" s="22"/>
       <c r="F367" s="22"/>
     </row>
-    <row r="368" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C368" s="25"/>
       <c r="D368" s="23"/>
       <c r="E368" s="23"/>
       <c r="F368" s="23"/>
     </row>
-    <row r="369" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C369" s="24"/>
       <c r="D369" s="22"/>
       <c r="E369" s="22"/>
       <c r="F369" s="22"/>
     </row>
-    <row r="370" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C370" s="25"/>
       <c r="D370" s="23"/>
       <c r="E370" s="23"/>
       <c r="F370" s="23"/>
     </row>
-    <row r="371" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C371" s="24"/>
       <c r="D371" s="22"/>
       <c r="E371" s="22"/>
       <c r="F371" s="22"/>
     </row>
-    <row r="372" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C372" s="25"/>
       <c r="D372" s="23"/>
       <c r="E372" s="23"/>
       <c r="F372" s="23"/>
     </row>
-    <row r="373" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C373" s="24"/>
       <c r="D373" s="22"/>
       <c r="E373" s="22"/>
       <c r="F373" s="22"/>
     </row>
-    <row r="374" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C374" s="25"/>
       <c r="D374" s="23"/>
       <c r="E374" s="23"/>
       <c r="F374" s="23"/>
     </row>
-    <row r="375" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C375" s="24"/>
       <c r="D375" s="22"/>
       <c r="E375" s="22"/>
       <c r="F375" s="22"/>
     </row>
-    <row r="376" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C376" s="25"/>
       <c r="D376" s="23"/>
       <c r="E376" s="23"/>
       <c r="F376" s="23"/>
     </row>
-    <row r="377" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C377" s="24"/>
       <c r="D377" s="22"/>
       <c r="E377" s="22"/>
       <c r="F377" s="22"/>
     </row>
-    <row r="378" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C378" s="25"/>
       <c r="D378" s="23"/>
       <c r="E378" s="23"/>
       <c r="F378" s="23"/>
     </row>
-    <row r="379" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C379" s="24"/>
       <c r="D379" s="22"/>
       <c r="E379" s="22"/>
       <c r="F379" s="22"/>
     </row>
-    <row r="380" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C380" s="25"/>
       <c r="D380" s="23"/>
       <c r="E380" s="23"/>
       <c r="F380" s="23"/>
     </row>
-    <row r="381" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C381" s="24"/>
       <c r="D381" s="22"/>
       <c r="E381" s="22"/>
       <c r="F381" s="22"/>
     </row>
-    <row r="382" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C382" s="25"/>
       <c r="D382" s="23"/>
       <c r="E382" s="23"/>
       <c r="F382" s="23"/>
     </row>
-    <row r="383" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C383" s="24"/>
       <c r="D383" s="22"/>
       <c r="E383" s="22"/>
       <c r="F383" s="22"/>
     </row>
-    <row r="384" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C384" s="25"/>
       <c r="D384" s="23"/>
       <c r="E384" s="23"/>
       <c r="F384" s="23"/>
     </row>
-    <row r="385" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C385" s="24"/>
       <c r="D385" s="22"/>
       <c r="E385" s="22"/>
       <c r="F385" s="22"/>
     </row>
-    <row r="386" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C386" s="25"/>
       <c r="D386" s="23"/>
       <c r="E386" s="23"/>
       <c r="F386" s="23"/>
     </row>
-    <row r="387" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C387" s="24"/>
       <c r="D387" s="22"/>
       <c r="E387" s="22"/>
       <c r="F387" s="22"/>
     </row>
-    <row r="388" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C388" s="25"/>
       <c r="D388" s="23"/>
       <c r="E388" s="23"/>
       <c r="F388" s="23"/>
     </row>
-    <row r="389" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C389" s="24"/>
       <c r="D389" s="22"/>
       <c r="E389" s="22"/>
       <c r="F389" s="22"/>
     </row>
-    <row r="390" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C390" s="25"/>
       <c r="D390" s="23"/>
       <c r="E390" s="23"/>
       <c r="F390" s="23"/>
     </row>
-    <row r="391" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C391" s="24"/>
       <c r="D391" s="22"/>
       <c r="E391" s="22"/>
       <c r="F391" s="22"/>
     </row>
-    <row r="392" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C392" s="25"/>
       <c r="D392" s="23"/>
       <c r="E392" s="23"/>
       <c r="F392" s="23"/>
     </row>
-    <row r="393" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C393" s="24"/>
       <c r="D393" s="22"/>
       <c r="E393" s="22"/>
       <c r="F393" s="22"/>
     </row>
-    <row r="394" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C394" s="25"/>
       <c r="D394" s="23"/>
       <c r="E394" s="23"/>
       <c r="F394" s="23"/>
     </row>
-    <row r="395" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C395" s="24"/>
       <c r="D395" s="22"/>
       <c r="E395" s="22"/>
       <c r="F395" s="22"/>
     </row>
-    <row r="396" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C396" s="25"/>
       <c r="D396" s="23"/>
       <c r="E396" s="23"/>
       <c r="F396" s="23"/>
     </row>
-    <row r="397" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C397" s="24"/>
       <c r="D397" s="22"/>
       <c r="E397" s="22"/>
       <c r="F397" s="22"/>
     </row>
-    <row r="398" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C398" s="25"/>
       <c r="D398" s="23"/>
       <c r="E398" s="23"/>
       <c r="F398" s="23"/>
     </row>
-    <row r="399" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C399" s="24"/>
       <c r="D399" s="22"/>
       <c r="E399" s="22"/>
       <c r="F399" s="22"/>
     </row>
-    <row r="400" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C400" s="25"/>
       <c r="D400" s="23"/>
       <c r="E400" s="23"/>
       <c r="F400" s="23"/>
     </row>
-    <row r="401" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C401" s="24"/>
       <c r="D401" s="22"/>
       <c r="E401" s="22"/>
       <c r="F401" s="22"/>
     </row>
-    <row r="402" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C402" s="25"/>
       <c r="D402" s="23"/>
       <c r="E402" s="23"/>
       <c r="F402" s="23"/>
     </row>
-    <row r="403" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C403" s="24"/>
       <c r="D403" s="22"/>
       <c r="E403" s="22"/>
       <c r="F403" s="22"/>
     </row>
-    <row r="404" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C404" s="25"/>
       <c r="D404" s="23"/>
       <c r="E404" s="23"/>
       <c r="F404" s="23"/>
     </row>
-    <row r="405" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C405" s="24"/>
       <c r="D405" s="22"/>
       <c r="E405" s="22"/>
       <c r="F405" s="22"/>
     </row>
-    <row r="406" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C406" s="25"/>
       <c r="D406" s="23"/>
       <c r="E406" s="23"/>
       <c r="F406" s="23"/>
     </row>
-    <row r="407" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C407" s="24"/>
       <c r="D407" s="22"/>
       <c r="E407" s="22"/>
       <c r="F407" s="22"/>
     </row>
-    <row r="408" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C408" s="25"/>
       <c r="D408" s="23"/>
       <c r="E408" s="23"/>
       <c r="F408" s="23"/>
     </row>
-    <row r="409" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C409" s="24"/>
       <c r="D409" s="22"/>
       <c r="E409" s="22"/>
       <c r="F409" s="22"/>
     </row>
-    <row r="410" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C410" s="25"/>
       <c r="D410" s="23"/>
       <c r="E410" s="23"/>
       <c r="F410" s="23"/>
     </row>
-    <row r="411" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C411" s="24"/>
       <c r="D411" s="22"/>
       <c r="E411" s="22"/>
       <c r="F411" s="22"/>
     </row>
-    <row r="412" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C412" s="25"/>
       <c r="D412" s="23"/>
       <c r="E412" s="23"/>
       <c r="F412" s="23"/>
     </row>
-    <row r="413" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C413" s="24"/>
       <c r="D413" s="22"/>
       <c r="E413" s="22"/>
       <c r="F413" s="22"/>
     </row>
-    <row r="414" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C414" s="25"/>
       <c r="D414" s="23"/>
       <c r="E414" s="23"/>
       <c r="F414" s="23"/>
     </row>
-    <row r="415" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C415" s="24"/>
       <c r="D415" s="22"/>
       <c r="E415" s="22"/>
       <c r="F415" s="22"/>
     </row>
-    <row r="416" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C416" s="25"/>
       <c r="D416" s="23"/>
       <c r="E416" s="23"/>
       <c r="F416" s="23"/>
     </row>
-    <row r="417" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C417" s="24"/>
       <c r="D417" s="22"/>
       <c r="E417" s="22"/>
       <c r="F417" s="22"/>
     </row>
-    <row r="418" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C418" s="25"/>
       <c r="D418" s="23"/>
       <c r="E418" s="23"/>
       <c r="F418" s="23"/>
     </row>
-    <row r="419" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C419" s="24"/>
       <c r="D419" s="22"/>
       <c r="E419" s="22"/>
       <c r="F419" s="22"/>
     </row>
-    <row r="420" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C420" s="25"/>
       <c r="D420" s="23"/>
       <c r="E420" s="23"/>
       <c r="F420" s="23"/>
     </row>
-    <row r="421" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C421" s="24"/>
       <c r="D421" s="22"/>
       <c r="E421" s="22"/>
       <c r="F421" s="22"/>
     </row>
-    <row r="422" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C422" s="25"/>
       <c r="D422" s="23"/>
       <c r="E422" s="23"/>
       <c r="F422" s="23"/>
     </row>
-    <row r="423" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C423" s="24"/>
       <c r="D423" s="22"/>
       <c r="E423" s="22"/>
       <c r="F423" s="22"/>
     </row>
-    <row r="424" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C424" s="25"/>
       <c r="D424" s="23"/>
       <c r="E424" s="23"/>
       <c r="F424" s="23"/>
     </row>
-    <row r="425" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C425" s="24"/>
       <c r="D425" s="22"/>
       <c r="E425" s="22"/>
       <c r="F425" s="22"/>
     </row>
-    <row r="426" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C426" s="25"/>
       <c r="D426" s="23"/>
       <c r="E426" s="23"/>
       <c r="F426" s="23"/>
     </row>
-    <row r="427" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C427" s="24"/>
       <c r="D427" s="22"/>
       <c r="E427" s="22"/>
       <c r="F427" s="22"/>
     </row>
-    <row r="428" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C428" s="25"/>
       <c r="D428" s="23"/>
       <c r="E428" s="23"/>
       <c r="F428" s="23"/>
     </row>
-    <row r="429" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C429" s="24"/>
       <c r="D429" s="22"/>
       <c r="E429" s="22"/>
       <c r="F429" s="22"/>
     </row>
-    <row r="430" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C430" s="25"/>
       <c r="D430" s="23"/>
       <c r="E430" s="23"/>
       <c r="F430" s="23"/>
     </row>
-    <row r="431" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C431" s="24"/>
       <c r="D431" s="22"/>
       <c r="E431" s="22"/>
       <c r="F431" s="22"/>
     </row>
-    <row r="432" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C432" s="25"/>
       <c r="D432" s="23"/>
       <c r="E432" s="23"/>
       <c r="F432" s="23"/>
     </row>
-    <row r="433" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C433" s="24"/>
       <c r="D433" s="22"/>
       <c r="E433" s="22"/>
       <c r="F433" s="22"/>
     </row>
-    <row r="434" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C434" s="25"/>
       <c r="D434" s="23"/>
       <c r="E434" s="23"/>
       <c r="F434" s="23"/>
     </row>
-    <row r="435" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C435" s="24"/>
       <c r="D435" s="22"/>
       <c r="E435" s="22"/>
       <c r="F435" s="22"/>
     </row>
-    <row r="436" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C436" s="25"/>
       <c r="D436" s="23"/>
       <c r="E436" s="23"/>
       <c r="F436" s="23"/>
     </row>
-    <row r="437" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C437" s="24"/>
       <c r="D437" s="22"/>
       <c r="E437" s="22"/>
       <c r="F437" s="22"/>
     </row>
-    <row r="438" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C438" s="25"/>
       <c r="D438" s="23"/>
       <c r="E438" s="23"/>
       <c r="F438" s="23"/>
     </row>
-    <row r="439" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C439" s="24"/>
       <c r="D439" s="22"/>
       <c r="E439" s="22"/>
       <c r="F439" s="22"/>
     </row>
-    <row r="440" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C440" s="25"/>
       <c r="D440" s="23"/>
       <c r="E440" s="23"/>
       <c r="F440" s="23"/>
     </row>
-    <row r="441" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C441" s="24"/>
       <c r="D441" s="22"/>
       <c r="E441" s="22"/>
       <c r="F441" s="22"/>
     </row>
-    <row r="442" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C442" s="25"/>
       <c r="D442" s="23"/>
       <c r="E442" s="23"/>
       <c r="F442" s="23"/>
     </row>
-    <row r="443" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C443" s="24"/>
       <c r="D443" s="22"/>
       <c r="E443" s="22"/>
       <c r="F443" s="22"/>
     </row>
-    <row r="444" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C444" s="25"/>
       <c r="D444" s="23"/>
       <c r="E444" s="23"/>
       <c r="F444" s="23"/>
     </row>
-    <row r="445" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C445" s="24"/>
       <c r="D445" s="22"/>
       <c r="E445" s="22"/>
       <c r="F445" s="22"/>
     </row>
-    <row r="446" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C446" s="25"/>
       <c r="D446" s="23"/>
       <c r="E446" s="23"/>
       <c r="F446" s="23"/>
     </row>
-    <row r="447" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C447" s="24"/>
       <c r="D447" s="22"/>
       <c r="E447" s="22"/>
       <c r="F447" s="22"/>
     </row>
-    <row r="448" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C448" s="25"/>
       <c r="D448" s="23"/>
       <c r="E448" s="23"/>
       <c r="F448" s="23"/>
     </row>
-    <row r="449" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C449" s="24"/>
       <c r="D449" s="22"/>
       <c r="E449" s="22"/>
       <c r="F449" s="22"/>
     </row>
-    <row r="450" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C450" s="25"/>
       <c r="D450" s="23"/>
       <c r="E450" s="23"/>
       <c r="F450" s="23"/>
     </row>
-    <row r="451" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C451" s="24"/>
       <c r="D451" s="22"/>
       <c r="E451" s="22"/>
       <c r="F451" s="22"/>
     </row>
-    <row r="452" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C452" s="25"/>
       <c r="D452" s="23"/>
       <c r="E452" s="23"/>
       <c r="F452" s="23"/>
     </row>
-    <row r="453" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C453" s="24"/>
       <c r="D453" s="22"/>
       <c r="E453" s="22"/>
       <c r="F453" s="22"/>
     </row>
-    <row r="454" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C454" s="25"/>
       <c r="D454" s="23"/>
       <c r="E454" s="23"/>
       <c r="F454" s="23"/>
     </row>
-    <row r="455" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C455" s="24"/>
       <c r="D455" s="22"/>
       <c r="E455" s="22"/>
       <c r="F455" s="22"/>
     </row>
-    <row r="456" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C456" s="25"/>
       <c r="D456" s="23"/>
       <c r="E456" s="23"/>
       <c r="F456" s="23"/>
     </row>
-    <row r="457" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C457" s="24"/>
       <c r="D457" s="22"/>
       <c r="E457" s="22"/>
       <c r="F457" s="22"/>
     </row>
-    <row r="458" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C458" s="25"/>
       <c r="D458" s="23"/>
       <c r="E458" s="23"/>
       <c r="F458" s="23"/>
     </row>
-    <row r="459" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C459" s="24"/>
       <c r="D459" s="22"/>
       <c r="E459" s="22"/>
       <c r="F459" s="22"/>
     </row>
-    <row r="460" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C460" s="25"/>
       <c r="D460" s="23"/>
       <c r="E460" s="23"/>
       <c r="F460" s="23"/>
     </row>
-    <row r="461" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C461" s="24"/>
       <c r="D461" s="22"/>
       <c r="E461" s="22"/>
       <c r="F461" s="22"/>
     </row>
-    <row r="462" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C462" s="25"/>
       <c r="D462" s="23"/>
       <c r="E462" s="23"/>
       <c r="F462" s="23"/>
     </row>
-    <row r="463" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C463" s="24"/>
       <c r="D463" s="22"/>
       <c r="E463" s="22"/>
       <c r="F463" s="22"/>
     </row>
-    <row r="464" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C464" s="25"/>
       <c r="D464" s="23"/>
       <c r="E464" s="23"/>
       <c r="F464" s="23"/>
     </row>
-    <row r="465" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C465" s="24"/>
       <c r="D465" s="22"/>
       <c r="E465" s="22"/>
       <c r="F465" s="22"/>
     </row>
-    <row r="466" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C466" s="25"/>
       <c r="D466" s="23"/>
       <c r="E466" s="23"/>
       <c r="F466" s="23"/>
     </row>
-    <row r="467" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C467" s="24"/>
       <c r="D467" s="22"/>
       <c r="E467" s="22"/>
       <c r="F467" s="22"/>
     </row>
-    <row r="468" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C468" s="25"/>
       <c r="D468" s="23"/>
       <c r="E468" s="23"/>
       <c r="F468" s="23"/>
     </row>
-    <row r="469" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C469" s="24"/>
       <c r="D469" s="22"/>
       <c r="E469" s="22"/>
       <c r="F469" s="22"/>
     </row>
-    <row r="470" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C470" s="25"/>
       <c r="D470" s="23"/>
       <c r="E470" s="23"/>
       <c r="F470" s="23"/>
     </row>
-    <row r="471" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C471" s="24"/>
       <c r="D471" s="22"/>
       <c r="E471" s="22"/>
       <c r="F471" s="22"/>
     </row>
-    <row r="472" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C472" s="25"/>
       <c r="D472" s="23"/>
       <c r="E472" s="23"/>
       <c r="F472" s="23"/>
     </row>
-    <row r="473" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C473" s="24"/>
       <c r="D473" s="22"/>
       <c r="E473" s="22"/>
       <c r="F473" s="22"/>
     </row>
-    <row r="474" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C474" s="25"/>
       <c r="D474" s="23"/>
       <c r="E474" s="23"/>
       <c r="F474" s="23"/>
     </row>
-    <row r="475" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C475" s="24"/>
       <c r="D475" s="22"/>
       <c r="E475" s="22"/>
       <c r="F475" s="22"/>
     </row>
-    <row r="476" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C476" s="25"/>
       <c r="D476" s="23"/>
       <c r="E476" s="23"/>
       <c r="F476" s="23"/>
     </row>
-    <row r="477" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C477" s="24"/>
       <c r="D477" s="22"/>
       <c r="E477" s="22"/>
       <c r="F477" s="22"/>
     </row>
-    <row r="478" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C478" s="25"/>
       <c r="D478" s="23"/>
       <c r="E478" s="23"/>
       <c r="F478" s="23"/>
     </row>
-    <row r="479" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C479" s="24"/>
       <c r="D479" s="22"/>
       <c r="E479" s="22"/>
       <c r="F479" s="22"/>
     </row>
-    <row r="480" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C480" s="25"/>
       <c r="D480" s="23"/>
       <c r="E480" s="23"/>
       <c r="F480" s="23"/>
     </row>
-    <row r="481" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C481" s="24"/>
       <c r="D481" s="22"/>
       <c r="E481" s="22"/>
       <c r="F481" s="22"/>
     </row>
-    <row r="482" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C482" s="25"/>
       <c r="D482" s="23"/>
       <c r="E482" s="23"/>
       <c r="F482" s="23"/>
     </row>
-    <row r="483" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C483" s="24"/>
       <c r="D483" s="22"/>
       <c r="E483" s="22"/>
       <c r="F483" s="22"/>
     </row>
-    <row r="484" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C484" s="25"/>
       <c r="D484" s="23"/>
       <c r="E484" s="23"/>
       <c r="F484" s="23"/>
     </row>
-    <row r="485" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C485" s="24"/>
       <c r="D485" s="22"/>
       <c r="E485" s="22"/>
       <c r="F485" s="22"/>
     </row>
-    <row r="486" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C486" s="25"/>
       <c r="D486" s="23"/>
       <c r="E486" s="23"/>
       <c r="F486" s="23"/>
     </row>
-    <row r="487" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C487" s="24"/>
       <c r="D487" s="22"/>
       <c r="E487" s="22"/>
       <c r="F487" s="22"/>
     </row>
-    <row r="488" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C488" s="25"/>
       <c r="D488" s="23"/>
       <c r="E488" s="23"/>
       <c r="F488" s="23"/>
     </row>
-    <row r="489" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C489" s="24"/>
       <c r="D489" s="22"/>
       <c r="E489" s="22"/>
       <c r="F489" s="22"/>
     </row>
-    <row r="490" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C490" s="25"/>
       <c r="D490" s="23"/>
       <c r="E490" s="23"/>
       <c r="F490" s="23"/>
     </row>
-    <row r="491" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C491" s="24"/>
       <c r="D491" s="22"/>
       <c r="E491" s="22"/>
       <c r="F491" s="22"/>
     </row>
-    <row r="492" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C492" s="25"/>
       <c r="D492" s="23"/>
       <c r="E492" s="23"/>
       <c r="F492" s="23"/>
     </row>
-    <row r="493" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C493" s="24"/>
       <c r="D493" s="22"/>
       <c r="E493" s="22"/>
       <c r="F493" s="22"/>
     </row>
-    <row r="494" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C494" s="25"/>
       <c r="D494" s="23"/>
       <c r="E494" s="23"/>
       <c r="F494" s="23"/>
     </row>
-    <row r="495" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C495" s="24"/>
       <c r="D495" s="22"/>
       <c r="E495" s="22"/>
       <c r="F495" s="22"/>
     </row>
-    <row r="496" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C496" s="25"/>
       <c r="D496" s="23"/>
       <c r="E496" s="23"/>
       <c r="F496" s="23"/>
     </row>
-    <row r="497" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C497" s="24"/>
       <c r="D497" s="22"/>
       <c r="E497" s="22"/>
       <c r="F497" s="22"/>
     </row>
-    <row r="498" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C498" s="25"/>
       <c r="D498" s="23"/>
       <c r="E498" s="23"/>
       <c r="F498" s="23"/>
     </row>
-    <row r="499" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C499" s="24"/>
       <c r="D499" s="22"/>
       <c r="E499" s="22"/>
       <c r="F499" s="22"/>
     </row>
-    <row r="500" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C500" s="25"/>
       <c r="D500" s="23"/>
       <c r="E500" s="23"/>
       <c r="F500" s="23"/>
     </row>
-    <row r="501" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C501" s="24"/>
       <c r="D501" s="22"/>
       <c r="E501" s="22"/>
       <c r="F501" s="22"/>
     </row>
-    <row r="502" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C502" s="25"/>
       <c r="D502" s="23"/>
       <c r="E502" s="23"/>
       <c r="F502" s="23"/>
     </row>
-    <row r="503" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C503" s="24"/>
       <c r="D503" s="22"/>
       <c r="E503" s="22"/>
       <c r="F503" s="22"/>
     </row>
-    <row r="504" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C504" s="25"/>
       <c r="D504" s="23"/>
       <c r="E504" s="23"/>
       <c r="F504" s="23"/>
     </row>
-    <row r="505" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C505" s="24"/>
       <c r="D505" s="22"/>
       <c r="E505" s="22"/>
       <c r="F505" s="22"/>
     </row>
-    <row r="506" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C506" s="25"/>
       <c r="D506" s="23"/>
       <c r="E506" s="23"/>
       <c r="F506" s="23"/>
     </row>
-    <row r="507" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C507" s="24"/>
       <c r="D507" s="22"/>
       <c r="E507" s="22"/>
       <c r="F507" s="22"/>
     </row>
-    <row r="508" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C508" s="25"/>
       <c r="D508" s="23"/>
       <c r="E508" s="23"/>
       <c r="F508" s="23"/>
     </row>
-    <row r="509" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C509" s="24"/>
       <c r="D509" s="22"/>
       <c r="E509" s="22"/>
       <c r="F509" s="22"/>
     </row>
-    <row r="510" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C510" s="25"/>
       <c r="D510" s="23"/>
       <c r="E510" s="23"/>
       <c r="F510" s="23"/>
     </row>
-    <row r="511" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C511" s="24"/>
       <c r="D511" s="22"/>
       <c r="E511" s="22"/>
       <c r="F511" s="22"/>
     </row>
-    <row r="512" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C512" s="25"/>
       <c r="D512" s="23"/>
       <c r="E512" s="23"/>
       <c r="F512" s="23"/>
     </row>
-    <row r="513" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C513" s="24"/>
       <c r="D513" s="22"/>
       <c r="E513" s="22"/>
       <c r="F513" s="22"/>
     </row>
-    <row r="514" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C514" s="25"/>
       <c r="D514" s="23"/>
       <c r="E514" s="23"/>
       <c r="F514" s="23"/>
     </row>
-    <row r="515" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C515" s="24"/>
       <c r="D515" s="22"/>
       <c r="E515" s="22"/>
       <c r="F515" s="22"/>
     </row>
-    <row r="516" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C516" s="25"/>
       <c r="D516" s="23"/>
       <c r="E516" s="23"/>
       <c r="F516" s="23"/>
     </row>
-    <row r="517" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C517" s="24"/>
       <c r="D517" s="22"/>
       <c r="E517" s="22"/>
       <c r="F517" s="22"/>
     </row>
-    <row r="518" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C518" s="25"/>
       <c r="D518" s="23"/>
       <c r="E518" s="23"/>
       <c r="F518" s="23"/>
     </row>
-    <row r="519" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C519" s="24"/>
       <c r="D519" s="22"/>
       <c r="E519" s="22"/>
       <c r="F519" s="22"/>
     </row>
-    <row r="520" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C520" s="25"/>
       <c r="D520" s="23"/>
       <c r="E520" s="23"/>
       <c r="F520" s="23"/>
     </row>
-    <row r="521" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C521" s="24"/>
       <c r="D521" s="22"/>
       <c r="E521" s="22"/>
       <c r="F521" s="22"/>
     </row>
-    <row r="522" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C522" s="25"/>
       <c r="D522" s="23"/>
       <c r="E522" s="23"/>
       <c r="F522" s="23"/>
     </row>
-    <row r="523" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C523" s="24"/>
       <c r="D523" s="22"/>
       <c r="E523" s="22"/>
       <c r="F523" s="22"/>
     </row>
-    <row r="524" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C524" s="25"/>
       <c r="D524" s="23"/>
       <c r="E524" s="23"/>
       <c r="F524" s="23"/>
     </row>
-    <row r="525" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C525" s="24"/>
       <c r="D525" s="22"/>
       <c r="E525" s="22"/>
       <c r="F525" s="22"/>
     </row>
-    <row r="526" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C526" s="25"/>
       <c r="D526" s="23"/>
       <c r="E526" s="23"/>
       <c r="F526" s="23"/>
     </row>
-    <row r="527" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C527" s="24"/>
       <c r="D527" s="22"/>
       <c r="E527" s="22"/>
       <c r="F527" s="22"/>
     </row>
-    <row r="528" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C528" s="25"/>
       <c r="D528" s="23"/>
       <c r="E528" s="23"/>
       <c r="F528" s="23"/>
     </row>
-    <row r="529" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C529" s="24"/>
       <c r="D529" s="22"/>
       <c r="E529" s="22"/>
       <c r="F529" s="22"/>
     </row>
-    <row r="530" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C530" s="25"/>
       <c r="D530" s="23"/>
       <c r="E530" s="23"/>
       <c r="F530" s="23"/>
     </row>
-    <row r="531" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C531" s="24"/>
       <c r="D531" s="22"/>
       <c r="E531" s="22"/>
       <c r="F531" s="22"/>
     </row>
-    <row r="532" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C532" s="25"/>
       <c r="D532" s="23"/>
       <c r="E532" s="23"/>
       <c r="F532" s="23"/>
     </row>
-    <row r="533" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C533" s="24"/>
       <c r="D533" s="22"/>
       <c r="E533" s="22"/>
       <c r="F533" s="22"/>
     </row>
-    <row r="534" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C534" s="25"/>
       <c r="D534" s="23"/>
       <c r="E534" s="23"/>
       <c r="F534" s="23"/>
     </row>
-    <row r="535" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C535" s="24"/>
       <c r="D535" s="22"/>
       <c r="E535" s="22"/>
       <c r="F535" s="22"/>
     </row>
-    <row r="536" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C536" s="25"/>
       <c r="D536" s="23"/>
       <c r="E536" s="23"/>
       <c r="F536" s="23"/>
     </row>
-    <row r="537" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C537" s="24"/>
       <c r="D537" s="22"/>
       <c r="E537" s="22"/>
       <c r="F537" s="22"/>
     </row>
-    <row r="538" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C538" s="25"/>
       <c r="D538" s="23"/>
       <c r="E538" s="23"/>
       <c r="F538" s="23"/>
     </row>
-    <row r="539" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C539" s="24"/>
       <c r="D539" s="22"/>
       <c r="E539" s="22"/>
       <c r="F539" s="22"/>
     </row>
-    <row r="540" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C540" s="25"/>
       <c r="D540" s="23"/>
       <c r="E540" s="23"/>
       <c r="F540" s="23"/>
     </row>
-    <row r="541" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C541" s="24"/>
       <c r="D541" s="22"/>
       <c r="E541" s="22"/>
       <c r="F541" s="22"/>
     </row>
-    <row r="542" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C542" s="25"/>
       <c r="D542" s="23"/>
       <c r="E542" s="23"/>
       <c r="F542" s="23"/>
     </row>
-    <row r="543" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C543" s="24"/>
       <c r="D543" s="22"/>
       <c r="E543" s="22"/>
       <c r="F543" s="22"/>
     </row>
-    <row r="544" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C544" s="25"/>
       <c r="D544" s="23"/>
       <c r="E544" s="23"/>
       <c r="F544" s="23"/>
     </row>
-    <row r="545" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C545" s="24"/>
       <c r="D545" s="22"/>
       <c r="E545" s="22"/>
       <c r="F545" s="22"/>
     </row>
-    <row r="546" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C546" s="25"/>
       <c r="D546" s="23"/>
       <c r="E546" s="23"/>
       <c r="F546" s="23"/>
     </row>
-    <row r="547" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C547" s="24"/>
       <c r="D547" s="22"/>
       <c r="E547" s="22"/>
       <c r="F547" s="22"/>
     </row>
-    <row r="548" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C548" s="25"/>
       <c r="D548" s="23"/>
       <c r="E548" s="23"/>
       <c r="F548" s="23"/>
     </row>
-    <row r="549" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C549" s="24"/>
       <c r="D549" s="22"/>
       <c r="E549" s="22"/>
       <c r="F549" s="22"/>
     </row>
-    <row r="550" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C550" s="25"/>
       <c r="D550" s="23"/>
       <c r="E550" s="23"/>
       <c r="F550" s="23"/>
     </row>
-    <row r="551" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C551" s="24"/>
       <c r="D551" s="22"/>
       <c r="E551" s="22"/>
       <c r="F551" s="22"/>
     </row>
-    <row r="552" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C552" s="25"/>
       <c r="D552" s="23"/>
       <c r="E552" s="23"/>
       <c r="F552" s="23"/>
     </row>
-    <row r="553" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C553" s="24"/>
       <c r="D553" s="22"/>
       <c r="E553" s="22"/>
       <c r="F553" s="22"/>
     </row>
-    <row r="554" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C554" s="25"/>
       <c r="D554" s="23"/>
       <c r="E554" s="23"/>
       <c r="F554" s="23"/>
     </row>
-    <row r="555" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C555" s="24"/>
       <c r="D555" s="22"/>
       <c r="E555" s="22"/>
       <c r="F555" s="22"/>
     </row>
-    <row r="556" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C556" s="25"/>
       <c r="D556" s="23"/>
       <c r="E556" s="23"/>
       <c r="F556" s="23"/>
     </row>
-    <row r="557" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C557" s="24"/>
       <c r="D557" s="22"/>
       <c r="E557" s="22"/>
       <c r="F557" s="22"/>
     </row>
-    <row r="558" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C558" s="25"/>
       <c r="D558" s="23"/>
       <c r="E558" s="23"/>
       <c r="F558" s="23"/>
     </row>
-    <row r="559" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C559" s="24"/>
       <c r="D559" s="22"/>
       <c r="E559" s="22"/>
       <c r="F559" s="22"/>
     </row>
-    <row r="560" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C560" s="25"/>
       <c r="D560" s="23"/>
       <c r="E560" s="23"/>
       <c r="F560" s="23"/>
     </row>
-    <row r="561" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C561" s="24"/>
       <c r="D561" s="22"/>
       <c r="E561" s="22"/>
       <c r="F561" s="22"/>
     </row>
-    <row r="562" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C562" s="25"/>
       <c r="D562" s="23"/>
       <c r="E562" s="23"/>
       <c r="F562" s="23"/>
     </row>
-    <row r="563" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C563" s="24"/>
       <c r="D563" s="22"/>
       <c r="E563" s="22"/>
       <c r="F563" s="22"/>
     </row>
-    <row r="564" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C564" s="25"/>
       <c r="D564" s="23"/>
       <c r="E564" s="23"/>
       <c r="F564" s="23"/>
     </row>
-    <row r="565" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C565" s="24"/>
       <c r="D565" s="22"/>
       <c r="E565" s="22"/>
       <c r="F565" s="22"/>
     </row>
-    <row r="566" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C566" s="25"/>
       <c r="D566" s="23"/>
       <c r="E566" s="23"/>
       <c r="F566" s="23"/>
     </row>
-    <row r="567" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C567" s="24"/>
       <c r="D567" s="22"/>
       <c r="E567" s="22"/>
       <c r="F567" s="22"/>
     </row>
-    <row r="568" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C568" s="25"/>
       <c r="D568" s="23"/>
       <c r="E568" s="23"/>
       <c r="F568" s="23"/>
     </row>
-    <row r="569" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C569" s="24"/>
       <c r="D569" s="22"/>
       <c r="E569" s="22"/>
       <c r="F569" s="22"/>
     </row>
-    <row r="570" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C570" s="25"/>
       <c r="D570" s="23"/>
       <c r="E570" s="23"/>
       <c r="F570" s="23"/>
     </row>
-    <row r="571" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C571" s="24"/>
       <c r="D571" s="22"/>
       <c r="E571" s="22"/>
       <c r="F571" s="22"/>
     </row>
-    <row r="572" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C572" s="25"/>
       <c r="D572" s="23"/>
       <c r="E572" s="23"/>
       <c r="F572" s="23"/>
     </row>
-    <row r="573" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C573" s="24"/>
       <c r="D573" s="22"/>
       <c r="E573" s="22"/>
       <c r="F573" s="22"/>
     </row>
-    <row r="574" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C574" s="25"/>
       <c r="D574" s="23"/>
       <c r="E574" s="23"/>
       <c r="F574" s="23"/>
     </row>
-    <row r="575" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C575" s="24"/>
       <c r="D575" s="22"/>
       <c r="E575" s="22"/>
       <c r="F575" s="22"/>
     </row>
-    <row r="576" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C576" s="25"/>
       <c r="D576" s="23"/>
       <c r="E576" s="23"/>
       <c r="F576" s="23"/>
     </row>
-    <row r="577" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C577" s="24"/>
       <c r="D577" s="22"/>
       <c r="E577" s="22"/>
       <c r="F577" s="22"/>
     </row>
-    <row r="578" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C578" s="25"/>
       <c r="D578" s="23"/>
       <c r="E578" s="23"/>
       <c r="F578" s="23"/>
     </row>
-    <row r="579" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C579" s="24"/>
       <c r="D579" s="22"/>
       <c r="E579" s="22"/>
       <c r="F579" s="22"/>
     </row>
-    <row r="580" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C580" s="25"/>
       <c r="D580" s="23"/>
       <c r="E580" s="23"/>
       <c r="F580" s="23"/>
     </row>
-    <row r="581" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C581" s="24"/>
       <c r="D581" s="22"/>
       <c r="E581" s="22"/>
       <c r="F581" s="22"/>
     </row>
-    <row r="582" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C582" s="25"/>
       <c r="D582" s="23"/>
       <c r="E582" s="23"/>
       <c r="F582" s="23"/>
     </row>
-    <row r="583" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C583" s="24"/>
       <c r="D583" s="22"/>
       <c r="E583" s="22"/>
       <c r="F583" s="22"/>
     </row>
-    <row r="584" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C584" s="25"/>
       <c r="D584" s="23"/>
       <c r="E584" s="23"/>
       <c r="F584" s="23"/>
     </row>
-    <row r="585" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C585" s="24"/>
       <c r="D585" s="22"/>
       <c r="E585" s="22"/>
       <c r="F585" s="22"/>
     </row>
-    <row r="586" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C586" s="25"/>
       <c r="D586" s="23"/>
       <c r="E586" s="23"/>
       <c r="F586" s="23"/>
     </row>
-    <row r="587" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C587" s="24"/>
       <c r="D587" s="22"/>
       <c r="E587" s="22"/>
       <c r="F587" s="22"/>
     </row>
-    <row r="588" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C588" s="25"/>
       <c r="D588" s="23"/>
       <c r="E588" s="23"/>
       <c r="F588" s="23"/>
     </row>
-    <row r="589" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C589" s="24"/>
       <c r="D589" s="22"/>
       <c r="E589" s="22"/>
       <c r="F589" s="22"/>
     </row>
-    <row r="590" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C590" s="25"/>
       <c r="D590" s="23"/>
       <c r="E590" s="23"/>
       <c r="F590" s="23"/>
     </row>
-    <row r="591" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C591" s="24"/>
       <c r="D591" s="22"/>
       <c r="E591" s="22"/>
       <c r="F591" s="22"/>
     </row>
-    <row r="592" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C592" s="25"/>
       <c r="D592" s="23"/>
       <c r="E592" s="23"/>
       <c r="F592" s="23"/>
     </row>
-    <row r="593" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C593" s="24"/>
       <c r="D593" s="22"/>
       <c r="E593" s="22"/>
       <c r="F593" s="22"/>
     </row>
-    <row r="594" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C594" s="25"/>
       <c r="D594" s="23"/>
       <c r="E594" s="23"/>
       <c r="F594" s="23"/>
     </row>
-    <row r="595" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C595" s="24"/>
       <c r="D595" s="22"/>
       <c r="E595" s="22"/>
       <c r="F595" s="22"/>
     </row>
-    <row r="596" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C596" s="25"/>
       <c r="D596" s="23"/>
       <c r="E596" s="23"/>
       <c r="F596" s="23"/>
     </row>
-    <row r="597" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C597" s="24"/>
       <c r="D597" s="22"/>
       <c r="E597" s="22"/>
       <c r="F597" s="22"/>
     </row>
-    <row r="598" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C598" s="25"/>
       <c r="D598" s="23"/>
       <c r="E598" s="23"/>
       <c r="F598" s="23"/>
     </row>
-    <row r="599" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C599" s="24"/>
       <c r="D599" s="22"/>
       <c r="E599" s="22"/>
       <c r="F599" s="22"/>
     </row>
-    <row r="600" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C600" s="25"/>
       <c r="D600" s="23"/>
       <c r="E600" s="23"/>
       <c r="F600" s="23"/>
     </row>
-    <row r="601" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C601" s="24"/>
       <c r="D601" s="22"/>
       <c r="E601" s="22"/>
       <c r="F601" s="22"/>
     </row>
-    <row r="602" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C602" s="25"/>
       <c r="D602" s="23"/>
       <c r="E602" s="23"/>
       <c r="F602" s="23"/>
     </row>
-    <row r="603" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C603" s="24"/>
       <c r="D603" s="22"/>
       <c r="E603" s="22"/>
       <c r="F603" s="22"/>
     </row>
-    <row r="604" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C604" s="25"/>
       <c r="D604" s="23"/>
       <c r="E604" s="23"/>
       <c r="F604" s="23"/>
     </row>
-    <row r="605" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C605" s="24"/>
       <c r="D605" s="22"/>
       <c r="E605" s="22"/>
       <c r="F605" s="22"/>
     </row>
-    <row r="606" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C606" s="25"/>
       <c r="D606" s="23"/>
       <c r="E606" s="23"/>
       <c r="F606" s="23"/>
     </row>
-    <row r="607" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C607" s="24"/>
       <c r="D607" s="22"/>
       <c r="E607" s="22"/>
       <c r="F607" s="22"/>
     </row>
-    <row r="608" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C608" s="25"/>
       <c r="D608" s="23"/>
       <c r="E608" s="23"/>
       <c r="F608" s="23"/>
     </row>
-    <row r="609" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C609" s="24"/>
       <c r="D609" s="22"/>
       <c r="E609" s="22"/>
       <c r="F609" s="22"/>
     </row>
-    <row r="610" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C610" s="25"/>
       <c r="D610" s="23"/>
       <c r="E610" s="23"/>
       <c r="F610" s="23"/>
     </row>
-    <row r="611" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C611" s="24"/>
       <c r="D611" s="22"/>
       <c r="E611" s="22"/>
       <c r="F611" s="22"/>
     </row>
-    <row r="612" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C612" s="25"/>
       <c r="D612" s="23"/>
       <c r="E612" s="23"/>
       <c r="F612" s="23"/>
     </row>
-    <row r="613" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C613" s="24"/>
       <c r="D613" s="22"/>
       <c r="E613" s="22"/>
       <c r="F613" s="22"/>
     </row>
-    <row r="614" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C614" s="25"/>
       <c r="D614" s="23"/>
       <c r="E614" s="23"/>
       <c r="F614" s="23"/>
     </row>
-    <row r="615" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C615" s="24"/>
       <c r="D615" s="22"/>
       <c r="E615" s="22"/>
       <c r="F615" s="22"/>
     </row>
-    <row r="616" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C616" s="25"/>
       <c r="D616" s="23"/>
       <c r="E616" s="23"/>
       <c r="F616" s="23"/>
     </row>
-    <row r="617" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C617" s="24"/>
       <c r="D617" s="22"/>
       <c r="E617" s="22"/>
       <c r="F617" s="22"/>
     </row>
-    <row r="618" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C618" s="25"/>
       <c r="D618" s="23"/>
       <c r="E618" s="23"/>
       <c r="F618" s="23"/>
     </row>
-    <row r="619" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C619" s="24"/>
       <c r="D619" s="22"/>
       <c r="E619" s="22"/>
       <c r="F619" s="22"/>
     </row>
-    <row r="620" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C620" s="25"/>
       <c r="D620" s="23"/>
       <c r="E620" s="23"/>
       <c r="F620" s="23"/>
     </row>
-    <row r="621" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C621" s="24"/>
       <c r="D621" s="22"/>
       <c r="E621" s="22"/>
       <c r="F621" s="22"/>
     </row>
-    <row r="622" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C622" s="25"/>
       <c r="D622" s="23"/>
       <c r="E622" s="23"/>
       <c r="F622" s="23"/>
     </row>
-    <row r="623" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C623" s="24"/>
       <c r="D623" s="22"/>
       <c r="E623" s="22"/>
       <c r="F623" s="22"/>
     </row>
-    <row r="624" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C624" s="25"/>
       <c r="D624" s="23"/>
       <c r="E624" s="23"/>
       <c r="F624" s="23"/>
     </row>
-    <row r="625" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C625" s="24"/>
       <c r="D625" s="22"/>
       <c r="E625" s="22"/>
       <c r="F625" s="22"/>
     </row>
-    <row r="626" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C626" s="25"/>
       <c r="D626" s="23"/>
       <c r="E626" s="23"/>
       <c r="F626" s="23"/>
     </row>
-    <row r="627" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C627" s="24"/>
       <c r="D627" s="22"/>
       <c r="E627" s="22"/>
       <c r="F627" s="22"/>
     </row>
-    <row r="628" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C628" s="25"/>
       <c r="D628" s="23"/>
       <c r="E628" s="23"/>
       <c r="F628" s="23"/>
     </row>
-    <row r="629" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C629" s="24"/>
       <c r="D629" s="22"/>
       <c r="E629" s="22"/>
       <c r="F629" s="22"/>
     </row>
-    <row r="630" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C630" s="25"/>
       <c r="D630" s="23"/>
       <c r="E630" s="23"/>
       <c r="F630" s="23"/>
     </row>
-    <row r="631" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C631" s="24"/>
       <c r="D631" s="22"/>
       <c r="E631" s="22"/>
       <c r="F631" s="22"/>
     </row>
-    <row r="632" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C632" s="25"/>
       <c r="D632" s="23"/>
       <c r="E632" s="23"/>
       <c r="F632" s="23"/>
     </row>
-    <row r="633" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C633" s="24"/>
       <c r="D633" s="22"/>
       <c r="E633" s="22"/>
       <c r="F633" s="22"/>
     </row>
-    <row r="634" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C634" s="25"/>
       <c r="D634" s="23"/>
       <c r="E634" s="23"/>
       <c r="F634" s="23"/>
     </row>
-    <row r="635" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C635" s="24"/>
       <c r="D635" s="22"/>
       <c r="E635" s="22"/>
       <c r="F635" s="22"/>
     </row>
-    <row r="636" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C636" s="25"/>
       <c r="D636" s="23"/>
       <c r="E636" s="23"/>
       <c r="F636" s="23"/>
     </row>
-    <row r="637" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C637" s="24"/>
       <c r="D637" s="22"/>
       <c r="E637" s="22"/>
       <c r="F637" s="22"/>
     </row>
-    <row r="638" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C638" s="25"/>
       <c r="D638" s="23"/>
       <c r="E638" s="23"/>
       <c r="F638" s="23"/>
     </row>
-    <row r="639" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C639" s="24"/>
       <c r="D639" s="22"/>
       <c r="E639" s="22"/>
       <c r="F639" s="22"/>
     </row>
-    <row r="640" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C640" s="25"/>
       <c r="D640" s="23"/>
       <c r="E640" s="23"/>
       <c r="F640" s="23"/>
     </row>
-    <row r="641" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C641" s="24"/>
       <c r="D641" s="22"/>
       <c r="E641" s="22"/>
       <c r="F641" s="22"/>
     </row>
-    <row r="642" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C642" s="25"/>
       <c r="D642" s="23"/>
       <c r="E642" s="23"/>
       <c r="F642" s="23"/>
     </row>
-    <row r="643" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C643" s="24"/>
       <c r="D643" s="22"/>
       <c r="E643" s="22"/>
       <c r="F643" s="22"/>
     </row>
-    <row r="644" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C644" s="25"/>
       <c r="D644" s="23"/>
       <c r="E644" s="23"/>
       <c r="F644" s="23"/>
     </row>
-    <row r="645" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C645" s="24"/>
       <c r="D645" s="22"/>
       <c r="E645" s="22"/>
       <c r="F645" s="22"/>
     </row>
-    <row r="646" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C646" s="25"/>
       <c r="D646" s="23"/>
       <c r="E646" s="23"/>
       <c r="F646" s="23"/>
     </row>
-    <row r="647" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C647" s="24"/>
       <c r="D647" s="22"/>
       <c r="E647" s="22"/>
       <c r="F647" s="22"/>
     </row>
-    <row r="648" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C648" s="25"/>
       <c r="D648" s="23"/>
       <c r="E648" s="23"/>
       <c r="F648" s="23"/>
     </row>
-    <row r="649" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C649" s="24"/>
       <c r="D649" s="22"/>
       <c r="E649" s="22"/>
       <c r="F649" s="22"/>
     </row>
-    <row r="650" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C650" s="25"/>
       <c r="D650" s="23"/>
       <c r="E650" s="23"/>
       <c r="F650" s="23"/>
     </row>
-    <row r="651" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C651" s="24"/>
       <c r="D651" s="22"/>
       <c r="E651" s="22"/>
       <c r="F651" s="22"/>
     </row>
-    <row r="652" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C652" s="25"/>
       <c r="D652" s="23"/>
       <c r="E652" s="23"/>
       <c r="F652" s="23"/>
     </row>
-    <row r="653" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C653" s="24"/>
       <c r="D653" s="22"/>
       <c r="E653" s="22"/>
       <c r="F653" s="22"/>
     </row>
-    <row r="654" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C654" s="25"/>
       <c r="D654" s="23"/>
       <c r="E654" s="23"/>
       <c r="F654" s="23"/>
     </row>
-    <row r="655" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C655" s="24"/>
       <c r="D655" s="22"/>
       <c r="E655" s="22"/>
       <c r="F655" s="22"/>
     </row>
-    <row r="656" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C656" s="25"/>
       <c r="D656" s="23"/>
       <c r="E656" s="23"/>
       <c r="F656" s="23"/>
     </row>
-    <row r="657" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C657" s="24"/>
       <c r="D657" s="22"/>
       <c r="E657" s="22"/>
       <c r="F657" s="22"/>
     </row>
-    <row r="658" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C658" s="25"/>
       <c r="D658" s="23"/>
       <c r="E658" s="23"/>
       <c r="F658" s="23"/>
     </row>
-    <row r="659" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C659" s="24"/>
       <c r="D659" s="22"/>
       <c r="E659" s="22"/>
       <c r="F659" s="22"/>
     </row>
-    <row r="660" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C660" s="25"/>
       <c r="D660" s="23"/>
       <c r="E660" s="23"/>
       <c r="F660" s="23"/>
     </row>
-    <row r="661" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C661" s="24"/>
       <c r="D661" s="22"/>
       <c r="E661" s="22"/>
       <c r="F661" s="22"/>
     </row>
-    <row r="662" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C662" s="25"/>
       <c r="D662" s="23"/>
       <c r="E662" s="23"/>
       <c r="F662" s="23"/>
     </row>
-    <row r="663" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C663" s="24"/>
       <c r="D663" s="22"/>
       <c r="E663" s="22"/>
       <c r="F663" s="22"/>
     </row>
-    <row r="664" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C664" s="25"/>
       <c r="D664" s="23"/>
       <c r="E664" s="23"/>
       <c r="F664" s="23"/>
     </row>
-    <row r="665" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C665" s="24"/>
       <c r="D665" s="22"/>
       <c r="E665" s="22"/>
       <c r="F665" s="22"/>
     </row>
-    <row r="666" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C666" s="25"/>
       <c r="D666" s="23"/>
       <c r="E666" s="23"/>
       <c r="F666" s="23"/>
     </row>
-    <row r="667" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C667" s="24"/>
       <c r="D667" s="22"/>
       <c r="E667" s="22"/>
       <c r="F667" s="22"/>
     </row>
-    <row r="668" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C668" s="25"/>
       <c r="D668" s="23"/>
       <c r="E668" s="23"/>
       <c r="F668" s="23"/>
     </row>
-    <row r="669" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C669" s="24"/>
       <c r="D669" s="22"/>
       <c r="E669" s="22"/>
       <c r="F669" s="22"/>
     </row>
-    <row r="670" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C670" s="25"/>
       <c r="D670" s="23"/>
       <c r="E670" s="23"/>
       <c r="F670" s="23"/>
     </row>
-    <row r="671" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C671" s="24"/>
       <c r="D671" s="22"/>
       <c r="E671" s="22"/>
       <c r="F671" s="22"/>
     </row>
-    <row r="672" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C672" s="25"/>
       <c r="D672" s="23"/>
       <c r="E672" s="23"/>
       <c r="F672" s="23"/>
     </row>
-    <row r="673" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C673" s="24"/>
       <c r="D673" s="22"/>
       <c r="E673" s="22"/>
       <c r="F673" s="22"/>
     </row>
-    <row r="674" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C674" s="25"/>
       <c r="D674" s="23"/>
       <c r="E674" s="23"/>
       <c r="F674" s="23"/>
     </row>
-    <row r="675" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C675" s="24"/>
       <c r="D675" s="22"/>
       <c r="E675" s="22"/>
       <c r="F675" s="22"/>
     </row>
-    <row r="676" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C676" s="25"/>
       <c r="D676" s="23"/>
       <c r="E676" s="23"/>
       <c r="F676" s="23"/>
     </row>
-    <row r="677" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C677" s="24"/>
       <c r="D677" s="22"/>
       <c r="E677" s="22"/>
       <c r="F677" s="22"/>
     </row>
-    <row r="678" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C678" s="25"/>
       <c r="D678" s="23"/>
       <c r="E678" s="23"/>
       <c r="F678" s="23"/>
     </row>
-    <row r="679" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C679" s="24"/>
       <c r="D679" s="22"/>
       <c r="E679" s="22"/>
       <c r="F679" s="22"/>
     </row>
-    <row r="680" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C680" s="25"/>
       <c r="D680" s="23"/>
       <c r="E680" s="23"/>
       <c r="F680" s="23"/>
     </row>
-    <row r="681" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C681" s="24"/>
       <c r="D681" s="22"/>
       <c r="E681" s="22"/>
       <c r="F681" s="22"/>
     </row>
-    <row r="682" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C682" s="25"/>
       <c r="D682" s="23"/>
       <c r="E682" s="23"/>
       <c r="F682" s="23"/>
     </row>
-    <row r="683" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C683" s="24"/>
       <c r="D683" s="22"/>
       <c r="E683" s="22"/>
       <c r="F683" s="22"/>
     </row>
-    <row r="684" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C684" s="25"/>
       <c r="D684" s="23"/>
       <c r="E684" s="23"/>
       <c r="F684" s="23"/>
     </row>
-    <row r="685" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C685" s="24"/>
       <c r="D685" s="22"/>
       <c r="E685" s="22"/>
       <c r="F685" s="22"/>
     </row>
-    <row r="686" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C686" s="25"/>
       <c r="D686" s="23"/>
       <c r="E686" s="23"/>
       <c r="F686" s="23"/>
     </row>
-    <row r="687" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C687" s="24"/>
       <c r="D687" s="22"/>
       <c r="E687" s="22"/>
       <c r="F687" s="22"/>
     </row>
-    <row r="688" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C688" s="25"/>
       <c r="D688" s="23"/>
       <c r="E688" s="23"/>
       <c r="F688" s="23"/>
     </row>
-    <row r="689" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C689" s="24"/>
       <c r="D689" s="22"/>
       <c r="E689" s="22"/>
       <c r="F689" s="22"/>
     </row>
-    <row r="690" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C690" s="25"/>
       <c r="D690" s="23"/>
       <c r="E690" s="23"/>
       <c r="F690" s="23"/>
     </row>
-    <row r="691" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C691" s="24"/>
       <c r="D691" s="22"/>
       <c r="E691" s="22"/>
       <c r="F691" s="22"/>
     </row>
-    <row r="692" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C692" s="25"/>
       <c r="D692" s="23"/>
       <c r="E692" s="23"/>
       <c r="F692" s="23"/>
     </row>
-    <row r="693" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C693" s="24"/>
       <c r="D693" s="22"/>
       <c r="E693" s="22"/>
       <c r="F693" s="22"/>
     </row>
-    <row r="694" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C694" s="25"/>
       <c r="D694" s="23"/>
       <c r="E694" s="23"/>
       <c r="F694" s="23"/>
     </row>
-    <row r="695" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C695" s="24"/>
       <c r="D695" s="22"/>
       <c r="E695" s="22"/>
       <c r="F695" s="22"/>
     </row>
-    <row r="696" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C696" s="25"/>
       <c r="D696" s="23"/>
       <c r="E696" s="23"/>
       <c r="F696" s="23"/>
     </row>
-    <row r="697" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C697" s="24"/>
       <c r="D697" s="22"/>
       <c r="E697" s="22"/>
       <c r="F697" s="22"/>
     </row>
-    <row r="698" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C698" s="25"/>
       <c r="D698" s="23"/>
       <c r="E698" s="23"/>
       <c r="F698" s="23"/>
     </row>
-    <row r="699" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C699" s="24"/>
       <c r="D699" s="22"/>
       <c r="E699" s="22"/>
       <c r="F699" s="22"/>
     </row>
-    <row r="700" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C700" s="25"/>
       <c r="D700" s="23"/>
       <c r="E700" s="23"/>
       <c r="F700" s="23"/>
     </row>
-    <row r="701" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C701" s="24"/>
       <c r="D701" s="22"/>
       <c r="E701" s="22"/>
       <c r="F701" s="22"/>
     </row>
-    <row r="702" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C702" s="25"/>
       <c r="D702" s="23"/>
       <c r="E702" s="23"/>
       <c r="F702" s="23"/>
     </row>
-    <row r="703" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C703" s="24"/>
       <c r="D703" s="22"/>
       <c r="E703" s="22"/>
       <c r="F703" s="22"/>
     </row>
-    <row r="704" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C704" s="25"/>
       <c r="D704" s="23"/>
       <c r="E704" s="23"/>
       <c r="F704" s="23"/>
     </row>
-    <row r="705" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C705" s="24"/>
       <c r="D705" s="22"/>
       <c r="E705" s="22"/>
       <c r="F705" s="22"/>
     </row>
-    <row r="706" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C706" s="25"/>
       <c r="D706" s="23"/>
       <c r="E706" s="23"/>
       <c r="F706" s="23"/>
     </row>
-    <row r="707" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C707" s="24"/>
       <c r="D707" s="22"/>
       <c r="E707" s="22"/>
       <c r="F707" s="22"/>
     </row>
-    <row r="708" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C708" s="25"/>
       <c r="D708" s="23"/>
       <c r="E708" s="23"/>
       <c r="F708" s="23"/>
     </row>
-    <row r="709" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C709" s="24"/>
       <c r="D709" s="22"/>
       <c r="E709" s="22"/>
       <c r="F709" s="22"/>
     </row>
-    <row r="710" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C710" s="25"/>
       <c r="D710" s="23"/>
       <c r="E710" s="23"/>
       <c r="F710" s="23"/>
     </row>
-    <row r="711" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C711" s="24"/>
       <c r="D711" s="22"/>
       <c r="E711" s="22"/>
       <c r="F711" s="22"/>
     </row>
-    <row r="712" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C712" s="25"/>
       <c r="D712" s="23"/>
       <c r="E712" s="23"/>
       <c r="F712" s="23"/>
     </row>
-    <row r="713" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C713" s="24"/>
       <c r="D713" s="22"/>
       <c r="E713" s="22"/>
       <c r="F713" s="22"/>
     </row>
-    <row r="714" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C714" s="25"/>
       <c r="D714" s="23"/>
       <c r="E714" s="23"/>
       <c r="F714" s="23"/>
     </row>
-    <row r="715" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C715" s="24"/>
       <c r="D715" s="22"/>
       <c r="E715" s="22"/>
       <c r="F715" s="22"/>
     </row>
-    <row r="716" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C716" s="25"/>
       <c r="D716" s="23"/>
       <c r="E716" s="23"/>
       <c r="F716" s="23"/>
     </row>
-    <row r="717" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C717" s="24"/>
       <c r="D717" s="22"/>
       <c r="E717" s="22"/>
       <c r="F717" s="22"/>
     </row>
-    <row r="718" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C718" s="25"/>
       <c r="D718" s="23"/>
       <c r="E718" s="23"/>
       <c r="F718" s="23"/>
     </row>
-    <row r="719" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C719" s="24"/>
       <c r="D719" s="22"/>
       <c r="E719" s="22"/>
       <c r="F719" s="22"/>
     </row>
-    <row r="720" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C720" s="25"/>
       <c r="D720" s="23"/>
       <c r="E720" s="23"/>
       <c r="F720" s="23"/>
     </row>
-    <row r="721" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C721" s="24"/>
       <c r="D721" s="22"/>
       <c r="E721" s="22"/>
       <c r="F721" s="22"/>
     </row>
-    <row r="722" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C722" s="25"/>
       <c r="D722" s="23"/>
       <c r="E722" s="23"/>
       <c r="F722" s="23"/>
     </row>
-    <row r="723" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C723" s="24"/>
       <c r="D723" s="22"/>
       <c r="E723" s="22"/>
       <c r="F723" s="22"/>
     </row>
-    <row r="724" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C724" s="25"/>
       <c r="D724" s="23"/>
       <c r="E724" s="23"/>
       <c r="F724" s="23"/>
     </row>
-    <row r="725" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C725" s="24"/>
       <c r="D725" s="22"/>
       <c r="E725" s="22"/>
       <c r="F725" s="22"/>
     </row>
-    <row r="726" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C726" s="25"/>
       <c r="D726" s="23"/>
       <c r="E726" s="23"/>
       <c r="F726" s="23"/>
     </row>
-    <row r="727" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C727" s="24"/>
       <c r="D727" s="22"/>
       <c r="E727" s="22"/>
       <c r="F727" s="22"/>
     </row>
-    <row r="728" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C728" s="25"/>
       <c r="D728" s="23"/>
       <c r="E728" s="23"/>
       <c r="F728" s="23"/>
     </row>
-    <row r="729" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C729" s="24"/>
       <c r="D729" s="22"/>
       <c r="E729" s="22"/>
       <c r="F729" s="22"/>
     </row>
-    <row r="730" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C730" s="25"/>
       <c r="D730" s="23"/>
       <c r="E730" s="23"/>
       <c r="F730" s="23"/>
     </row>
-    <row r="731" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C731" s="24"/>
       <c r="D731" s="22"/>
       <c r="E731" s="22"/>
       <c r="F731" s="22"/>
     </row>
-    <row r="732" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C732" s="25"/>
       <c r="D732" s="23"/>
       <c r="E732" s="23"/>
       <c r="F732" s="23"/>
     </row>
-    <row r="733" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C733" s="24"/>
       <c r="D733" s="22"/>
       <c r="E733" s="22"/>
       <c r="F733" s="22"/>
     </row>
-    <row r="734" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C734" s="25"/>
       <c r="D734" s="23"/>
       <c r="E734" s="23"/>
       <c r="F734" s="23"/>
     </row>
-    <row r="735" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C735" s="24"/>
       <c r="D735" s="22"/>
       <c r="E735" s="22"/>
       <c r="F735" s="22"/>
     </row>
-    <row r="736" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C736" s="25"/>
       <c r="D736" s="23"/>
       <c r="E736" s="23"/>
       <c r="F736" s="23"/>
     </row>
-    <row r="737" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C737" s="24"/>
       <c r="D737" s="22"/>
       <c r="E737" s="22"/>
       <c r="F737" s="22"/>
     </row>
-    <row r="738" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C738" s="25"/>
       <c r="D738" s="23"/>
       <c r="E738" s="23"/>
       <c r="F738" s="23"/>
     </row>
-    <row r="739" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C739" s="24"/>
       <c r="D739" s="22"/>
       <c r="E739" s="22"/>
       <c r="F739" s="22"/>
     </row>
-    <row r="740" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C740" s="25"/>
       <c r="D740" s="23"/>
       <c r="E740" s="23"/>
       <c r="F740" s="23"/>
     </row>
-    <row r="741" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C741" s="24"/>
       <c r="D741" s="22"/>
       <c r="E741" s="22"/>
       <c r="F741" s="22"/>
     </row>
-    <row r="742" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C742" s="25"/>
       <c r="D742" s="23"/>
       <c r="E742" s="23"/>
       <c r="F742" s="23"/>
     </row>
-    <row r="743" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C743" s="24"/>
       <c r="D743" s="22"/>
       <c r="E743" s="22"/>
       <c r="F743" s="22"/>
     </row>
-    <row r="744" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C744" s="25"/>
       <c r="D744" s="23"/>
       <c r="E744" s="23"/>
       <c r="F744" s="23"/>
     </row>
-    <row r="745" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C745" s="24"/>
       <c r="D745" s="22"/>
       <c r="E745" s="22"/>
       <c r="F745" s="22"/>
     </row>
-    <row r="746" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C746" s="25"/>
       <c r="D746" s="23"/>
       <c r="E746" s="23"/>
       <c r="F746" s="23"/>
     </row>
-    <row r="747" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C747" s="24"/>
       <c r="D747" s="22"/>
       <c r="E747" s="22"/>
       <c r="F747" s="22"/>
     </row>
-    <row r="748" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C748" s="25"/>
       <c r="D748" s="23"/>
       <c r="E748" s="23"/>
       <c r="F748" s="23"/>
     </row>
-    <row r="749" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C749" s="24"/>
       <c r="D749" s="22"/>
       <c r="E749" s="22"/>
       <c r="F749" s="22"/>
     </row>
-    <row r="750" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C750" s="25"/>
       <c r="D750" s="23"/>
       <c r="E750" s="23"/>
       <c r="F750" s="23"/>
     </row>
-    <row r="751" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C751" s="24"/>
       <c r="D751" s="22"/>
       <c r="E751" s="22"/>
       <c r="F751" s="22"/>
     </row>
-    <row r="752" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C752" s="25"/>
       <c r="D752" s="23"/>
       <c r="E752" s="23"/>
       <c r="F752" s="23"/>
     </row>
-    <row r="753" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C753" s="24"/>
       <c r="D753" s="22"/>
       <c r="E753" s="22"/>
       <c r="F753" s="22"/>
     </row>
-    <row r="754" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C754" s="25"/>
       <c r="D754" s="23"/>
       <c r="E754" s="23"/>
       <c r="F754" s="23"/>
     </row>
-    <row r="755" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C755" s="24"/>
       <c r="D755" s="22"/>
       <c r="E755" s="22"/>
       <c r="F755" s="22"/>
     </row>
-    <row r="756" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C756" s="25"/>
       <c r="D756" s="23"/>
       <c r="E756" s="23"/>
       <c r="F756" s="23"/>
     </row>
-    <row r="757" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C757" s="24"/>
       <c r="D757" s="22"/>
       <c r="E757" s="22"/>
       <c r="F757" s="22"/>
     </row>
-    <row r="758" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C758" s="25"/>
       <c r="D758" s="23"/>
       <c r="E758" s="23"/>
       <c r="F758" s="23"/>
     </row>
-    <row r="759" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C759" s="24"/>
       <c r="D759" s="22"/>
       <c r="E759" s="22"/>
       <c r="F759" s="22"/>
     </row>
-    <row r="760" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C760" s="25"/>
       <c r="D760" s="23"/>
       <c r="E760" s="23"/>
       <c r="F760" s="23"/>
     </row>
-    <row r="761" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C761" s="24"/>
       <c r="D761" s="22"/>
       <c r="E761" s="22"/>
       <c r="F761" s="22"/>
     </row>
-    <row r="762" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C762" s="25"/>
       <c r="D762" s="23"/>
       <c r="E762" s="23"/>
       <c r="F762" s="23"/>
     </row>
-    <row r="763" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C763" s="24"/>
       <c r="D763" s="22"/>
       <c r="E763" s="22"/>
       <c r="F763" s="22"/>
     </row>
-    <row r="764" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C764" s="25"/>
       <c r="D764" s="23"/>
       <c r="E764" s="23"/>
       <c r="F764" s="23"/>
     </row>
-    <row r="765" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C765" s="24"/>
       <c r="D765" s="22"/>
       <c r="E765" s="22"/>
       <c r="F765" s="22"/>
     </row>
-    <row r="766" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C766" s="25"/>
       <c r="D766" s="23"/>
       <c r="E766" s="23"/>
       <c r="F766" s="23"/>
     </row>
-    <row r="767" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C767" s="24"/>
       <c r="D767" s="22"/>
       <c r="E767" s="22"/>
       <c r="F767" s="22"/>
     </row>
-    <row r="768" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C768" s="25"/>
       <c r="D768" s="23"/>
       <c r="E768" s="23"/>
       <c r="F768" s="23"/>
     </row>
-    <row r="769" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C769" s="24"/>
       <c r="D769" s="22"/>
       <c r="E769" s="22"/>
       <c r="F769" s="22"/>
     </row>
-    <row r="770" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C770" s="25"/>
       <c r="D770" s="23"/>
       <c r="E770" s="23"/>
       <c r="F770" s="23"/>
     </row>
-    <row r="771" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C771" s="24"/>
       <c r="D771" s="22"/>
       <c r="E771" s="22"/>
       <c r="F771" s="22"/>
     </row>
-    <row r="772" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C772" s="25"/>
       <c r="D772" s="23"/>
       <c r="E772" s="23"/>
       <c r="F772" s="23"/>
     </row>
-    <row r="773" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C773" s="24"/>
       <c r="D773" s="22"/>
       <c r="E773" s="22"/>
       <c r="F773" s="22"/>
     </row>
-    <row r="774" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C774" s="25"/>
       <c r="D774" s="23"/>
       <c r="E774" s="23"/>
       <c r="F774" s="23"/>
     </row>
-    <row r="775" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C775" s="24"/>
       <c r="D775" s="22"/>
       <c r="E775" s="22"/>
       <c r="F775" s="22"/>
     </row>
-    <row r="776" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C776" s="25"/>
       <c r="D776" s="23"/>
       <c r="E776" s="23"/>
       <c r="F776" s="23"/>
     </row>
-    <row r="777" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C777" s="24"/>
       <c r="D777" s="22"/>
       <c r="E777" s="22"/>
       <c r="F777" s="22"/>
     </row>
-    <row r="778" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C778" s="25"/>
       <c r="D778" s="23"/>
       <c r="E778" s="23"/>
       <c r="F778" s="23"/>
     </row>
-    <row r="779" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C779" s="24"/>
       <c r="D779" s="22"/>
       <c r="E779" s="22"/>
       <c r="F779" s="22"/>
     </row>
-    <row r="780" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C780" s="25"/>
       <c r="D780" s="23"/>
       <c r="E780" s="23"/>
       <c r="F780" s="23"/>
     </row>
-    <row r="781" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C781" s="24"/>
       <c r="D781" s="22"/>
       <c r="E781" s="22"/>
       <c r="F781" s="22"/>
     </row>
-    <row r="782" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C782" s="25"/>
       <c r="D782" s="23"/>
       <c r="E782" s="23"/>
       <c r="F782" s="23"/>
     </row>
-    <row r="783" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C783" s="24"/>
       <c r="D783" s="22"/>
       <c r="E783" s="22"/>
       <c r="F783" s="22"/>
     </row>
-    <row r="784" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C784" s="25"/>
       <c r="D784" s="23"/>
       <c r="E784" s="23"/>
       <c r="F784" s="23"/>
     </row>
-    <row r="785" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C785" s="24"/>
       <c r="D785" s="22"/>
       <c r="E785" s="22"/>
       <c r="F785" s="22"/>
     </row>
-    <row r="786" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C786" s="25"/>
       <c r="D786" s="23"/>
       <c r="E786" s="23"/>
       <c r="F786" s="23"/>
     </row>
-    <row r="787" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C787" s="24"/>
       <c r="D787" s="22"/>
       <c r="E787" s="22"/>
       <c r="F787" s="22"/>
     </row>
-    <row r="788" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C788" s="25"/>
       <c r="D788" s="23"/>
       <c r="E788" s="23"/>
       <c r="F788" s="23"/>
     </row>
-    <row r="789" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C789" s="24"/>
       <c r="D789" s="22"/>
       <c r="E789" s="22"/>
       <c r="F789" s="22"/>
     </row>
-    <row r="790" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C790" s="25"/>
       <c r="D790" s="23"/>
       <c r="E790" s="23"/>
       <c r="F790" s="23"/>
     </row>
-    <row r="791" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C791" s="24"/>
       <c r="D791" s="22"/>
       <c r="E791" s="22"/>
       <c r="F791" s="22"/>
     </row>
-    <row r="792" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C792" s="25"/>
       <c r="D792" s="23"/>
       <c r="E792" s="23"/>
       <c r="F792" s="23"/>
     </row>
-    <row r="793" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C793" s="24"/>
       <c r="D793" s="22"/>
       <c r="E793" s="22"/>
       <c r="F793" s="22"/>
     </row>
-    <row r="794" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C794" s="25"/>
       <c r="D794" s="23"/>
       <c r="E794" s="23"/>
       <c r="F794" s="23"/>
     </row>
-    <row r="795" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C795" s="24"/>
       <c r="D795" s="22"/>
       <c r="E795" s="22"/>
       <c r="F795" s="22"/>
     </row>
-    <row r="796" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C796" s="25"/>
       <c r="D796" s="23"/>
       <c r="E796" s="23"/>
       <c r="F796" s="23"/>
     </row>
-    <row r="797" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C797" s="24"/>
       <c r="D797" s="22"/>
       <c r="E797" s="22"/>
       <c r="F797" s="22"/>
     </row>
-    <row r="798" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C798" s="25"/>
       <c r="D798" s="23"/>
       <c r="E798" s="23"/>
       <c r="F798" s="23"/>
     </row>
-    <row r="799" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C799" s="24"/>
       <c r="D799" s="22"/>
       <c r="E799" s="22"/>
       <c r="F799" s="22"/>
     </row>
-    <row r="800" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C800" s="25"/>
       <c r="D800" s="23"/>
       <c r="E800" s="23"/>
       <c r="F800" s="23"/>
     </row>
-    <row r="801" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C801" s="24"/>
       <c r="D801" s="22"/>
       <c r="E801" s="22"/>
       <c r="F801" s="22"/>
     </row>
-    <row r="802" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C802" s="25"/>
       <c r="D802" s="23"/>
       <c r="E802" s="23"/>
       <c r="F802" s="23"/>
     </row>
-    <row r="803" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C803" s="24"/>
       <c r="D803" s="22"/>
       <c r="E803" s="22"/>
       <c r="F803" s="22"/>
     </row>
-    <row r="804" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C804" s="25"/>
       <c r="D804" s="23"/>
       <c r="E804" s="23"/>
       <c r="F804" s="23"/>
     </row>
-    <row r="805" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C805" s="24"/>
       <c r="D805" s="22"/>
       <c r="E805" s="22"/>
       <c r="F805" s="22"/>
     </row>
-    <row r="806" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C806" s="25"/>
       <c r="D806" s="23"/>
       <c r="E806" s="23"/>
       <c r="F806" s="23"/>
     </row>
-    <row r="807" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C807" s="24"/>
       <c r="D807" s="22"/>
       <c r="E807" s="22"/>
       <c r="F807" s="22"/>
     </row>
-    <row r="808" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C808" s="25"/>
       <c r="D808" s="23"/>
       <c r="E808" s="23"/>
       <c r="F808" s="23"/>
     </row>
-    <row r="809" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C809" s="24"/>
       <c r="D809" s="22"/>
       <c r="E809" s="22"/>
       <c r="F809" s="22"/>
     </row>
-    <row r="810" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C810" s="25"/>
       <c r="D810" s="23"/>
       <c r="E810" s="23"/>
       <c r="F810" s="23"/>
     </row>
-    <row r="811" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C811" s="24"/>
       <c r="D811" s="22"/>
       <c r="E811" s="22"/>
       <c r="F811" s="22"/>
     </row>
-    <row r="812" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C812" s="25"/>
       <c r="D812" s="23"/>
       <c r="E812" s="23"/>
       <c r="F812" s="23"/>
     </row>
-    <row r="813" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C813" s="24"/>
       <c r="D813" s="22"/>
       <c r="E813" s="22"/>
       <c r="F813" s="22"/>
     </row>
-    <row r="814" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C814" s="25"/>
       <c r="D814" s="23"/>
       <c r="E814" s="23"/>
       <c r="F814" s="23"/>
     </row>
-    <row r="815" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C815" s="24"/>
       <c r="D815" s="22"/>
       <c r="E815" s="22"/>
       <c r="F815" s="22"/>
     </row>
-    <row r="816" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C816" s="25"/>
       <c r="D816" s="23"/>
       <c r="E816" s="23"/>
       <c r="F816" s="23"/>
     </row>
-    <row r="817" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C817" s="24"/>
       <c r="D817" s="22"/>
       <c r="E817" s="22"/>
       <c r="F817" s="22"/>
     </row>
-    <row r="818" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C818" s="25"/>
       <c r="D818" s="23"/>
       <c r="E818" s="23"/>
       <c r="F818" s="23"/>
     </row>
-    <row r="819" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C819" s="24"/>
       <c r="D819" s="22"/>
       <c r="E819" s="22"/>
       <c r="F819" s="22"/>
     </row>
-    <row r="820" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C820" s="25"/>
       <c r="D820" s="23"/>
       <c r="E820" s="23"/>
       <c r="F820" s="23"/>
     </row>
-    <row r="821" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C821" s="24"/>
       <c r="D821" s="22"/>
       <c r="E821" s="22"/>
       <c r="F821" s="22"/>
     </row>
-    <row r="822" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C822" s="25"/>
       <c r="D822" s="23"/>
       <c r="E822" s="23"/>
       <c r="F822" s="23"/>
     </row>
-    <row r="823" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C823" s="24"/>
       <c r="D823" s="22"/>
       <c r="E823" s="22"/>
       <c r="F823" s="22"/>
     </row>
-    <row r="824" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C824" s="25"/>
       <c r="D824" s="23"/>
       <c r="E824" s="23"/>
       <c r="F824" s="23"/>
     </row>
-    <row r="825" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C825" s="24"/>
       <c r="D825" s="22"/>
       <c r="E825" s="22"/>
       <c r="F825" s="22"/>
     </row>
-    <row r="826" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C826" s="25"/>
       <c r="D826" s="23"/>
       <c r="E826" s="23"/>
       <c r="F826" s="23"/>
     </row>
-    <row r="827" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C827" s="24"/>
       <c r="D827" s="22"/>
       <c r="E827" s="22"/>
       <c r="F827" s="22"/>
     </row>
-    <row r="828" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C828" s="25"/>
       <c r="D828" s="23"/>
       <c r="E828" s="23"/>
       <c r="F828" s="23"/>
     </row>
-    <row r="829" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C829" s="24"/>
       <c r="D829" s="22"/>
       <c r="E829" s="22"/>
       <c r="F829" s="22"/>
     </row>
-    <row r="830" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C830" s="25"/>
       <c r="D830" s="23"/>
       <c r="E830" s="23"/>
       <c r="F830" s="23"/>
     </row>
-    <row r="831" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C831" s="24"/>
       <c r="D831" s="22"/>
       <c r="E831" s="22"/>
       <c r="F831" s="22"/>
     </row>
-    <row r="832" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C832" s="25"/>
       <c r="D832" s="23"/>
       <c r="E832" s="23"/>
       <c r="F832" s="23"/>
     </row>
-    <row r="833" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C833" s="24"/>
       <c r="D833" s="22"/>
       <c r="E833" s="22"/>
       <c r="F833" s="22"/>
     </row>
-    <row r="834" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C834" s="25"/>
       <c r="D834" s="23"/>
       <c r="E834" s="23"/>
       <c r="F834" s="23"/>
     </row>
-    <row r="835" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C835" s="24"/>
       <c r="D835" s="22"/>
       <c r="E835" s="22"/>
       <c r="F835" s="22"/>
     </row>
-    <row r="836" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C836" s="25"/>
       <c r="D836" s="23"/>
       <c r="E836" s="23"/>
       <c r="F836" s="23"/>
     </row>
-    <row r="837" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C837" s="24"/>
       <c r="D837" s="22"/>
       <c r="E837" s="22"/>
       <c r="F837" s="22"/>
     </row>
-    <row r="838" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C838" s="25"/>
       <c r="D838" s="23"/>
       <c r="E838" s="23"/>
       <c r="F838" s="23"/>
     </row>
-    <row r="839" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C839" s="24"/>
       <c r="D839" s="22"/>
       <c r="E839" s="22"/>
       <c r="F839" s="22"/>
     </row>
-    <row r="840" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C840" s="25"/>
       <c r="D840" s="23"/>
       <c r="E840" s="23"/>
       <c r="F840" s="23"/>
     </row>
-    <row r="841" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C841" s="24"/>
       <c r="D841" s="22"/>
       <c r="E841" s="22"/>
       <c r="F841" s="22"/>
     </row>
-    <row r="842" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C842" s="25"/>
       <c r="D842" s="23"/>
       <c r="E842" s="23"/>
       <c r="F842" s="23"/>
     </row>
-    <row r="843" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C843" s="24"/>
       <c r="D843" s="22"/>
       <c r="E843" s="22"/>
       <c r="F843" s="22"/>
     </row>
-    <row r="844" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C844" s="25"/>
       <c r="D844" s="23"/>
       <c r="E844" s="23"/>
       <c r="F844" s="23"/>
     </row>
-    <row r="845" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C845" s="24"/>
       <c r="D845" s="22"/>
       <c r="E845" s="22"/>
       <c r="F845" s="22"/>
     </row>
-    <row r="846" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C846" s="25"/>
       <c r="D846" s="23"/>
       <c r="E846" s="23"/>
       <c r="F846" s="23"/>
     </row>
-    <row r="847" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C847" s="24"/>
       <c r="D847" s="22"/>
       <c r="E847" s="22"/>
       <c r="F847" s="22"/>
     </row>
-    <row r="848" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C848" s="25"/>
       <c r="D848" s="23"/>
       <c r="E848" s="23"/>
       <c r="F848" s="23"/>
     </row>
-    <row r="849" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C849" s="24"/>
       <c r="D849" s="22"/>
       <c r="E849" s="22"/>
       <c r="F849" s="22"/>
     </row>
-    <row r="850" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C850" s="25"/>
       <c r="D850" s="23"/>
       <c r="E850" s="23"/>
       <c r="F850" s="23"/>
     </row>
-    <row r="851" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C851" s="24"/>
       <c r="D851" s="22"/>
       <c r="E851" s="22"/>
       <c r="F851" s="22"/>
     </row>
-    <row r="852" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C852" s="25"/>
       <c r="D852" s="23"/>
       <c r="E852" s="23"/>
       <c r="F852" s="23"/>
     </row>
-    <row r="853" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C853" s="24"/>
       <c r="D853" s="22"/>
       <c r="E853" s="22"/>
       <c r="F853" s="22"/>
     </row>
-    <row r="854" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C854" s="25"/>
       <c r="D854" s="23"/>
       <c r="E854" s="23"/>
       <c r="F854" s="23"/>
     </row>
-    <row r="855" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C855" s="24"/>
       <c r="D855" s="22"/>
       <c r="E855" s="22"/>
       <c r="F855" s="22"/>
     </row>
-    <row r="856" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C856" s="25"/>
       <c r="D856" s="23"/>
       <c r="E856" s="23"/>
       <c r="F856" s="23"/>
     </row>
-    <row r="857" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C857" s="24"/>
       <c r="D857" s="22"/>
       <c r="E857" s="22"/>
       <c r="F857" s="22"/>
     </row>
-    <row r="858" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C858" s="25"/>
       <c r="D858" s="23"/>
       <c r="E858" s="23"/>
       <c r="F858" s="23"/>
     </row>
-    <row r="859" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C859" s="24"/>
       <c r="D859" s="22"/>
       <c r="E859" s="22"/>
       <c r="F859" s="22"/>
     </row>
-    <row r="860" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C860" s="25"/>
       <c r="D860" s="23"/>
       <c r="E860" s="23"/>
       <c r="F860" s="23"/>
     </row>
-    <row r="861" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C861" s="24"/>
       <c r="D861" s="22"/>
       <c r="E861" s="22"/>
       <c r="F861" s="22"/>
     </row>
-    <row r="862" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C862" s="25"/>
       <c r="D862" s="23"/>
       <c r="E862" s="23"/>
       <c r="F862" s="23"/>
     </row>
-    <row r="863" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C863" s="24"/>
       <c r="D863" s="22"/>
       <c r="E863" s="22"/>
       <c r="F863" s="22"/>
     </row>
-    <row r="864" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C864" s="25"/>
       <c r="D864" s="23"/>
       <c r="E864" s="23"/>
       <c r="F864" s="23"/>
     </row>
-    <row r="865" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C865" s="24"/>
       <c r="D865" s="22"/>
       <c r="E865" s="22"/>
       <c r="F865" s="22"/>
     </row>
-    <row r="866" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C866" s="25"/>
       <c r="D866" s="23"/>
       <c r="E866" s="23"/>
       <c r="F866" s="23"/>
     </row>
-    <row r="867" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C867" s="24"/>
       <c r="D867" s="22"/>
       <c r="E867" s="22"/>
       <c r="F867" s="22"/>
     </row>
-    <row r="868" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C868" s="25"/>
       <c r="D868" s="23"/>
       <c r="E868" s="23"/>
       <c r="F868" s="23"/>
     </row>
-    <row r="869" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C869" s="24"/>
       <c r="D869" s="22"/>
       <c r="E869" s="22"/>
       <c r="F869" s="22"/>
     </row>
-    <row r="870" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C870" s="25"/>
       <c r="D870" s="23"/>
       <c r="E870" s="23"/>
       <c r="F870" s="23"/>
     </row>
-    <row r="871" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C871" s="24"/>
       <c r="D871" s="22"/>
       <c r="E871" s="22"/>
       <c r="F871" s="22"/>
     </row>
-    <row r="872" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C872" s="25"/>
       <c r="D872" s="23"/>
       <c r="E872" s="23"/>
       <c r="F872" s="23"/>
     </row>
-    <row r="873" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C873" s="24"/>
       <c r="D873" s="22"/>
       <c r="E873" s="22"/>
       <c r="F873" s="22"/>
     </row>
-    <row r="874" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C874" s="25"/>
       <c r="D874" s="23"/>
       <c r="E874" s="23"/>
       <c r="F874" s="23"/>
     </row>
-    <row r="875" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C875" s="24"/>
       <c r="D875" s="22"/>
       <c r="E875" s="22"/>
       <c r="F875" s="22"/>
     </row>
-    <row r="876" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C876" s="25"/>
       <c r="D876" s="23"/>
       <c r="E876" s="23"/>
       <c r="F876" s="23"/>
     </row>
-    <row r="877" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C877" s="24"/>
       <c r="D877" s="22"/>
       <c r="E877" s="22"/>
       <c r="F877" s="22"/>
     </row>
-    <row r="878" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C878" s="25"/>
       <c r="D878" s="23"/>
       <c r="E878" s="23"/>
       <c r="F878" s="23"/>
     </row>
-    <row r="879" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C879" s="24"/>
       <c r="D879" s="22"/>
       <c r="E879" s="22"/>
       <c r="F879" s="22"/>
     </row>
-    <row r="880" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C880" s="25"/>
       <c r="D880" s="23"/>
       <c r="E880" s="23"/>
       <c r="F880" s="23"/>
     </row>
-    <row r="881" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C881" s="24"/>
       <c r="D881" s="22"/>
       <c r="E881" s="22"/>
       <c r="F881" s="22"/>
     </row>
-    <row r="882" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C882" s="25"/>
       <c r="D882" s="23"/>
       <c r="E882" s="23"/>
       <c r="F882" s="23"/>
     </row>
-    <row r="883" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C883" s="24"/>
       <c r="D883" s="22"/>
       <c r="E883" s="22"/>
       <c r="F883" s="22"/>
     </row>
-    <row r="884" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C884" s="25"/>
       <c r="D884" s="23"/>
       <c r="E884" s="23"/>
       <c r="F884" s="23"/>
     </row>
-    <row r="885" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C885" s="24"/>
       <c r="D885" s="22"/>
       <c r="E885" s="22"/>
       <c r="F885" s="22"/>
     </row>
-    <row r="886" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C886" s="25"/>
       <c r="D886" s="23"/>
       <c r="E886" s="23"/>
       <c r="F886" s="23"/>
     </row>
-    <row r="887" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C887" s="24"/>
       <c r="D887" s="22"/>
       <c r="E887" s="22"/>
       <c r="F887" s="22"/>
     </row>
-    <row r="888" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C888" s="25"/>
       <c r="D888" s="23"/>
       <c r="E888" s="23"/>
       <c r="F888" s="23"/>
     </row>
-    <row r="889" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C889" s="24"/>
       <c r="D889" s="22"/>
       <c r="E889" s="22"/>
       <c r="F889" s="22"/>
     </row>
-    <row r="890" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C890" s="25"/>
       <c r="D890" s="23"/>
       <c r="E890" s="23"/>
       <c r="F890" s="23"/>
     </row>
-    <row r="891" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C891" s="24"/>
       <c r="D891" s="22"/>
       <c r="E891" s="22"/>
       <c r="F891" s="22"/>
     </row>
-    <row r="892" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C892" s="25"/>
       <c r="D892" s="23"/>
       <c r="E892" s="23"/>
       <c r="F892" s="23"/>
     </row>
-    <row r="893" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C893" s="24"/>
       <c r="D893" s="22"/>
       <c r="E893" s="22"/>
       <c r="F893" s="22"/>
     </row>
-    <row r="894" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C894" s="25"/>
       <c r="D894" s="23"/>
       <c r="E894" s="23"/>
       <c r="F894" s="23"/>
     </row>
-    <row r="895" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C895" s="24"/>
       <c r="D895" s="22"/>
       <c r="E895" s="22"/>
       <c r="F895" s="22"/>
     </row>
-    <row r="896" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C896" s="25"/>
       <c r="D896" s="23"/>
       <c r="E896" s="23"/>
       <c r="F896" s="23"/>
     </row>
-    <row r="897" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C897" s="24"/>
       <c r="D897" s="22"/>
       <c r="E897" s="22"/>
       <c r="F897" s="22"/>
     </row>
-    <row r="898" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C898" s="25"/>
       <c r="D898" s="23"/>
       <c r="E898" s="23"/>
       <c r="F898" s="23"/>
     </row>
-    <row r="899" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C899" s="24"/>
       <c r="D899" s="22"/>
       <c r="E899" s="22"/>
       <c r="F899" s="22"/>
     </row>
-    <row r="900" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C900" s="25"/>
       <c r="D900" s="23"/>
       <c r="E900" s="23"/>
       <c r="F900" s="23"/>
     </row>
-    <row r="901" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C901" s="24"/>
       <c r="D901" s="22"/>
       <c r="E901" s="22"/>
       <c r="F901" s="22"/>
     </row>
-    <row r="902" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C902" s="25"/>
       <c r="D902" s="23"/>
       <c r="E902" s="23"/>
       <c r="F902" s="23"/>
     </row>
-    <row r="903" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C903" s="24"/>
       <c r="D903" s="22"/>
       <c r="E903" s="22"/>
       <c r="F903" s="22"/>
     </row>
-    <row r="904" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C904" s="25"/>
       <c r="D904" s="23"/>
       <c r="E904" s="23"/>
       <c r="F904" s="23"/>
     </row>
-    <row r="905" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C905" s="24"/>
       <c r="D905" s="22"/>
       <c r="E905" s="22"/>
       <c r="F905" s="22"/>
     </row>
-    <row r="906" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C906" s="25"/>
       <c r="D906" s="23"/>
       <c r="E906" s="23"/>
       <c r="F906" s="23"/>
     </row>
-    <row r="907" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C907" s="24"/>
       <c r="D907" s="22"/>
       <c r="E907" s="22"/>
       <c r="F907" s="22"/>
     </row>
-    <row r="908" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C908" s="25"/>
       <c r="D908" s="23"/>
       <c r="E908" s="23"/>
       <c r="F908" s="23"/>
     </row>
-    <row r="909" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C909" s="24"/>
       <c r="D909" s="22"/>
       <c r="E909" s="22"/>
       <c r="F909" s="22"/>
     </row>
-    <row r="910" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C910" s="25"/>
       <c r="D910" s="23"/>
       <c r="E910" s="23"/>
       <c r="F910" s="23"/>
     </row>
-    <row r="911" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C911" s="24"/>
       <c r="D911" s="22"/>
       <c r="E911" s="22"/>
       <c r="F911" s="22"/>
     </row>
-    <row r="912" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C912" s="25"/>
       <c r="D912" s="23"/>
       <c r="E912" s="23"/>
       <c r="F912" s="23"/>
     </row>
-    <row r="913" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C913" s="24"/>
       <c r="D913" s="22"/>
       <c r="E913" s="22"/>
       <c r="F913" s="22"/>
     </row>
-    <row r="914" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C914" s="25"/>
       <c r="D914" s="23"/>
       <c r="E914" s="23"/>
       <c r="F914" s="23"/>
     </row>
-    <row r="915" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C915" s="24"/>
       <c r="D915" s="22"/>
       <c r="E915" s="22"/>
       <c r="F915" s="22"/>
     </row>
-    <row r="916" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C916" s="25"/>
       <c r="D916" s="23"/>
       <c r="E916" s="23"/>
       <c r="F916" s="23"/>
     </row>
-    <row r="917" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C917" s="24"/>
       <c r="D917" s="22"/>
       <c r="E917" s="22"/>
       <c r="F917" s="22"/>
     </row>
-    <row r="918" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C918" s="25"/>
       <c r="D918" s="23"/>
       <c r="E918" s="23"/>
       <c r="F918" s="23"/>
     </row>
-    <row r="919" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C919" s="24"/>
       <c r="D919" s="22"/>
       <c r="E919" s="22"/>
       <c r="F919" s="22"/>
     </row>
-    <row r="920" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C920" s="25"/>
       <c r="D920" s="23"/>
       <c r="E920" s="23"/>
       <c r="F920" s="23"/>
     </row>
-    <row r="921" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C921" s="24"/>
       <c r="D921" s="22"/>
       <c r="E921" s="22"/>
       <c r="F921" s="22"/>
     </row>
-    <row r="922" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C922" s="25"/>
       <c r="D922" s="23"/>
       <c r="E922" s="23"/>
       <c r="F922" s="23"/>
     </row>
-    <row r="923" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C923" s="24"/>
       <c r="D923" s="22"/>
       <c r="E923" s="22"/>
       <c r="F923" s="22"/>
     </row>
-    <row r="924" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C924" s="25"/>
       <c r="D924" s="23"/>
       <c r="E924" s="23"/>
       <c r="F924" s="23"/>
     </row>
-    <row r="925" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C925" s="24"/>
       <c r="D925" s="22"/>
       <c r="E925" s="22"/>
       <c r="F925" s="22"/>
     </row>
-    <row r="926" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C926" s="25"/>
       <c r="D926" s="23"/>
       <c r="E926" s="23"/>
       <c r="F926" s="23"/>
     </row>
-    <row r="927" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C927" s="24"/>
       <c r="D927" s="22"/>
       <c r="E927" s="22"/>
       <c r="F927" s="22"/>
     </row>
-    <row r="928" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C928" s="25"/>
       <c r="D928" s="23"/>
       <c r="E928" s="23"/>
       <c r="F928" s="23"/>
     </row>
-    <row r="929" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C929" s="24"/>
       <c r="D929" s="22"/>
       <c r="E929" s="22"/>
       <c r="F929" s="22"/>
     </row>
-    <row r="930" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C930" s="25"/>
       <c r="D930" s="23"/>
       <c r="E930" s="23"/>
       <c r="F930" s="23"/>
     </row>
-    <row r="931" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C931" s="24"/>
       <c r="D931" s="22"/>
       <c r="E931" s="22"/>
       <c r="F931" s="22"/>
     </row>
-    <row r="932" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C932" s="25"/>
       <c r="D932" s="23"/>
       <c r="E932" s="23"/>
       <c r="F932" s="23"/>
     </row>
-    <row r="933" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C933" s="24"/>
       <c r="D933" s="22"/>
       <c r="E933" s="22"/>
       <c r="F933" s="22"/>
     </row>
-    <row r="934" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C934" s="25"/>
       <c r="D934" s="23"/>
       <c r="E934" s="23"/>
       <c r="F934" s="23"/>
     </row>
-    <row r="935" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C935" s="24"/>
       <c r="D935" s="22"/>
       <c r="E935" s="22"/>
       <c r="F935" s="22"/>
     </row>
-    <row r="936" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C936" s="25"/>
       <c r="D936" s="23"/>
       <c r="E936" s="23"/>
       <c r="F936" s="23"/>
     </row>
-    <row r="937" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C937" s="24"/>
       <c r="D937" s="22"/>
       <c r="E937" s="22"/>
       <c r="F937" s="22"/>
     </row>
-    <row r="938" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C938" s="25"/>
       <c r="D938" s="23"/>
       <c r="E938" s="23"/>
       <c r="F938" s="23"/>
     </row>
-    <row r="939" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C939" s="24"/>
       <c r="D939" s="22"/>
       <c r="E939" s="22"/>
       <c r="F939" s="22"/>
     </row>
-    <row r="940" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C940" s="25"/>
       <c r="D940" s="23"/>
       <c r="E940" s="23"/>
       <c r="F940" s="23"/>
     </row>
-    <row r="941" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C941" s="24"/>
       <c r="D941" s="22"/>
       <c r="E941" s="22"/>
       <c r="F941" s="22"/>
     </row>
-    <row r="942" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C942" s="25"/>
       <c r="D942" s="23"/>
       <c r="E942" s="23"/>
       <c r="F942" s="23"/>
     </row>
-    <row r="943" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C943" s="24"/>
       <c r="D943" s="22"/>
       <c r="E943" s="22"/>
       <c r="F943" s="22"/>
     </row>
-    <row r="944" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C944" s="25"/>
       <c r="D944" s="23"/>
       <c r="E944" s="23"/>
       <c r="F944" s="23"/>
     </row>
-    <row r="945" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C945" s="24"/>
       <c r="D945" s="22"/>
       <c r="E945" s="22"/>
       <c r="F945" s="22"/>
     </row>
-    <row r="946" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C946" s="25"/>
       <c r="D946" s="23"/>
       <c r="E946" s="23"/>
       <c r="F946" s="23"/>
     </row>
-    <row r="947" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C947" s="24"/>
       <c r="D947" s="22"/>
       <c r="E947" s="22"/>
       <c r="F947" s="22"/>
     </row>
-    <row r="948" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C948" s="25"/>
       <c r="D948" s="23"/>
       <c r="E948" s="23"/>
       <c r="F948" s="23"/>
     </row>
-    <row r="949" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C949" s="24"/>
       <c r="D949" s="22"/>
       <c r="E949" s="22"/>
       <c r="F949" s="22"/>
     </row>
-    <row r="950" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C950" s="25"/>
       <c r="D950" s="23"/>
       <c r="E950" s="23"/>
       <c r="F950" s="23"/>
     </row>
-    <row r="951" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C951" s="24"/>
       <c r="D951" s="22"/>
       <c r="E951" s="22"/>
       <c r="F951" s="22"/>
     </row>
-    <row r="952" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C952" s="25"/>
       <c r="D952" s="23"/>
       <c r="E952" s="23"/>
       <c r="F952" s="23"/>
     </row>
-    <row r="953" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C953" s="24"/>
       <c r="D953" s="22"/>
       <c r="E953" s="22"/>
       <c r="F953" s="22"/>
     </row>
-    <row r="954" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C954" s="25"/>
       <c r="D954" s="23"/>
       <c r="E954" s="23"/>
       <c r="F954" s="23"/>
     </row>
-    <row r="955" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C955" s="24"/>
       <c r="D955" s="22"/>
       <c r="E955" s="22"/>
       <c r="F955" s="22"/>
     </row>
-    <row r="956" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C956" s="25"/>
       <c r="D956" s="23"/>
       <c r="E956" s="23"/>
       <c r="F956" s="23"/>
     </row>
-    <row r="957" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C957" s="24"/>
       <c r="D957" s="22"/>
       <c r="E957" s="22"/>
       <c r="F957" s="22"/>
     </row>
-    <row r="958" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C958" s="25"/>
       <c r="D958" s="23"/>
       <c r="E958" s="23"/>
       <c r="F958" s="23"/>
     </row>
-    <row r="959" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C959" s="24"/>
       <c r="D959" s="22"/>
       <c r="E959" s="22"/>
       <c r="F959" s="22"/>
     </row>
-    <row r="960" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C960" s="25"/>
       <c r="D960" s="23"/>
       <c r="E960" s="23"/>
       <c r="F960" s="23"/>
     </row>
-    <row r="961" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C961" s="24"/>
       <c r="D961" s="22"/>
       <c r="E961" s="22"/>
       <c r="F961" s="22"/>
     </row>
-    <row r="962" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C962" s="25"/>
       <c r="D962" s="23"/>
       <c r="E962" s="23"/>
       <c r="F962" s="23"/>
     </row>
-    <row r="963" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C963" s="24"/>
       <c r="D963" s="22"/>
       <c r="E963" s="22"/>
       <c r="F963" s="22"/>
     </row>
-    <row r="964" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C964" s="25"/>
       <c r="D964" s="23"/>
       <c r="E964" s="23"/>
       <c r="F964" s="23"/>
     </row>
-    <row r="965" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C965" s="24"/>
       <c r="D965" s="22"/>
       <c r="E965" s="22"/>
       <c r="F965" s="22"/>
     </row>
-    <row r="966" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C966" s="25"/>
       <c r="D966" s="23"/>
       <c r="E966" s="23"/>
       <c r="F966" s="23"/>
     </row>
-    <row r="967" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C967" s="24"/>
       <c r="D967" s="22"/>
       <c r="E967" s="22"/>
       <c r="F967" s="22"/>
     </row>
-    <row r="968" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C968" s="25"/>
       <c r="D968" s="23"/>
       <c r="E968" s="23"/>
       <c r="F968" s="23"/>
     </row>
-    <row r="969" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C969" s="24"/>
       <c r="D969" s="22"/>
       <c r="E969" s="22"/>
       <c r="F969" s="22"/>
     </row>
-    <row r="970" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C970" s="25"/>
       <c r="D970" s="23"/>
       <c r="E970" s="23"/>
       <c r="F970" s="23"/>
     </row>
-    <row r="971" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C971" s="24"/>
       <c r="D971" s="22"/>
       <c r="E971" s="22"/>
       <c r="F971" s="22"/>
     </row>
-    <row r="972" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C972" s="25"/>
       <c r="D972" s="23"/>
       <c r="E972" s="23"/>
       <c r="F972" s="23"/>
     </row>
-    <row r="973" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C973" s="24"/>
       <c r="D973" s="22"/>
       <c r="E973" s="22"/>
       <c r="F973" s="22"/>
     </row>
-    <row r="974" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C974" s="25"/>
       <c r="D974" s="23"/>
       <c r="E974" s="23"/>
       <c r="F974" s="23"/>
     </row>
-    <row r="975" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C975" s="24"/>
       <c r="D975" s="22"/>
       <c r="E975" s="22"/>
       <c r="F975" s="22"/>
     </row>
-    <row r="976" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C976" s="25"/>
       <c r="D976" s="23"/>
       <c r="E976" s="23"/>
       <c r="F976" s="23"/>
     </row>
-    <row r="977" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C977" s="24"/>
       <c r="D977" s="22"/>
       <c r="E977" s="22"/>
       <c r="F977" s="22"/>
     </row>
-    <row r="978" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C978" s="25"/>
       <c r="D978" s="23"/>
       <c r="E978" s="23"/>
       <c r="F978" s="23"/>
     </row>
-    <row r="979" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C979" s="24"/>
       <c r="D979" s="22"/>
       <c r="E979" s="22"/>
       <c r="F979" s="22"/>
     </row>
-    <row r="980" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C980" s="25"/>
       <c r="D980" s="23"/>
       <c r="E980" s="23"/>
       <c r="F980" s="23"/>
     </row>
-    <row r="981" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C981" s="24"/>
       <c r="D981" s="22"/>
       <c r="E981" s="22"/>
       <c r="F981" s="22"/>
     </row>
-    <row r="982" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C982" s="25"/>
       <c r="D982" s="23"/>
       <c r="E982" s="23"/>
       <c r="F982" s="23"/>
     </row>
-    <row r="983" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C983" s="24"/>
       <c r="D983" s="22"/>
       <c r="E983" s="22"/>
       <c r="F983" s="22"/>
     </row>
-    <row r="984" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C984" s="25"/>
       <c r="D984" s="23"/>
       <c r="E984" s="23"/>
       <c r="F984" s="23"/>
     </row>
-    <row r="985" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C985" s="24"/>
       <c r="D985" s="22"/>
       <c r="E985" s="22"/>
       <c r="F985" s="22"/>
     </row>
-    <row r="986" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C986" s="25"/>
       <c r="D986" s="23"/>
       <c r="E986" s="23"/>
       <c r="F986" s="23"/>
     </row>
-    <row r="987" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C987" s="24"/>
       <c r="D987" s="22"/>
       <c r="E987" s="22"/>
       <c r="F987" s="22"/>
     </row>
-    <row r="988" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C988" s="25"/>
       <c r="D988" s="23"/>
       <c r="E988" s="23"/>
       <c r="F988" s="23"/>
     </row>
-    <row r="989" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C989" s="24"/>
       <c r="D989" s="22"/>
       <c r="E989" s="22"/>
       <c r="F989" s="22"/>
     </row>
-    <row r="990" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C990" s="25"/>
       <c r="D990" s="23"/>
       <c r="E990" s="23"/>
       <c r="F990" s="23"/>
     </row>
-    <row r="991" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C991" s="24"/>
       <c r="D991" s="22"/>
       <c r="E991" s="22"/>
       <c r="F991" s="22"/>
     </row>
-    <row r="992" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C992" s="25"/>
       <c r="D992" s="23"/>
       <c r="E992" s="23"/>
       <c r="F992" s="23"/>
     </row>
-    <row r="993" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C993" s="24"/>
       <c r="D993" s="22"/>
       <c r="E993" s="22"/>
       <c r="F993" s="22"/>
     </row>
-    <row r="994" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C994" s="25"/>
       <c r="D994" s="23"/>
       <c r="E994" s="23"/>
       <c r="F994" s="23"/>
     </row>
-    <row r="995" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C995" s="24"/>
       <c r="D995" s="22"/>
       <c r="E995" s="22"/>
       <c r="F995" s="22"/>
     </row>
-    <row r="996" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C996" s="25"/>
       <c r="D996" s="23"/>
       <c r="E996" s="23"/>
       <c r="F996" s="23"/>
     </row>
-    <row r="997" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C997" s="24"/>
       <c r="D997" s="22"/>
       <c r="E997" s="22"/>
       <c r="F997" s="22"/>
     </row>
-    <row r="998" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C998" s="25"/>
       <c r="D998" s="23"/>
       <c r="E998" s="23"/>
       <c r="F998" s="23"/>
     </row>
-    <row r="999" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C999" s="24"/>
       <c r="D999" s="22"/>
       <c r="E999" s="22"/>
       <c r="F999" s="22"/>
     </row>
-    <row r="1000" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C1000" s="25"/>
       <c r="D1000" s="23"/>
       <c r="E1000" s="23"/>
@@ -17495,17 +17540,17 @@
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="31" t="s">
         <v>26</v>
       </c>
@@ -17516,80 +17561,80 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>5010</v>
+        <v>5280</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>3690</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -17597,4 +17642,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDDE723-6D9A-4C8A-97FE-709060F4DF0D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8A249E-AFF5-4FC3-ACE8-B124AAE18053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB6BFD2-803D-4E76-98E3-BBB5DA51A808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="85">
   <si>
     <t>Week:</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Changing website colors</t>
+  </si>
+  <si>
+    <t>fixing some styles, putting first touches on Fledge Dictonary</t>
   </si>
 </sst>
 </file>
@@ -1873,10 +1876,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5280</c:v>
+                  <c:v>5370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3420</c:v>
+                  <c:v>3330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11041,7 +11044,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11854,17 +11857,25 @@
         <v>120</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C59" s="24"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
+      <c r="C59" s="32">
+        <v>45976</v>
+      </c>
+      <c r="D59" s="22">
+        <v>90</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C60" s="25"/>
@@ -17567,11 +17578,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>5280</v>
+        <v>5370</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>3420</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB6BFD2-803D-4E76-98E3-BBB5DA51A808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DF87D-8849-4B03-ADE1-A93759B2F021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
   <si>
     <t>Week:</t>
   </si>
@@ -296,7 +296,10 @@
     <t>Changing website colors</t>
   </si>
   <si>
-    <t>fixing some styles, putting first touches on Fledge Dictonary</t>
+    <t>Discussion with outside stakeholder to discuss future look of result page and Dictonary page</t>
+  </si>
+  <si>
+    <t>fixing some styles, putting first touches on Fledge Dictonary, About us write up</t>
   </si>
 </sst>
 </file>
@@ -1876,10 +1879,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5370</c:v>
+                  <c:v>5490</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3330</c:v>
+                  <c:v>3210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11044,7 +11047,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11868,20 +11871,28 @@
         <v>45976</v>
       </c>
       <c r="D59" s="22">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E59" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F59" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="33">
+        <v>45976</v>
+      </c>
+      <c r="D60" s="23">
+        <v>30</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C60" s="25"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C61" s="24"/>
@@ -17578,11 +17589,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>5370</v>
+        <v>5490</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>3330</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">

--- a/02_WorkingDocs/CMMCFledge_Workbook.xlsx
+++ b/02_WorkingDocs/CMMCFledge_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckm32\OneDrive\Desktop\CMMCFledge\02_WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DF87D-8849-4B03-ADE1-A93759B2F021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D53A8F-76B9-42C2-A2A1-9B6CB0B3E253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
+    <workbookView xWindow="40905" yWindow="4980" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{208106DA-3D21-4604-99AA-9AD5A5B6DE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1879,10 +1879,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5490</c:v>
+                  <c:v>5535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3210</c:v>
+                  <c:v>3165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11047,7 +11047,7 @@
   <dimension ref="C1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11871,7 +11871,7 @@
         <v>45976</v>
       </c>
       <c r="D59" s="22">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="E59" s="22" t="s">
         <v>27</v>
@@ -11885,7 +11885,7 @@
         <v>45976</v>
       </c>
       <c r="D60" s="23">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>15</v>
@@ -17589,11 +17589,11 @@
       </c>
       <c r="D2">
         <f>SUM(Table2[Time (Mins)])</f>
-        <v>5490</v>
+        <v>5535</v>
       </c>
       <c r="E2">
         <f>8700-D2</f>
-        <v>3210</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
